--- a/投资心得/DCF估值.xlsx
+++ b/投资心得/DCF估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15160" windowHeight="16580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15160" windowHeight="16580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="成长股" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,6 +148,58 @@
     <rPh sb="0" eb="1">
       <t>hui ding ke ji</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红比率</t>
+    <rPh sb="0" eb="1">
+      <t>fen hong bi lü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <rPh sb="0" eb="1">
+      <t>li l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现值</t>
+    <rPh sb="0" eb="1">
+      <t>xian zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上涨空间</t>
+    <rPh sb="0" eb="1">
+      <t>shang zhang kong jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>601398.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600519.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600031.SH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
@@ -10729,247 +10781,247 @@
     </row>
     <row r="116" spans="2:65" x14ac:dyDescent="0.2">
       <c r="E116" s="3">
-        <f>-PV($D$92,E114,0,E115)</f>
+        <f t="shared" ref="E116:AJ116" si="1061">-PV($D$92,E114,0,E115)</f>
         <v>-0.92021717125241553</v>
       </c>
       <c r="F116" s="3">
-        <f>-PV($D$92,F114,0,F115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.84679964226779758</v>
       </c>
       <c r="G116" s="3">
-        <f>-PV($D$92,G114,0,G115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.77923957142523004</v>
       </c>
       <c r="H116" s="3">
-        <f>-PV($D$92,H114,0,H115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.71706963414486979</v>
       </c>
       <c r="I116" s="3">
-        <f>-PV($D$92,I114,0,I115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.65985979032379671</v>
       </c>
       <c r="J116" s="3">
-        <f>-PV($D$92,J114,0,J115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.60721430967497625</v>
       </c>
       <c r="K116" s="3">
-        <f>-PV($D$92,K114,0,K115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.55876903439309489</v>
       </c>
       <c r="L116" s="3">
-        <f>-PV($D$92,L114,0,L115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.51418886021265742</v>
       </c>
       <c r="M116" s="3">
-        <f>-PV($D$92,M114,0,M115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.47316541843439541</v>
       </c>
       <c r="N116" s="3">
-        <f>-PV($D$92,N114,0,N115)</f>
+        <f t="shared" si="1061"/>
         <v>-0.43541494288616489</v>
       </c>
       <c r="O116" s="3">
-        <f>-PV($D$92,O114,0,O115)</f>
+        <f t="shared" si="1061"/>
         <v>0.40067630706373875</v>
       </c>
       <c r="P116" s="3">
-        <f>-PV($D$92,P114,0,P115)</f>
+        <f t="shared" si="1061"/>
         <v>0.40558013966146372</v>
       </c>
       <c r="Q116" s="3">
-        <f>-PV($D$92,Q114,0,Q115)</f>
+        <f t="shared" si="1061"/>
         <v>0.41054398971897504</v>
       </c>
       <c r="R116" s="3">
-        <f>-PV($D$92,R114,0,R115)</f>
+        <f t="shared" si="1061"/>
         <v>0.41556859178326366</v>
       </c>
       <c r="S116" s="3">
-        <f>-PV($D$92,S114,0,S115)</f>
+        <f t="shared" si="1061"/>
         <v>0.42065468939135914</v>
       </c>
       <c r="T116" s="3">
-        <f>-PV($D$92,T114,0,T115)</f>
+        <f t="shared" si="1061"/>
         <v>0.42580303518035806</v>
       </c>
       <c r="U116" s="3">
-        <f>-PV($D$92,U114,0,U115)</f>
+        <f t="shared" si="1061"/>
         <v>0.43101439099879812</v>
       </c>
       <c r="V116" s="3">
-        <f>-PV($D$92,V114,0,V115)</f>
+        <f t="shared" si="1061"/>
         <v>0.43628952801939636</v>
       </c>
       <c r="W116" s="3">
-        <f>-PV($D$92,W114,0,W115)</f>
+        <f t="shared" si="1061"/>
         <v>0.44162922685316647</v>
       </c>
       <c r="X116" s="3">
-        <f>-PV($D$92,X114,0,X115)</f>
+        <f t="shared" si="1061"/>
         <v>0.44703427766493337</v>
       </c>
       <c r="Y116" s="3">
-        <f>-PV($D$92,Y114,0,Y115)</f>
+        <f t="shared" si="1061"/>
         <v>0.49364234213483033</v>
       </c>
       <c r="Z116" s="3">
-        <f>-PV($D$92,Z114,0,Z115)</f>
+        <f t="shared" si="1061"/>
         <v>0.54510979162767681</v>
       </c>
       <c r="AA116" s="3">
-        <f>-PV($D$92,AA114,0,AA115)</f>
+        <f t="shared" si="1061"/>
         <v>0.60194326856833724</v>
       </c>
       <c r="AB116" s="3">
-        <f>-PV($D$92,AB114,0,AB115)</f>
+        <f t="shared" si="1061"/>
         <v>0.66470223822766594</v>
       </c>
       <c r="AC116" s="3">
-        <f>-PV($D$92,AC114,0,AC115)</f>
+        <f t="shared" si="1061"/>
         <v>0.73400449606441442</v>
       </c>
       <c r="AD116" s="3">
-        <f>-PV($D$92,AD114,0,AD115)</f>
+        <f t="shared" si="1061"/>
         <v>0.81053224926594047</v>
       </c>
       <c r="AE116" s="3">
-        <f>-PV($D$92,AE114,0,AE115)</f>
+        <f t="shared" si="1061"/>
         <v>0.8950388323540337</v>
       </c>
       <c r="AF116" s="3">
-        <f>-PV($D$92,AF114,0,AF115)</f>
+        <f t="shared" si="1061"/>
         <v>0.98835612296387254</v>
       </c>
       <c r="AG116" s="3">
-        <f>-PV($D$92,AG114,0,AG115)</f>
+        <f t="shared" si="1061"/>
         <v>1.0914027307965832</v>
       </c>
       <c r="AH116" s="3">
-        <f>-PV($D$92,AH114,0,AH115)</f>
+        <f t="shared" si="1061"/>
         <v>1.2051930403569522</v>
       </c>
       <c r="AI116" s="3">
-        <f>-PV($D$92,AI114,0,AI115)</f>
+        <f t="shared" si="1061"/>
         <v>1.4417511295334844</v>
       </c>
       <c r="AJ116" s="3">
-        <f>-PV($D$92,AJ114,0,AJ115)</f>
+        <f t="shared" si="1061"/>
         <v>1.7247413898900619</v>
       </c>
       <c r="AK116" s="3">
-        <f>-PV($D$92,AK114,0,AK115)</f>
+        <f t="shared" ref="AK116:BP116" si="1062">-PV($D$92,AK114,0,AK115)</f>
         <v>2.0632776358305698</v>
       </c>
       <c r="AL116" s="3">
-        <f>-PV($D$92,AL114,0,AL115)</f>
+        <f t="shared" si="1062"/>
         <v>2.4682625624180923</v>
       </c>
       <c r="AM116" s="3">
-        <f>-PV($D$92,AM114,0,AM115)</f>
+        <f t="shared" si="1062"/>
         <v>2.9527388710256006</v>
       </c>
       <c r="AN116" s="3">
-        <f>-PV($D$92,AN114,0,AN115)</f>
+        <f t="shared" si="1062"/>
         <v>3.5323093147448983</v>
       </c>
       <c r="AO116" s="3">
-        <f>-PV($D$92,AO114,0,AO115)</f>
+        <f t="shared" si="1062"/>
         <v>4.2256391912840421</v>
       </c>
       <c r="AP116" s="3">
-        <f>-PV($D$92,AP114,0,AP115)</f>
+        <f t="shared" si="1062"/>
         <v>5.0550574663377699</v>
       </c>
       <c r="AQ116" s="3">
-        <f>-PV($D$92,AQ114,0,AQ115)</f>
+        <f t="shared" si="1062"/>
         <v>6.0472758868492686</v>
       </c>
       <c r="AR116" s="3">
-        <f>-PV($D$92,AR114,0,AR115)</f>
+        <f t="shared" si="1062"/>
         <v>7.2342492434931893</v>
       </c>
       <c r="AS116" s="3">
-        <f>-PV($D$92,AS114,0,AS115)</f>
+        <f t="shared" si="1062"/>
         <v>7.988496449978677</v>
       </c>
       <c r="AT116" s="3">
-        <f>-PV($D$92,AT114,0,AT115)</f>
+        <f t="shared" si="1062"/>
         <v>8.8213819269112079</v>
       </c>
       <c r="AU116" s="3">
-        <f>-PV($D$92,AU114,0,AU115)</f>
+        <f t="shared" si="1062"/>
         <v>9.7411045479832978</v>
       </c>
       <c r="AV116" s="3">
-        <f>-PV($D$92,AV114,0,AV115)</f>
+        <f t="shared" si="1062"/>
         <v>10.756718006423075</v>
       </c>
       <c r="AW116" s="3">
-        <f>-PV($D$92,AW114,0,AW115)</f>
+        <f t="shared" si="1062"/>
         <v>11.878219938996681</v>
       </c>
       <c r="AX116" s="3">
-        <f>-PV($D$92,AX114,0,AX115)</f>
+        <f t="shared" si="1062"/>
         <v>13.116650342133077</v>
       </c>
       <c r="AY116" s="3">
-        <f>-PV($D$92,AY114,0,AY115)</f>
+        <f t="shared" si="1062"/>
         <v>14.484200248973673</v>
       </c>
       <c r="AZ116" s="3">
-        <f>-PV($D$92,AZ114,0,AZ115)</f>
+        <f t="shared" si="1062"/>
         <v>15.994331737156905</v>
       </c>
       <c r="BA116" s="3">
-        <f>-PV($D$92,BA114,0,BA115)</f>
+        <f t="shared" si="1062"/>
         <v>17.661910448687109</v>
       </c>
       <c r="BB116" s="3">
-        <f>-PV($D$92,BB114,0,BB115)</f>
+        <f t="shared" si="1062"/>
         <v>19.503351926405202</v>
       </c>
       <c r="BC116" s="3">
-        <f>-PV($D$92,BC114,0,BC115)</f>
+        <f t="shared" si="1062"/>
         <v>19.742051273622639</v>
       </c>
       <c r="BD116" s="3">
-        <f>-PV($D$92,BD114,0,BD115)</f>
+        <f t="shared" si="1062"/>
         <v>19.983672035506491</v>
       </c>
       <c r="BE116" s="3">
-        <f>-PV($D$92,BE114,0,BE115)</f>
+        <f t="shared" si="1062"/>
         <v>20.228249966924768</v>
       </c>
       <c r="BF116" s="3">
-        <f>-PV($D$92,BF114,0,BF115)</f>
+        <f t="shared" si="1062"/>
         <v>20.47582126034531</v>
       </c>
       <c r="BG116" s="3">
-        <f>-PV($D$92,BG114,0,BG115)</f>
+        <f t="shared" si="1062"/>
         <v>20.726422551191533</v>
       </c>
       <c r="BH116" s="3">
-        <f>-PV($D$92,BH114,0,BH115)</f>
+        <f t="shared" si="1062"/>
         <v>20.980090923263724</v>
       </c>
       <c r="BI116" s="3">
-        <f>-PV($D$92,BI114,0,BI115)</f>
+        <f t="shared" si="1062"/>
         <v>21.23686391422665</v>
       </c>
       <c r="BJ116" s="3">
-        <f>-PV($D$92,BJ114,0,BJ115)</f>
+        <f t="shared" si="1062"/>
         <v>21.49677952116437</v>
       </c>
       <c r="BK116" s="3">
-        <f>-PV($D$92,BK114,0,BK115)</f>
+        <f t="shared" si="1062"/>
         <v>21.759876206203003</v>
       </c>
       <c r="BL116" s="3">
-        <f>-PV($D$92,BL114,0,BL115)</f>
+        <f t="shared" si="1062"/>
         <v>22.026192902202361</v>
       </c>
       <c r="BM116" s="3">
-        <f>-PV($D$92,BM114,0,BM115)</f>
+        <f t="shared" si="1062"/>
         <v>233.78178691954662</v>
       </c>
     </row>
@@ -11174,239 +11226,239 @@
         <v>2</v>
       </c>
       <c r="G122">
-        <f t="shared" ref="G122" si="1061">+F122+1</f>
+        <f t="shared" ref="G122" si="1063">+F122+1</f>
         <v>3</v>
       </c>
       <c r="H122">
-        <f t="shared" ref="H122" si="1062">+G122+1</f>
+        <f t="shared" ref="H122" si="1064">+G122+1</f>
         <v>4</v>
       </c>
       <c r="I122">
-        <f t="shared" ref="I122" si="1063">+H122+1</f>
+        <f t="shared" ref="I122" si="1065">+H122+1</f>
         <v>5</v>
       </c>
       <c r="J122">
-        <f t="shared" ref="J122" si="1064">+I122+1</f>
+        <f t="shared" ref="J122" si="1066">+I122+1</f>
         <v>6</v>
       </c>
       <c r="K122">
-        <f t="shared" ref="K122" si="1065">+J122+1</f>
+        <f t="shared" ref="K122" si="1067">+J122+1</f>
         <v>7</v>
       </c>
       <c r="L122">
-        <f t="shared" ref="L122" si="1066">+K122+1</f>
+        <f t="shared" ref="L122" si="1068">+K122+1</f>
         <v>8</v>
       </c>
       <c r="M122">
-        <f t="shared" ref="M122" si="1067">+L122+1</f>
+        <f t="shared" ref="M122" si="1069">+L122+1</f>
         <v>9</v>
       </c>
       <c r="N122">
-        <f t="shared" ref="N122" si="1068">+M122+1</f>
+        <f t="shared" ref="N122" si="1070">+M122+1</f>
         <v>10</v>
       </c>
       <c r="O122">
-        <f t="shared" ref="O122" si="1069">+N122+1</f>
+        <f t="shared" ref="O122" si="1071">+N122+1</f>
         <v>11</v>
       </c>
       <c r="P122">
-        <f t="shared" ref="P122" si="1070">+O122+1</f>
+        <f t="shared" ref="P122" si="1072">+O122+1</f>
         <v>12</v>
       </c>
       <c r="Q122">
-        <f t="shared" ref="Q122" si="1071">+P122+1</f>
+        <f t="shared" ref="Q122" si="1073">+P122+1</f>
         <v>13</v>
       </c>
       <c r="R122">
-        <f t="shared" ref="R122" si="1072">+Q122+1</f>
+        <f t="shared" ref="R122" si="1074">+Q122+1</f>
         <v>14</v>
       </c>
       <c r="S122">
-        <f t="shared" ref="S122" si="1073">+R122+1</f>
+        <f t="shared" ref="S122" si="1075">+R122+1</f>
         <v>15</v>
       </c>
       <c r="T122">
-        <f t="shared" ref="T122" si="1074">+S122+1</f>
+        <f t="shared" ref="T122" si="1076">+S122+1</f>
         <v>16</v>
       </c>
       <c r="U122">
-        <f t="shared" ref="U122" si="1075">+T122+1</f>
+        <f t="shared" ref="U122" si="1077">+T122+1</f>
         <v>17</v>
       </c>
       <c r="V122">
-        <f t="shared" ref="V122" si="1076">+U122+1</f>
+        <f t="shared" ref="V122" si="1078">+U122+1</f>
         <v>18</v>
       </c>
       <c r="W122">
-        <f t="shared" ref="W122" si="1077">+V122+1</f>
+        <f t="shared" ref="W122" si="1079">+V122+1</f>
         <v>19</v>
       </c>
       <c r="X122">
-        <f t="shared" ref="X122" si="1078">+W122+1</f>
+        <f t="shared" ref="X122" si="1080">+W122+1</f>
         <v>20</v>
       </c>
       <c r="Y122">
-        <f t="shared" ref="Y122" si="1079">+X122+1</f>
+        <f t="shared" ref="Y122" si="1081">+X122+1</f>
         <v>21</v>
       </c>
       <c r="Z122">
-        <f t="shared" ref="Z122" si="1080">+Y122+1</f>
+        <f t="shared" ref="Z122" si="1082">+Y122+1</f>
         <v>22</v>
       </c>
       <c r="AA122">
-        <f t="shared" ref="AA122" si="1081">+Z122+1</f>
+        <f t="shared" ref="AA122" si="1083">+Z122+1</f>
         <v>23</v>
       </c>
       <c r="AB122">
-        <f t="shared" ref="AB122" si="1082">+AA122+1</f>
+        <f t="shared" ref="AB122" si="1084">+AA122+1</f>
         <v>24</v>
       </c>
       <c r="AC122">
-        <f t="shared" ref="AC122" si="1083">+AB122+1</f>
+        <f t="shared" ref="AC122" si="1085">+AB122+1</f>
         <v>25</v>
       </c>
       <c r="AD122">
-        <f t="shared" ref="AD122" si="1084">+AC122+1</f>
+        <f t="shared" ref="AD122" si="1086">+AC122+1</f>
         <v>26</v>
       </c>
       <c r="AE122">
-        <f t="shared" ref="AE122" si="1085">+AD122+1</f>
+        <f t="shared" ref="AE122" si="1087">+AD122+1</f>
         <v>27</v>
       </c>
       <c r="AF122">
-        <f t="shared" ref="AF122" si="1086">+AE122+1</f>
+        <f t="shared" ref="AF122" si="1088">+AE122+1</f>
         <v>28</v>
       </c>
       <c r="AG122">
-        <f t="shared" ref="AG122" si="1087">+AF122+1</f>
+        <f t="shared" ref="AG122" si="1089">+AF122+1</f>
         <v>29</v>
       </c>
       <c r="AH122">
-        <f t="shared" ref="AH122" si="1088">+AG122+1</f>
+        <f t="shared" ref="AH122" si="1090">+AG122+1</f>
         <v>30</v>
       </c>
       <c r="AI122">
-        <f t="shared" ref="AI122" si="1089">+AH122+1</f>
+        <f t="shared" ref="AI122" si="1091">+AH122+1</f>
         <v>31</v>
       </c>
       <c r="AJ122">
-        <f t="shared" ref="AJ122" si="1090">+AI122+1</f>
+        <f t="shared" ref="AJ122" si="1092">+AI122+1</f>
         <v>32</v>
       </c>
       <c r="AK122">
-        <f t="shared" ref="AK122" si="1091">+AJ122+1</f>
+        <f t="shared" ref="AK122" si="1093">+AJ122+1</f>
         <v>33</v>
       </c>
       <c r="AL122">
-        <f t="shared" ref="AL122" si="1092">+AK122+1</f>
+        <f t="shared" ref="AL122" si="1094">+AK122+1</f>
         <v>34</v>
       </c>
       <c r="AM122">
-        <f t="shared" ref="AM122" si="1093">+AL122+1</f>
+        <f t="shared" ref="AM122" si="1095">+AL122+1</f>
         <v>35</v>
       </c>
       <c r="AN122">
-        <f t="shared" ref="AN122" si="1094">+AM122+1</f>
+        <f t="shared" ref="AN122" si="1096">+AM122+1</f>
         <v>36</v>
       </c>
       <c r="AO122">
-        <f t="shared" ref="AO122" si="1095">+AN122+1</f>
+        <f t="shared" ref="AO122" si="1097">+AN122+1</f>
         <v>37</v>
       </c>
       <c r="AP122">
-        <f t="shared" ref="AP122" si="1096">+AO122+1</f>
+        <f t="shared" ref="AP122" si="1098">+AO122+1</f>
         <v>38</v>
       </c>
       <c r="AQ122">
-        <f t="shared" ref="AQ122" si="1097">+AP122+1</f>
+        <f t="shared" ref="AQ122" si="1099">+AP122+1</f>
         <v>39</v>
       </c>
       <c r="AR122">
-        <f t="shared" ref="AR122" si="1098">+AQ122+1</f>
+        <f t="shared" ref="AR122" si="1100">+AQ122+1</f>
         <v>40</v>
       </c>
       <c r="AS122">
-        <f t="shared" ref="AS122" si="1099">+AR122+1</f>
+        <f t="shared" ref="AS122" si="1101">+AR122+1</f>
         <v>41</v>
       </c>
       <c r="AT122">
-        <f t="shared" ref="AT122" si="1100">+AS122+1</f>
+        <f t="shared" ref="AT122" si="1102">+AS122+1</f>
         <v>42</v>
       </c>
       <c r="AU122">
-        <f t="shared" ref="AU122" si="1101">+AT122+1</f>
+        <f t="shared" ref="AU122" si="1103">+AT122+1</f>
         <v>43</v>
       </c>
       <c r="AV122">
-        <f t="shared" ref="AV122" si="1102">+AU122+1</f>
+        <f t="shared" ref="AV122" si="1104">+AU122+1</f>
         <v>44</v>
       </c>
       <c r="AW122">
-        <f t="shared" ref="AW122" si="1103">+AV122+1</f>
+        <f t="shared" ref="AW122" si="1105">+AV122+1</f>
         <v>45</v>
       </c>
       <c r="AX122">
-        <f t="shared" ref="AX122" si="1104">+AW122+1</f>
+        <f t="shared" ref="AX122" si="1106">+AW122+1</f>
         <v>46</v>
       </c>
       <c r="AY122">
-        <f t="shared" ref="AY122" si="1105">+AX122+1</f>
+        <f t="shared" ref="AY122" si="1107">+AX122+1</f>
         <v>47</v>
       </c>
       <c r="AZ122">
-        <f t="shared" ref="AZ122" si="1106">+AY122+1</f>
+        <f t="shared" ref="AZ122" si="1108">+AY122+1</f>
         <v>48</v>
       </c>
       <c r="BA122">
-        <f t="shared" ref="BA122" si="1107">+AZ122+1</f>
+        <f t="shared" ref="BA122" si="1109">+AZ122+1</f>
         <v>49</v>
       </c>
       <c r="BB122">
-        <f t="shared" ref="BB122" si="1108">+BA122+1</f>
+        <f t="shared" ref="BB122" si="1110">+BA122+1</f>
         <v>50</v>
       </c>
       <c r="BC122">
-        <f t="shared" ref="BC122" si="1109">+BB122+1</f>
+        <f t="shared" ref="BC122" si="1111">+BB122+1</f>
         <v>51</v>
       </c>
       <c r="BD122">
-        <f t="shared" ref="BD122" si="1110">+BC122+1</f>
+        <f t="shared" ref="BD122" si="1112">+BC122+1</f>
         <v>52</v>
       </c>
       <c r="BE122">
-        <f t="shared" ref="BE122" si="1111">+BD122+1</f>
+        <f t="shared" ref="BE122" si="1113">+BD122+1</f>
         <v>53</v>
       </c>
       <c r="BF122">
-        <f t="shared" ref="BF122" si="1112">+BE122+1</f>
+        <f t="shared" ref="BF122" si="1114">+BE122+1</f>
         <v>54</v>
       </c>
       <c r="BG122">
-        <f t="shared" ref="BG122" si="1113">+BF122+1</f>
+        <f t="shared" ref="BG122" si="1115">+BF122+1</f>
         <v>55</v>
       </c>
       <c r="BH122">
-        <f t="shared" ref="BH122" si="1114">+BG122+1</f>
+        <f t="shared" ref="BH122" si="1116">+BG122+1</f>
         <v>56</v>
       </c>
       <c r="BI122">
-        <f t="shared" ref="BI122" si="1115">+BH122+1</f>
+        <f t="shared" ref="BI122" si="1117">+BH122+1</f>
         <v>57</v>
       </c>
       <c r="BJ122">
-        <f t="shared" ref="BJ122" si="1116">+BI122+1</f>
+        <f t="shared" ref="BJ122" si="1118">+BI122+1</f>
         <v>58</v>
       </c>
       <c r="BK122">
-        <f t="shared" ref="BK122" si="1117">+BJ122+1</f>
+        <f t="shared" ref="BK122" si="1119">+BJ122+1</f>
         <v>59</v>
       </c>
       <c r="BL122">
-        <f t="shared" ref="BL122" si="1118">+BK122+1</f>
+        <f t="shared" ref="BL122" si="1120">+BK122+1</f>
         <v>60</v>
       </c>
       <c r="BM122">
-        <f t="shared" ref="BM122" si="1119">+BL122+1</f>
+        <f t="shared" ref="BM122" si="1121">+BL122+1</f>
         <v>61</v>
       </c>
     </row>
@@ -11457,31 +11509,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q123" s="4">
-        <f t="shared" ref="Q123" si="1120">+P123*(1+Q120)</f>
+        <f t="shared" ref="Q123" si="1122">+P123*(1+Q120)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R123" s="4">
-        <f t="shared" ref="R123" si="1121">+Q123*(1+R120)</f>
+        <f t="shared" ref="R123" si="1123">+Q123*(1+R120)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S123" s="4">
-        <f t="shared" ref="S123" si="1122">+R123*(1+S120)</f>
+        <f t="shared" ref="S123" si="1124">+R123*(1+S120)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T123" s="4">
-        <f t="shared" ref="T123" si="1123">+S123*(1+T120)</f>
+        <f t="shared" ref="T123" si="1125">+S123*(1+T120)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U123" s="4">
-        <f t="shared" ref="U123" si="1124">+T123*(1+U120)</f>
+        <f t="shared" ref="U123" si="1126">+T123*(1+U120)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V123" s="4">
-        <f t="shared" ref="V123" si="1125">+U123*(1+V120)</f>
+        <f t="shared" ref="V123" si="1127">+U123*(1+V120)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W123" s="4">
-        <f t="shared" ref="W123" si="1126">+V123*(1+W120)</f>
+        <f t="shared" ref="W123" si="1128">+V123*(1+W120)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X123" s="4">
@@ -11489,163 +11541,163 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y123" s="4">
-        <f t="shared" ref="Y123" si="1127">+X123*(1+Y120)</f>
+        <f t="shared" ref="Y123" si="1129">+X123*(1+Y120)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z123" s="4">
-        <f t="shared" ref="Z123" si="1128">+Y123*(1+Z120)</f>
+        <f t="shared" ref="Z123" si="1130">+Y123*(1+Z120)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA123" s="4">
-        <f t="shared" ref="AA123" si="1129">+Z123*(1+AA120)</f>
+        <f t="shared" ref="AA123" si="1131">+Z123*(1+AA120)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB123" s="4">
-        <f t="shared" ref="AB123" si="1130">+AA123*(1+AB120)</f>
+        <f t="shared" ref="AB123" si="1132">+AA123*(1+AB120)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC123" s="4">
-        <f t="shared" ref="AC123" si="1131">+AB123*(1+AC120)</f>
+        <f t="shared" ref="AC123" si="1133">+AB123*(1+AC120)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD123" s="4">
-        <f t="shared" ref="AD123" si="1132">+AC123*(1+AD120)</f>
+        <f t="shared" ref="AD123" si="1134">+AC123*(1+AD120)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE123" s="4">
-        <f t="shared" ref="AE123" si="1133">+AD123*(1+AE120)</f>
+        <f t="shared" ref="AE123" si="1135">+AD123*(1+AE120)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF123" s="4">
-        <f t="shared" ref="AF123" si="1134">+AE123*(1+AF120)</f>
+        <f t="shared" ref="AF123" si="1136">+AE123*(1+AF120)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG123" s="4">
-        <f t="shared" ref="AG123" si="1135">+AF123*(1+AG120)</f>
+        <f t="shared" ref="AG123" si="1137">+AF123*(1+AG120)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH123" s="4">
-        <f t="shared" ref="AH123" si="1136">+AG123*(1+AH120)</f>
+        <f t="shared" ref="AH123" si="1138">+AG123*(1+AH120)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI123" s="4">
-        <f t="shared" ref="AI123" si="1137">+AH123*(1+AI120)</f>
+        <f t="shared" ref="AI123" si="1139">+AH123*(1+AI120)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ123" s="4">
-        <f t="shared" ref="AJ123" si="1138">+AI123*(1+AJ120)</f>
+        <f t="shared" ref="AJ123" si="1140">+AI123*(1+AJ120)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK123" s="4">
-        <f t="shared" ref="AK123" si="1139">+AJ123*(1+AK120)</f>
+        <f t="shared" ref="AK123" si="1141">+AJ123*(1+AK120)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL123" s="4">
-        <f t="shared" ref="AL123" si="1140">+AK123*(1+AL120)</f>
+        <f t="shared" ref="AL123" si="1142">+AK123*(1+AL120)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM123" s="4">
-        <f t="shared" ref="AM123" si="1141">+AL123*(1+AM120)</f>
+        <f t="shared" ref="AM123" si="1143">+AL123*(1+AM120)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN123" s="4">
-        <f t="shared" ref="AN123" si="1142">+AM123*(1+AN120)</f>
+        <f t="shared" ref="AN123" si="1144">+AM123*(1+AN120)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO123" s="4">
-        <f t="shared" ref="AO123" si="1143">+AN123*(1+AO120)</f>
+        <f t="shared" ref="AO123" si="1145">+AN123*(1+AO120)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP123" s="4">
-        <f t="shared" ref="AP123" si="1144">+AO123*(1+AP120)</f>
+        <f t="shared" ref="AP123" si="1146">+AO123*(1+AP120)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ123" s="4">
-        <f t="shared" ref="AQ123" si="1145">+AP123*(1+AQ120)</f>
+        <f t="shared" ref="AQ123" si="1147">+AP123*(1+AQ120)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR123" s="4">
-        <f t="shared" ref="AR123" si="1146">+AQ123*(1+AR120)</f>
+        <f t="shared" ref="AR123" si="1148">+AQ123*(1+AR120)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS123" s="4">
-        <f t="shared" ref="AS123" si="1147">+AR123*(1+AS120)</f>
+        <f t="shared" ref="AS123" si="1149">+AR123*(1+AS120)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT123" s="4">
-        <f t="shared" ref="AT123" si="1148">+AS123*(1+AT120)</f>
+        <f t="shared" ref="AT123" si="1150">+AS123*(1+AT120)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU123" s="4">
-        <f t="shared" ref="AU123" si="1149">+AT123*(1+AU120)</f>
+        <f t="shared" ref="AU123" si="1151">+AT123*(1+AU120)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV123" s="4">
-        <f t="shared" ref="AV123" si="1150">+AU123*(1+AV120)</f>
+        <f t="shared" ref="AV123" si="1152">+AU123*(1+AV120)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW123" s="4">
-        <f t="shared" ref="AW123" si="1151">+AV123*(1+AW120)</f>
+        <f t="shared" ref="AW123" si="1153">+AV123*(1+AW120)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX123" s="4">
-        <f t="shared" ref="AX123" si="1152">+AW123*(1+AX120)</f>
+        <f t="shared" ref="AX123" si="1154">+AW123*(1+AX120)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY123" s="4">
-        <f t="shared" ref="AY123" si="1153">+AX123*(1+AY120)</f>
+        <f t="shared" ref="AY123" si="1155">+AX123*(1+AY120)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ123" s="4">
-        <f t="shared" ref="AZ123" si="1154">+AY123*(1+AZ120)</f>
+        <f t="shared" ref="AZ123" si="1156">+AY123*(1+AZ120)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA123" s="4">
-        <f t="shared" ref="BA123" si="1155">+AZ123*(1+BA120)</f>
+        <f t="shared" ref="BA123" si="1157">+AZ123*(1+BA120)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB123" s="4">
-        <f t="shared" ref="BB123" si="1156">+BA123*(1+BB120)</f>
+        <f t="shared" ref="BB123" si="1158">+BA123*(1+BB120)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC123" s="4">
-        <f t="shared" ref="BC123" si="1157">+BB123*(1+BC120)</f>
+        <f t="shared" ref="BC123" si="1159">+BB123*(1+BC120)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD123" s="4">
-        <f t="shared" ref="BD123" si="1158">+BC123*(1+BD120)</f>
+        <f t="shared" ref="BD123" si="1160">+BC123*(1+BD120)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE123" s="4">
-        <f t="shared" ref="BE123" si="1159">+BD123*(1+BE120)</f>
+        <f t="shared" ref="BE123" si="1161">+BD123*(1+BE120)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF123" s="4">
-        <f t="shared" ref="BF123" si="1160">+BE123*(1+BF120)</f>
+        <f t="shared" ref="BF123" si="1162">+BE123*(1+BF120)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG123" s="4">
-        <f t="shared" ref="BG123" si="1161">+BF123*(1+BG120)</f>
+        <f t="shared" ref="BG123" si="1163">+BF123*(1+BG120)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH123" s="4">
-        <f t="shared" ref="BH123" si="1162">+BG123*(1+BH120)</f>
+        <f t="shared" ref="BH123" si="1164">+BG123*(1+BH120)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI123" s="4">
-        <f t="shared" ref="BI123" si="1163">+BH123*(1+BI120)</f>
+        <f t="shared" ref="BI123" si="1165">+BH123*(1+BI120)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ123" s="4">
-        <f t="shared" ref="BJ123" si="1164">+BI123*(1+BJ120)</f>
+        <f t="shared" ref="BJ123" si="1166">+BI123*(1+BJ120)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK123" s="4">
-        <f t="shared" ref="BK123" si="1165">+BJ123*(1+BK120)</f>
+        <f t="shared" ref="BK123" si="1167">+BJ123*(1+BK120)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL123" s="4">
-        <f t="shared" ref="BL123" si="1166">+BK123*(1+BL120)</f>
+        <f t="shared" ref="BL123" si="1168">+BK123*(1+BL120)</f>
         <v>3232.3580517264741</v>
       </c>
       <c r="BM123" s="5">
@@ -11655,247 +11707,247 @@
     </row>
     <row r="124" spans="2:65" x14ac:dyDescent="0.2">
       <c r="E124" s="3">
-        <f>-PV($D$100,E122,0,E123)</f>
+        <f t="shared" ref="E124:AJ124" si="1169">-PV($D$100,E122,0,E123)</f>
         <v>-0.91474570069520678</v>
       </c>
       <c r="F124" s="3">
-        <f>-PV($D$100,F122,0,F123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.83675969694036478</v>
       </c>
       <c r="G124" s="3">
-        <f>-PV($D$100,G122,0,G123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.76542233529122283</v>
       </c>
       <c r="H124" s="3">
-        <f>-PV($D$100,H122,0,H123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.70016679042373109</v>
       </c>
       <c r="I124" s="3">
-        <f>-PV($D$100,I122,0,I123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.64047456130966995</v>
       </c>
       <c r="J124" s="3">
-        <f>-PV($D$100,J122,0,J123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.5858713513626691</v>
       </c>
       <c r="K124" s="3">
-        <f>-PV($D$100,K122,0,K123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.53592329981949249</v>
       </c>
       <c r="L124" s="3">
-        <f>-PV($D$100,L122,0,L123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.49023353441226897</v>
       </c>
       <c r="M124" s="3">
-        <f>-PV($D$100,M122,0,M123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.44843901794023877</v>
       </c>
       <c r="N124" s="3">
-        <f>-PV($D$100,N122,0,N123)</f>
+        <f t="shared" si="1169"/>
         <v>-0.41020766368481409</v>
       </c>
       <c r="O124" s="3">
-        <f>-PV($D$100,O122,0,O123)</f>
+        <f t="shared" si="1169"/>
         <v>0.37523569674790902</v>
       </c>
       <c r="P124" s="3">
-        <f>-PV($D$100,P122,0,P123)</f>
+        <f t="shared" si="1169"/>
         <v>0.37756976438227219</v>
       </c>
       <c r="Q124" s="3">
-        <f>-PV($D$100,Q122,0,Q123)</f>
+        <f t="shared" si="1169"/>
         <v>0.37991835054930423</v>
       </c>
       <c r="R124" s="3">
-        <f>-PV($D$100,R122,0,R123)</f>
+        <f t="shared" si="1169"/>
         <v>0.38228154555820959</v>
       </c>
       <c r="S124" s="3">
-        <f>-PV($D$100,S122,0,S123)</f>
+        <f t="shared" si="1169"/>
         <v>0.3846594402799402</v>
       </c>
       <c r="T124" s="3">
-        <f>-PV($D$100,T122,0,T123)</f>
+        <f t="shared" si="1169"/>
         <v>0.38705212615068996</v>
       </c>
       <c r="U124" s="3">
-        <f>-PV($D$100,U122,0,U123)</f>
+        <f t="shared" si="1169"/>
         <v>0.38945969517541074</v>
       </c>
       <c r="V124" s="3">
-        <f>-PV($D$100,V122,0,V123)</f>
+        <f t="shared" si="1169"/>
         <v>0.39188223993135007</v>
       </c>
       <c r="W124" s="3">
-        <f>-PV($D$100,W122,0,W123)</f>
+        <f t="shared" si="1169"/>
         <v>0.39431985357161098</v>
       </c>
       <c r="X124" s="3">
-        <f>-PV($D$100,X122,0,X123)</f>
+        <f t="shared" si="1169"/>
         <v>0.39677262982873401</v>
       </c>
       <c r="Y124" s="3">
-        <f>-PV($D$100,Y122,0,Y123)</f>
+        <f t="shared" si="1169"/>
         <v>0.4355352687472383</v>
       </c>
       <c r="Z124" s="3">
-        <f>-PV($D$100,Z122,0,Z123)</f>
+        <f t="shared" si="1169"/>
         <v>0.47808481750520115</v>
       </c>
       <c r="AA124" s="3">
-        <f>-PV($D$100,AA122,0,AA123)</f>
+        <f t="shared" si="1169"/>
         <v>0.52479123765664237</v>
       </c>
       <c r="AB124" s="3">
-        <f>-PV($D$100,AB122,0,AB123)</f>
+        <f t="shared" si="1169"/>
         <v>0.57606063409071595</v>
       </c>
       <c r="AC124" s="3">
-        <f>-PV($D$100,AC122,0,AC123)</f>
+        <f t="shared" si="1169"/>
         <v>0.63233878604908467</v>
       </c>
       <c r="AD124" s="3">
-        <f>-PV($D$100,AD122,0,AD123)</f>
+        <f t="shared" si="1169"/>
         <v>0.69411502310547157</v>
       </c>
       <c r="AE124" s="3">
-        <f>-PV($D$100,AE122,0,AE123)</f>
+        <f t="shared" si="1169"/>
         <v>0.7619264798084211</v>
       </c>
       <c r="AF124" s="3">
-        <f>-PV($D$100,AF122,0,AF123)</f>
+        <f t="shared" si="1169"/>
         <v>0.83636276598070369</v>
       </c>
       <c r="AG124" s="3">
-        <f>-PV($D$100,AG122,0,AG123)</f>
+        <f t="shared" si="1169"/>
         <v>0.91807109328288006</v>
       </c>
       <c r="AH124" s="3">
-        <f>-PV($D$100,AH122,0,AH123)</f>
+        <f t="shared" si="1169"/>
         <v>1.007761902615675</v>
       </c>
       <c r="AI124" s="3">
-        <f>-PV($D$100,AI122,0,AI123)</f>
+        <f t="shared" si="1169"/>
         <v>1.1983996280647435</v>
       </c>
       <c r="AJ124" s="3">
-        <f>-PV($D$100,AJ122,0,AJ123)</f>
+        <f t="shared" si="1169"/>
         <v>1.4251001797330467</v>
       </c>
       <c r="AK124" s="3">
-        <f>-PV($D$100,AK122,0,AK123)</f>
+        <f t="shared" ref="AK124:BP124" si="1170">-PV($D$100,AK122,0,AK123)</f>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL124" s="3">
-        <f>-PV($D$100,AL122,0,AL123)</f>
+        <f t="shared" si="1170"/>
         <v>2.0152682067102115</v>
       </c>
       <c r="AM124" s="3">
-        <f>-PV($D$100,AM122,0,AM123)</f>
+        <f t="shared" si="1170"/>
         <v>2.3964953061866767</v>
       </c>
       <c r="AN124" s="3">
-        <f>-PV($D$100,AN122,0,AN123)</f>
+        <f t="shared" si="1170"/>
         <v>2.8498389114916574</v>
       </c>
       <c r="AO124" s="3">
-        <f>-PV($D$100,AO122,0,AO123)</f>
+        <f t="shared" si="1170"/>
         <v>3.3889412595491724</v>
       </c>
       <c r="AP124" s="3">
-        <f>-PV($D$100,AP122,0,AP123)</f>
+        <f t="shared" si="1170"/>
         <v>4.0300252812055648</v>
       </c>
       <c r="AQ124" s="3">
-        <f>-PV($D$100,AQ122,0,AQ123)</f>
+        <f t="shared" si="1170"/>
         <v>4.7923827895785172</v>
       </c>
       <c r="AR124" s="3">
-        <f>-PV($D$100,AR122,0,AR123)</f>
+        <f t="shared" si="1170"/>
         <v>5.6989550187084443</v>
       </c>
       <c r="AS124" s="3">
-        <f>-PV($D$100,AS122,0,AS123)</f>
+        <f t="shared" si="1170"/>
         <v>6.2557135221827069</v>
       </c>
       <c r="AT124" s="3">
-        <f>-PV($D$100,AT122,0,AT123)</f>
+        <f t="shared" si="1170"/>
         <v>6.8668644590369983</v>
       </c>
       <c r="AU124" s="3">
-        <f>-PV($D$100,AU122,0,AU123)</f>
+        <f t="shared" si="1170"/>
         <v>7.5377216893929733</v>
       </c>
       <c r="AV124" s="3">
-        <f>-PV($D$100,AV122,0,AV123)</f>
+        <f t="shared" si="1170"/>
         <v>8.2741182100910784</v>
       </c>
       <c r="AW124" s="3">
-        <f>-PV($D$100,AW122,0,AW123)</f>
+        <f t="shared" si="1170"/>
         <v>9.0824568716696792</v>
       </c>
       <c r="AX124" s="3">
-        <f>-PV($D$100,AX122,0,AX123)</f>
+        <f t="shared" si="1170"/>
         <v>9.9697660501313727</v>
       </c>
       <c r="AY124" s="3">
-        <f>-PV($D$100,AY122,0,AY123)</f>
+        <f t="shared" si="1170"/>
         <v>10.943760757553648</v>
       </c>
       <c r="AZ124" s="3">
-        <f>-PV($D$100,AZ122,0,AZ123)</f>
+        <f t="shared" si="1170"/>
         <v>12.012909722890942</v>
       </c>
       <c r="BA124" s="3">
-        <f>-PV($D$100,BA122,0,BA123)</f>
+        <f t="shared" si="1170"/>
         <v>13.186509026224963</v>
       </c>
       <c r="BB124" s="3">
-        <f>-PV($D$100,BB122,0,BB123)</f>
+        <f t="shared" si="1170"/>
         <v>14.474762926701384</v>
       </c>
       <c r="BC124" s="3">
-        <f>-PV($D$100,BC122,0,BC123)</f>
+        <f t="shared" si="1170"/>
         <v>14.564799871360709</v>
       </c>
       <c r="BD124" s="3">
-        <f>-PV($D$100,BD122,0,BD123)</f>
+        <f t="shared" si="1170"/>
         <v>14.655396870194636</v>
       </c>
       <c r="BE124" s="3">
-        <f>-PV($D$100,BE122,0,BE123)</f>
+        <f t="shared" si="1170"/>
         <v>14.746557406891789</v>
       </c>
       <c r="BF124" s="3">
-        <f>-PV($D$100,BF122,0,BF123)</f>
+        <f t="shared" si="1170"/>
         <v>14.838284986810255</v>
       </c>
       <c r="BG124" s="3">
-        <f>-PV($D$100,BG122,0,BG123)</f>
+        <f t="shared" si="1170"/>
         <v>14.930583137112407</v>
       </c>
       <c r="BH124" s="3">
-        <f>-PV($D$100,BH122,0,BH123)</f>
+        <f t="shared" si="1170"/>
         <v>15.023455406900519</v>
       </c>
       <c r="BI124" s="3">
-        <f>-PV($D$100,BI122,0,BI123)</f>
+        <f t="shared" si="1170"/>
         <v>15.116905367353253</v>
       </c>
       <c r="BJ124" s="3">
-        <f>-PV($D$100,BJ122,0,BJ123)</f>
+        <f t="shared" si="1170"/>
         <v>15.210936611862952</v>
       </c>
       <c r="BK124" s="3">
-        <f>-PV($D$100,BK122,0,BK123)</f>
+        <f t="shared" si="1170"/>
         <v>15.305552756173846</v>
       </c>
       <c r="BL124" s="3">
-        <f>-PV($D$100,BL122,0,BL123)</f>
+        <f t="shared" si="1170"/>
         <v>15.400757438521071</v>
       </c>
       <c r="BM124" s="3">
-        <f>-PV($D$100,BM122,0,BM123)</f>
+        <f t="shared" si="1170"/>
         <v>151.15640187056732</v>
       </c>
     </row>
@@ -12139,239 +12191,239 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <f t="shared" ref="G136" si="1167">+F136+1</f>
+        <f t="shared" ref="G136" si="1171">+F136+1</f>
         <v>3</v>
       </c>
       <c r="H136">
-        <f t="shared" ref="H136" si="1168">+G136+1</f>
+        <f t="shared" ref="H136" si="1172">+G136+1</f>
         <v>4</v>
       </c>
       <c r="I136">
-        <f t="shared" ref="I136" si="1169">+H136+1</f>
+        <f t="shared" ref="I136" si="1173">+H136+1</f>
         <v>5</v>
       </c>
       <c r="J136">
-        <f t="shared" ref="J136" si="1170">+I136+1</f>
+        <f t="shared" ref="J136" si="1174">+I136+1</f>
         <v>6</v>
       </c>
       <c r="K136">
-        <f t="shared" ref="K136" si="1171">+J136+1</f>
+        <f t="shared" ref="K136" si="1175">+J136+1</f>
         <v>7</v>
       </c>
       <c r="L136">
-        <f t="shared" ref="L136" si="1172">+K136+1</f>
+        <f t="shared" ref="L136" si="1176">+K136+1</f>
         <v>8</v>
       </c>
       <c r="M136">
-        <f t="shared" ref="M136" si="1173">+L136+1</f>
+        <f t="shared" ref="M136" si="1177">+L136+1</f>
         <v>9</v>
       </c>
       <c r="N136">
-        <f t="shared" ref="N136" si="1174">+M136+1</f>
+        <f t="shared" ref="N136" si="1178">+M136+1</f>
         <v>10</v>
       </c>
       <c r="O136">
-        <f t="shared" ref="O136" si="1175">+N136+1</f>
+        <f t="shared" ref="O136" si="1179">+N136+1</f>
         <v>11</v>
       </c>
       <c r="P136">
-        <f t="shared" ref="P136" si="1176">+O136+1</f>
+        <f t="shared" ref="P136" si="1180">+O136+1</f>
         <v>12</v>
       </c>
       <c r="Q136">
-        <f t="shared" ref="Q136" si="1177">+P136+1</f>
+        <f t="shared" ref="Q136" si="1181">+P136+1</f>
         <v>13</v>
       </c>
       <c r="R136">
-        <f t="shared" ref="R136" si="1178">+Q136+1</f>
+        <f t="shared" ref="R136" si="1182">+Q136+1</f>
         <v>14</v>
       </c>
       <c r="S136">
-        <f t="shared" ref="S136" si="1179">+R136+1</f>
+        <f t="shared" ref="S136" si="1183">+R136+1</f>
         <v>15</v>
       </c>
       <c r="T136">
-        <f t="shared" ref="T136" si="1180">+S136+1</f>
+        <f t="shared" ref="T136" si="1184">+S136+1</f>
         <v>16</v>
       </c>
       <c r="U136">
-        <f t="shared" ref="U136" si="1181">+T136+1</f>
+        <f t="shared" ref="U136" si="1185">+T136+1</f>
         <v>17</v>
       </c>
       <c r="V136">
-        <f t="shared" ref="V136" si="1182">+U136+1</f>
+        <f t="shared" ref="V136" si="1186">+U136+1</f>
         <v>18</v>
       </c>
       <c r="W136">
-        <f t="shared" ref="W136" si="1183">+V136+1</f>
+        <f t="shared" ref="W136" si="1187">+V136+1</f>
         <v>19</v>
       </c>
       <c r="X136">
-        <f t="shared" ref="X136" si="1184">+W136+1</f>
+        <f t="shared" ref="X136" si="1188">+W136+1</f>
         <v>20</v>
       </c>
       <c r="Y136">
-        <f t="shared" ref="Y136" si="1185">+X136+1</f>
+        <f t="shared" ref="Y136" si="1189">+X136+1</f>
         <v>21</v>
       </c>
       <c r="Z136">
-        <f t="shared" ref="Z136" si="1186">+Y136+1</f>
+        <f t="shared" ref="Z136" si="1190">+Y136+1</f>
         <v>22</v>
       </c>
       <c r="AA136">
-        <f t="shared" ref="AA136" si="1187">+Z136+1</f>
+        <f t="shared" ref="AA136" si="1191">+Z136+1</f>
         <v>23</v>
       </c>
       <c r="AB136">
-        <f t="shared" ref="AB136" si="1188">+AA136+1</f>
+        <f t="shared" ref="AB136" si="1192">+AA136+1</f>
         <v>24</v>
       </c>
       <c r="AC136">
-        <f t="shared" ref="AC136" si="1189">+AB136+1</f>
+        <f t="shared" ref="AC136" si="1193">+AB136+1</f>
         <v>25</v>
       </c>
       <c r="AD136">
-        <f t="shared" ref="AD136" si="1190">+AC136+1</f>
+        <f t="shared" ref="AD136" si="1194">+AC136+1</f>
         <v>26</v>
       </c>
       <c r="AE136">
-        <f t="shared" ref="AE136" si="1191">+AD136+1</f>
+        <f t="shared" ref="AE136" si="1195">+AD136+1</f>
         <v>27</v>
       </c>
       <c r="AF136">
-        <f t="shared" ref="AF136" si="1192">+AE136+1</f>
+        <f t="shared" ref="AF136" si="1196">+AE136+1</f>
         <v>28</v>
       </c>
       <c r="AG136">
-        <f t="shared" ref="AG136" si="1193">+AF136+1</f>
+        <f t="shared" ref="AG136" si="1197">+AF136+1</f>
         <v>29</v>
       </c>
       <c r="AH136">
-        <f t="shared" ref="AH136" si="1194">+AG136+1</f>
+        <f t="shared" ref="AH136" si="1198">+AG136+1</f>
         <v>30</v>
       </c>
       <c r="AI136">
-        <f t="shared" ref="AI136" si="1195">+AH136+1</f>
+        <f t="shared" ref="AI136" si="1199">+AH136+1</f>
         <v>31</v>
       </c>
       <c r="AJ136">
-        <f t="shared" ref="AJ136" si="1196">+AI136+1</f>
+        <f t="shared" ref="AJ136" si="1200">+AI136+1</f>
         <v>32</v>
       </c>
       <c r="AK136">
-        <f t="shared" ref="AK136" si="1197">+AJ136+1</f>
+        <f t="shared" ref="AK136" si="1201">+AJ136+1</f>
         <v>33</v>
       </c>
       <c r="AL136">
-        <f t="shared" ref="AL136" si="1198">+AK136+1</f>
+        <f t="shared" ref="AL136" si="1202">+AK136+1</f>
         <v>34</v>
       </c>
       <c r="AM136">
-        <f t="shared" ref="AM136" si="1199">+AL136+1</f>
+        <f t="shared" ref="AM136" si="1203">+AL136+1</f>
         <v>35</v>
       </c>
       <c r="AN136">
-        <f t="shared" ref="AN136" si="1200">+AM136+1</f>
+        <f t="shared" ref="AN136" si="1204">+AM136+1</f>
         <v>36</v>
       </c>
       <c r="AO136">
-        <f t="shared" ref="AO136" si="1201">+AN136+1</f>
+        <f t="shared" ref="AO136" si="1205">+AN136+1</f>
         <v>37</v>
       </c>
       <c r="AP136">
-        <f t="shared" ref="AP136" si="1202">+AO136+1</f>
+        <f t="shared" ref="AP136" si="1206">+AO136+1</f>
         <v>38</v>
       </c>
       <c r="AQ136">
-        <f t="shared" ref="AQ136" si="1203">+AP136+1</f>
+        <f t="shared" ref="AQ136" si="1207">+AP136+1</f>
         <v>39</v>
       </c>
       <c r="AR136">
-        <f t="shared" ref="AR136" si="1204">+AQ136+1</f>
+        <f t="shared" ref="AR136" si="1208">+AQ136+1</f>
         <v>40</v>
       </c>
       <c r="AS136">
-        <f t="shared" ref="AS136" si="1205">+AR136+1</f>
+        <f t="shared" ref="AS136" si="1209">+AR136+1</f>
         <v>41</v>
       </c>
       <c r="AT136">
-        <f t="shared" ref="AT136" si="1206">+AS136+1</f>
+        <f t="shared" ref="AT136" si="1210">+AS136+1</f>
         <v>42</v>
       </c>
       <c r="AU136">
-        <f t="shared" ref="AU136" si="1207">+AT136+1</f>
+        <f t="shared" ref="AU136" si="1211">+AT136+1</f>
         <v>43</v>
       </c>
       <c r="AV136">
-        <f t="shared" ref="AV136" si="1208">+AU136+1</f>
+        <f t="shared" ref="AV136" si="1212">+AU136+1</f>
         <v>44</v>
       </c>
       <c r="AW136">
-        <f t="shared" ref="AW136" si="1209">+AV136+1</f>
+        <f t="shared" ref="AW136" si="1213">+AV136+1</f>
         <v>45</v>
       </c>
       <c r="AX136">
-        <f t="shared" ref="AX136" si="1210">+AW136+1</f>
+        <f t="shared" ref="AX136" si="1214">+AW136+1</f>
         <v>46</v>
       </c>
       <c r="AY136">
-        <f t="shared" ref="AY136" si="1211">+AX136+1</f>
+        <f t="shared" ref="AY136" si="1215">+AX136+1</f>
         <v>47</v>
       </c>
       <c r="AZ136">
-        <f t="shared" ref="AZ136" si="1212">+AY136+1</f>
+        <f t="shared" ref="AZ136" si="1216">+AY136+1</f>
         <v>48</v>
       </c>
       <c r="BA136">
-        <f t="shared" ref="BA136" si="1213">+AZ136+1</f>
+        <f t="shared" ref="BA136" si="1217">+AZ136+1</f>
         <v>49</v>
       </c>
       <c r="BB136">
-        <f t="shared" ref="BB136" si="1214">+BA136+1</f>
+        <f t="shared" ref="BB136" si="1218">+BA136+1</f>
         <v>50</v>
       </c>
       <c r="BC136">
-        <f t="shared" ref="BC136" si="1215">+BB136+1</f>
+        <f t="shared" ref="BC136" si="1219">+BB136+1</f>
         <v>51</v>
       </c>
       <c r="BD136">
-        <f t="shared" ref="BD136" si="1216">+BC136+1</f>
+        <f t="shared" ref="BD136" si="1220">+BC136+1</f>
         <v>52</v>
       </c>
       <c r="BE136">
-        <f t="shared" ref="BE136" si="1217">+BD136+1</f>
+        <f t="shared" ref="BE136" si="1221">+BD136+1</f>
         <v>53</v>
       </c>
       <c r="BF136">
-        <f t="shared" ref="BF136" si="1218">+BE136+1</f>
+        <f t="shared" ref="BF136" si="1222">+BE136+1</f>
         <v>54</v>
       </c>
       <c r="BG136">
-        <f t="shared" ref="BG136" si="1219">+BF136+1</f>
+        <f t="shared" ref="BG136" si="1223">+BF136+1</f>
         <v>55</v>
       </c>
       <c r="BH136">
-        <f t="shared" ref="BH136" si="1220">+BG136+1</f>
+        <f t="shared" ref="BH136" si="1224">+BG136+1</f>
         <v>56</v>
       </c>
       <c r="BI136">
-        <f t="shared" ref="BI136" si="1221">+BH136+1</f>
+        <f t="shared" ref="BI136" si="1225">+BH136+1</f>
         <v>57</v>
       </c>
       <c r="BJ136">
-        <f t="shared" ref="BJ136" si="1222">+BI136+1</f>
+        <f t="shared" ref="BJ136" si="1226">+BI136+1</f>
         <v>58</v>
       </c>
       <c r="BK136">
-        <f t="shared" ref="BK136" si="1223">+BJ136+1</f>
+        <f t="shared" ref="BK136" si="1227">+BJ136+1</f>
         <v>59</v>
       </c>
       <c r="BL136">
-        <f t="shared" ref="BL136" si="1224">+BK136+1</f>
+        <f t="shared" ref="BL136" si="1228">+BK136+1</f>
         <v>60</v>
       </c>
       <c r="BM136">
-        <f t="shared" ref="BM136" si="1225">+BL136+1</f>
+        <f t="shared" ref="BM136" si="1229">+BL136+1</f>
         <v>61</v>
       </c>
     </row>
@@ -12422,31 +12474,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q137" s="4">
-        <f t="shared" ref="Q137" si="1226">+P137*(1+Q134)</f>
+        <f t="shared" ref="Q137" si="1230">+P137*(1+Q134)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R137" s="4">
-        <f t="shared" ref="R137" si="1227">+Q137*(1+R134)</f>
+        <f t="shared" ref="R137" si="1231">+Q137*(1+R134)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S137" s="4">
-        <f t="shared" ref="S137" si="1228">+R137*(1+S134)</f>
+        <f t="shared" ref="S137" si="1232">+R137*(1+S134)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T137" s="4">
-        <f t="shared" ref="T137" si="1229">+S137*(1+T134)</f>
+        <f t="shared" ref="T137" si="1233">+S137*(1+T134)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U137" s="4">
-        <f t="shared" ref="U137" si="1230">+T137*(1+U134)</f>
+        <f t="shared" ref="U137" si="1234">+T137*(1+U134)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V137" s="4">
-        <f t="shared" ref="V137" si="1231">+U137*(1+V134)</f>
+        <f t="shared" ref="V137" si="1235">+U137*(1+V134)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W137" s="4">
-        <f t="shared" ref="W137" si="1232">+V137*(1+W134)</f>
+        <f t="shared" ref="W137" si="1236">+V137*(1+W134)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X137" s="4">
@@ -12454,159 +12506,159 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y137" s="4">
-        <f t="shared" ref="Y137" si="1233">+X137*(1+Y134)</f>
+        <f t="shared" ref="Y137" si="1237">+X137*(1+Y134)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z137" s="4">
-        <f t="shared" ref="Z137" si="1234">+Y137*(1+Z134)</f>
+        <f t="shared" ref="Z137" si="1238">+Y137*(1+Z134)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA137" s="4">
-        <f t="shared" ref="AA137" si="1235">+Z137*(1+AA134)</f>
+        <f t="shared" ref="AA137" si="1239">+Z137*(1+AA134)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB137" s="4">
-        <f t="shared" ref="AB137" si="1236">+AA137*(1+AB134)</f>
+        <f t="shared" ref="AB137" si="1240">+AA137*(1+AB134)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC137" s="4">
-        <f t="shared" ref="AC137" si="1237">+AB137*(1+AC134)</f>
+        <f t="shared" ref="AC137" si="1241">+AB137*(1+AC134)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD137" s="4">
-        <f t="shared" ref="AD137" si="1238">+AC137*(1+AD134)</f>
+        <f t="shared" ref="AD137" si="1242">+AC137*(1+AD134)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE137" s="4">
-        <f t="shared" ref="AE137" si="1239">+AD137*(1+AE134)</f>
+        <f t="shared" ref="AE137" si="1243">+AD137*(1+AE134)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF137" s="4">
-        <f t="shared" ref="AF137" si="1240">+AE137*(1+AF134)</f>
+        <f t="shared" ref="AF137" si="1244">+AE137*(1+AF134)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG137" s="4">
-        <f t="shared" ref="AG137" si="1241">+AF137*(1+AG134)</f>
+        <f t="shared" ref="AG137" si="1245">+AF137*(1+AG134)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH137" s="4">
-        <f t="shared" ref="AH137" si="1242">+AG137*(1+AH134)</f>
+        <f t="shared" ref="AH137" si="1246">+AG137*(1+AH134)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI137" s="4">
-        <f t="shared" ref="AI137" si="1243">+AH137*(1+AI134)</f>
+        <f t="shared" ref="AI137" si="1247">+AH137*(1+AI134)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ137" s="4">
-        <f t="shared" ref="AJ137" si="1244">+AI137*(1+AJ134)</f>
+        <f t="shared" ref="AJ137" si="1248">+AI137*(1+AJ134)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK137" s="4">
-        <f t="shared" ref="AK137" si="1245">+AJ137*(1+AK134)</f>
+        <f t="shared" ref="AK137" si="1249">+AJ137*(1+AK134)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL137" s="4">
-        <f t="shared" ref="AL137" si="1246">+AK137*(1+AL134)</f>
+        <f t="shared" ref="AL137" si="1250">+AK137*(1+AL134)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM137" s="4">
-        <f t="shared" ref="AM137" si="1247">+AL137*(1+AM134)</f>
+        <f t="shared" ref="AM137" si="1251">+AL137*(1+AM134)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN137" s="4">
-        <f t="shared" ref="AN137" si="1248">+AM137*(1+AN134)</f>
+        <f t="shared" ref="AN137" si="1252">+AM137*(1+AN134)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO137" s="4">
-        <f t="shared" ref="AO137" si="1249">+AN137*(1+AO134)</f>
+        <f t="shared" ref="AO137" si="1253">+AN137*(1+AO134)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP137" s="4">
-        <f t="shared" ref="AP137" si="1250">+AO137*(1+AP134)</f>
+        <f t="shared" ref="AP137" si="1254">+AO137*(1+AP134)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ137" s="4">
-        <f t="shared" ref="AQ137" si="1251">+AP137*(1+AQ134)</f>
+        <f t="shared" ref="AQ137" si="1255">+AP137*(1+AQ134)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR137" s="4">
-        <f t="shared" ref="AR137" si="1252">+AQ137*(1+AR134)</f>
+        <f t="shared" ref="AR137" si="1256">+AQ137*(1+AR134)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS137" s="4">
-        <f t="shared" ref="AS137" si="1253">+AR137*(1+AS134)</f>
+        <f t="shared" ref="AS137" si="1257">+AR137*(1+AS134)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT137" s="4">
-        <f t="shared" ref="AT137" si="1254">+AS137*(1+AT134)</f>
+        <f t="shared" ref="AT137" si="1258">+AS137*(1+AT134)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU137" s="4">
-        <f t="shared" ref="AU137" si="1255">+AT137*(1+AU134)</f>
+        <f t="shared" ref="AU137" si="1259">+AT137*(1+AU134)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV137" s="4">
-        <f t="shared" ref="AV137" si="1256">+AU137*(1+AV134)</f>
+        <f t="shared" ref="AV137" si="1260">+AU137*(1+AV134)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW137" s="4">
-        <f t="shared" ref="AW137" si="1257">+AV137*(1+AW134)</f>
+        <f t="shared" ref="AW137" si="1261">+AV137*(1+AW134)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX137" s="4">
-        <f t="shared" ref="AX137" si="1258">+AW137*(1+AX134)</f>
+        <f t="shared" ref="AX137" si="1262">+AW137*(1+AX134)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY137" s="4">
-        <f t="shared" ref="AY137" si="1259">+AX137*(1+AY134)</f>
+        <f t="shared" ref="AY137" si="1263">+AX137*(1+AY134)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ137" s="4">
-        <f t="shared" ref="AZ137" si="1260">+AY137*(1+AZ134)</f>
+        <f t="shared" ref="AZ137" si="1264">+AY137*(1+AZ134)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA137" s="4">
-        <f t="shared" ref="BA137" si="1261">+AZ137*(1+BA134)</f>
+        <f t="shared" ref="BA137" si="1265">+AZ137*(1+BA134)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB137" s="4">
-        <f t="shared" ref="BB137" si="1262">+BA137*(1+BB134)</f>
+        <f t="shared" ref="BB137" si="1266">+BA137*(1+BB134)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC137" s="4">
-        <f t="shared" ref="BC137" si="1263">+BB137*(1+BC134)</f>
+        <f t="shared" ref="BC137" si="1267">+BB137*(1+BC134)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD137" s="4">
-        <f t="shared" ref="BD137" si="1264">+BC137*(1+BD134)</f>
+        <f t="shared" ref="BD137" si="1268">+BC137*(1+BD134)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE137" s="4">
-        <f t="shared" ref="BE137" si="1265">+BD137*(1+BE134)</f>
+        <f t="shared" ref="BE137" si="1269">+BD137*(1+BE134)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF137" s="4">
-        <f t="shared" ref="BF137" si="1266">+BE137*(1+BF134)</f>
+        <f t="shared" ref="BF137" si="1270">+BE137*(1+BF134)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG137" s="4">
-        <f t="shared" ref="BG137" si="1267">+BF137*(1+BG134)</f>
+        <f t="shared" ref="BG137" si="1271">+BF137*(1+BG134)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH137" s="4">
-        <f t="shared" ref="BH137" si="1268">+BG137*(1+BH134)</f>
+        <f t="shared" ref="BH137" si="1272">+BG137*(1+BH134)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI137" s="4">
-        <f t="shared" ref="BI137" si="1269">+BH137*(1+BI134)</f>
+        <f t="shared" ref="BI137" si="1273">+BH137*(1+BI134)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ137" s="4">
-        <f t="shared" ref="BJ137" si="1270">+BI137*(1+BJ134)</f>
+        <f t="shared" ref="BJ137" si="1274">+BI137*(1+BJ134)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK137" s="4">
-        <f t="shared" ref="BK137" si="1271">+BJ137*(1+BK134)</f>
+        <f t="shared" ref="BK137" si="1275">+BJ137*(1+BK134)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL137" s="4">
@@ -12624,243 +12676,243 @@
         <v>-0.92021717125241553</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" ref="F138:BM138" si="1272">-PV($D$136,F136,0,F137)</f>
+        <f t="shared" ref="F138:BM138" si="1276">-PV($D$136,F136,0,F137)</f>
         <v>-0.84679964226779758</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.77923957142523004</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.71706963414486979</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.65985979032379671</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.60721430967497625</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.55876903439309489</v>
       </c>
       <c r="L138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.51418886021265742</v>
       </c>
       <c r="M138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.47316541843439541</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>-0.43541494288616489</v>
       </c>
       <c r="O138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.40067630706373875</v>
       </c>
       <c r="P138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.40558013966146372</v>
       </c>
       <c r="Q138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.41054398971897504</v>
       </c>
       <c r="R138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.41556859178326366</v>
       </c>
       <c r="S138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.42065468939135914</v>
       </c>
       <c r="T138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.42580303518035806</v>
       </c>
       <c r="U138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.43101439099879812</v>
       </c>
       <c r="V138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.43628952801939636</v>
       </c>
       <c r="W138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.44162922685316647</v>
       </c>
       <c r="X138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.44703427766493337</v>
       </c>
       <c r="Y138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.49364234213483033</v>
       </c>
       <c r="Z138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.54510979162767681</v>
       </c>
       <c r="AA138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.60194326856833724</v>
       </c>
       <c r="AB138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.66470223822766594</v>
       </c>
       <c r="AC138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.73400449606441442</v>
       </c>
       <c r="AD138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.81053224926594047</v>
       </c>
       <c r="AE138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.8950388323540337</v>
       </c>
       <c r="AF138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>0.98835612296387254</v>
       </c>
       <c r="AG138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>1.0914027307965832</v>
       </c>
       <c r="AH138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>1.2051930403569522</v>
       </c>
       <c r="AI138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>1.4417511295334844</v>
       </c>
       <c r="AJ138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>1.7247413898900619</v>
       </c>
       <c r="AK138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>2.0632776358305698</v>
       </c>
       <c r="AL138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>2.4682625624180923</v>
       </c>
       <c r="AM138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>2.9527388710256006</v>
       </c>
       <c r="AN138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>3.5323093147448983</v>
       </c>
       <c r="AO138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>4.2256391912840421</v>
       </c>
       <c r="AP138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>5.0550574663377699</v>
       </c>
       <c r="AQ138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>6.0472758868492686</v>
       </c>
       <c r="AR138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>7.2342492434931893</v>
       </c>
       <c r="AS138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>7.988496449978677</v>
       </c>
       <c r="AT138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>8.8213819269112079</v>
       </c>
       <c r="AU138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>9.7411045479832978</v>
       </c>
       <c r="AV138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>10.756718006423075</v>
       </c>
       <c r="AW138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>11.878219938996681</v>
       </c>
       <c r="AX138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>13.116650342133077</v>
       </c>
       <c r="AY138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>14.484200248973673</v>
       </c>
       <c r="AZ138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>15.994331737156905</v>
       </c>
       <c r="BA138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>17.661910448687109</v>
       </c>
       <c r="BB138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>19.503351926405202</v>
       </c>
       <c r="BC138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>19.742051273622639</v>
       </c>
       <c r="BD138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>19.983672035506491</v>
       </c>
       <c r="BE138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>20.228249966924768</v>
       </c>
       <c r="BF138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>20.47582126034531</v>
       </c>
       <c r="BG138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>20.726422551191533</v>
       </c>
       <c r="BH138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>20.980090923263724</v>
       </c>
       <c r="BI138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>21.23686391422665</v>
       </c>
       <c r="BJ138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>21.49677952116437</v>
       </c>
       <c r="BK138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>21.759876206203003</v>
       </c>
       <c r="BL138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>22.026192902202361</v>
       </c>
       <c r="BM138" s="3">
-        <f t="shared" si="1272"/>
+        <f t="shared" si="1276"/>
         <v>233.78178691954662</v>
       </c>
     </row>
@@ -13065,239 +13117,239 @@
         <v>2</v>
       </c>
       <c r="G144">
-        <f t="shared" ref="G144" si="1273">+F144+1</f>
+        <f t="shared" ref="G144" si="1277">+F144+1</f>
         <v>3</v>
       </c>
       <c r="H144">
-        <f t="shared" ref="H144" si="1274">+G144+1</f>
+        <f t="shared" ref="H144" si="1278">+G144+1</f>
         <v>4</v>
       </c>
       <c r="I144">
-        <f t="shared" ref="I144" si="1275">+H144+1</f>
+        <f t="shared" ref="I144" si="1279">+H144+1</f>
         <v>5</v>
       </c>
       <c r="J144">
-        <f t="shared" ref="J144" si="1276">+I144+1</f>
+        <f t="shared" ref="J144" si="1280">+I144+1</f>
         <v>6</v>
       </c>
       <c r="K144">
-        <f t="shared" ref="K144" si="1277">+J144+1</f>
+        <f t="shared" ref="K144" si="1281">+J144+1</f>
         <v>7</v>
       </c>
       <c r="L144">
-        <f t="shared" ref="L144" si="1278">+K144+1</f>
+        <f t="shared" ref="L144" si="1282">+K144+1</f>
         <v>8</v>
       </c>
       <c r="M144">
-        <f t="shared" ref="M144" si="1279">+L144+1</f>
+        <f t="shared" ref="M144" si="1283">+L144+1</f>
         <v>9</v>
       </c>
       <c r="N144">
-        <f t="shared" ref="N144" si="1280">+M144+1</f>
+        <f t="shared" ref="N144" si="1284">+M144+1</f>
         <v>10</v>
       </c>
       <c r="O144">
-        <f t="shared" ref="O144" si="1281">+N144+1</f>
+        <f t="shared" ref="O144" si="1285">+N144+1</f>
         <v>11</v>
       </c>
       <c r="P144">
-        <f t="shared" ref="P144" si="1282">+O144+1</f>
+        <f t="shared" ref="P144" si="1286">+O144+1</f>
         <v>12</v>
       </c>
       <c r="Q144">
-        <f t="shared" ref="Q144" si="1283">+P144+1</f>
+        <f t="shared" ref="Q144" si="1287">+P144+1</f>
         <v>13</v>
       </c>
       <c r="R144">
-        <f t="shared" ref="R144" si="1284">+Q144+1</f>
+        <f t="shared" ref="R144" si="1288">+Q144+1</f>
         <v>14</v>
       </c>
       <c r="S144">
-        <f t="shared" ref="S144" si="1285">+R144+1</f>
+        <f t="shared" ref="S144" si="1289">+R144+1</f>
         <v>15</v>
       </c>
       <c r="T144">
-        <f t="shared" ref="T144" si="1286">+S144+1</f>
+        <f t="shared" ref="T144" si="1290">+S144+1</f>
         <v>16</v>
       </c>
       <c r="U144">
-        <f t="shared" ref="U144" si="1287">+T144+1</f>
+        <f t="shared" ref="U144" si="1291">+T144+1</f>
         <v>17</v>
       </c>
       <c r="V144">
-        <f t="shared" ref="V144" si="1288">+U144+1</f>
+        <f t="shared" ref="V144" si="1292">+U144+1</f>
         <v>18</v>
       </c>
       <c r="W144">
-        <f t="shared" ref="W144" si="1289">+V144+1</f>
+        <f t="shared" ref="W144" si="1293">+V144+1</f>
         <v>19</v>
       </c>
       <c r="X144">
-        <f t="shared" ref="X144" si="1290">+W144+1</f>
+        <f t="shared" ref="X144" si="1294">+W144+1</f>
         <v>20</v>
       </c>
       <c r="Y144">
-        <f t="shared" ref="Y144" si="1291">+X144+1</f>
+        <f t="shared" ref="Y144" si="1295">+X144+1</f>
         <v>21</v>
       </c>
       <c r="Z144">
-        <f t="shared" ref="Z144" si="1292">+Y144+1</f>
+        <f t="shared" ref="Z144" si="1296">+Y144+1</f>
         <v>22</v>
       </c>
       <c r="AA144">
-        <f t="shared" ref="AA144" si="1293">+Z144+1</f>
+        <f t="shared" ref="AA144" si="1297">+Z144+1</f>
         <v>23</v>
       </c>
       <c r="AB144">
-        <f t="shared" ref="AB144" si="1294">+AA144+1</f>
+        <f t="shared" ref="AB144" si="1298">+AA144+1</f>
         <v>24</v>
       </c>
       <c r="AC144">
-        <f t="shared" ref="AC144" si="1295">+AB144+1</f>
+        <f t="shared" ref="AC144" si="1299">+AB144+1</f>
         <v>25</v>
       </c>
       <c r="AD144">
-        <f t="shared" ref="AD144" si="1296">+AC144+1</f>
+        <f t="shared" ref="AD144" si="1300">+AC144+1</f>
         <v>26</v>
       </c>
       <c r="AE144">
-        <f t="shared" ref="AE144" si="1297">+AD144+1</f>
+        <f t="shared" ref="AE144" si="1301">+AD144+1</f>
         <v>27</v>
       </c>
       <c r="AF144">
-        <f t="shared" ref="AF144" si="1298">+AE144+1</f>
+        <f t="shared" ref="AF144" si="1302">+AE144+1</f>
         <v>28</v>
       </c>
       <c r="AG144">
-        <f t="shared" ref="AG144" si="1299">+AF144+1</f>
+        <f t="shared" ref="AG144" si="1303">+AF144+1</f>
         <v>29</v>
       </c>
       <c r="AH144">
-        <f t="shared" ref="AH144" si="1300">+AG144+1</f>
+        <f t="shared" ref="AH144" si="1304">+AG144+1</f>
         <v>30</v>
       </c>
       <c r="AI144">
-        <f t="shared" ref="AI144" si="1301">+AH144+1</f>
+        <f t="shared" ref="AI144" si="1305">+AH144+1</f>
         <v>31</v>
       </c>
       <c r="AJ144">
-        <f t="shared" ref="AJ144" si="1302">+AI144+1</f>
+        <f t="shared" ref="AJ144" si="1306">+AI144+1</f>
         <v>32</v>
       </c>
       <c r="AK144">
-        <f t="shared" ref="AK144" si="1303">+AJ144+1</f>
+        <f t="shared" ref="AK144" si="1307">+AJ144+1</f>
         <v>33</v>
       </c>
       <c r="AL144">
-        <f t="shared" ref="AL144" si="1304">+AK144+1</f>
+        <f t="shared" ref="AL144" si="1308">+AK144+1</f>
         <v>34</v>
       </c>
       <c r="AM144">
-        <f t="shared" ref="AM144" si="1305">+AL144+1</f>
+        <f t="shared" ref="AM144" si="1309">+AL144+1</f>
         <v>35</v>
       </c>
       <c r="AN144">
-        <f t="shared" ref="AN144" si="1306">+AM144+1</f>
+        <f t="shared" ref="AN144" si="1310">+AM144+1</f>
         <v>36</v>
       </c>
       <c r="AO144">
-        <f t="shared" ref="AO144" si="1307">+AN144+1</f>
+        <f t="shared" ref="AO144" si="1311">+AN144+1</f>
         <v>37</v>
       </c>
       <c r="AP144">
-        <f t="shared" ref="AP144" si="1308">+AO144+1</f>
+        <f t="shared" ref="AP144" si="1312">+AO144+1</f>
         <v>38</v>
       </c>
       <c r="AQ144">
-        <f t="shared" ref="AQ144" si="1309">+AP144+1</f>
+        <f t="shared" ref="AQ144" si="1313">+AP144+1</f>
         <v>39</v>
       </c>
       <c r="AR144">
-        <f t="shared" ref="AR144" si="1310">+AQ144+1</f>
+        <f t="shared" ref="AR144" si="1314">+AQ144+1</f>
         <v>40</v>
       </c>
       <c r="AS144">
-        <f t="shared" ref="AS144" si="1311">+AR144+1</f>
+        <f t="shared" ref="AS144" si="1315">+AR144+1</f>
         <v>41</v>
       </c>
       <c r="AT144">
-        <f t="shared" ref="AT144" si="1312">+AS144+1</f>
+        <f t="shared" ref="AT144" si="1316">+AS144+1</f>
         <v>42</v>
       </c>
       <c r="AU144">
-        <f t="shared" ref="AU144" si="1313">+AT144+1</f>
+        <f t="shared" ref="AU144" si="1317">+AT144+1</f>
         <v>43</v>
       </c>
       <c r="AV144">
-        <f t="shared" ref="AV144" si="1314">+AU144+1</f>
+        <f t="shared" ref="AV144" si="1318">+AU144+1</f>
         <v>44</v>
       </c>
       <c r="AW144">
-        <f t="shared" ref="AW144" si="1315">+AV144+1</f>
+        <f t="shared" ref="AW144" si="1319">+AV144+1</f>
         <v>45</v>
       </c>
       <c r="AX144">
-        <f t="shared" ref="AX144" si="1316">+AW144+1</f>
+        <f t="shared" ref="AX144" si="1320">+AW144+1</f>
         <v>46</v>
       </c>
       <c r="AY144">
-        <f t="shared" ref="AY144" si="1317">+AX144+1</f>
+        <f t="shared" ref="AY144" si="1321">+AX144+1</f>
         <v>47</v>
       </c>
       <c r="AZ144">
-        <f t="shared" ref="AZ144" si="1318">+AY144+1</f>
+        <f t="shared" ref="AZ144" si="1322">+AY144+1</f>
         <v>48</v>
       </c>
       <c r="BA144">
-        <f t="shared" ref="BA144" si="1319">+AZ144+1</f>
+        <f t="shared" ref="BA144" si="1323">+AZ144+1</f>
         <v>49</v>
       </c>
       <c r="BB144">
-        <f t="shared" ref="BB144" si="1320">+BA144+1</f>
+        <f t="shared" ref="BB144" si="1324">+BA144+1</f>
         <v>50</v>
       </c>
       <c r="BC144">
-        <f t="shared" ref="BC144" si="1321">+BB144+1</f>
+        <f t="shared" ref="BC144" si="1325">+BB144+1</f>
         <v>51</v>
       </c>
       <c r="BD144">
-        <f t="shared" ref="BD144" si="1322">+BC144+1</f>
+        <f t="shared" ref="BD144" si="1326">+BC144+1</f>
         <v>52</v>
       </c>
       <c r="BE144">
-        <f t="shared" ref="BE144" si="1323">+BD144+1</f>
+        <f t="shared" ref="BE144" si="1327">+BD144+1</f>
         <v>53</v>
       </c>
       <c r="BF144">
-        <f t="shared" ref="BF144" si="1324">+BE144+1</f>
+        <f t="shared" ref="BF144" si="1328">+BE144+1</f>
         <v>54</v>
       </c>
       <c r="BG144">
-        <f t="shared" ref="BG144" si="1325">+BF144+1</f>
+        <f t="shared" ref="BG144" si="1329">+BF144+1</f>
         <v>55</v>
       </c>
       <c r="BH144">
-        <f t="shared" ref="BH144" si="1326">+BG144+1</f>
+        <f t="shared" ref="BH144" si="1330">+BG144+1</f>
         <v>56</v>
       </c>
       <c r="BI144">
-        <f t="shared" ref="BI144" si="1327">+BH144+1</f>
+        <f t="shared" ref="BI144" si="1331">+BH144+1</f>
         <v>57</v>
       </c>
       <c r="BJ144">
-        <f t="shared" ref="BJ144" si="1328">+BI144+1</f>
+        <f t="shared" ref="BJ144" si="1332">+BI144+1</f>
         <v>58</v>
       </c>
       <c r="BK144">
-        <f t="shared" ref="BK144" si="1329">+BJ144+1</f>
+        <f t="shared" ref="BK144" si="1333">+BJ144+1</f>
         <v>59</v>
       </c>
       <c r="BL144">
-        <f t="shared" ref="BL144" si="1330">+BK144+1</f>
+        <f t="shared" ref="BL144" si="1334">+BK144+1</f>
         <v>60</v>
       </c>
       <c r="BM144">
-        <f t="shared" ref="BM144" si="1331">+BL144+1</f>
+        <f t="shared" ref="BM144" si="1335">+BL144+1</f>
         <v>61</v>
       </c>
     </row>
@@ -13348,31 +13400,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q145" s="4">
-        <f t="shared" ref="Q145" si="1332">+P145*(1+Q142)</f>
+        <f t="shared" ref="Q145" si="1336">+P145*(1+Q142)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R145" s="4">
-        <f t="shared" ref="R145" si="1333">+Q145*(1+R142)</f>
+        <f t="shared" ref="R145" si="1337">+Q145*(1+R142)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S145" s="4">
-        <f t="shared" ref="S145" si="1334">+R145*(1+S142)</f>
+        <f t="shared" ref="S145" si="1338">+R145*(1+S142)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T145" s="4">
-        <f t="shared" ref="T145" si="1335">+S145*(1+T142)</f>
+        <f t="shared" ref="T145" si="1339">+S145*(1+T142)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U145" s="4">
-        <f t="shared" ref="U145" si="1336">+T145*(1+U142)</f>
+        <f t="shared" ref="U145" si="1340">+T145*(1+U142)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V145" s="4">
-        <f t="shared" ref="V145" si="1337">+U145*(1+V142)</f>
+        <f t="shared" ref="V145" si="1341">+U145*(1+V142)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W145" s="4">
-        <f t="shared" ref="W145" si="1338">+V145*(1+W142)</f>
+        <f t="shared" ref="W145" si="1342">+V145*(1+W142)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X145" s="4">
@@ -13380,163 +13432,163 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y145" s="4">
-        <f t="shared" ref="Y145" si="1339">+X145*(1+Y142)</f>
+        <f t="shared" ref="Y145" si="1343">+X145*(1+Y142)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z145" s="4">
-        <f t="shared" ref="Z145" si="1340">+Y145*(1+Z142)</f>
+        <f t="shared" ref="Z145" si="1344">+Y145*(1+Z142)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA145" s="4">
-        <f t="shared" ref="AA145" si="1341">+Z145*(1+AA142)</f>
+        <f t="shared" ref="AA145" si="1345">+Z145*(1+AA142)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB145" s="4">
-        <f t="shared" ref="AB145" si="1342">+AA145*(1+AB142)</f>
+        <f t="shared" ref="AB145" si="1346">+AA145*(1+AB142)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC145" s="4">
-        <f t="shared" ref="AC145" si="1343">+AB145*(1+AC142)</f>
+        <f t="shared" ref="AC145" si="1347">+AB145*(1+AC142)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD145" s="4">
-        <f t="shared" ref="AD145" si="1344">+AC145*(1+AD142)</f>
+        <f t="shared" ref="AD145" si="1348">+AC145*(1+AD142)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE145" s="4">
-        <f t="shared" ref="AE145" si="1345">+AD145*(1+AE142)</f>
+        <f t="shared" ref="AE145" si="1349">+AD145*(1+AE142)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF145" s="4">
-        <f t="shared" ref="AF145" si="1346">+AE145*(1+AF142)</f>
+        <f t="shared" ref="AF145" si="1350">+AE145*(1+AF142)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG145" s="4">
-        <f t="shared" ref="AG145" si="1347">+AF145*(1+AG142)</f>
+        <f t="shared" ref="AG145" si="1351">+AF145*(1+AG142)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH145" s="4">
-        <f t="shared" ref="AH145" si="1348">+AG145*(1+AH142)</f>
+        <f t="shared" ref="AH145" si="1352">+AG145*(1+AH142)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI145" s="4">
-        <f t="shared" ref="AI145" si="1349">+AH145*(1+AI142)</f>
+        <f t="shared" ref="AI145" si="1353">+AH145*(1+AI142)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ145" s="4">
-        <f t="shared" ref="AJ145" si="1350">+AI145*(1+AJ142)</f>
+        <f t="shared" ref="AJ145" si="1354">+AI145*(1+AJ142)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK145" s="4">
-        <f t="shared" ref="AK145" si="1351">+AJ145*(1+AK142)</f>
+        <f t="shared" ref="AK145" si="1355">+AJ145*(1+AK142)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL145" s="4">
-        <f t="shared" ref="AL145" si="1352">+AK145*(1+AL142)</f>
+        <f t="shared" ref="AL145" si="1356">+AK145*(1+AL142)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM145" s="4">
-        <f t="shared" ref="AM145" si="1353">+AL145*(1+AM142)</f>
+        <f t="shared" ref="AM145" si="1357">+AL145*(1+AM142)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN145" s="4">
-        <f t="shared" ref="AN145" si="1354">+AM145*(1+AN142)</f>
+        <f t="shared" ref="AN145" si="1358">+AM145*(1+AN142)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO145" s="4">
-        <f t="shared" ref="AO145" si="1355">+AN145*(1+AO142)</f>
+        <f t="shared" ref="AO145" si="1359">+AN145*(1+AO142)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP145" s="4">
-        <f t="shared" ref="AP145" si="1356">+AO145*(1+AP142)</f>
+        <f t="shared" ref="AP145" si="1360">+AO145*(1+AP142)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ145" s="4">
-        <f t="shared" ref="AQ145" si="1357">+AP145*(1+AQ142)</f>
+        <f t="shared" ref="AQ145" si="1361">+AP145*(1+AQ142)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR145" s="4">
-        <f t="shared" ref="AR145" si="1358">+AQ145*(1+AR142)</f>
+        <f t="shared" ref="AR145" si="1362">+AQ145*(1+AR142)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS145" s="4">
-        <f t="shared" ref="AS145" si="1359">+AR145*(1+AS142)</f>
+        <f t="shared" ref="AS145" si="1363">+AR145*(1+AS142)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT145" s="4">
-        <f t="shared" ref="AT145" si="1360">+AS145*(1+AT142)</f>
+        <f t="shared" ref="AT145" si="1364">+AS145*(1+AT142)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU145" s="4">
-        <f t="shared" ref="AU145" si="1361">+AT145*(1+AU142)</f>
+        <f t="shared" ref="AU145" si="1365">+AT145*(1+AU142)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV145" s="4">
-        <f t="shared" ref="AV145" si="1362">+AU145*(1+AV142)</f>
+        <f t="shared" ref="AV145" si="1366">+AU145*(1+AV142)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW145" s="4">
-        <f t="shared" ref="AW145" si="1363">+AV145*(1+AW142)</f>
+        <f t="shared" ref="AW145" si="1367">+AV145*(1+AW142)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX145" s="4">
-        <f t="shared" ref="AX145" si="1364">+AW145*(1+AX142)</f>
+        <f t="shared" ref="AX145" si="1368">+AW145*(1+AX142)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY145" s="4">
-        <f t="shared" ref="AY145" si="1365">+AX145*(1+AY142)</f>
+        <f t="shared" ref="AY145" si="1369">+AX145*(1+AY142)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ145" s="4">
-        <f t="shared" ref="AZ145" si="1366">+AY145*(1+AZ142)</f>
+        <f t="shared" ref="AZ145" si="1370">+AY145*(1+AZ142)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA145" s="4">
-        <f t="shared" ref="BA145" si="1367">+AZ145*(1+BA142)</f>
+        <f t="shared" ref="BA145" si="1371">+AZ145*(1+BA142)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB145" s="4">
-        <f t="shared" ref="BB145" si="1368">+BA145*(1+BB142)</f>
+        <f t="shared" ref="BB145" si="1372">+BA145*(1+BB142)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC145" s="4">
-        <f t="shared" ref="BC145" si="1369">+BB145*(1+BC142)</f>
+        <f t="shared" ref="BC145" si="1373">+BB145*(1+BC142)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD145" s="4">
-        <f t="shared" ref="BD145" si="1370">+BC145*(1+BD142)</f>
+        <f t="shared" ref="BD145" si="1374">+BC145*(1+BD142)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE145" s="4">
-        <f t="shared" ref="BE145" si="1371">+BD145*(1+BE142)</f>
+        <f t="shared" ref="BE145" si="1375">+BD145*(1+BE142)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF145" s="4">
-        <f t="shared" ref="BF145" si="1372">+BE145*(1+BF142)</f>
+        <f t="shared" ref="BF145" si="1376">+BE145*(1+BF142)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG145" s="4">
-        <f t="shared" ref="BG145" si="1373">+BF145*(1+BG142)</f>
+        <f t="shared" ref="BG145" si="1377">+BF145*(1+BG142)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH145" s="4">
-        <f t="shared" ref="BH145" si="1374">+BG145*(1+BH142)</f>
+        <f t="shared" ref="BH145" si="1378">+BG145*(1+BH142)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI145" s="4">
-        <f t="shared" ref="BI145" si="1375">+BH145*(1+BI142)</f>
+        <f t="shared" ref="BI145" si="1379">+BH145*(1+BI142)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ145" s="4">
-        <f t="shared" ref="BJ145" si="1376">+BI145*(1+BJ142)</f>
+        <f t="shared" ref="BJ145" si="1380">+BI145*(1+BJ142)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK145" s="4">
-        <f t="shared" ref="BK145" si="1377">+BJ145*(1+BK142)</f>
+        <f t="shared" ref="BK145" si="1381">+BJ145*(1+BK142)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL145" s="4">
-        <f t="shared" ref="BL145" si="1378">+BK145*(1+BL142)</f>
+        <f t="shared" ref="BL145" si="1382">+BK145*(1+BL142)</f>
         <v>3232.3580517264741</v>
       </c>
       <c r="BM145" s="5">
@@ -13550,243 +13602,243 @@
         <v>-0.91474570069520678</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" ref="F146:BM146" si="1379">-PV($D$144,F144,0,F145)</f>
+        <f t="shared" ref="F146:BM146" si="1383">-PV($D$144,F144,0,F145)</f>
         <v>-0.83675969694036478</v>
       </c>
       <c r="G146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.76542233529122283</v>
       </c>
       <c r="H146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.70016679042373109</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.64047456130966995</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.5858713513626691</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.53592329981949249</v>
       </c>
       <c r="L146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.49023353441226897</v>
       </c>
       <c r="M146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.44843901794023877</v>
       </c>
       <c r="N146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>-0.41020766368481409</v>
       </c>
       <c r="O146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.37523569674790902</v>
       </c>
       <c r="P146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.37756976438227219</v>
       </c>
       <c r="Q146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.37991835054930423</v>
       </c>
       <c r="R146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.38228154555820959</v>
       </c>
       <c r="S146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.3846594402799402</v>
       </c>
       <c r="T146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.38705212615068996</v>
       </c>
       <c r="U146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.38945969517541074</v>
       </c>
       <c r="V146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.39188223993135007</v>
       </c>
       <c r="W146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.39431985357161098</v>
       </c>
       <c r="X146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.39677262982873401</v>
       </c>
       <c r="Y146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.4355352687472383</v>
       </c>
       <c r="Z146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.47808481750520115</v>
       </c>
       <c r="AA146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.52479123765664237</v>
       </c>
       <c r="AB146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.57606063409071595</v>
       </c>
       <c r="AC146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.63233878604908467</v>
       </c>
       <c r="AD146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.69411502310547157</v>
       </c>
       <c r="AE146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.7619264798084211</v>
       </c>
       <c r="AF146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.83636276598070369</v>
       </c>
       <c r="AG146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>0.91807109328288006</v>
       </c>
       <c r="AH146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>1.007761902615675</v>
       </c>
       <c r="AI146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>1.1983996280647435</v>
       </c>
       <c r="AJ146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>1.4251001797330467</v>
       </c>
       <c r="AK146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>2.0152682067102115</v>
       </c>
       <c r="AM146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>2.3964953061866767</v>
       </c>
       <c r="AN146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>2.8498389114916574</v>
       </c>
       <c r="AO146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>3.3889412595491724</v>
       </c>
       <c r="AP146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>4.0300252812055648</v>
       </c>
       <c r="AQ146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>4.7923827895785172</v>
       </c>
       <c r="AR146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>5.6989550187084443</v>
       </c>
       <c r="AS146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>6.2557135221827069</v>
       </c>
       <c r="AT146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>6.8668644590369983</v>
       </c>
       <c r="AU146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>7.5377216893929733</v>
       </c>
       <c r="AV146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>8.2741182100910784</v>
       </c>
       <c r="AW146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>9.0824568716696792</v>
       </c>
       <c r="AX146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>9.9697660501313727</v>
       </c>
       <c r="AY146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>10.943760757553648</v>
       </c>
       <c r="AZ146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>12.012909722890942</v>
       </c>
       <c r="BA146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>13.186509026224963</v>
       </c>
       <c r="BB146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.474762926701384</v>
       </c>
       <c r="BC146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.564799871360709</v>
       </c>
       <c r="BD146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.655396870194636</v>
       </c>
       <c r="BE146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.746557406891789</v>
       </c>
       <c r="BF146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.838284986810255</v>
       </c>
       <c r="BG146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>14.930583137112407</v>
       </c>
       <c r="BH146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>15.023455406900519</v>
       </c>
       <c r="BI146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>15.116905367353253</v>
       </c>
       <c r="BJ146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>15.210936611862952</v>
       </c>
       <c r="BK146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>15.305552756173846</v>
       </c>
       <c r="BL146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>15.400757438521071</v>
       </c>
       <c r="BM146" s="3">
-        <f t="shared" si="1379"/>
+        <f t="shared" si="1383"/>
         <v>151.15640187056732</v>
       </c>
     </row>
@@ -14030,239 +14082,239 @@
         <v>2</v>
       </c>
       <c r="G158">
-        <f t="shared" ref="G158" si="1380">+F158+1</f>
+        <f t="shared" ref="G158" si="1384">+F158+1</f>
         <v>3</v>
       </c>
       <c r="H158">
-        <f t="shared" ref="H158" si="1381">+G158+1</f>
+        <f t="shared" ref="H158" si="1385">+G158+1</f>
         <v>4</v>
       </c>
       <c r="I158">
-        <f t="shared" ref="I158" si="1382">+H158+1</f>
+        <f t="shared" ref="I158" si="1386">+H158+1</f>
         <v>5</v>
       </c>
       <c r="J158">
-        <f t="shared" ref="J158" si="1383">+I158+1</f>
+        <f t="shared" ref="J158" si="1387">+I158+1</f>
         <v>6</v>
       </c>
       <c r="K158">
-        <f t="shared" ref="K158" si="1384">+J158+1</f>
+        <f t="shared" ref="K158" si="1388">+J158+1</f>
         <v>7</v>
       </c>
       <c r="L158">
-        <f t="shared" ref="L158" si="1385">+K158+1</f>
+        <f t="shared" ref="L158" si="1389">+K158+1</f>
         <v>8</v>
       </c>
       <c r="M158">
-        <f t="shared" ref="M158" si="1386">+L158+1</f>
+        <f t="shared" ref="M158" si="1390">+L158+1</f>
         <v>9</v>
       </c>
       <c r="N158">
-        <f t="shared" ref="N158" si="1387">+M158+1</f>
+        <f t="shared" ref="N158" si="1391">+M158+1</f>
         <v>10</v>
       </c>
       <c r="O158">
-        <f t="shared" ref="O158" si="1388">+N158+1</f>
+        <f t="shared" ref="O158" si="1392">+N158+1</f>
         <v>11</v>
       </c>
       <c r="P158">
-        <f t="shared" ref="P158" si="1389">+O158+1</f>
+        <f t="shared" ref="P158" si="1393">+O158+1</f>
         <v>12</v>
       </c>
       <c r="Q158">
-        <f t="shared" ref="Q158" si="1390">+P158+1</f>
+        <f t="shared" ref="Q158" si="1394">+P158+1</f>
         <v>13</v>
       </c>
       <c r="R158">
-        <f t="shared" ref="R158" si="1391">+Q158+1</f>
+        <f t="shared" ref="R158" si="1395">+Q158+1</f>
         <v>14</v>
       </c>
       <c r="S158">
-        <f t="shared" ref="S158" si="1392">+R158+1</f>
+        <f t="shared" ref="S158" si="1396">+R158+1</f>
         <v>15</v>
       </c>
       <c r="T158">
-        <f t="shared" ref="T158" si="1393">+S158+1</f>
+        <f t="shared" ref="T158" si="1397">+S158+1</f>
         <v>16</v>
       </c>
       <c r="U158">
-        <f t="shared" ref="U158" si="1394">+T158+1</f>
+        <f t="shared" ref="U158" si="1398">+T158+1</f>
         <v>17</v>
       </c>
       <c r="V158">
-        <f t="shared" ref="V158" si="1395">+U158+1</f>
+        <f t="shared" ref="V158" si="1399">+U158+1</f>
         <v>18</v>
       </c>
       <c r="W158">
-        <f t="shared" ref="W158" si="1396">+V158+1</f>
+        <f t="shared" ref="W158" si="1400">+V158+1</f>
         <v>19</v>
       </c>
       <c r="X158">
-        <f t="shared" ref="X158" si="1397">+W158+1</f>
+        <f t="shared" ref="X158" si="1401">+W158+1</f>
         <v>20</v>
       </c>
       <c r="Y158">
-        <f t="shared" ref="Y158" si="1398">+X158+1</f>
+        <f t="shared" ref="Y158" si="1402">+X158+1</f>
         <v>21</v>
       </c>
       <c r="Z158">
-        <f t="shared" ref="Z158" si="1399">+Y158+1</f>
+        <f t="shared" ref="Z158" si="1403">+Y158+1</f>
         <v>22</v>
       </c>
       <c r="AA158">
-        <f t="shared" ref="AA158" si="1400">+Z158+1</f>
+        <f t="shared" ref="AA158" si="1404">+Z158+1</f>
         <v>23</v>
       </c>
       <c r="AB158">
-        <f t="shared" ref="AB158" si="1401">+AA158+1</f>
+        <f t="shared" ref="AB158" si="1405">+AA158+1</f>
         <v>24</v>
       </c>
       <c r="AC158">
-        <f t="shared" ref="AC158" si="1402">+AB158+1</f>
+        <f t="shared" ref="AC158" si="1406">+AB158+1</f>
         <v>25</v>
       </c>
       <c r="AD158">
-        <f t="shared" ref="AD158" si="1403">+AC158+1</f>
+        <f t="shared" ref="AD158" si="1407">+AC158+1</f>
         <v>26</v>
       </c>
       <c r="AE158">
-        <f t="shared" ref="AE158" si="1404">+AD158+1</f>
+        <f t="shared" ref="AE158" si="1408">+AD158+1</f>
         <v>27</v>
       </c>
       <c r="AF158">
-        <f t="shared" ref="AF158" si="1405">+AE158+1</f>
+        <f t="shared" ref="AF158" si="1409">+AE158+1</f>
         <v>28</v>
       </c>
       <c r="AG158">
-        <f t="shared" ref="AG158" si="1406">+AF158+1</f>
+        <f t="shared" ref="AG158" si="1410">+AF158+1</f>
         <v>29</v>
       </c>
       <c r="AH158">
-        <f t="shared" ref="AH158" si="1407">+AG158+1</f>
+        <f t="shared" ref="AH158" si="1411">+AG158+1</f>
         <v>30</v>
       </c>
       <c r="AI158">
-        <f t="shared" ref="AI158" si="1408">+AH158+1</f>
+        <f t="shared" ref="AI158" si="1412">+AH158+1</f>
         <v>31</v>
       </c>
       <c r="AJ158">
-        <f t="shared" ref="AJ158" si="1409">+AI158+1</f>
+        <f t="shared" ref="AJ158" si="1413">+AI158+1</f>
         <v>32</v>
       </c>
       <c r="AK158">
-        <f t="shared" ref="AK158" si="1410">+AJ158+1</f>
+        <f t="shared" ref="AK158" si="1414">+AJ158+1</f>
         <v>33</v>
       </c>
       <c r="AL158">
-        <f t="shared" ref="AL158" si="1411">+AK158+1</f>
+        <f t="shared" ref="AL158" si="1415">+AK158+1</f>
         <v>34</v>
       </c>
       <c r="AM158">
-        <f t="shared" ref="AM158" si="1412">+AL158+1</f>
+        <f t="shared" ref="AM158" si="1416">+AL158+1</f>
         <v>35</v>
       </c>
       <c r="AN158">
-        <f t="shared" ref="AN158" si="1413">+AM158+1</f>
+        <f t="shared" ref="AN158" si="1417">+AM158+1</f>
         <v>36</v>
       </c>
       <c r="AO158">
-        <f t="shared" ref="AO158" si="1414">+AN158+1</f>
+        <f t="shared" ref="AO158" si="1418">+AN158+1</f>
         <v>37</v>
       </c>
       <c r="AP158">
-        <f t="shared" ref="AP158" si="1415">+AO158+1</f>
+        <f t="shared" ref="AP158" si="1419">+AO158+1</f>
         <v>38</v>
       </c>
       <c r="AQ158">
-        <f t="shared" ref="AQ158" si="1416">+AP158+1</f>
+        <f t="shared" ref="AQ158" si="1420">+AP158+1</f>
         <v>39</v>
       </c>
       <c r="AR158">
-        <f t="shared" ref="AR158" si="1417">+AQ158+1</f>
+        <f t="shared" ref="AR158" si="1421">+AQ158+1</f>
         <v>40</v>
       </c>
       <c r="AS158">
-        <f t="shared" ref="AS158" si="1418">+AR158+1</f>
+        <f t="shared" ref="AS158" si="1422">+AR158+1</f>
         <v>41</v>
       </c>
       <c r="AT158">
-        <f t="shared" ref="AT158" si="1419">+AS158+1</f>
+        <f t="shared" ref="AT158" si="1423">+AS158+1</f>
         <v>42</v>
       </c>
       <c r="AU158">
-        <f t="shared" ref="AU158" si="1420">+AT158+1</f>
+        <f t="shared" ref="AU158" si="1424">+AT158+1</f>
         <v>43</v>
       </c>
       <c r="AV158">
-        <f t="shared" ref="AV158" si="1421">+AU158+1</f>
+        <f t="shared" ref="AV158" si="1425">+AU158+1</f>
         <v>44</v>
       </c>
       <c r="AW158">
-        <f t="shared" ref="AW158" si="1422">+AV158+1</f>
+        <f t="shared" ref="AW158" si="1426">+AV158+1</f>
         <v>45</v>
       </c>
       <c r="AX158">
-        <f t="shared" ref="AX158" si="1423">+AW158+1</f>
+        <f t="shared" ref="AX158" si="1427">+AW158+1</f>
         <v>46</v>
       </c>
       <c r="AY158">
-        <f t="shared" ref="AY158" si="1424">+AX158+1</f>
+        <f t="shared" ref="AY158" si="1428">+AX158+1</f>
         <v>47</v>
       </c>
       <c r="AZ158">
-        <f t="shared" ref="AZ158" si="1425">+AY158+1</f>
+        <f t="shared" ref="AZ158" si="1429">+AY158+1</f>
         <v>48</v>
       </c>
       <c r="BA158">
-        <f t="shared" ref="BA158" si="1426">+AZ158+1</f>
+        <f t="shared" ref="BA158" si="1430">+AZ158+1</f>
         <v>49</v>
       </c>
       <c r="BB158">
-        <f t="shared" ref="BB158" si="1427">+BA158+1</f>
+        <f t="shared" ref="BB158" si="1431">+BA158+1</f>
         <v>50</v>
       </c>
       <c r="BC158">
-        <f t="shared" ref="BC158" si="1428">+BB158+1</f>
+        <f t="shared" ref="BC158" si="1432">+BB158+1</f>
         <v>51</v>
       </c>
       <c r="BD158">
-        <f t="shared" ref="BD158" si="1429">+BC158+1</f>
+        <f t="shared" ref="BD158" si="1433">+BC158+1</f>
         <v>52</v>
       </c>
       <c r="BE158">
-        <f t="shared" ref="BE158" si="1430">+BD158+1</f>
+        <f t="shared" ref="BE158" si="1434">+BD158+1</f>
         <v>53</v>
       </c>
       <c r="BF158">
-        <f t="shared" ref="BF158" si="1431">+BE158+1</f>
+        <f t="shared" ref="BF158" si="1435">+BE158+1</f>
         <v>54</v>
       </c>
       <c r="BG158">
-        <f t="shared" ref="BG158" si="1432">+BF158+1</f>
+        <f t="shared" ref="BG158" si="1436">+BF158+1</f>
         <v>55</v>
       </c>
       <c r="BH158">
-        <f t="shared" ref="BH158" si="1433">+BG158+1</f>
+        <f t="shared" ref="BH158" si="1437">+BG158+1</f>
         <v>56</v>
       </c>
       <c r="BI158">
-        <f t="shared" ref="BI158" si="1434">+BH158+1</f>
+        <f t="shared" ref="BI158" si="1438">+BH158+1</f>
         <v>57</v>
       </c>
       <c r="BJ158">
-        <f t="shared" ref="BJ158" si="1435">+BI158+1</f>
+        <f t="shared" ref="BJ158" si="1439">+BI158+1</f>
         <v>58</v>
       </c>
       <c r="BK158">
-        <f t="shared" ref="BK158" si="1436">+BJ158+1</f>
+        <f t="shared" ref="BK158" si="1440">+BJ158+1</f>
         <v>59</v>
       </c>
       <c r="BL158">
-        <f t="shared" ref="BL158" si="1437">+BK158+1</f>
+        <f t="shared" ref="BL158" si="1441">+BK158+1</f>
         <v>60</v>
       </c>
       <c r="BM158">
-        <f t="shared" ref="BM158" si="1438">+BL158+1</f>
+        <f t="shared" ref="BM158" si="1442">+BL158+1</f>
         <v>61</v>
       </c>
     </row>
@@ -14313,31 +14365,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q159" s="4">
-        <f t="shared" ref="Q159" si="1439">+P159*(1+Q156)</f>
+        <f t="shared" ref="Q159" si="1443">+P159*(1+Q156)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R159" s="4">
-        <f t="shared" ref="R159" si="1440">+Q159*(1+R156)</f>
+        <f t="shared" ref="R159" si="1444">+Q159*(1+R156)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S159" s="4">
-        <f t="shared" ref="S159" si="1441">+R159*(1+S156)</f>
+        <f t="shared" ref="S159" si="1445">+R159*(1+S156)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T159" s="4">
-        <f t="shared" ref="T159" si="1442">+S159*(1+T156)</f>
+        <f t="shared" ref="T159" si="1446">+S159*(1+T156)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U159" s="4">
-        <f t="shared" ref="U159" si="1443">+T159*(1+U156)</f>
+        <f t="shared" ref="U159" si="1447">+T159*(1+U156)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V159" s="4">
-        <f t="shared" ref="V159" si="1444">+U159*(1+V156)</f>
+        <f t="shared" ref="V159" si="1448">+U159*(1+V156)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W159" s="4">
-        <f t="shared" ref="W159" si="1445">+V159*(1+W156)</f>
+        <f t="shared" ref="W159" si="1449">+V159*(1+W156)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X159" s="4">
@@ -14345,159 +14397,159 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y159" s="4">
-        <f t="shared" ref="Y159" si="1446">+X159*(1+Y156)</f>
+        <f t="shared" ref="Y159" si="1450">+X159*(1+Y156)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z159" s="4">
-        <f t="shared" ref="Z159" si="1447">+Y159*(1+Z156)</f>
+        <f t="shared" ref="Z159" si="1451">+Y159*(1+Z156)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA159" s="4">
-        <f t="shared" ref="AA159" si="1448">+Z159*(1+AA156)</f>
+        <f t="shared" ref="AA159" si="1452">+Z159*(1+AA156)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB159" s="4">
-        <f t="shared" ref="AB159" si="1449">+AA159*(1+AB156)</f>
+        <f t="shared" ref="AB159" si="1453">+AA159*(1+AB156)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC159" s="4">
-        <f t="shared" ref="AC159" si="1450">+AB159*(1+AC156)</f>
+        <f t="shared" ref="AC159" si="1454">+AB159*(1+AC156)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD159" s="4">
-        <f t="shared" ref="AD159" si="1451">+AC159*(1+AD156)</f>
+        <f t="shared" ref="AD159" si="1455">+AC159*(1+AD156)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE159" s="4">
-        <f t="shared" ref="AE159" si="1452">+AD159*(1+AE156)</f>
+        <f t="shared" ref="AE159" si="1456">+AD159*(1+AE156)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF159" s="4">
-        <f t="shared" ref="AF159" si="1453">+AE159*(1+AF156)</f>
+        <f t="shared" ref="AF159" si="1457">+AE159*(1+AF156)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG159" s="4">
-        <f t="shared" ref="AG159" si="1454">+AF159*(1+AG156)</f>
+        <f t="shared" ref="AG159" si="1458">+AF159*(1+AG156)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH159" s="4">
-        <f t="shared" ref="AH159" si="1455">+AG159*(1+AH156)</f>
+        <f t="shared" ref="AH159" si="1459">+AG159*(1+AH156)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI159" s="4">
-        <f t="shared" ref="AI159" si="1456">+AH159*(1+AI156)</f>
+        <f t="shared" ref="AI159" si="1460">+AH159*(1+AI156)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ159" s="4">
-        <f t="shared" ref="AJ159" si="1457">+AI159*(1+AJ156)</f>
+        <f t="shared" ref="AJ159" si="1461">+AI159*(1+AJ156)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK159" s="4">
-        <f t="shared" ref="AK159" si="1458">+AJ159*(1+AK156)</f>
+        <f t="shared" ref="AK159" si="1462">+AJ159*(1+AK156)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL159" s="4">
-        <f t="shared" ref="AL159" si="1459">+AK159*(1+AL156)</f>
+        <f t="shared" ref="AL159" si="1463">+AK159*(1+AL156)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM159" s="4">
-        <f t="shared" ref="AM159" si="1460">+AL159*(1+AM156)</f>
+        <f t="shared" ref="AM159" si="1464">+AL159*(1+AM156)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN159" s="4">
-        <f t="shared" ref="AN159" si="1461">+AM159*(1+AN156)</f>
+        <f t="shared" ref="AN159" si="1465">+AM159*(1+AN156)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO159" s="4">
-        <f t="shared" ref="AO159" si="1462">+AN159*(1+AO156)</f>
+        <f t="shared" ref="AO159" si="1466">+AN159*(1+AO156)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP159" s="4">
-        <f t="shared" ref="AP159" si="1463">+AO159*(1+AP156)</f>
+        <f t="shared" ref="AP159" si="1467">+AO159*(1+AP156)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ159" s="4">
-        <f t="shared" ref="AQ159" si="1464">+AP159*(1+AQ156)</f>
+        <f t="shared" ref="AQ159" si="1468">+AP159*(1+AQ156)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR159" s="4">
-        <f t="shared" ref="AR159" si="1465">+AQ159*(1+AR156)</f>
+        <f t="shared" ref="AR159" si="1469">+AQ159*(1+AR156)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS159" s="4">
-        <f t="shared" ref="AS159" si="1466">+AR159*(1+AS156)</f>
+        <f t="shared" ref="AS159" si="1470">+AR159*(1+AS156)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT159" s="4">
-        <f t="shared" ref="AT159" si="1467">+AS159*(1+AT156)</f>
+        <f t="shared" ref="AT159" si="1471">+AS159*(1+AT156)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU159" s="4">
-        <f t="shared" ref="AU159" si="1468">+AT159*(1+AU156)</f>
+        <f t="shared" ref="AU159" si="1472">+AT159*(1+AU156)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV159" s="4">
-        <f t="shared" ref="AV159" si="1469">+AU159*(1+AV156)</f>
+        <f t="shared" ref="AV159" si="1473">+AU159*(1+AV156)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW159" s="4">
-        <f t="shared" ref="AW159" si="1470">+AV159*(1+AW156)</f>
+        <f t="shared" ref="AW159" si="1474">+AV159*(1+AW156)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX159" s="4">
-        <f t="shared" ref="AX159" si="1471">+AW159*(1+AX156)</f>
+        <f t="shared" ref="AX159" si="1475">+AW159*(1+AX156)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY159" s="4">
-        <f t="shared" ref="AY159" si="1472">+AX159*(1+AY156)</f>
+        <f t="shared" ref="AY159" si="1476">+AX159*(1+AY156)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ159" s="4">
-        <f t="shared" ref="AZ159" si="1473">+AY159*(1+AZ156)</f>
+        <f t="shared" ref="AZ159" si="1477">+AY159*(1+AZ156)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA159" s="4">
-        <f t="shared" ref="BA159" si="1474">+AZ159*(1+BA156)</f>
+        <f t="shared" ref="BA159" si="1478">+AZ159*(1+BA156)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB159" s="4">
-        <f t="shared" ref="BB159" si="1475">+BA159*(1+BB156)</f>
+        <f t="shared" ref="BB159" si="1479">+BA159*(1+BB156)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC159" s="4">
-        <f t="shared" ref="BC159" si="1476">+BB159*(1+BC156)</f>
+        <f t="shared" ref="BC159" si="1480">+BB159*(1+BC156)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD159" s="4">
-        <f t="shared" ref="BD159" si="1477">+BC159*(1+BD156)</f>
+        <f t="shared" ref="BD159" si="1481">+BC159*(1+BD156)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE159" s="4">
-        <f t="shared" ref="BE159" si="1478">+BD159*(1+BE156)</f>
+        <f t="shared" ref="BE159" si="1482">+BD159*(1+BE156)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF159" s="4">
-        <f t="shared" ref="BF159" si="1479">+BE159*(1+BF156)</f>
+        <f t="shared" ref="BF159" si="1483">+BE159*(1+BF156)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG159" s="4">
-        <f t="shared" ref="BG159" si="1480">+BF159*(1+BG156)</f>
+        <f t="shared" ref="BG159" si="1484">+BF159*(1+BG156)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH159" s="4">
-        <f t="shared" ref="BH159" si="1481">+BG159*(1+BH156)</f>
+        <f t="shared" ref="BH159" si="1485">+BG159*(1+BH156)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI159" s="4">
-        <f t="shared" ref="BI159" si="1482">+BH159*(1+BI156)</f>
+        <f t="shared" ref="BI159" si="1486">+BH159*(1+BI156)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ159" s="4">
-        <f t="shared" ref="BJ159" si="1483">+BI159*(1+BJ156)</f>
+        <f t="shared" ref="BJ159" si="1487">+BI159*(1+BJ156)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK159" s="4">
-        <f t="shared" ref="BK159" si="1484">+BJ159*(1+BK156)</f>
+        <f t="shared" ref="BK159" si="1488">+BJ159*(1+BK156)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL159" s="4">
@@ -14515,243 +14567,243 @@
         <v>-0.92021717125241553</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" ref="F160:BM160" si="1485">-PV($D$158,F158,0,F159)</f>
+        <f t="shared" ref="F160:BM160" si="1489">-PV($D$158,F158,0,F159)</f>
         <v>-0.84679964226779758</v>
       </c>
       <c r="G160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.77923957142523004</v>
       </c>
       <c r="H160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.71706963414486979</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.65985979032379671</v>
       </c>
       <c r="J160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.60721430967497625</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.55876903439309489</v>
       </c>
       <c r="L160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.51418886021265742</v>
       </c>
       <c r="M160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.47316541843439541</v>
       </c>
       <c r="N160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>-0.43541494288616489</v>
       </c>
       <c r="O160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.40067630706373875</v>
       </c>
       <c r="P160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.40558013966146372</v>
       </c>
       <c r="Q160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.41054398971897504</v>
       </c>
       <c r="R160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.41556859178326366</v>
       </c>
       <c r="S160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.42065468939135914</v>
       </c>
       <c r="T160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.42580303518035806</v>
       </c>
       <c r="U160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.43101439099879812</v>
       </c>
       <c r="V160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.43628952801939636</v>
       </c>
       <c r="W160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.44162922685316647</v>
       </c>
       <c r="X160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.44703427766493337</v>
       </c>
       <c r="Y160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.49364234213483033</v>
       </c>
       <c r="Z160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.54510979162767681</v>
       </c>
       <c r="AA160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.60194326856833724</v>
       </c>
       <c r="AB160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.66470223822766594</v>
       </c>
       <c r="AC160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.73400449606441442</v>
       </c>
       <c r="AD160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.81053224926594047</v>
       </c>
       <c r="AE160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.8950388323540337</v>
       </c>
       <c r="AF160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>0.98835612296387254</v>
       </c>
       <c r="AG160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>1.0914027307965832</v>
       </c>
       <c r="AH160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>1.2051930403569522</v>
       </c>
       <c r="AI160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>1.4417511295334844</v>
       </c>
       <c r="AJ160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>1.7247413898900619</v>
       </c>
       <c r="AK160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>2.0632776358305698</v>
       </c>
       <c r="AL160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>2.4682625624180923</v>
       </c>
       <c r="AM160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>2.9527388710256006</v>
       </c>
       <c r="AN160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>3.5323093147448983</v>
       </c>
       <c r="AO160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>4.2256391912840421</v>
       </c>
       <c r="AP160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>5.0550574663377699</v>
       </c>
       <c r="AQ160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>6.0472758868492686</v>
       </c>
       <c r="AR160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>7.2342492434931893</v>
       </c>
       <c r="AS160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>7.988496449978677</v>
       </c>
       <c r="AT160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>8.8213819269112079</v>
       </c>
       <c r="AU160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>9.7411045479832978</v>
       </c>
       <c r="AV160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>10.756718006423075</v>
       </c>
       <c r="AW160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>11.878219938996681</v>
       </c>
       <c r="AX160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>13.116650342133077</v>
       </c>
       <c r="AY160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>14.484200248973673</v>
       </c>
       <c r="AZ160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>15.994331737156905</v>
       </c>
       <c r="BA160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>17.661910448687109</v>
       </c>
       <c r="BB160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>19.503351926405202</v>
       </c>
       <c r="BC160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>19.742051273622639</v>
       </c>
       <c r="BD160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>19.983672035506491</v>
       </c>
       <c r="BE160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>20.228249966924768</v>
       </c>
       <c r="BF160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>20.47582126034531</v>
       </c>
       <c r="BG160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>20.726422551191533</v>
       </c>
       <c r="BH160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>20.980090923263724</v>
       </c>
       <c r="BI160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>21.23686391422665</v>
       </c>
       <c r="BJ160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>21.49677952116437</v>
       </c>
       <c r="BK160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>21.759876206203003</v>
       </c>
       <c r="BL160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>22.026192902202361</v>
       </c>
       <c r="BM160" s="3">
-        <f t="shared" si="1485"/>
+        <f t="shared" si="1489"/>
         <v>233.78178691954662</v>
       </c>
     </row>
@@ -14956,239 +15008,239 @@
         <v>2</v>
       </c>
       <c r="G166">
-        <f t="shared" ref="G166" si="1486">+F166+1</f>
+        <f t="shared" ref="G166" si="1490">+F166+1</f>
         <v>3</v>
       </c>
       <c r="H166">
-        <f t="shared" ref="H166" si="1487">+G166+1</f>
+        <f t="shared" ref="H166" si="1491">+G166+1</f>
         <v>4</v>
       </c>
       <c r="I166">
-        <f t="shared" ref="I166" si="1488">+H166+1</f>
+        <f t="shared" ref="I166" si="1492">+H166+1</f>
         <v>5</v>
       </c>
       <c r="J166">
-        <f t="shared" ref="J166" si="1489">+I166+1</f>
+        <f t="shared" ref="J166" si="1493">+I166+1</f>
         <v>6</v>
       </c>
       <c r="K166">
-        <f t="shared" ref="K166" si="1490">+J166+1</f>
+        <f t="shared" ref="K166" si="1494">+J166+1</f>
         <v>7</v>
       </c>
       <c r="L166">
-        <f t="shared" ref="L166" si="1491">+K166+1</f>
+        <f t="shared" ref="L166" si="1495">+K166+1</f>
         <v>8</v>
       </c>
       <c r="M166">
-        <f t="shared" ref="M166" si="1492">+L166+1</f>
+        <f t="shared" ref="M166" si="1496">+L166+1</f>
         <v>9</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166" si="1493">+M166+1</f>
+        <f t="shared" ref="N166" si="1497">+M166+1</f>
         <v>10</v>
       </c>
       <c r="O166">
-        <f t="shared" ref="O166" si="1494">+N166+1</f>
+        <f t="shared" ref="O166" si="1498">+N166+1</f>
         <v>11</v>
       </c>
       <c r="P166">
-        <f t="shared" ref="P166" si="1495">+O166+1</f>
+        <f t="shared" ref="P166" si="1499">+O166+1</f>
         <v>12</v>
       </c>
       <c r="Q166">
-        <f t="shared" ref="Q166" si="1496">+P166+1</f>
+        <f t="shared" ref="Q166" si="1500">+P166+1</f>
         <v>13</v>
       </c>
       <c r="R166">
-        <f t="shared" ref="R166" si="1497">+Q166+1</f>
+        <f t="shared" ref="R166" si="1501">+Q166+1</f>
         <v>14</v>
       </c>
       <c r="S166">
-        <f t="shared" ref="S166" si="1498">+R166+1</f>
+        <f t="shared" ref="S166" si="1502">+R166+1</f>
         <v>15</v>
       </c>
       <c r="T166">
-        <f t="shared" ref="T166" si="1499">+S166+1</f>
+        <f t="shared" ref="T166" si="1503">+S166+1</f>
         <v>16</v>
       </c>
       <c r="U166">
-        <f t="shared" ref="U166" si="1500">+T166+1</f>
+        <f t="shared" ref="U166" si="1504">+T166+1</f>
         <v>17</v>
       </c>
       <c r="V166">
-        <f t="shared" ref="V166" si="1501">+U166+1</f>
+        <f t="shared" ref="V166" si="1505">+U166+1</f>
         <v>18</v>
       </c>
       <c r="W166">
-        <f t="shared" ref="W166" si="1502">+V166+1</f>
+        <f t="shared" ref="W166" si="1506">+V166+1</f>
         <v>19</v>
       </c>
       <c r="X166">
-        <f t="shared" ref="X166" si="1503">+W166+1</f>
+        <f t="shared" ref="X166" si="1507">+W166+1</f>
         <v>20</v>
       </c>
       <c r="Y166">
-        <f t="shared" ref="Y166" si="1504">+X166+1</f>
+        <f t="shared" ref="Y166" si="1508">+X166+1</f>
         <v>21</v>
       </c>
       <c r="Z166">
-        <f t="shared" ref="Z166" si="1505">+Y166+1</f>
+        <f t="shared" ref="Z166" si="1509">+Y166+1</f>
         <v>22</v>
       </c>
       <c r="AA166">
-        <f t="shared" ref="AA166" si="1506">+Z166+1</f>
+        <f t="shared" ref="AA166" si="1510">+Z166+1</f>
         <v>23</v>
       </c>
       <c r="AB166">
-        <f t="shared" ref="AB166" si="1507">+AA166+1</f>
+        <f t="shared" ref="AB166" si="1511">+AA166+1</f>
         <v>24</v>
       </c>
       <c r="AC166">
-        <f t="shared" ref="AC166" si="1508">+AB166+1</f>
+        <f t="shared" ref="AC166" si="1512">+AB166+1</f>
         <v>25</v>
       </c>
       <c r="AD166">
-        <f t="shared" ref="AD166" si="1509">+AC166+1</f>
+        <f t="shared" ref="AD166" si="1513">+AC166+1</f>
         <v>26</v>
       </c>
       <c r="AE166">
-        <f t="shared" ref="AE166" si="1510">+AD166+1</f>
+        <f t="shared" ref="AE166" si="1514">+AD166+1</f>
         <v>27</v>
       </c>
       <c r="AF166">
-        <f t="shared" ref="AF166" si="1511">+AE166+1</f>
+        <f t="shared" ref="AF166" si="1515">+AE166+1</f>
         <v>28</v>
       </c>
       <c r="AG166">
-        <f t="shared" ref="AG166" si="1512">+AF166+1</f>
+        <f t="shared" ref="AG166" si="1516">+AF166+1</f>
         <v>29</v>
       </c>
       <c r="AH166">
-        <f t="shared" ref="AH166" si="1513">+AG166+1</f>
+        <f t="shared" ref="AH166" si="1517">+AG166+1</f>
         <v>30</v>
       </c>
       <c r="AI166">
-        <f t="shared" ref="AI166" si="1514">+AH166+1</f>
+        <f t="shared" ref="AI166" si="1518">+AH166+1</f>
         <v>31</v>
       </c>
       <c r="AJ166">
-        <f t="shared" ref="AJ166" si="1515">+AI166+1</f>
+        <f t="shared" ref="AJ166" si="1519">+AI166+1</f>
         <v>32</v>
       </c>
       <c r="AK166">
-        <f t="shared" ref="AK166" si="1516">+AJ166+1</f>
+        <f t="shared" ref="AK166" si="1520">+AJ166+1</f>
         <v>33</v>
       </c>
       <c r="AL166">
-        <f t="shared" ref="AL166" si="1517">+AK166+1</f>
+        <f t="shared" ref="AL166" si="1521">+AK166+1</f>
         <v>34</v>
       </c>
       <c r="AM166">
-        <f t="shared" ref="AM166" si="1518">+AL166+1</f>
+        <f t="shared" ref="AM166" si="1522">+AL166+1</f>
         <v>35</v>
       </c>
       <c r="AN166">
-        <f t="shared" ref="AN166" si="1519">+AM166+1</f>
+        <f t="shared" ref="AN166" si="1523">+AM166+1</f>
         <v>36</v>
       </c>
       <c r="AO166">
-        <f t="shared" ref="AO166" si="1520">+AN166+1</f>
+        <f t="shared" ref="AO166" si="1524">+AN166+1</f>
         <v>37</v>
       </c>
       <c r="AP166">
-        <f t="shared" ref="AP166" si="1521">+AO166+1</f>
+        <f t="shared" ref="AP166" si="1525">+AO166+1</f>
         <v>38</v>
       </c>
       <c r="AQ166">
-        <f t="shared" ref="AQ166" si="1522">+AP166+1</f>
+        <f t="shared" ref="AQ166" si="1526">+AP166+1</f>
         <v>39</v>
       </c>
       <c r="AR166">
-        <f t="shared" ref="AR166" si="1523">+AQ166+1</f>
+        <f t="shared" ref="AR166" si="1527">+AQ166+1</f>
         <v>40</v>
       </c>
       <c r="AS166">
-        <f t="shared" ref="AS166" si="1524">+AR166+1</f>
+        <f t="shared" ref="AS166" si="1528">+AR166+1</f>
         <v>41</v>
       </c>
       <c r="AT166">
-        <f t="shared" ref="AT166" si="1525">+AS166+1</f>
+        <f t="shared" ref="AT166" si="1529">+AS166+1</f>
         <v>42</v>
       </c>
       <c r="AU166">
-        <f t="shared" ref="AU166" si="1526">+AT166+1</f>
+        <f t="shared" ref="AU166" si="1530">+AT166+1</f>
         <v>43</v>
       </c>
       <c r="AV166">
-        <f t="shared" ref="AV166" si="1527">+AU166+1</f>
+        <f t="shared" ref="AV166" si="1531">+AU166+1</f>
         <v>44</v>
       </c>
       <c r="AW166">
-        <f t="shared" ref="AW166" si="1528">+AV166+1</f>
+        <f t="shared" ref="AW166" si="1532">+AV166+1</f>
         <v>45</v>
       </c>
       <c r="AX166">
-        <f t="shared" ref="AX166" si="1529">+AW166+1</f>
+        <f t="shared" ref="AX166" si="1533">+AW166+1</f>
         <v>46</v>
       </c>
       <c r="AY166">
-        <f t="shared" ref="AY166" si="1530">+AX166+1</f>
+        <f t="shared" ref="AY166" si="1534">+AX166+1</f>
         <v>47</v>
       </c>
       <c r="AZ166">
-        <f t="shared" ref="AZ166" si="1531">+AY166+1</f>
+        <f t="shared" ref="AZ166" si="1535">+AY166+1</f>
         <v>48</v>
       </c>
       <c r="BA166">
-        <f t="shared" ref="BA166" si="1532">+AZ166+1</f>
+        <f t="shared" ref="BA166" si="1536">+AZ166+1</f>
         <v>49</v>
       </c>
       <c r="BB166">
-        <f t="shared" ref="BB166" si="1533">+BA166+1</f>
+        <f t="shared" ref="BB166" si="1537">+BA166+1</f>
         <v>50</v>
       </c>
       <c r="BC166">
-        <f t="shared" ref="BC166" si="1534">+BB166+1</f>
+        <f t="shared" ref="BC166" si="1538">+BB166+1</f>
         <v>51</v>
       </c>
       <c r="BD166">
-        <f t="shared" ref="BD166" si="1535">+BC166+1</f>
+        <f t="shared" ref="BD166" si="1539">+BC166+1</f>
         <v>52</v>
       </c>
       <c r="BE166">
-        <f t="shared" ref="BE166" si="1536">+BD166+1</f>
+        <f t="shared" ref="BE166" si="1540">+BD166+1</f>
         <v>53</v>
       </c>
       <c r="BF166">
-        <f t="shared" ref="BF166" si="1537">+BE166+1</f>
+        <f t="shared" ref="BF166" si="1541">+BE166+1</f>
         <v>54</v>
       </c>
       <c r="BG166">
-        <f t="shared" ref="BG166" si="1538">+BF166+1</f>
+        <f t="shared" ref="BG166" si="1542">+BF166+1</f>
         <v>55</v>
       </c>
       <c r="BH166">
-        <f t="shared" ref="BH166" si="1539">+BG166+1</f>
+        <f t="shared" ref="BH166" si="1543">+BG166+1</f>
         <v>56</v>
       </c>
       <c r="BI166">
-        <f t="shared" ref="BI166" si="1540">+BH166+1</f>
+        <f t="shared" ref="BI166" si="1544">+BH166+1</f>
         <v>57</v>
       </c>
       <c r="BJ166">
-        <f t="shared" ref="BJ166" si="1541">+BI166+1</f>
+        <f t="shared" ref="BJ166" si="1545">+BI166+1</f>
         <v>58</v>
       </c>
       <c r="BK166">
-        <f t="shared" ref="BK166" si="1542">+BJ166+1</f>
+        <f t="shared" ref="BK166" si="1546">+BJ166+1</f>
         <v>59</v>
       </c>
       <c r="BL166">
-        <f t="shared" ref="BL166" si="1543">+BK166+1</f>
+        <f t="shared" ref="BL166" si="1547">+BK166+1</f>
         <v>60</v>
       </c>
       <c r="BM166">
-        <f t="shared" ref="BM166" si="1544">+BL166+1</f>
+        <f t="shared" ref="BM166" si="1548">+BL166+1</f>
         <v>61</v>
       </c>
     </row>
@@ -15239,31 +15291,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q167" s="4">
-        <f t="shared" ref="Q167" si="1545">+P167*(1+Q164)</f>
+        <f t="shared" ref="Q167" si="1549">+P167*(1+Q164)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R167" s="4">
-        <f t="shared" ref="R167" si="1546">+Q167*(1+R164)</f>
+        <f t="shared" ref="R167" si="1550">+Q167*(1+R164)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S167" s="4">
-        <f t="shared" ref="S167" si="1547">+R167*(1+S164)</f>
+        <f t="shared" ref="S167" si="1551">+R167*(1+S164)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T167" s="4">
-        <f t="shared" ref="T167" si="1548">+S167*(1+T164)</f>
+        <f t="shared" ref="T167" si="1552">+S167*(1+T164)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U167" s="4">
-        <f t="shared" ref="U167" si="1549">+T167*(1+U164)</f>
+        <f t="shared" ref="U167" si="1553">+T167*(1+U164)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V167" s="4">
-        <f t="shared" ref="V167" si="1550">+U167*(1+V164)</f>
+        <f t="shared" ref="V167" si="1554">+U167*(1+V164)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W167" s="4">
-        <f t="shared" ref="W167" si="1551">+V167*(1+W164)</f>
+        <f t="shared" ref="W167" si="1555">+V167*(1+W164)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X167" s="4">
@@ -15271,163 +15323,163 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y167" s="4">
-        <f t="shared" ref="Y167" si="1552">+X167*(1+Y164)</f>
+        <f t="shared" ref="Y167" si="1556">+X167*(1+Y164)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z167" s="4">
-        <f t="shared" ref="Z167" si="1553">+Y167*(1+Z164)</f>
+        <f t="shared" ref="Z167" si="1557">+Y167*(1+Z164)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA167" s="4">
-        <f t="shared" ref="AA167" si="1554">+Z167*(1+AA164)</f>
+        <f t="shared" ref="AA167" si="1558">+Z167*(1+AA164)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB167" s="4">
-        <f t="shared" ref="AB167" si="1555">+AA167*(1+AB164)</f>
+        <f t="shared" ref="AB167" si="1559">+AA167*(1+AB164)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC167" s="4">
-        <f t="shared" ref="AC167" si="1556">+AB167*(1+AC164)</f>
+        <f t="shared" ref="AC167" si="1560">+AB167*(1+AC164)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD167" s="4">
-        <f t="shared" ref="AD167" si="1557">+AC167*(1+AD164)</f>
+        <f t="shared" ref="AD167" si="1561">+AC167*(1+AD164)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE167" s="4">
-        <f t="shared" ref="AE167" si="1558">+AD167*(1+AE164)</f>
+        <f t="shared" ref="AE167" si="1562">+AD167*(1+AE164)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF167" s="4">
-        <f t="shared" ref="AF167" si="1559">+AE167*(1+AF164)</f>
+        <f t="shared" ref="AF167" si="1563">+AE167*(1+AF164)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG167" s="4">
-        <f t="shared" ref="AG167" si="1560">+AF167*(1+AG164)</f>
+        <f t="shared" ref="AG167" si="1564">+AF167*(1+AG164)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH167" s="4">
-        <f t="shared" ref="AH167" si="1561">+AG167*(1+AH164)</f>
+        <f t="shared" ref="AH167" si="1565">+AG167*(1+AH164)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI167" s="4">
-        <f t="shared" ref="AI167" si="1562">+AH167*(1+AI164)</f>
+        <f t="shared" ref="AI167" si="1566">+AH167*(1+AI164)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ167" s="4">
-        <f t="shared" ref="AJ167" si="1563">+AI167*(1+AJ164)</f>
+        <f t="shared" ref="AJ167" si="1567">+AI167*(1+AJ164)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK167" s="4">
-        <f t="shared" ref="AK167" si="1564">+AJ167*(1+AK164)</f>
+        <f t="shared" ref="AK167" si="1568">+AJ167*(1+AK164)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL167" s="4">
-        <f t="shared" ref="AL167" si="1565">+AK167*(1+AL164)</f>
+        <f t="shared" ref="AL167" si="1569">+AK167*(1+AL164)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM167" s="4">
-        <f t="shared" ref="AM167" si="1566">+AL167*(1+AM164)</f>
+        <f t="shared" ref="AM167" si="1570">+AL167*(1+AM164)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN167" s="4">
-        <f t="shared" ref="AN167" si="1567">+AM167*(1+AN164)</f>
+        <f t="shared" ref="AN167" si="1571">+AM167*(1+AN164)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO167" s="4">
-        <f t="shared" ref="AO167" si="1568">+AN167*(1+AO164)</f>
+        <f t="shared" ref="AO167" si="1572">+AN167*(1+AO164)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP167" s="4">
-        <f t="shared" ref="AP167" si="1569">+AO167*(1+AP164)</f>
+        <f t="shared" ref="AP167" si="1573">+AO167*(1+AP164)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ167" s="4">
-        <f t="shared" ref="AQ167" si="1570">+AP167*(1+AQ164)</f>
+        <f t="shared" ref="AQ167" si="1574">+AP167*(1+AQ164)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR167" s="4">
-        <f t="shared" ref="AR167" si="1571">+AQ167*(1+AR164)</f>
+        <f t="shared" ref="AR167" si="1575">+AQ167*(1+AR164)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS167" s="4">
-        <f t="shared" ref="AS167" si="1572">+AR167*(1+AS164)</f>
+        <f t="shared" ref="AS167" si="1576">+AR167*(1+AS164)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT167" s="4">
-        <f t="shared" ref="AT167" si="1573">+AS167*(1+AT164)</f>
+        <f t="shared" ref="AT167" si="1577">+AS167*(1+AT164)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU167" s="4">
-        <f t="shared" ref="AU167" si="1574">+AT167*(1+AU164)</f>
+        <f t="shared" ref="AU167" si="1578">+AT167*(1+AU164)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV167" s="4">
-        <f t="shared" ref="AV167" si="1575">+AU167*(1+AV164)</f>
+        <f t="shared" ref="AV167" si="1579">+AU167*(1+AV164)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW167" s="4">
-        <f t="shared" ref="AW167" si="1576">+AV167*(1+AW164)</f>
+        <f t="shared" ref="AW167" si="1580">+AV167*(1+AW164)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX167" s="4">
-        <f t="shared" ref="AX167" si="1577">+AW167*(1+AX164)</f>
+        <f t="shared" ref="AX167" si="1581">+AW167*(1+AX164)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY167" s="4">
-        <f t="shared" ref="AY167" si="1578">+AX167*(1+AY164)</f>
+        <f t="shared" ref="AY167" si="1582">+AX167*(1+AY164)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ167" s="4">
-        <f t="shared" ref="AZ167" si="1579">+AY167*(1+AZ164)</f>
+        <f t="shared" ref="AZ167" si="1583">+AY167*(1+AZ164)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA167" s="4">
-        <f t="shared" ref="BA167" si="1580">+AZ167*(1+BA164)</f>
+        <f t="shared" ref="BA167" si="1584">+AZ167*(1+BA164)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB167" s="4">
-        <f t="shared" ref="BB167" si="1581">+BA167*(1+BB164)</f>
+        <f t="shared" ref="BB167" si="1585">+BA167*(1+BB164)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC167" s="4">
-        <f t="shared" ref="BC167" si="1582">+BB167*(1+BC164)</f>
+        <f t="shared" ref="BC167" si="1586">+BB167*(1+BC164)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD167" s="4">
-        <f t="shared" ref="BD167" si="1583">+BC167*(1+BD164)</f>
+        <f t="shared" ref="BD167" si="1587">+BC167*(1+BD164)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE167" s="4">
-        <f t="shared" ref="BE167" si="1584">+BD167*(1+BE164)</f>
+        <f t="shared" ref="BE167" si="1588">+BD167*(1+BE164)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF167" s="4">
-        <f t="shared" ref="BF167" si="1585">+BE167*(1+BF164)</f>
+        <f t="shared" ref="BF167" si="1589">+BE167*(1+BF164)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG167" s="4">
-        <f t="shared" ref="BG167" si="1586">+BF167*(1+BG164)</f>
+        <f t="shared" ref="BG167" si="1590">+BF167*(1+BG164)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH167" s="4">
-        <f t="shared" ref="BH167" si="1587">+BG167*(1+BH164)</f>
+        <f t="shared" ref="BH167" si="1591">+BG167*(1+BH164)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI167" s="4">
-        <f t="shared" ref="BI167" si="1588">+BH167*(1+BI164)</f>
+        <f t="shared" ref="BI167" si="1592">+BH167*(1+BI164)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ167" s="4">
-        <f t="shared" ref="BJ167" si="1589">+BI167*(1+BJ164)</f>
+        <f t="shared" ref="BJ167" si="1593">+BI167*(1+BJ164)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK167" s="4">
-        <f t="shared" ref="BK167" si="1590">+BJ167*(1+BK164)</f>
+        <f t="shared" ref="BK167" si="1594">+BJ167*(1+BK164)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL167" s="4">
-        <f t="shared" ref="BL167" si="1591">+BK167*(1+BL164)</f>
+        <f t="shared" ref="BL167" si="1595">+BK167*(1+BL164)</f>
         <v>3232.3580517264741</v>
       </c>
       <c r="BM167" s="5">
@@ -15437,247 +15489,247 @@
     </row>
     <row r="168" spans="2:65" x14ac:dyDescent="0.2">
       <c r="E168" s="3">
-        <f>-PV($D$166,E166,0,E167)</f>
+        <f t="shared" ref="E168:AJ168" si="1596">-PV($D$166,E166,0,E167)</f>
         <v>-0.91474570069520678</v>
       </c>
       <c r="F168" s="3">
-        <f>-PV($D$166,F166,0,F167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.83675969694036478</v>
       </c>
       <c r="G168" s="3">
-        <f>-PV($D$166,G166,0,G167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.76542233529122283</v>
       </c>
       <c r="H168" s="3">
-        <f>-PV($D$166,H166,0,H167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.70016679042373109</v>
       </c>
       <c r="I168" s="3">
-        <f>-PV($D$166,I166,0,I167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.64047456130966995</v>
       </c>
       <c r="J168" s="3">
-        <f>-PV($D$166,J166,0,J167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.5858713513626691</v>
       </c>
       <c r="K168" s="3">
-        <f>-PV($D$166,K166,0,K167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.53592329981949249</v>
       </c>
       <c r="L168" s="3">
-        <f>-PV($D$166,L166,0,L167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.49023353441226897</v>
       </c>
       <c r="M168" s="3">
-        <f>-PV($D$166,M166,0,M167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.44843901794023877</v>
       </c>
       <c r="N168" s="3">
-        <f>-PV($D$166,N166,0,N167)</f>
+        <f t="shared" si="1596"/>
         <v>-0.41020766368481409</v>
       </c>
       <c r="O168" s="3">
-        <f>-PV($D$166,O166,0,O167)</f>
+        <f t="shared" si="1596"/>
         <v>0.37523569674790902</v>
       </c>
       <c r="P168" s="3">
-        <f>-PV($D$166,P166,0,P167)</f>
+        <f t="shared" si="1596"/>
         <v>0.37756976438227219</v>
       </c>
       <c r="Q168" s="3">
-        <f>-PV($D$166,Q166,0,Q167)</f>
+        <f t="shared" si="1596"/>
         <v>0.37991835054930423</v>
       </c>
       <c r="R168" s="3">
-        <f>-PV($D$166,R166,0,R167)</f>
+        <f t="shared" si="1596"/>
         <v>0.38228154555820959</v>
       </c>
       <c r="S168" s="3">
-        <f>-PV($D$166,S166,0,S167)</f>
+        <f t="shared" si="1596"/>
         <v>0.3846594402799402</v>
       </c>
       <c r="T168" s="3">
-        <f>-PV($D$166,T166,0,T167)</f>
+        <f t="shared" si="1596"/>
         <v>0.38705212615068996</v>
       </c>
       <c r="U168" s="3">
-        <f>-PV($D$166,U166,0,U167)</f>
+        <f t="shared" si="1596"/>
         <v>0.38945969517541074</v>
       </c>
       <c r="V168" s="3">
-        <f>-PV($D$166,V166,0,V167)</f>
+        <f t="shared" si="1596"/>
         <v>0.39188223993135007</v>
       </c>
       <c r="W168" s="3">
-        <f>-PV($D$166,W166,0,W167)</f>
+        <f t="shared" si="1596"/>
         <v>0.39431985357161098</v>
       </c>
       <c r="X168" s="3">
-        <f>-PV($D$166,X166,0,X167)</f>
+        <f t="shared" si="1596"/>
         <v>0.39677262982873401</v>
       </c>
       <c r="Y168" s="3">
-        <f>-PV($D$166,Y166,0,Y167)</f>
+        <f t="shared" si="1596"/>
         <v>0.4355352687472383</v>
       </c>
       <c r="Z168" s="3">
-        <f>-PV($D$166,Z166,0,Z167)</f>
+        <f t="shared" si="1596"/>
         <v>0.47808481750520115</v>
       </c>
       <c r="AA168" s="3">
-        <f>-PV($D$166,AA166,0,AA167)</f>
+        <f t="shared" si="1596"/>
         <v>0.52479123765664237</v>
       </c>
       <c r="AB168" s="3">
-        <f>-PV($D$166,AB166,0,AB167)</f>
+        <f t="shared" si="1596"/>
         <v>0.57606063409071595</v>
       </c>
       <c r="AC168" s="3">
-        <f>-PV($D$166,AC166,0,AC167)</f>
+        <f t="shared" si="1596"/>
         <v>0.63233878604908467</v>
       </c>
       <c r="AD168" s="3">
-        <f>-PV($D$166,AD166,0,AD167)</f>
+        <f t="shared" si="1596"/>
         <v>0.69411502310547157</v>
       </c>
       <c r="AE168" s="3">
-        <f>-PV($D$166,AE166,0,AE167)</f>
+        <f t="shared" si="1596"/>
         <v>0.7619264798084211</v>
       </c>
       <c r="AF168" s="3">
-        <f>-PV($D$166,AF166,0,AF167)</f>
+        <f t="shared" si="1596"/>
         <v>0.83636276598070369</v>
       </c>
       <c r="AG168" s="3">
-        <f>-PV($D$166,AG166,0,AG167)</f>
+        <f t="shared" si="1596"/>
         <v>0.91807109328288006</v>
       </c>
       <c r="AH168" s="3">
-        <f>-PV($D$166,AH166,0,AH167)</f>
+        <f t="shared" si="1596"/>
         <v>1.007761902615675</v>
       </c>
       <c r="AI168" s="3">
-        <f>-PV($D$166,AI166,0,AI167)</f>
+        <f t="shared" si="1596"/>
         <v>1.1983996280647435</v>
       </c>
       <c r="AJ168" s="3">
-        <f>-PV($D$166,AJ166,0,AJ167)</f>
+        <f t="shared" si="1596"/>
         <v>1.4251001797330467</v>
       </c>
       <c r="AK168" s="3">
-        <f>-PV($D$166,AK166,0,AK167)</f>
+        <f t="shared" ref="AK168:BP168" si="1597">-PV($D$166,AK166,0,AK167)</f>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL168" s="3">
-        <f>-PV($D$166,AL166,0,AL167)</f>
+        <f t="shared" si="1597"/>
         <v>2.0152682067102115</v>
       </c>
       <c r="AM168" s="3">
-        <f>-PV($D$166,AM166,0,AM167)</f>
+        <f t="shared" si="1597"/>
         <v>2.3964953061866767</v>
       </c>
       <c r="AN168" s="3">
-        <f>-PV($D$166,AN166,0,AN167)</f>
+        <f t="shared" si="1597"/>
         <v>2.8498389114916574</v>
       </c>
       <c r="AO168" s="3">
-        <f>-PV($D$166,AO166,0,AO167)</f>
+        <f t="shared" si="1597"/>
         <v>3.3889412595491724</v>
       </c>
       <c r="AP168" s="3">
-        <f>-PV($D$166,AP166,0,AP167)</f>
+        <f t="shared" si="1597"/>
         <v>4.0300252812055648</v>
       </c>
       <c r="AQ168" s="3">
-        <f>-PV($D$166,AQ166,0,AQ167)</f>
+        <f t="shared" si="1597"/>
         <v>4.7923827895785172</v>
       </c>
       <c r="AR168" s="3">
-        <f>-PV($D$166,AR166,0,AR167)</f>
+        <f t="shared" si="1597"/>
         <v>5.6989550187084443</v>
       </c>
       <c r="AS168" s="3">
-        <f>-PV($D$166,AS166,0,AS167)</f>
+        <f t="shared" si="1597"/>
         <v>6.2557135221827069</v>
       </c>
       <c r="AT168" s="3">
-        <f>-PV($D$166,AT166,0,AT167)</f>
+        <f t="shared" si="1597"/>
         <v>6.8668644590369983</v>
       </c>
       <c r="AU168" s="3">
-        <f>-PV($D$166,AU166,0,AU167)</f>
+        <f t="shared" si="1597"/>
         <v>7.5377216893929733</v>
       </c>
       <c r="AV168" s="3">
-        <f>-PV($D$166,AV166,0,AV167)</f>
+        <f t="shared" si="1597"/>
         <v>8.2741182100910784</v>
       </c>
       <c r="AW168" s="3">
-        <f>-PV($D$166,AW166,0,AW167)</f>
+        <f t="shared" si="1597"/>
         <v>9.0824568716696792</v>
       </c>
       <c r="AX168" s="3">
-        <f>-PV($D$166,AX166,0,AX167)</f>
+        <f t="shared" si="1597"/>
         <v>9.9697660501313727</v>
       </c>
       <c r="AY168" s="3">
-        <f>-PV($D$166,AY166,0,AY167)</f>
+        <f t="shared" si="1597"/>
         <v>10.943760757553648</v>
       </c>
       <c r="AZ168" s="3">
-        <f>-PV($D$166,AZ166,0,AZ167)</f>
+        <f t="shared" si="1597"/>
         <v>12.012909722890942</v>
       </c>
       <c r="BA168" s="3">
-        <f>-PV($D$166,BA166,0,BA167)</f>
+        <f t="shared" si="1597"/>
         <v>13.186509026224963</v>
       </c>
       <c r="BB168" s="3">
-        <f>-PV($D$166,BB166,0,BB167)</f>
+        <f t="shared" si="1597"/>
         <v>14.474762926701384</v>
       </c>
       <c r="BC168" s="3">
-        <f>-PV($D$166,BC166,0,BC167)</f>
+        <f t="shared" si="1597"/>
         <v>14.564799871360709</v>
       </c>
       <c r="BD168" s="3">
-        <f>-PV($D$166,BD166,0,BD167)</f>
+        <f t="shared" si="1597"/>
         <v>14.655396870194636</v>
       </c>
       <c r="BE168" s="3">
-        <f>-PV($D$166,BE166,0,BE167)</f>
+        <f t="shared" si="1597"/>
         <v>14.746557406891789</v>
       </c>
       <c r="BF168" s="3">
-        <f>-PV($D$166,BF166,0,BF167)</f>
+        <f t="shared" si="1597"/>
         <v>14.838284986810255</v>
       </c>
       <c r="BG168" s="3">
-        <f>-PV($D$166,BG166,0,BG167)</f>
+        <f t="shared" si="1597"/>
         <v>14.930583137112407</v>
       </c>
       <c r="BH168" s="3">
-        <f>-PV($D$166,BH166,0,BH167)</f>
+        <f t="shared" si="1597"/>
         <v>15.023455406900519</v>
       </c>
       <c r="BI168" s="3">
-        <f>-PV($D$166,BI166,0,BI167)</f>
+        <f t="shared" si="1597"/>
         <v>15.116905367353253</v>
       </c>
       <c r="BJ168" s="3">
-        <f>-PV($D$166,BJ166,0,BJ167)</f>
+        <f t="shared" si="1597"/>
         <v>15.210936611862952</v>
       </c>
       <c r="BK168" s="3">
-        <f>-PV($D$166,BK166,0,BK167)</f>
+        <f t="shared" si="1597"/>
         <v>15.305552756173846</v>
       </c>
       <c r="BL168" s="3">
-        <f>-PV($D$166,BL166,0,BL167)</f>
+        <f t="shared" si="1597"/>
         <v>15.400757438521071</v>
       </c>
       <c r="BM168" s="3">
-        <f>-PV($D$166,BM166,0,BM167)</f>
+        <f t="shared" si="1597"/>
         <v>151.15640187056732</v>
       </c>
     </row>
@@ -15921,239 +15973,239 @@
         <v>2</v>
       </c>
       <c r="G180">
-        <f t="shared" ref="G180" si="1592">+F180+1</f>
+        <f t="shared" ref="G180" si="1598">+F180+1</f>
         <v>3</v>
       </c>
       <c r="H180">
-        <f t="shared" ref="H180" si="1593">+G180+1</f>
+        <f t="shared" ref="H180" si="1599">+G180+1</f>
         <v>4</v>
       </c>
       <c r="I180">
-        <f t="shared" ref="I180" si="1594">+H180+1</f>
+        <f t="shared" ref="I180" si="1600">+H180+1</f>
         <v>5</v>
       </c>
       <c r="J180">
-        <f t="shared" ref="J180" si="1595">+I180+1</f>
+        <f t="shared" ref="J180" si="1601">+I180+1</f>
         <v>6</v>
       </c>
       <c r="K180">
-        <f t="shared" ref="K180" si="1596">+J180+1</f>
+        <f t="shared" ref="K180" si="1602">+J180+1</f>
         <v>7</v>
       </c>
       <c r="L180">
-        <f t="shared" ref="L180" si="1597">+K180+1</f>
+        <f t="shared" ref="L180" si="1603">+K180+1</f>
         <v>8</v>
       </c>
       <c r="M180">
-        <f t="shared" ref="M180" si="1598">+L180+1</f>
+        <f t="shared" ref="M180" si="1604">+L180+1</f>
         <v>9</v>
       </c>
       <c r="N180">
-        <f t="shared" ref="N180" si="1599">+M180+1</f>
+        <f t="shared" ref="N180" si="1605">+M180+1</f>
         <v>10</v>
       </c>
       <c r="O180">
-        <f t="shared" ref="O180" si="1600">+N180+1</f>
+        <f t="shared" ref="O180" si="1606">+N180+1</f>
         <v>11</v>
       </c>
       <c r="P180">
-        <f t="shared" ref="P180" si="1601">+O180+1</f>
+        <f t="shared" ref="P180" si="1607">+O180+1</f>
         <v>12</v>
       </c>
       <c r="Q180">
-        <f t="shared" ref="Q180" si="1602">+P180+1</f>
+        <f t="shared" ref="Q180" si="1608">+P180+1</f>
         <v>13</v>
       </c>
       <c r="R180">
-        <f t="shared" ref="R180" si="1603">+Q180+1</f>
+        <f t="shared" ref="R180" si="1609">+Q180+1</f>
         <v>14</v>
       </c>
       <c r="S180">
-        <f t="shared" ref="S180" si="1604">+R180+1</f>
+        <f t="shared" ref="S180" si="1610">+R180+1</f>
         <v>15</v>
       </c>
       <c r="T180">
-        <f t="shared" ref="T180" si="1605">+S180+1</f>
+        <f t="shared" ref="T180" si="1611">+S180+1</f>
         <v>16</v>
       </c>
       <c r="U180">
-        <f t="shared" ref="U180" si="1606">+T180+1</f>
+        <f t="shared" ref="U180" si="1612">+T180+1</f>
         <v>17</v>
       </c>
       <c r="V180">
-        <f t="shared" ref="V180" si="1607">+U180+1</f>
+        <f t="shared" ref="V180" si="1613">+U180+1</f>
         <v>18</v>
       </c>
       <c r="W180">
-        <f t="shared" ref="W180" si="1608">+V180+1</f>
+        <f t="shared" ref="W180" si="1614">+V180+1</f>
         <v>19</v>
       </c>
       <c r="X180">
-        <f t="shared" ref="X180" si="1609">+W180+1</f>
+        <f t="shared" ref="X180" si="1615">+W180+1</f>
         <v>20</v>
       </c>
       <c r="Y180">
-        <f t="shared" ref="Y180" si="1610">+X180+1</f>
+        <f t="shared" ref="Y180" si="1616">+X180+1</f>
         <v>21</v>
       </c>
       <c r="Z180">
-        <f t="shared" ref="Z180" si="1611">+Y180+1</f>
+        <f t="shared" ref="Z180" si="1617">+Y180+1</f>
         <v>22</v>
       </c>
       <c r="AA180">
-        <f t="shared" ref="AA180" si="1612">+Z180+1</f>
+        <f t="shared" ref="AA180" si="1618">+Z180+1</f>
         <v>23</v>
       </c>
       <c r="AB180">
-        <f t="shared" ref="AB180" si="1613">+AA180+1</f>
+        <f t="shared" ref="AB180" si="1619">+AA180+1</f>
         <v>24</v>
       </c>
       <c r="AC180">
-        <f t="shared" ref="AC180" si="1614">+AB180+1</f>
+        <f t="shared" ref="AC180" si="1620">+AB180+1</f>
         <v>25</v>
       </c>
       <c r="AD180">
-        <f t="shared" ref="AD180" si="1615">+AC180+1</f>
+        <f t="shared" ref="AD180" si="1621">+AC180+1</f>
         <v>26</v>
       </c>
       <c r="AE180">
-        <f t="shared" ref="AE180" si="1616">+AD180+1</f>
+        <f t="shared" ref="AE180" si="1622">+AD180+1</f>
         <v>27</v>
       </c>
       <c r="AF180">
-        <f t="shared" ref="AF180" si="1617">+AE180+1</f>
+        <f t="shared" ref="AF180" si="1623">+AE180+1</f>
         <v>28</v>
       </c>
       <c r="AG180">
-        <f t="shared" ref="AG180" si="1618">+AF180+1</f>
+        <f t="shared" ref="AG180" si="1624">+AF180+1</f>
         <v>29</v>
       </c>
       <c r="AH180">
-        <f t="shared" ref="AH180" si="1619">+AG180+1</f>
+        <f t="shared" ref="AH180" si="1625">+AG180+1</f>
         <v>30</v>
       </c>
       <c r="AI180">
-        <f t="shared" ref="AI180" si="1620">+AH180+1</f>
+        <f t="shared" ref="AI180" si="1626">+AH180+1</f>
         <v>31</v>
       </c>
       <c r="AJ180">
-        <f t="shared" ref="AJ180" si="1621">+AI180+1</f>
+        <f t="shared" ref="AJ180" si="1627">+AI180+1</f>
         <v>32</v>
       </c>
       <c r="AK180">
-        <f t="shared" ref="AK180" si="1622">+AJ180+1</f>
+        <f t="shared" ref="AK180" si="1628">+AJ180+1</f>
         <v>33</v>
       </c>
       <c r="AL180">
-        <f t="shared" ref="AL180" si="1623">+AK180+1</f>
+        <f t="shared" ref="AL180" si="1629">+AK180+1</f>
         <v>34</v>
       </c>
       <c r="AM180">
-        <f t="shared" ref="AM180" si="1624">+AL180+1</f>
+        <f t="shared" ref="AM180" si="1630">+AL180+1</f>
         <v>35</v>
       </c>
       <c r="AN180">
-        <f t="shared" ref="AN180" si="1625">+AM180+1</f>
+        <f t="shared" ref="AN180" si="1631">+AM180+1</f>
         <v>36</v>
       </c>
       <c r="AO180">
-        <f t="shared" ref="AO180" si="1626">+AN180+1</f>
+        <f t="shared" ref="AO180" si="1632">+AN180+1</f>
         <v>37</v>
       </c>
       <c r="AP180">
-        <f t="shared" ref="AP180" si="1627">+AO180+1</f>
+        <f t="shared" ref="AP180" si="1633">+AO180+1</f>
         <v>38</v>
       </c>
       <c r="AQ180">
-        <f t="shared" ref="AQ180" si="1628">+AP180+1</f>
+        <f t="shared" ref="AQ180" si="1634">+AP180+1</f>
         <v>39</v>
       </c>
       <c r="AR180">
-        <f t="shared" ref="AR180" si="1629">+AQ180+1</f>
+        <f t="shared" ref="AR180" si="1635">+AQ180+1</f>
         <v>40</v>
       </c>
       <c r="AS180">
-        <f t="shared" ref="AS180" si="1630">+AR180+1</f>
+        <f t="shared" ref="AS180" si="1636">+AR180+1</f>
         <v>41</v>
       </c>
       <c r="AT180">
-        <f t="shared" ref="AT180" si="1631">+AS180+1</f>
+        <f t="shared" ref="AT180" si="1637">+AS180+1</f>
         <v>42</v>
       </c>
       <c r="AU180">
-        <f t="shared" ref="AU180" si="1632">+AT180+1</f>
+        <f t="shared" ref="AU180" si="1638">+AT180+1</f>
         <v>43</v>
       </c>
       <c r="AV180">
-        <f t="shared" ref="AV180" si="1633">+AU180+1</f>
+        <f t="shared" ref="AV180" si="1639">+AU180+1</f>
         <v>44</v>
       </c>
       <c r="AW180">
-        <f t="shared" ref="AW180" si="1634">+AV180+1</f>
+        <f t="shared" ref="AW180" si="1640">+AV180+1</f>
         <v>45</v>
       </c>
       <c r="AX180">
-        <f t="shared" ref="AX180" si="1635">+AW180+1</f>
+        <f t="shared" ref="AX180" si="1641">+AW180+1</f>
         <v>46</v>
       </c>
       <c r="AY180">
-        <f t="shared" ref="AY180" si="1636">+AX180+1</f>
+        <f t="shared" ref="AY180" si="1642">+AX180+1</f>
         <v>47</v>
       </c>
       <c r="AZ180">
-        <f t="shared" ref="AZ180" si="1637">+AY180+1</f>
+        <f t="shared" ref="AZ180" si="1643">+AY180+1</f>
         <v>48</v>
       </c>
       <c r="BA180">
-        <f t="shared" ref="BA180" si="1638">+AZ180+1</f>
+        <f t="shared" ref="BA180" si="1644">+AZ180+1</f>
         <v>49</v>
       </c>
       <c r="BB180">
-        <f t="shared" ref="BB180" si="1639">+BA180+1</f>
+        <f t="shared" ref="BB180" si="1645">+BA180+1</f>
         <v>50</v>
       </c>
       <c r="BC180">
-        <f t="shared" ref="BC180" si="1640">+BB180+1</f>
+        <f t="shared" ref="BC180" si="1646">+BB180+1</f>
         <v>51</v>
       </c>
       <c r="BD180">
-        <f t="shared" ref="BD180" si="1641">+BC180+1</f>
+        <f t="shared" ref="BD180" si="1647">+BC180+1</f>
         <v>52</v>
       </c>
       <c r="BE180">
-        <f t="shared" ref="BE180" si="1642">+BD180+1</f>
+        <f t="shared" ref="BE180" si="1648">+BD180+1</f>
         <v>53</v>
       </c>
       <c r="BF180">
-        <f t="shared" ref="BF180" si="1643">+BE180+1</f>
+        <f t="shared" ref="BF180" si="1649">+BE180+1</f>
         <v>54</v>
       </c>
       <c r="BG180">
-        <f t="shared" ref="BG180" si="1644">+BF180+1</f>
+        <f t="shared" ref="BG180" si="1650">+BF180+1</f>
         <v>55</v>
       </c>
       <c r="BH180">
-        <f t="shared" ref="BH180" si="1645">+BG180+1</f>
+        <f t="shared" ref="BH180" si="1651">+BG180+1</f>
         <v>56</v>
       </c>
       <c r="BI180">
-        <f t="shared" ref="BI180" si="1646">+BH180+1</f>
+        <f t="shared" ref="BI180" si="1652">+BH180+1</f>
         <v>57</v>
       </c>
       <c r="BJ180">
-        <f t="shared" ref="BJ180" si="1647">+BI180+1</f>
+        <f t="shared" ref="BJ180" si="1653">+BI180+1</f>
         <v>58</v>
       </c>
       <c r="BK180">
-        <f t="shared" ref="BK180" si="1648">+BJ180+1</f>
+        <f t="shared" ref="BK180" si="1654">+BJ180+1</f>
         <v>59</v>
       </c>
       <c r="BL180">
-        <f t="shared" ref="BL180" si="1649">+BK180+1</f>
+        <f t="shared" ref="BL180" si="1655">+BK180+1</f>
         <v>60</v>
       </c>
       <c r="BM180">
-        <f t="shared" ref="BM180" si="1650">+BL180+1</f>
+        <f t="shared" ref="BM180" si="1656">+BL180+1</f>
         <v>61</v>
       </c>
     </row>
@@ -16204,31 +16256,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q181" s="4">
-        <f t="shared" ref="Q181" si="1651">+P181*(1+Q178)</f>
+        <f t="shared" ref="Q181" si="1657">+P181*(1+Q178)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R181" s="4">
-        <f t="shared" ref="R181" si="1652">+Q181*(1+R178)</f>
+        <f t="shared" ref="R181" si="1658">+Q181*(1+R178)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S181" s="4">
-        <f t="shared" ref="S181" si="1653">+R181*(1+S178)</f>
+        <f t="shared" ref="S181" si="1659">+R181*(1+S178)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T181" s="4">
-        <f t="shared" ref="T181" si="1654">+S181*(1+T178)</f>
+        <f t="shared" ref="T181" si="1660">+S181*(1+T178)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U181" s="4">
-        <f t="shared" ref="U181" si="1655">+T181*(1+U178)</f>
+        <f t="shared" ref="U181" si="1661">+T181*(1+U178)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V181" s="4">
-        <f t="shared" ref="V181" si="1656">+U181*(1+V178)</f>
+        <f t="shared" ref="V181" si="1662">+U181*(1+V178)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W181" s="4">
-        <f t="shared" ref="W181" si="1657">+V181*(1+W178)</f>
+        <f t="shared" ref="W181" si="1663">+V181*(1+W178)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X181" s="4">
@@ -16236,159 +16288,159 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y181" s="4">
-        <f t="shared" ref="Y181" si="1658">+X181*(1+Y178)</f>
+        <f t="shared" ref="Y181" si="1664">+X181*(1+Y178)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z181" s="4">
-        <f t="shared" ref="Z181" si="1659">+Y181*(1+Z178)</f>
+        <f t="shared" ref="Z181" si="1665">+Y181*(1+Z178)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA181" s="4">
-        <f t="shared" ref="AA181" si="1660">+Z181*(1+AA178)</f>
+        <f t="shared" ref="AA181" si="1666">+Z181*(1+AA178)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB181" s="4">
-        <f t="shared" ref="AB181" si="1661">+AA181*(1+AB178)</f>
+        <f t="shared" ref="AB181" si="1667">+AA181*(1+AB178)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC181" s="4">
-        <f t="shared" ref="AC181" si="1662">+AB181*(1+AC178)</f>
+        <f t="shared" ref="AC181" si="1668">+AB181*(1+AC178)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD181" s="4">
-        <f t="shared" ref="AD181" si="1663">+AC181*(1+AD178)</f>
+        <f t="shared" ref="AD181" si="1669">+AC181*(1+AD178)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE181" s="4">
-        <f t="shared" ref="AE181" si="1664">+AD181*(1+AE178)</f>
+        <f t="shared" ref="AE181" si="1670">+AD181*(1+AE178)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF181" s="4">
-        <f t="shared" ref="AF181" si="1665">+AE181*(1+AF178)</f>
+        <f t="shared" ref="AF181" si="1671">+AE181*(1+AF178)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG181" s="4">
-        <f t="shared" ref="AG181" si="1666">+AF181*(1+AG178)</f>
+        <f t="shared" ref="AG181" si="1672">+AF181*(1+AG178)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH181" s="4">
-        <f t="shared" ref="AH181" si="1667">+AG181*(1+AH178)</f>
+        <f t="shared" ref="AH181" si="1673">+AG181*(1+AH178)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI181" s="4">
-        <f t="shared" ref="AI181" si="1668">+AH181*(1+AI178)</f>
+        <f t="shared" ref="AI181" si="1674">+AH181*(1+AI178)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ181" s="4">
-        <f t="shared" ref="AJ181" si="1669">+AI181*(1+AJ178)</f>
+        <f t="shared" ref="AJ181" si="1675">+AI181*(1+AJ178)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK181" s="4">
-        <f t="shared" ref="AK181" si="1670">+AJ181*(1+AK178)</f>
+        <f t="shared" ref="AK181" si="1676">+AJ181*(1+AK178)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL181" s="4">
-        <f t="shared" ref="AL181" si="1671">+AK181*(1+AL178)</f>
+        <f t="shared" ref="AL181" si="1677">+AK181*(1+AL178)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM181" s="4">
-        <f t="shared" ref="AM181" si="1672">+AL181*(1+AM178)</f>
+        <f t="shared" ref="AM181" si="1678">+AL181*(1+AM178)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN181" s="4">
-        <f t="shared" ref="AN181" si="1673">+AM181*(1+AN178)</f>
+        <f t="shared" ref="AN181" si="1679">+AM181*(1+AN178)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO181" s="4">
-        <f t="shared" ref="AO181" si="1674">+AN181*(1+AO178)</f>
+        <f t="shared" ref="AO181" si="1680">+AN181*(1+AO178)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP181" s="4">
-        <f t="shared" ref="AP181" si="1675">+AO181*(1+AP178)</f>
+        <f t="shared" ref="AP181" si="1681">+AO181*(1+AP178)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ181" s="4">
-        <f t="shared" ref="AQ181" si="1676">+AP181*(1+AQ178)</f>
+        <f t="shared" ref="AQ181" si="1682">+AP181*(1+AQ178)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR181" s="4">
-        <f t="shared" ref="AR181" si="1677">+AQ181*(1+AR178)</f>
+        <f t="shared" ref="AR181" si="1683">+AQ181*(1+AR178)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS181" s="4">
-        <f t="shared" ref="AS181" si="1678">+AR181*(1+AS178)</f>
+        <f t="shared" ref="AS181" si="1684">+AR181*(1+AS178)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT181" s="4">
-        <f t="shared" ref="AT181" si="1679">+AS181*(1+AT178)</f>
+        <f t="shared" ref="AT181" si="1685">+AS181*(1+AT178)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU181" s="4">
-        <f t="shared" ref="AU181" si="1680">+AT181*(1+AU178)</f>
+        <f t="shared" ref="AU181" si="1686">+AT181*(1+AU178)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV181" s="4">
-        <f t="shared" ref="AV181" si="1681">+AU181*(1+AV178)</f>
+        <f t="shared" ref="AV181" si="1687">+AU181*(1+AV178)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW181" s="4">
-        <f t="shared" ref="AW181" si="1682">+AV181*(1+AW178)</f>
+        <f t="shared" ref="AW181" si="1688">+AV181*(1+AW178)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX181" s="4">
-        <f t="shared" ref="AX181" si="1683">+AW181*(1+AX178)</f>
+        <f t="shared" ref="AX181" si="1689">+AW181*(1+AX178)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY181" s="4">
-        <f t="shared" ref="AY181" si="1684">+AX181*(1+AY178)</f>
+        <f t="shared" ref="AY181" si="1690">+AX181*(1+AY178)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ181" s="4">
-        <f t="shared" ref="AZ181" si="1685">+AY181*(1+AZ178)</f>
+        <f t="shared" ref="AZ181" si="1691">+AY181*(1+AZ178)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA181" s="4">
-        <f t="shared" ref="BA181" si="1686">+AZ181*(1+BA178)</f>
+        <f t="shared" ref="BA181" si="1692">+AZ181*(1+BA178)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB181" s="4">
-        <f t="shared" ref="BB181" si="1687">+BA181*(1+BB178)</f>
+        <f t="shared" ref="BB181" si="1693">+BA181*(1+BB178)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC181" s="4">
-        <f t="shared" ref="BC181" si="1688">+BB181*(1+BC178)</f>
+        <f t="shared" ref="BC181" si="1694">+BB181*(1+BC178)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD181" s="4">
-        <f t="shared" ref="BD181" si="1689">+BC181*(1+BD178)</f>
+        <f t="shared" ref="BD181" si="1695">+BC181*(1+BD178)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE181" s="4">
-        <f t="shared" ref="BE181" si="1690">+BD181*(1+BE178)</f>
+        <f t="shared" ref="BE181" si="1696">+BD181*(1+BE178)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF181" s="4">
-        <f t="shared" ref="BF181" si="1691">+BE181*(1+BF178)</f>
+        <f t="shared" ref="BF181" si="1697">+BE181*(1+BF178)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG181" s="4">
-        <f t="shared" ref="BG181" si="1692">+BF181*(1+BG178)</f>
+        <f t="shared" ref="BG181" si="1698">+BF181*(1+BG178)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH181" s="4">
-        <f t="shared" ref="BH181" si="1693">+BG181*(1+BH178)</f>
+        <f t="shared" ref="BH181" si="1699">+BG181*(1+BH178)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI181" s="4">
-        <f t="shared" ref="BI181" si="1694">+BH181*(1+BI178)</f>
+        <f t="shared" ref="BI181" si="1700">+BH181*(1+BI178)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ181" s="4">
-        <f t="shared" ref="BJ181" si="1695">+BI181*(1+BJ178)</f>
+        <f t="shared" ref="BJ181" si="1701">+BI181*(1+BJ178)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK181" s="4">
-        <f t="shared" ref="BK181" si="1696">+BJ181*(1+BK178)</f>
+        <f t="shared" ref="BK181" si="1702">+BJ181*(1+BK178)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL181" s="4">
@@ -16406,243 +16458,243 @@
         <v>-0.92021717125241553</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" ref="F182:BM182" si="1697">-PV($D$180,F180,0,F181)</f>
+        <f t="shared" ref="F182:BM182" si="1703">-PV($D$180,F180,0,F181)</f>
         <v>-0.84679964226779758</v>
       </c>
       <c r="G182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.77923957142523004</v>
       </c>
       <c r="H182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.71706963414486979</v>
       </c>
       <c r="I182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.65985979032379671</v>
       </c>
       <c r="J182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.60721430967497625</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.55876903439309489</v>
       </c>
       <c r="L182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.51418886021265742</v>
       </c>
       <c r="M182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.47316541843439541</v>
       </c>
       <c r="N182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>-0.43541494288616489</v>
       </c>
       <c r="O182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.40067630706373875</v>
       </c>
       <c r="P182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.40558013966146372</v>
       </c>
       <c r="Q182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.41054398971897504</v>
       </c>
       <c r="R182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.41556859178326366</v>
       </c>
       <c r="S182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.42065468939135914</v>
       </c>
       <c r="T182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.42580303518035806</v>
       </c>
       <c r="U182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.43101439099879812</v>
       </c>
       <c r="V182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.43628952801939636</v>
       </c>
       <c r="W182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.44162922685316647</v>
       </c>
       <c r="X182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.44703427766493337</v>
       </c>
       <c r="Y182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.49364234213483033</v>
       </c>
       <c r="Z182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.54510979162767681</v>
       </c>
       <c r="AA182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.60194326856833724</v>
       </c>
       <c r="AB182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.66470223822766594</v>
       </c>
       <c r="AC182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.73400449606441442</v>
       </c>
       <c r="AD182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.81053224926594047</v>
       </c>
       <c r="AE182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.8950388323540337</v>
       </c>
       <c r="AF182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>0.98835612296387254</v>
       </c>
       <c r="AG182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>1.0914027307965832</v>
       </c>
       <c r="AH182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>1.2051930403569522</v>
       </c>
       <c r="AI182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>1.4417511295334844</v>
       </c>
       <c r="AJ182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>1.7247413898900619</v>
       </c>
       <c r="AK182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>2.0632776358305698</v>
       </c>
       <c r="AL182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>2.4682625624180923</v>
       </c>
       <c r="AM182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>2.9527388710256006</v>
       </c>
       <c r="AN182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>3.5323093147448983</v>
       </c>
       <c r="AO182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>4.2256391912840421</v>
       </c>
       <c r="AP182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>5.0550574663377699</v>
       </c>
       <c r="AQ182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>6.0472758868492686</v>
       </c>
       <c r="AR182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>7.2342492434931893</v>
       </c>
       <c r="AS182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>7.988496449978677</v>
       </c>
       <c r="AT182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>8.8213819269112079</v>
       </c>
       <c r="AU182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>9.7411045479832978</v>
       </c>
       <c r="AV182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>10.756718006423075</v>
       </c>
       <c r="AW182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>11.878219938996681</v>
       </c>
       <c r="AX182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>13.116650342133077</v>
       </c>
       <c r="AY182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>14.484200248973673</v>
       </c>
       <c r="AZ182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>15.994331737156905</v>
       </c>
       <c r="BA182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>17.661910448687109</v>
       </c>
       <c r="BB182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>19.503351926405202</v>
       </c>
       <c r="BC182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>19.742051273622639</v>
       </c>
       <c r="BD182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>19.983672035506491</v>
       </c>
       <c r="BE182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>20.228249966924768</v>
       </c>
       <c r="BF182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>20.47582126034531</v>
       </c>
       <c r="BG182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>20.726422551191533</v>
       </c>
       <c r="BH182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>20.980090923263724</v>
       </c>
       <c r="BI182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>21.23686391422665</v>
       </c>
       <c r="BJ182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>21.49677952116437</v>
       </c>
       <c r="BK182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>21.759876206203003</v>
       </c>
       <c r="BL182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>22.026192902202361</v>
       </c>
       <c r="BM182" s="3">
-        <f t="shared" si="1697"/>
+        <f t="shared" si="1703"/>
         <v>233.78178691954662</v>
       </c>
     </row>
@@ -16847,239 +16899,239 @@
         <v>2</v>
       </c>
       <c r="G188">
-        <f t="shared" ref="G188" si="1698">+F188+1</f>
+        <f t="shared" ref="G188" si="1704">+F188+1</f>
         <v>3</v>
       </c>
       <c r="H188">
-        <f t="shared" ref="H188" si="1699">+G188+1</f>
+        <f t="shared" ref="H188" si="1705">+G188+1</f>
         <v>4</v>
       </c>
       <c r="I188">
-        <f t="shared" ref="I188" si="1700">+H188+1</f>
+        <f t="shared" ref="I188" si="1706">+H188+1</f>
         <v>5</v>
       </c>
       <c r="J188">
-        <f t="shared" ref="J188" si="1701">+I188+1</f>
+        <f t="shared" ref="J188" si="1707">+I188+1</f>
         <v>6</v>
       </c>
       <c r="K188">
-        <f t="shared" ref="K188" si="1702">+J188+1</f>
+        <f t="shared" ref="K188" si="1708">+J188+1</f>
         <v>7</v>
       </c>
       <c r="L188">
-        <f t="shared" ref="L188" si="1703">+K188+1</f>
+        <f t="shared" ref="L188" si="1709">+K188+1</f>
         <v>8</v>
       </c>
       <c r="M188">
-        <f t="shared" ref="M188" si="1704">+L188+1</f>
+        <f t="shared" ref="M188" si="1710">+L188+1</f>
         <v>9</v>
       </c>
       <c r="N188">
-        <f t="shared" ref="N188" si="1705">+M188+1</f>
+        <f t="shared" ref="N188" si="1711">+M188+1</f>
         <v>10</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188" si="1706">+N188+1</f>
+        <f t="shared" ref="O188" si="1712">+N188+1</f>
         <v>11</v>
       </c>
       <c r="P188">
-        <f t="shared" ref="P188" si="1707">+O188+1</f>
+        <f t="shared" ref="P188" si="1713">+O188+1</f>
         <v>12</v>
       </c>
       <c r="Q188">
-        <f t="shared" ref="Q188" si="1708">+P188+1</f>
+        <f t="shared" ref="Q188" si="1714">+P188+1</f>
         <v>13</v>
       </c>
       <c r="R188">
-        <f t="shared" ref="R188" si="1709">+Q188+1</f>
+        <f t="shared" ref="R188" si="1715">+Q188+1</f>
         <v>14</v>
       </c>
       <c r="S188">
-        <f t="shared" ref="S188" si="1710">+R188+1</f>
+        <f t="shared" ref="S188" si="1716">+R188+1</f>
         <v>15</v>
       </c>
       <c r="T188">
-        <f t="shared" ref="T188" si="1711">+S188+1</f>
+        <f t="shared" ref="T188" si="1717">+S188+1</f>
         <v>16</v>
       </c>
       <c r="U188">
-        <f t="shared" ref="U188" si="1712">+T188+1</f>
+        <f t="shared" ref="U188" si="1718">+T188+1</f>
         <v>17</v>
       </c>
       <c r="V188">
-        <f t="shared" ref="V188" si="1713">+U188+1</f>
+        <f t="shared" ref="V188" si="1719">+U188+1</f>
         <v>18</v>
       </c>
       <c r="W188">
-        <f t="shared" ref="W188" si="1714">+V188+1</f>
+        <f t="shared" ref="W188" si="1720">+V188+1</f>
         <v>19</v>
       </c>
       <c r="X188">
-        <f t="shared" ref="X188" si="1715">+W188+1</f>
+        <f t="shared" ref="X188" si="1721">+W188+1</f>
         <v>20</v>
       </c>
       <c r="Y188">
-        <f t="shared" ref="Y188" si="1716">+X188+1</f>
+        <f t="shared" ref="Y188" si="1722">+X188+1</f>
         <v>21</v>
       </c>
       <c r="Z188">
-        <f t="shared" ref="Z188" si="1717">+Y188+1</f>
+        <f t="shared" ref="Z188" si="1723">+Y188+1</f>
         <v>22</v>
       </c>
       <c r="AA188">
-        <f t="shared" ref="AA188" si="1718">+Z188+1</f>
+        <f t="shared" ref="AA188" si="1724">+Z188+1</f>
         <v>23</v>
       </c>
       <c r="AB188">
-        <f t="shared" ref="AB188" si="1719">+AA188+1</f>
+        <f t="shared" ref="AB188" si="1725">+AA188+1</f>
         <v>24</v>
       </c>
       <c r="AC188">
-        <f t="shared" ref="AC188" si="1720">+AB188+1</f>
+        <f t="shared" ref="AC188" si="1726">+AB188+1</f>
         <v>25</v>
       </c>
       <c r="AD188">
-        <f t="shared" ref="AD188" si="1721">+AC188+1</f>
+        <f t="shared" ref="AD188" si="1727">+AC188+1</f>
         <v>26</v>
       </c>
       <c r="AE188">
-        <f t="shared" ref="AE188" si="1722">+AD188+1</f>
+        <f t="shared" ref="AE188" si="1728">+AD188+1</f>
         <v>27</v>
       </c>
       <c r="AF188">
-        <f t="shared" ref="AF188" si="1723">+AE188+1</f>
+        <f t="shared" ref="AF188" si="1729">+AE188+1</f>
         <v>28</v>
       </c>
       <c r="AG188">
-        <f t="shared" ref="AG188" si="1724">+AF188+1</f>
+        <f t="shared" ref="AG188" si="1730">+AF188+1</f>
         <v>29</v>
       </c>
       <c r="AH188">
-        <f t="shared" ref="AH188" si="1725">+AG188+1</f>
+        <f t="shared" ref="AH188" si="1731">+AG188+1</f>
         <v>30</v>
       </c>
       <c r="AI188">
-        <f t="shared" ref="AI188" si="1726">+AH188+1</f>
+        <f t="shared" ref="AI188" si="1732">+AH188+1</f>
         <v>31</v>
       </c>
       <c r="AJ188">
-        <f t="shared" ref="AJ188" si="1727">+AI188+1</f>
+        <f t="shared" ref="AJ188" si="1733">+AI188+1</f>
         <v>32</v>
       </c>
       <c r="AK188">
-        <f t="shared" ref="AK188" si="1728">+AJ188+1</f>
+        <f t="shared" ref="AK188" si="1734">+AJ188+1</f>
         <v>33</v>
       </c>
       <c r="AL188">
-        <f t="shared" ref="AL188" si="1729">+AK188+1</f>
+        <f t="shared" ref="AL188" si="1735">+AK188+1</f>
         <v>34</v>
       </c>
       <c r="AM188">
-        <f t="shared" ref="AM188" si="1730">+AL188+1</f>
+        <f t="shared" ref="AM188" si="1736">+AL188+1</f>
         <v>35</v>
       </c>
       <c r="AN188">
-        <f t="shared" ref="AN188" si="1731">+AM188+1</f>
+        <f t="shared" ref="AN188" si="1737">+AM188+1</f>
         <v>36</v>
       </c>
       <c r="AO188">
-        <f t="shared" ref="AO188" si="1732">+AN188+1</f>
+        <f t="shared" ref="AO188" si="1738">+AN188+1</f>
         <v>37</v>
       </c>
       <c r="AP188">
-        <f t="shared" ref="AP188" si="1733">+AO188+1</f>
+        <f t="shared" ref="AP188" si="1739">+AO188+1</f>
         <v>38</v>
       </c>
       <c r="AQ188">
-        <f t="shared" ref="AQ188" si="1734">+AP188+1</f>
+        <f t="shared" ref="AQ188" si="1740">+AP188+1</f>
         <v>39</v>
       </c>
       <c r="AR188">
-        <f t="shared" ref="AR188" si="1735">+AQ188+1</f>
+        <f t="shared" ref="AR188" si="1741">+AQ188+1</f>
         <v>40</v>
       </c>
       <c r="AS188">
-        <f t="shared" ref="AS188" si="1736">+AR188+1</f>
+        <f t="shared" ref="AS188" si="1742">+AR188+1</f>
         <v>41</v>
       </c>
       <c r="AT188">
-        <f t="shared" ref="AT188" si="1737">+AS188+1</f>
+        <f t="shared" ref="AT188" si="1743">+AS188+1</f>
         <v>42</v>
       </c>
       <c r="AU188">
-        <f t="shared" ref="AU188" si="1738">+AT188+1</f>
+        <f t="shared" ref="AU188" si="1744">+AT188+1</f>
         <v>43</v>
       </c>
       <c r="AV188">
-        <f t="shared" ref="AV188" si="1739">+AU188+1</f>
+        <f t="shared" ref="AV188" si="1745">+AU188+1</f>
         <v>44</v>
       </c>
       <c r="AW188">
-        <f t="shared" ref="AW188" si="1740">+AV188+1</f>
+        <f t="shared" ref="AW188" si="1746">+AV188+1</f>
         <v>45</v>
       </c>
       <c r="AX188">
-        <f t="shared" ref="AX188" si="1741">+AW188+1</f>
+        <f t="shared" ref="AX188" si="1747">+AW188+1</f>
         <v>46</v>
       </c>
       <c r="AY188">
-        <f t="shared" ref="AY188" si="1742">+AX188+1</f>
+        <f t="shared" ref="AY188" si="1748">+AX188+1</f>
         <v>47</v>
       </c>
       <c r="AZ188">
-        <f t="shared" ref="AZ188" si="1743">+AY188+1</f>
+        <f t="shared" ref="AZ188" si="1749">+AY188+1</f>
         <v>48</v>
       </c>
       <c r="BA188">
-        <f t="shared" ref="BA188" si="1744">+AZ188+1</f>
+        <f t="shared" ref="BA188" si="1750">+AZ188+1</f>
         <v>49</v>
       </c>
       <c r="BB188">
-        <f t="shared" ref="BB188" si="1745">+BA188+1</f>
+        <f t="shared" ref="BB188" si="1751">+BA188+1</f>
         <v>50</v>
       </c>
       <c r="BC188">
-        <f t="shared" ref="BC188" si="1746">+BB188+1</f>
+        <f t="shared" ref="BC188" si="1752">+BB188+1</f>
         <v>51</v>
       </c>
       <c r="BD188">
-        <f t="shared" ref="BD188" si="1747">+BC188+1</f>
+        <f t="shared" ref="BD188" si="1753">+BC188+1</f>
         <v>52</v>
       </c>
       <c r="BE188">
-        <f t="shared" ref="BE188" si="1748">+BD188+1</f>
+        <f t="shared" ref="BE188" si="1754">+BD188+1</f>
         <v>53</v>
       </c>
       <c r="BF188">
-        <f t="shared" ref="BF188" si="1749">+BE188+1</f>
+        <f t="shared" ref="BF188" si="1755">+BE188+1</f>
         <v>54</v>
       </c>
       <c r="BG188">
-        <f t="shared" ref="BG188" si="1750">+BF188+1</f>
+        <f t="shared" ref="BG188" si="1756">+BF188+1</f>
         <v>55</v>
       </c>
       <c r="BH188">
-        <f t="shared" ref="BH188" si="1751">+BG188+1</f>
+        <f t="shared" ref="BH188" si="1757">+BG188+1</f>
         <v>56</v>
       </c>
       <c r="BI188">
-        <f t="shared" ref="BI188" si="1752">+BH188+1</f>
+        <f t="shared" ref="BI188" si="1758">+BH188+1</f>
         <v>57</v>
       </c>
       <c r="BJ188">
-        <f t="shared" ref="BJ188" si="1753">+BI188+1</f>
+        <f t="shared" ref="BJ188" si="1759">+BI188+1</f>
         <v>58</v>
       </c>
       <c r="BK188">
-        <f t="shared" ref="BK188" si="1754">+BJ188+1</f>
+        <f t="shared" ref="BK188" si="1760">+BJ188+1</f>
         <v>59</v>
       </c>
       <c r="BL188">
-        <f t="shared" ref="BL188" si="1755">+BK188+1</f>
+        <f t="shared" ref="BL188" si="1761">+BK188+1</f>
         <v>60</v>
       </c>
       <c r="BM188">
-        <f t="shared" ref="BM188" si="1756">+BL188+1</f>
+        <f t="shared" ref="BM188" si="1762">+BL188+1</f>
         <v>61</v>
       </c>
     </row>
@@ -17130,31 +17182,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q189" s="4">
-        <f t="shared" ref="Q189" si="1757">+P189*(1+Q186)</f>
+        <f t="shared" ref="Q189" si="1763">+P189*(1+Q186)</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="R189" s="4">
-        <f t="shared" ref="R189" si="1758">+Q189*(1+R186)</f>
+        <f t="shared" ref="R189" si="1764">+Q189*(1+R186)</f>
         <v>1.3310000000000004</v>
       </c>
       <c r="S189" s="4">
-        <f t="shared" ref="S189" si="1759">+R189*(1+S186)</f>
+        <f t="shared" ref="S189" si="1765">+R189*(1+S186)</f>
         <v>1.4641000000000006</v>
       </c>
       <c r="T189" s="4">
-        <f t="shared" ref="T189" si="1760">+S189*(1+T186)</f>
+        <f t="shared" ref="T189" si="1766">+S189*(1+T186)</f>
         <v>1.6105100000000008</v>
       </c>
       <c r="U189" s="4">
-        <f t="shared" ref="U189" si="1761">+T189*(1+U186)</f>
+        <f t="shared" ref="U189" si="1767">+T189*(1+U186)</f>
         <v>1.7715610000000011</v>
       </c>
       <c r="V189" s="4">
-        <f t="shared" ref="V189" si="1762">+U189*(1+V186)</f>
+        <f t="shared" ref="V189" si="1768">+U189*(1+V186)</f>
         <v>1.9487171000000014</v>
       </c>
       <c r="W189" s="4">
-        <f t="shared" ref="W189" si="1763">+V189*(1+W186)</f>
+        <f t="shared" ref="W189" si="1769">+V189*(1+W186)</f>
         <v>2.1435888100000016</v>
       </c>
       <c r="X189" s="4">
@@ -17162,163 +17214,163 @@
         <v>2.3579476910000019</v>
       </c>
       <c r="Y189" s="4">
-        <f t="shared" ref="Y189" si="1764">+X189*(1+Y186)</f>
+        <f t="shared" ref="Y189" si="1770">+X189*(1+Y186)</f>
         <v>2.8295372292000023</v>
       </c>
       <c r="Z189" s="4">
-        <f t="shared" ref="Z189" si="1765">+Y189*(1+Z186)</f>
+        <f t="shared" ref="Z189" si="1771">+Y189*(1+Z186)</f>
         <v>3.3954446750400025</v>
       </c>
       <c r="AA189" s="4">
-        <f t="shared" ref="AA189" si="1766">+Z189*(1+AA186)</f>
+        <f t="shared" ref="AA189" si="1772">+Z189*(1+AA186)</f>
         <v>4.074533610048003</v>
       </c>
       <c r="AB189" s="4">
-        <f t="shared" ref="AB189" si="1767">+AA189*(1+AB186)</f>
+        <f t="shared" ref="AB189" si="1773">+AA189*(1+AB186)</f>
         <v>4.8894403320576032</v>
       </c>
       <c r="AC189" s="4">
-        <f t="shared" ref="AC189" si="1768">+AB189*(1+AC186)</f>
+        <f t="shared" ref="AC189" si="1774">+AB189*(1+AC186)</f>
         <v>5.867328398469124</v>
       </c>
       <c r="AD189" s="4">
-        <f t="shared" ref="AD189" si="1769">+AC189*(1+AD186)</f>
+        <f t="shared" ref="AD189" si="1775">+AC189*(1+AD186)</f>
         <v>7.040794078162949</v>
       </c>
       <c r="AE189" s="4">
-        <f t="shared" ref="AE189" si="1770">+AD189*(1+AE186)</f>
+        <f t="shared" ref="AE189" si="1776">+AD189*(1+AE186)</f>
         <v>8.4489528937955392</v>
       </c>
       <c r="AF189" s="4">
-        <f t="shared" ref="AF189" si="1771">+AE189*(1+AF186)</f>
+        <f t="shared" ref="AF189" si="1777">+AE189*(1+AF186)</f>
         <v>10.138743472554646</v>
       </c>
       <c r="AG189" s="4">
-        <f t="shared" ref="AG189" si="1772">+AF189*(1+AG186)</f>
+        <f t="shared" ref="AG189" si="1778">+AF189*(1+AG186)</f>
         <v>12.166492167065575</v>
       </c>
       <c r="AH189" s="4">
-        <f t="shared" ref="AH189" si="1773">+AG189*(1+AH186)</f>
+        <f t="shared" ref="AH189" si="1779">+AG189*(1+AH186)</f>
         <v>14.599790600478689</v>
       </c>
       <c r="AI189" s="4">
-        <f t="shared" ref="AI189" si="1774">+AH189*(1+AI186)</f>
+        <f t="shared" ref="AI189" si="1780">+AH189*(1+AI186)</f>
         <v>18.979727780622298</v>
       </c>
       <c r="AJ189" s="4">
-        <f t="shared" ref="AJ189" si="1775">+AI189*(1+AJ186)</f>
+        <f t="shared" ref="AJ189" si="1781">+AI189*(1+AJ186)</f>
         <v>24.673646114808989</v>
       </c>
       <c r="AK189" s="4">
-        <f t="shared" ref="AK189" si="1776">+AJ189*(1+AK186)</f>
+        <f t="shared" ref="AK189" si="1782">+AJ189*(1+AK186)</f>
         <v>32.075739949251684</v>
       </c>
       <c r="AL189" s="4">
-        <f t="shared" ref="AL189" si="1777">+AK189*(1+AL186)</f>
+        <f t="shared" ref="AL189" si="1783">+AK189*(1+AL186)</f>
         <v>41.698461934027193</v>
       </c>
       <c r="AM189" s="4">
-        <f t="shared" ref="AM189" si="1778">+AL189*(1+AM186)</f>
+        <f t="shared" ref="AM189" si="1784">+AL189*(1+AM186)</f>
         <v>54.208000514235351</v>
       </c>
       <c r="AN189" s="4">
-        <f t="shared" ref="AN189" si="1779">+AM189*(1+AN186)</f>
+        <f t="shared" ref="AN189" si="1785">+AM189*(1+AN186)</f>
         <v>70.47040066850596</v>
       </c>
       <c r="AO189" s="4">
-        <f t="shared" ref="AO189" si="1780">+AN189*(1+AO186)</f>
+        <f t="shared" ref="AO189" si="1786">+AN189*(1+AO186)</f>
         <v>91.611520869057756</v>
       </c>
       <c r="AP189" s="4">
-        <f t="shared" ref="AP189" si="1781">+AO189*(1+AP186)</f>
+        <f t="shared" ref="AP189" si="1787">+AO189*(1+AP186)</f>
         <v>119.09497712977509</v>
       </c>
       <c r="AQ189" s="4">
-        <f t="shared" ref="AQ189" si="1782">+AP189*(1+AQ186)</f>
+        <f t="shared" ref="AQ189" si="1788">+AP189*(1+AQ186)</f>
         <v>154.82347026870761</v>
       </c>
       <c r="AR189" s="4">
-        <f t="shared" ref="AR189" si="1783">+AQ189*(1+AR186)</f>
+        <f t="shared" ref="AR189" si="1789">+AQ189*(1+AR186)</f>
         <v>201.27051134931989</v>
       </c>
       <c r="AS189" s="4">
-        <f t="shared" ref="AS189" si="1784">+AR189*(1+AS186)</f>
+        <f t="shared" ref="AS189" si="1790">+AR189*(1+AS186)</f>
         <v>241.52461361918387</v>
       </c>
       <c r="AT189" s="4">
-        <f t="shared" ref="AT189" si="1785">+AS189*(1+AT186)</f>
+        <f t="shared" ref="AT189" si="1791">+AS189*(1+AT186)</f>
         <v>289.82953634302061</v>
       </c>
       <c r="AU189" s="4">
-        <f t="shared" ref="AU189" si="1786">+AT189*(1+AU186)</f>
+        <f t="shared" ref="AU189" si="1792">+AT189*(1+AU186)</f>
         <v>347.79544361162471</v>
       </c>
       <c r="AV189" s="4">
-        <f t="shared" ref="AV189" si="1787">+AU189*(1+AV186)</f>
+        <f t="shared" ref="AV189" si="1793">+AU189*(1+AV186)</f>
         <v>417.35453233394963</v>
       </c>
       <c r="AW189" s="4">
-        <f t="shared" ref="AW189" si="1788">+AV189*(1+AW186)</f>
+        <f t="shared" ref="AW189" si="1794">+AV189*(1+AW186)</f>
         <v>500.82543880073956</v>
       </c>
       <c r="AX189" s="4">
-        <f t="shared" ref="AX189" si="1789">+AW189*(1+AX186)</f>
+        <f t="shared" ref="AX189" si="1795">+AW189*(1+AX186)</f>
         <v>600.99052656088747</v>
       </c>
       <c r="AY189" s="4">
-        <f t="shared" ref="AY189" si="1790">+AX189*(1+AY186)</f>
+        <f t="shared" ref="AY189" si="1796">+AX189*(1+AY186)</f>
         <v>721.18863187306499</v>
       </c>
       <c r="AZ189" s="4">
-        <f t="shared" ref="AZ189" si="1791">+AY189*(1+AZ186)</f>
+        <f t="shared" ref="AZ189" si="1797">+AY189*(1+AZ186)</f>
         <v>865.42635824767797</v>
       </c>
       <c r="BA189" s="4">
-        <f t="shared" ref="BA189" si="1792">+AZ189*(1+BA186)</f>
+        <f t="shared" ref="BA189" si="1798">+AZ189*(1+BA186)</f>
         <v>1038.5116298972134</v>
       </c>
       <c r="BB189" s="4">
-        <f t="shared" ref="BB189" si="1793">+BA189*(1+BB186)</f>
+        <f t="shared" ref="BB189" si="1799">+BA189*(1+BB186)</f>
         <v>1246.213955876656</v>
       </c>
       <c r="BC189" s="4">
-        <f t="shared" ref="BC189" si="1794">+BB189*(1+BC186)</f>
+        <f t="shared" ref="BC189" si="1800">+BB189*(1+BC186)</f>
         <v>1370.8353514643218</v>
       </c>
       <c r="BD189" s="4">
-        <f t="shared" ref="BD189" si="1795">+BC189*(1+BD186)</f>
+        <f t="shared" ref="BD189" si="1801">+BC189*(1+BD186)</f>
         <v>1507.918886610754</v>
       </c>
       <c r="BE189" s="4">
-        <f t="shared" ref="BE189" si="1796">+BD189*(1+BE186)</f>
+        <f t="shared" ref="BE189" si="1802">+BD189*(1+BE186)</f>
         <v>1658.7107752718296</v>
       </c>
       <c r="BF189" s="4">
-        <f t="shared" ref="BF189" si="1797">+BE189*(1+BF186)</f>
+        <f t="shared" ref="BF189" si="1803">+BE189*(1+BF186)</f>
         <v>1824.5818527990127</v>
       </c>
       <c r="BG189" s="4">
-        <f t="shared" ref="BG189" si="1798">+BF189*(1+BG186)</f>
+        <f t="shared" ref="BG189" si="1804">+BF189*(1+BG186)</f>
         <v>2007.0400380789142</v>
       </c>
       <c r="BH189" s="4">
-        <f t="shared" ref="BH189" si="1799">+BG189*(1+BH186)</f>
+        <f t="shared" ref="BH189" si="1805">+BG189*(1+BH186)</f>
         <v>2207.7440418868059</v>
       </c>
       <c r="BI189" s="4">
-        <f t="shared" ref="BI189" si="1800">+BH189*(1+BI186)</f>
+        <f t="shared" ref="BI189" si="1806">+BH189*(1+BI186)</f>
         <v>2428.5184460754867</v>
       </c>
       <c r="BJ189" s="4">
-        <f t="shared" ref="BJ189" si="1801">+BI189*(1+BJ186)</f>
+        <f t="shared" ref="BJ189" si="1807">+BI189*(1+BJ186)</f>
         <v>2671.3702906830358</v>
       </c>
       <c r="BK189" s="4">
-        <f t="shared" ref="BK189" si="1802">+BJ189*(1+BK186)</f>
+        <f t="shared" ref="BK189" si="1808">+BJ189*(1+BK186)</f>
         <v>2938.5073197513398</v>
       </c>
       <c r="BL189" s="4">
-        <f t="shared" ref="BL189" si="1803">+BK189*(1+BL186)</f>
+        <f t="shared" ref="BL189" si="1809">+BK189*(1+BL186)</f>
         <v>3232.3580517264741</v>
       </c>
       <c r="BM189" s="5">
@@ -17332,243 +17384,243 @@
         <v>-0.91474570069520678</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" ref="F190:BM190" si="1804">-PV($D$188,F188,0,F189)</f>
+        <f t="shared" ref="F190:BM190" si="1810">-PV($D$188,F188,0,F189)</f>
         <v>-0.83675969694036478</v>
       </c>
       <c r="G190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.76542233529122283</v>
       </c>
       <c r="H190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.70016679042373109</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.64047456130966995</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.5858713513626691</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.53592329981949249</v>
       </c>
       <c r="L190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.49023353441226897</v>
       </c>
       <c r="M190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.44843901794023877</v>
       </c>
       <c r="N190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>-0.41020766368481409</v>
       </c>
       <c r="O190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.37523569674790902</v>
       </c>
       <c r="P190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.37756976438227219</v>
       </c>
       <c r="Q190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.37991835054930423</v>
       </c>
       <c r="R190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.38228154555820959</v>
       </c>
       <c r="S190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.3846594402799402</v>
       </c>
       <c r="T190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.38705212615068996</v>
       </c>
       <c r="U190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.38945969517541074</v>
       </c>
       <c r="V190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.39188223993135007</v>
       </c>
       <c r="W190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.39431985357161098</v>
       </c>
       <c r="X190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.39677262982873401</v>
       </c>
       <c r="Y190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.4355352687472383</v>
       </c>
       <c r="Z190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.47808481750520115</v>
       </c>
       <c r="AA190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.52479123765664237</v>
       </c>
       <c r="AB190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.57606063409071595</v>
       </c>
       <c r="AC190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.63233878604908467</v>
       </c>
       <c r="AD190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.69411502310547157</v>
       </c>
       <c r="AE190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.7619264798084211</v>
       </c>
       <c r="AF190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.83636276598070369</v>
       </c>
       <c r="AG190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>0.91807109328288006</v>
       </c>
       <c r="AH190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>1.007761902615675</v>
       </c>
       <c r="AI190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>1.1983996280647435</v>
       </c>
       <c r="AJ190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>1.4251001797330467</v>
       </c>
       <c r="AK190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>2.0152682067102115</v>
       </c>
       <c r="AM190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>2.3964953061866767</v>
       </c>
       <c r="AN190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>2.8498389114916574</v>
       </c>
       <c r="AO190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>3.3889412595491724</v>
       </c>
       <c r="AP190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>4.0300252812055648</v>
       </c>
       <c r="AQ190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>4.7923827895785172</v>
       </c>
       <c r="AR190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>5.6989550187084443</v>
       </c>
       <c r="AS190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>6.2557135221827069</v>
       </c>
       <c r="AT190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>6.8668644590369983</v>
       </c>
       <c r="AU190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>7.5377216893929733</v>
       </c>
       <c r="AV190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>8.2741182100910784</v>
       </c>
       <c r="AW190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>9.0824568716696792</v>
       </c>
       <c r="AX190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>9.9697660501313727</v>
       </c>
       <c r="AY190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>10.943760757553648</v>
       </c>
       <c r="AZ190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>12.012909722890942</v>
       </c>
       <c r="BA190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>13.186509026224963</v>
       </c>
       <c r="BB190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.474762926701384</v>
       </c>
       <c r="BC190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.564799871360709</v>
       </c>
       <c r="BD190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.655396870194636</v>
       </c>
       <c r="BE190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.746557406891789</v>
       </c>
       <c r="BF190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.838284986810255</v>
       </c>
       <c r="BG190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>14.930583137112407</v>
       </c>
       <c r="BH190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>15.023455406900519</v>
       </c>
       <c r="BI190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>15.116905367353253</v>
       </c>
       <c r="BJ190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>15.210936611862952</v>
       </c>
       <c r="BK190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>15.305552756173846</v>
       </c>
       <c r="BL190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>15.400757438521071</v>
       </c>
       <c r="BM190" s="3">
-        <f t="shared" si="1804"/>
+        <f t="shared" si="1810"/>
         <v>151.15640187056732</v>
       </c>
     </row>
@@ -17614,1039 +17666,898 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.02</v>
+      </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>+E2+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.02</v>
+      <c r="G2">
+        <f t="shared" ref="G2" si="0">+F2+1</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2" si="1">+G2+1</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f>+H2+1</f>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2" si="2">+I2+1</f>
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2" si="3">+J2+1</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2" si="4">+K2+1</f>
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="5">+L2+1</f>
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2" si="6">+M2+1</f>
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2" si="7">+N2+1</f>
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2" si="8">+O2+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="9">+P2+1</f>
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="10">+Q2+1</f>
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="11">+R2+1</f>
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="12">+S2+1</f>
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="13">+T2+1</f>
+        <v>17</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="14">+U2+1</f>
+        <v>18</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:Y2" si="15">+V2+1</f>
+        <v>19</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="16">+X2+1</f>
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="17">+Y2+1</f>
+        <v>22</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2" si="18">+Z2+1</f>
+        <v>23</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AC2" si="19">+AA2+1</f>
+        <v>24</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="19"/>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>+D4+1</f>
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:W4" si="0">+E4+1</f>
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="X4">
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUM(E4:AC4)</f>
+        <v>5.5312038874699034</v>
+      </c>
+      <c r="E3">
+        <f>+B4*B3</f>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <f>+E3*(1+B2)</f>
+        <v>0.26622000000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <f>+F3*(1+B2)</f>
+        <v>0.27154440000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <f>+G3*(1+B2)</f>
+        <v>0.27697528800000004</v>
+      </c>
+      <c r="I3" s="4">
+        <f>+H3*(1+B2)</f>
+        <v>0.28251479376000005</v>
+      </c>
+      <c r="J3" s="4">
+        <f>+I3*(1+B2)</f>
+        <v>0.28816508963520004</v>
+      </c>
+      <c r="K3" s="4">
+        <f>+J3*(1+B2)</f>
+        <v>0.29392839142790406</v>
+      </c>
+      <c r="L3" s="4">
+        <f>+K3*(1+B2)</f>
+        <v>0.29980695925646217</v>
+      </c>
+      <c r="M3" s="4">
+        <f>+L3*(1+B2)</f>
+        <v>0.30580309844159143</v>
+      </c>
+      <c r="N3" s="4">
+        <f>+M3*(1+B2)</f>
+        <v>0.31191916041042328</v>
+      </c>
+      <c r="O3" s="4">
+        <f>+N3*(1+B2)</f>
+        <v>0.31815754361863174</v>
+      </c>
+      <c r="P3" s="4">
+        <f>+O3*(1+B2)</f>
+        <v>0.3245206944910044</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>+P3*(1+B2)</f>
+        <v>0.33101110838082448</v>
+      </c>
+      <c r="R3" s="4">
+        <f>+Q3*(1+B2)</f>
+        <v>0.33763133054844097</v>
+      </c>
+      <c r="S3" s="4">
+        <f>+R3*(1+B2)</f>
+        <v>0.34438395715940978</v>
+      </c>
+      <c r="T3" s="4">
+        <f>+S3*(1+B2)</f>
+        <v>0.351271636302598</v>
+      </c>
+      <c r="U3" s="4">
+        <f>+T3*(1+B2)</f>
+        <v>0.35829706902864994</v>
+      </c>
+      <c r="V3" s="4">
+        <f>+U3*(1+B2)</f>
+        <v>0.36546301040922297</v>
+      </c>
+      <c r="W3" s="4">
+        <f>+V3*(1+B2)</f>
+        <v>0.37277227061740742</v>
+      </c>
+      <c r="X3" s="4">
+        <f>+W3*(1+B2)</f>
+        <v>0.38022771602975558</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>+X3*(1+B2)</f>
+        <v>0.38783227035035067</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>+Y3*(1+B2)</f>
+        <v>0.39558891575735772</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>+Z3*(1+B2)</f>
+        <v>0.40350069407250488</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>+AA3*(1+B2)</f>
+        <v>0.41157070795395501</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>AB3/D2</f>
+        <v>6.8595117992325836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B4">
+        <v>0.87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="3">
+        <f>-PV($D$2,E2,0,E3)</f>
+        <v>0.24622641509433962</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:X4" si="20">-PV($D$2,F2,0,F3)</f>
+        <v>0.23693485226059094</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.22799391443943653</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.21939037049832574</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.21111148859272852</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.20314501732507839</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.19547916761469805</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.18810259525187928</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.18100438411029895</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.17417402999292916</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.16760142508753559</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.16127684300876066</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.15519092440465648</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.14933466310636756</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.14369939280046684</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.13827677420422285</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.13305878272481819</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.12803769658425904</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="20"/>
+        <v>0.12320608539240019</v>
+      </c>
+      <c r="X4" s="3">
+        <f>-PV($D$2,X2,0,X3)</f>
+        <v>0.11855679915117755</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4" si="21">-PV($D$2,Y2,0,Y3)</f>
+        <v>0.11408295767377459</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="22">-PV($D$2,Z2,0,Z3)</f>
+        <v>0.10977794040306613</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="23">-PV($D$2,AA2,0,AA3)</f>
+        <v>0.10563537661427116</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>-PV($D$2,AB2,0,AB3)</f>
+        <v>0.10164913598731755</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>-PV($D$2,AC2,0,AC3)</f>
+        <v>1.5982568551465024</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <f>SUM(D6:J6)</f>
-        <v>5.2971510662861965</v>
-      </c>
-      <c r="D5">
-        <f>0.88*(1+D2)</f>
-        <v>0.89760000000000006</v>
-      </c>
-      <c r="E5" s="4">
-        <f>+D5*(1+E2)</f>
-        <v>0.91555200000000003</v>
-      </c>
-      <c r="F5" s="4">
-        <f>+E5*(1+F2)</f>
-        <v>0.93386304000000009</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:V5" si="1">+F5*(1+G2)</f>
-        <v>0.95254030080000007</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.97159110681600014</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.99102292895232014</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0108433875313665</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0310602552819939</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0516814603876337</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0727150895953863</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0941693913872941</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1160527792150399</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1383738347993406</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1611413114953275</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1843641377252341</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2080514204797388</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2322124488893336</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2568566978671203</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2819938318244628</v>
-      </c>
-      <c r="W5" s="4">
-        <f>+V5*(1+W2)</f>
-        <v>1.3076337084609522</v>
-      </c>
-      <c r="X5" s="5">
-        <f>W5/C4</f>
-        <v>21.79389514101587</v>
-      </c>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5.44</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D6" s="3">
-        <f>-PV($C$4,D4,0,D5)</f>
-        <v>0.84679245283018867</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ref="E6:V6" si="2">-PV($C$4,E4,0,E5)</f>
-        <v>0.81483802064791733</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.78408941609516569</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75450113624251791</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.7260293952522342</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69863205958233854</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.67226858563583503</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.6468999597627848</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.62248864052645325</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.59899850314809644</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.57639478604816818</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.55464403940484097</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53371407565371487</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.51357392185546158</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.49419377386091567</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.47554495220578691</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.45759985966971944</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.44033194043689988</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.42371564079777152</v>
-      </c>
-      <c r="W6" s="3">
-        <f>-PV($C$4,W4,0,W5)</f>
-        <v>0.40772637133370476</v>
-      </c>
-      <c r="X6" s="3">
-        <f>-PV($C$4,X4,0,X5)</f>
-        <v>6.4107920021022746</v>
-      </c>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <f>+D3/B5-1</f>
+        <v>1.6765420490790994E-2</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.13</v>
+      </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>+E11+1</f>
         <v>2</v>
       </c>
-      <c r="D11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W11" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="G11">
+        <f t="shared" ref="G11" si="24">+F11+1</f>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="25">+G11+1</f>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>+H11+1</f>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="26">+I11+1</f>
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11" si="27">+J11+1</f>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11" si="28">+K11+1</f>
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11" si="29">+L11+1</f>
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11" si="30">+M11+1</f>
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:P11" si="31">+N11+1</f>
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="31"/>
+        <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f>+D13+1</f>
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13" si="3">+E13+1</f>
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="G13" si="4">+F13+1</f>
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="5">+G13+1</f>
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="6">+H13+1</f>
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13" si="7">+I13+1</f>
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13" si="8">+J13+1</f>
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13" si="9">+K13+1</f>
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ref="M13" si="10">+L13+1</f>
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13" si="11">+M13+1</f>
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ref="O13" si="12">+N13+1</f>
-        <v>12</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P13" si="13">+O13+1</f>
-        <v>13</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13" si="14">+P13+1</f>
-        <v>14</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ref="R13" si="15">+Q13+1</f>
-        <v>15</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ref="S13" si="16">+R13+1</f>
-        <v>16</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ref="T13" si="17">+S13+1</f>
-        <v>17</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ref="U13" si="18">+T13+1</f>
-        <v>18</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ref="V13" si="19">+U13+1</f>
-        <v>19</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ref="W13" si="20">+V13+1</f>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="X13">
+      <c r="B12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(E13:P13)</f>
+        <v>15.194865013388823</v>
+      </c>
+      <c r="E12">
+        <f>+B13*B12</f>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f>+E12*(1+B11)</f>
+        <v>0.40962499999999996</v>
+      </c>
+      <c r="G12" s="4">
+        <f>+F12*(1+B11)</f>
+        <v>0.46287624999999993</v>
+      </c>
+      <c r="H12" s="4">
+        <f>+G12*(1+B11)</f>
+        <v>0.52305016249999992</v>
+      </c>
+      <c r="I12" s="4">
+        <f>+H12*(1+B11)</f>
+        <v>0.5910466836249999</v>
+      </c>
+      <c r="J12" s="4">
+        <f>+I12*(1+B11)</f>
+        <v>0.66788275249624984</v>
+      </c>
+      <c r="K12" s="4">
+        <f>+J12*(1+B11)</f>
+        <v>0.75470751032076222</v>
+      </c>
+      <c r="L12" s="4">
+        <f>+K12*(1+B11)</f>
+        <v>0.85281948666246121</v>
+      </c>
+      <c r="M12" s="4">
+        <f>+L12*(1+B11)</f>
+        <v>0.96368601992858105</v>
+      </c>
+      <c r="N12" s="4">
+        <f>+M12*(1+B11)</f>
+        <v>1.0889652025192964</v>
+      </c>
+      <c r="O12" s="4">
+        <f>+N12*(1+B11)</f>
+        <v>1.2305306788468049</v>
+      </c>
+      <c r="P12" s="4">
+        <f>O12*24</f>
+        <v>29.532736292323317</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B13">
+        <v>1.45</v>
+      </c>
+      <c r="E13" s="3">
+        <f>-PV($D$11,E11,0,E12)</f>
+        <v>0.33318014705882348</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13:O13" si="32">-PV($D$11,F11,0,F12)</f>
+        <v>0.34604188067690306</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.35940011504126873</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.37327401654102355</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.38768349144426156</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.40264921445957308</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.418192658400108</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.43433612499275909</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.45110277687667072</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.46851667083698323</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.48660279232149906</v>
+      </c>
+      <c r="P13" s="3">
+        <f>-PV($D$11,P11,0,P12)</f>
+        <v>10.733885124738949</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <f>SUM(D15:L15)</f>
-        <v>15.757095607086475</v>
-      </c>
-      <c r="D14">
-        <f>1.67*(1+D11)</f>
-        <v>1.7868999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <f>+D14*(1+E11)</f>
-        <v>1.911983</v>
-      </c>
-      <c r="F14" s="4">
-        <f>+E14*(1+F11)</f>
-        <v>2.0458218100000001</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" ref="G14:X14" si="21">+F14*(1+G11)</f>
-        <v>2.1890293367</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="21"/>
-        <v>2.3422613902689999</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="21"/>
-        <v>2.50621968758783</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="21"/>
-        <v>2.6816550657189784</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="21"/>
-        <v>2.869370920319307</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="21"/>
-        <v>3.0702268847416585</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="21"/>
-        <v>3.2851427666735749</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="21"/>
-        <v>3.5151027603407252</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="21"/>
-        <v>3.7611599535645763</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="21"/>
-        <v>4.0244411503140967</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="21"/>
-        <v>4.3061520308360839</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="21"/>
-        <v>4.6075826729946101</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="21"/>
-        <v>4.9301134601042333</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="21"/>
-        <v>5.27522140231153</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="21"/>
-        <v>5.6444869004733373</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="21"/>
-        <v>6.039600983506471</v>
-      </c>
-      <c r="W14" s="4">
-        <f>+V14*(1+W11)</f>
-        <v>6.4623730523519241</v>
-      </c>
-      <c r="X14" s="5">
-        <f>W14/C13</f>
-        <v>107.70621753919873</v>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>15.24</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D15" s="3">
-        <f>-PV($C$13,D13,0,D14)</f>
-        <v>1.685754716981132</v>
-      </c>
-      <c r="E15" s="3">
-        <f>-PV($C$13,E13,0,E14)</f>
-        <v>1.7016580633677463</v>
-      </c>
-      <c r="F15" s="3">
-        <f>-PV($C$13,F13,0,F14)</f>
-        <v>1.7177114413240457</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" ref="G15:X15" si="22">-PV($C$13,G13,0,G14)</f>
-        <v>1.733916266242197</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.750273966867123</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.7667859854224732</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.7834537777377797</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.8002788133768155</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.8172625757671628</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.834406562331004</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.8517122846171452</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.8691812684342883</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.8868150539855548</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.904615196004287</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.9225832638911193</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.9407208418523569</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.9590295290396433</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.9775109396909609</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="22"/>
-        <v>1.9961667032729509</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="22"/>
-        <v>2.0149984646245827</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="22"/>
-        <v>31.682365795983994</v>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
+        <f>+D12/B14-1</f>
+        <v>-2.9616132946966855E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.15</v>
+      </c>
       <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>+E20+1</f>
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0.15</v>
+      <c r="G20">
+        <f t="shared" ref="G20" si="33">+F20+1</f>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="34">+G20+1</f>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f>+H20+1</f>
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="35">+I20+1</f>
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20" si="36">+J20+1</f>
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="37">+K20+1</f>
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="38">+L20+1</f>
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="39">+M20+1</f>
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20" si="40">+N20+1</f>
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20" si="41">+O20+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(E22:P22)</f>
+        <v>1059.2772106274765</v>
+      </c>
+      <c r="E21">
+        <f>+B22*B21</f>
+        <v>16.29</v>
+      </c>
+      <c r="F21" s="4">
+        <f>+E21*(1+B20)</f>
+        <v>18.733499999999996</v>
+      </c>
+      <c r="G21" s="4">
+        <f>+F21*(1+B20)</f>
+        <v>21.543524999999992</v>
+      </c>
+      <c r="H21" s="4">
+        <f>+G21*(1+B20)</f>
+        <v>24.775053749999987</v>
+      </c>
+      <c r="I21" s="4">
+        <f>+H21*(1+B20)</f>
+        <v>28.491311812499983</v>
+      </c>
+      <c r="J21" s="4">
+        <f>+I21*(1+B20)</f>
+        <v>32.765008584374975</v>
+      </c>
+      <c r="K21" s="4">
+        <f>+J21*(1+B20)</f>
+        <v>37.679759872031219</v>
+      </c>
+      <c r="L21" s="4">
+        <f>+K21*(1+B20)</f>
+        <v>43.3317238528359</v>
+      </c>
+      <c r="M21" s="4">
+        <f>+L21*(1+B20)</f>
+        <v>49.831482430761284</v>
+      </c>
+      <c r="N21" s="4">
+        <f>+M21*(1+B20)</f>
+        <v>57.306204795375471</v>
+      </c>
+      <c r="O21" s="4">
+        <f>+N21*(1+B20)</f>
+        <v>65.902135514681788</v>
+      </c>
+      <c r="P21" s="4">
+        <f>O21*24</f>
+        <v>1581.6512523523629</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f>+D22+1</f>
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22" si="23">+E22+1</f>
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22" si="24">+F22+1</f>
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22" si="25">+G22+1</f>
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22" si="26">+H22+1</f>
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ref="J22" si="27">+I22+1</f>
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ref="K22" si="28">+J22+1</f>
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ref="L22" si="29">+K22+1</f>
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ref="M22" si="30">+L22+1</f>
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ref="N22" si="31">+M22+1</f>
-        <v>11</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ref="O22" si="32">+N22+1</f>
-        <v>12</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ref="P22" si="33">+O22+1</f>
-        <v>13</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" ref="Q22" si="34">+P22+1</f>
-        <v>14</v>
-      </c>
-      <c r="R22">
-        <f t="shared" ref="R22" si="35">+Q22+1</f>
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22" si="36">+R22+1</f>
-        <v>16</v>
-      </c>
-      <c r="T22">
-        <f t="shared" ref="T22" si="37">+S22+1</f>
-        <v>17</v>
-      </c>
-      <c r="U22">
-        <f t="shared" ref="U22" si="38">+T22+1</f>
-        <v>18</v>
-      </c>
-      <c r="V22">
-        <f t="shared" ref="V22" si="39">+U22+1</f>
-        <v>19</v>
-      </c>
-      <c r="W22">
-        <f t="shared" ref="W22" si="40">+V22+1</f>
-        <v>20</v>
-      </c>
-      <c r="X22">
+      <c r="A22" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B22">
+        <v>32.58</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22" s="3">
+        <f>-PV($D$20,E20,0,E21)</f>
+        <v>15.38243626062323</v>
+      </c>
+      <c r="F22" s="3">
+        <f>-PV($D$20,F20,0,F21)</f>
+        <v>16.704250896805203</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="F22:P22" si="42">-PV($D$20,G20,0,G21)</f>
+        <v>18.139649226936715</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="42"/>
+        <v>19.698391511782077</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="42"/>
+        <v>21.391076712511225</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="42"/>
+        <v>23.229214560328526</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="42"/>
+        <v>25.225303819053636</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="42"/>
+        <v>27.392917272815563</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="42"/>
+        <v>29.746794016749671</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="42"/>
+        <v>32.302939678245622</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="42"/>
+        <v>35.078735250219516</v>
+      </c>
+      <c r="P22" s="3">
+        <f>-PV($D$20,P20,0,P21)</f>
+        <v>794.98550142140539</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <f>SUM(D24:S24)</f>
-        <v>1151.127080626818</v>
-      </c>
-      <c r="D23">
-        <f>33.57*(1+D20)</f>
-        <v>38.605499999999999</v>
-      </c>
-      <c r="E23" s="4">
-        <f>+D23*(1+E20)</f>
-        <v>44.396324999999997</v>
-      </c>
-      <c r="F23" s="4">
-        <f>+E23*(1+F20)</f>
-        <v>51.055773749999993</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" ref="G23:X23" si="41">+F23*(1+G20)</f>
-        <v>58.714139812499987</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="41"/>
-        <v>67.521260784374974</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="41"/>
-        <v>77.649449902031208</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="41"/>
-        <v>89.29686738733588</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="41"/>
-        <v>102.69139749543625</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="41"/>
-        <v>118.09510711975167</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" si="41"/>
-        <v>135.80937318771441</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="41"/>
-        <v>156.18077916587157</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="41"/>
-        <v>179.60789604075228</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="41"/>
-        <v>206.5490804468651</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="41"/>
-        <v>237.53144251389486</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="41"/>
-        <v>273.1611588909791</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="41"/>
-        <v>314.13533272462593</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="41"/>
-        <v>361.25563263331981</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="41"/>
-        <v>415.44397752831776</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="41"/>
-        <v>477.76057415756537</v>
-      </c>
-      <c r="W23" s="4">
-        <f>+V23*(1+W20)</f>
-        <v>549.42466028120009</v>
-      </c>
-      <c r="X23" s="5">
-        <f>W23/C22</f>
-        <v>9157.077671353336</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1087.18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="5"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D24" s="3">
-        <f>-PV($C$22,D22,0,D23)</f>
-        <v>36.42028301886792</v>
-      </c>
-      <c r="E24" s="3">
-        <f>-PV($C$13,E22,0,E23)</f>
-        <v>39.512571199715197</v>
-      </c>
-      <c r="F24" s="3">
-        <f>-PV($C$13,F22,0,F23)</f>
-        <v>42.867412150634401</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24" si="42">-PV($C$13,G22,0,G23)</f>
-        <v>46.507098087952407</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" ref="H24" si="43">-PV($C$13,H22,0,H23)</f>
-        <v>50.455813963344582</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" ref="I24" si="44">-PV($C$13,I22,0,I23)</f>
-        <v>54.73979816777949</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" ref="J24" si="45">-PV($C$13,J22,0,J23)</f>
-        <v>59.387516880138108</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" ref="K24" si="46">-PV($C$13,K22,0,K23)</f>
-        <v>64.429853219017758</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" ref="L24" si="47">-PV($C$13,L22,0,L23)</f>
-        <v>69.900312454594726</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" ref="M24" si="48">-PV($C$13,M22,0,M23)</f>
-        <v>75.835244644135784</v>
-      </c>
-      <c r="N24" s="3">
-        <f t="shared" ref="N24" si="49">-PV($C$13,N22,0,N23)</f>
-        <v>82.274086170524654</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" ref="O24" si="50">-PV($C$13,O22,0,O23)</f>
-        <v>89.259621788776727</v>
-      </c>
-      <c r="P24" s="3">
-        <f t="shared" ref="P24" si="51">-PV($C$13,P22,0,P23)</f>
-        <v>96.838268921786053</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" ref="Q24" si="52">-PV($C$13,Q22,0,Q23)</f>
-        <v>105.06038609439054</v>
-      </c>
-      <c r="R24" s="3">
-        <f t="shared" ref="R24" si="53">-PV($C$13,R22,0,R23)</f>
-        <v>113.98060755523498</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" ref="S24" si="54">-PV($C$13,S22,0,S23)</f>
-        <v>123.65820630992476</v>
-      </c>
-      <c r="T24" s="3">
-        <f t="shared" ref="T24" si="55">-PV($C$13,T22,0,T23)</f>
-        <v>134.15748797774853</v>
-      </c>
-      <c r="U24" s="3">
-        <f t="shared" ref="U24" si="56">-PV($C$13,U22,0,U23)</f>
-        <v>145.54821808906681</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" ref="V24" si="57">-PV($C$13,V22,0,V23)</f>
-        <v>157.90608566266678</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" ref="W24" si="58">-PV($C$13,W22,0,W23)</f>
-        <v>171.31320614345924</v>
-      </c>
-      <c r="X24" s="3">
-        <f t="shared" ref="X24" si="59">-PV($C$13,X22,0,X23)</f>
-        <v>2693.6038701801763</v>
-      </c>
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6">
+        <f>+D21/B23-1</f>
+        <v>-2.5665289439212979E-2</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -18654,345 +18565,259 @@
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.1</v>
+      </c>
       <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>+E29+1</f>
         <v>2</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0.05</v>
+      <c r="G29">
+        <f t="shared" ref="G29" si="43">+F29+1</f>
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="44">+G29+1</f>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f>+H29+1</f>
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="45">+I29+1</f>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29" si="46">+J29+1</f>
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29" si="47">+K29+1</f>
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="48">+L29+1</f>
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29" si="49">+M29+1</f>
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29" si="50">+N29+1</f>
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="51">+O29+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM(E31:P31)</f>
+        <v>17.201266063297002</v>
+      </c>
+      <c r="E30">
+        <f>+B31*B30</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <f>+E30*(1+B29)</f>
+        <v>0.40590000000000004</v>
+      </c>
+      <c r="G30" s="4">
+        <f>+F30*(1+B29)</f>
+        <v>0.44649000000000005</v>
+      </c>
+      <c r="H30" s="4">
+        <f>+G30*(1+B29)</f>
+        <v>0.4911390000000001</v>
+      </c>
+      <c r="I30" s="4">
+        <f>+H30*(1+B29)</f>
+        <v>0.54025290000000015</v>
+      </c>
+      <c r="J30" s="4">
+        <f>+I30*(1+B29)</f>
+        <v>0.59427819000000026</v>
+      </c>
+      <c r="K30" s="4">
+        <f>+J30*(1+B29)</f>
+        <v>0.65370600900000031</v>
+      </c>
+      <c r="L30" s="4">
+        <f>+K30*(1+B29)</f>
+        <v>0.71907660990000044</v>
+      </c>
+      <c r="M30" s="4">
+        <f>+L30*(1+B29)</f>
+        <v>0.79098427089000056</v>
+      </c>
+      <c r="N30" s="4">
+        <f>+M30*(1+B29)</f>
+        <v>0.87008269797900073</v>
+      </c>
+      <c r="O30" s="4">
+        <f>+N30*(1+B29)</f>
+        <v>0.95709096777690084</v>
+      </c>
+      <c r="P30" s="4">
+        <f>O30*24</f>
+        <v>22.97018322664562</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f>+D31+1</f>
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31" si="60">+E31+1</f>
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31" si="61">+F31+1</f>
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31" si="62">+G31+1</f>
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ref="I31" si="63">+H31+1</f>
-        <v>6</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ref="J31" si="64">+I31+1</f>
-        <v>7</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31" si="65">+J31+1</f>
-        <v>8</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ref="L31" si="66">+K31+1</f>
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ref="M31" si="67">+L31+1</f>
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ref="N31" si="68">+M31+1</f>
-        <v>11</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ref="O31" si="69">+N31+1</f>
-        <v>12</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ref="P31" si="70">+O31+1</f>
-        <v>13</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ref="Q31" si="71">+P31+1</f>
-        <v>14</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ref="R31" si="72">+Q31+1</f>
-        <v>15</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ref="S31" si="73">+R31+1</f>
-        <v>16</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ref="T31" si="74">+S31+1</f>
-        <v>17</v>
-      </c>
-      <c r="U31">
-        <f t="shared" ref="U31" si="75">+T31+1</f>
-        <v>18</v>
-      </c>
-      <c r="V31">
-        <f t="shared" ref="V31" si="76">+U31+1</f>
-        <v>19</v>
-      </c>
-      <c r="W31">
-        <f t="shared" ref="W31" si="77">+V31+1</f>
-        <v>20</v>
-      </c>
-      <c r="X31">
+      <c r="A31" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B31">
+        <v>1.23</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="3">
+        <f>-PV($D$29,E29,0,E30)</f>
+        <v>0.35042735042735046</v>
+      </c>
+      <c r="F31" s="3">
+        <f>-PV($D$29,F29,0,F30)</f>
+        <v>0.36606845723654846</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ref="F31:P31" si="52">-PV($D$29,G29,0,G30)</f>
+        <v>0.3824076951189016</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.39947622472059996</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.41730659752389365</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.43593281792619476</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.45539040809004211</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.47571647568760339</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.49694978466891149</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.51913082918879649</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="52"/>
+        <v>0.54230191083350066</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="52"/>
+        <v>12.360157511874659</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <f>SUM(D33:Q33)</f>
-        <v>17.093936039505877</v>
-      </c>
-      <c r="D32">
-        <f>1.31*(1+D29)</f>
-        <v>1.3755000000000002</v>
-      </c>
-      <c r="E32" s="4">
-        <f>+D32*(1+E29)</f>
-        <v>1.4442750000000002</v>
-      </c>
-      <c r="F32" s="4">
-        <f>+E32*(1+F29)</f>
-        <v>1.5164887500000002</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" ref="G32:X32" si="78">+F32*(1+G29)</f>
-        <v>1.5923131875000003</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="78"/>
-        <v>1.6719288468750004</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="78"/>
-        <v>1.7555252892187505</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="78"/>
-        <v>1.8433015536796882</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="78"/>
-        <v>1.9354666313636726</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.0322399629318562</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.1338519610784492</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.2405445591323718</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.3525717870889906</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.4702003764434401</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.5937103952656124</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.7233959150288931</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="78"/>
-        <v>2.8595657107803381</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="78"/>
-        <v>3.0025439963193552</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="78"/>
-        <v>3.1526711961353233</v>
-      </c>
-      <c r="V32" s="4">
-        <f t="shared" si="78"/>
-        <v>3.3103047559420897</v>
-      </c>
-      <c r="W32" s="4">
-        <f>+V32*(1+W29)</f>
-        <v>3.4758199937391945</v>
-      </c>
-      <c r="X32" s="5">
-        <f>W32/C31</f>
-        <v>57.930333228986576</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7">
+        <v>17.28</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D33" s="3">
-        <f>-PV($C$31,D31,0,D32)</f>
-        <v>1.2976415094339624</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" ref="E33:X33" si="79">-PV($C$31,E31,0,E32)</f>
-        <v>1.2853996084015664</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2732731970015514</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2612611857090841</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2493624952778661</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2375760566431693</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.225900810825781</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2143357088368585</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.2028797115836807</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1915317897762874</v>
-      </c>
-      <c r="N33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1802909238350017</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1691561037988223</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1581263292346824</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1472006091475631</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1363779618914536</v>
-      </c>
-      <c r="S33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1256574150811574</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1150380055049198</v>
-      </c>
-      <c r="U33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.1045187790378925</v>
-      </c>
-      <c r="V33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.0940987905564028</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="79"/>
-        <v>1.0837771038530406</v>
-      </c>
-      <c r="X33" s="3">
-        <f t="shared" si="79"/>
-        <v>17.040520500833971</v>
-      </c>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="6">
+        <f>+D30/B32-1</f>
+        <v>-4.5563620777199221E-3</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="4:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="4:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投资心得/DCF估值.xlsx
+++ b/投资心得/DCF估值.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="成长股" sheetId="1" r:id="rId1"/>
-    <sheet name="价值股" sheetId="2" r:id="rId2"/>
+    <sheet name="银行股" sheetId="2" r:id="rId2"/>
+    <sheet name="饮料股" sheetId="4" r:id="rId3"/>
+    <sheet name="食品股" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="59">
   <si>
     <t>利率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -200,6 +202,192 @@
   </si>
   <si>
     <t>600031.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+    <rPh sb="0" eb="1">
+      <t>hai luo shui ni</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600585.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhao hsang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+    <rPh sb="0" eb="1">
+      <t>wei chai dong li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600036.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000038.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <rPh sb="0" eb="1">
+      <t>ge li dian qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <rPh sb="0" eb="1">
+      <t>mei di ji tuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南瑞</t>
+    <rPh sb="0" eb="1">
+      <t>guo dian nan rui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600406.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值空间</t>
+    <rPh sb="0" eb="1">
+      <t>jia zhi kong jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃李面包</t>
+    <rPh sb="0" eb="1">
+      <t>tao li mian bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>603866.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧派家居</t>
+    <rPh sb="0" eb="1">
+      <t>ou pai jia ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>603833.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建筑</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo jian zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国交建</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo jiao jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万华化学</t>
+    <rPh sb="0" eb="1">
+      <t>wan hua hua xue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科A</t>
+    <rPh sb="0" eb="1">
+      <t>wan ke</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利地产</t>
+    <rPh sb="0" eb="1">
+      <t>bao li di chan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+    <rPh sb="0" eb="1">
+      <t>zi jin kuang ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空</t>
+    <rPh sb="0" eb="1">
+      <t>chun qiu hang kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江电力</t>
+    <rPh sb="0" eb="1">
+      <t>chang jiang dian li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海机场</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai ji chang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股息率</t>
+    <rPh sb="0" eb="1">
+      <t>gu xi l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <rPh sb="0" eb="1">
+      <t>guang da yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海新阳</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai xin yang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海天味业</t>
+    <rPh sb="0" eb="1">
+      <t>hai tian wei ye</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM197"/>
+  <dimension ref="A1:BM219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.08</v>
+        <v>8.6717000000000002E-2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1087,8 +1275,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(E6:AY6)</f>
-        <v>154.6312044810463</v>
+        <f>SUM(E6:AZ6)</f>
+        <v>135.18882027768632</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1321,253 +1509,253 @@
       </c>
       <c r="BM5" s="5">
         <f>BL5/D4</f>
-        <v>40404.475646580926</v>
+        <v>37274.791006682361</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="E6" s="3">
         <f>-PV($D$4,E4,0,E5)</f>
-        <v>-0.92592592592592582</v>
+        <v>-0.92020277588369381</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:BK6" si="41">-PV($D$4,F4,0,F5)</f>
-        <v>-0.85733882030178321</v>
+        <v>-0.84677314874405551</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.79383224102016958</v>
+        <v>-0.77920300201805592</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.73502985279645328</v>
+        <v>-0.71702476543392235</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.68058319703375303</v>
+        <v>-0.65980817952964987</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.63016962688310452</v>
+        <v>-0.60715731835395026</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.58349039526213387</v>
+        <v>-0.55870784974740462</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.54026888450197574</v>
+        <v>-0.51412451424557137</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.50024896713145905</v>
+        <v>-0.47309880515863051</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="41"/>
-        <v>-0.46319348808468425</v>
+        <v>-0.43534683377423056</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="41"/>
-        <v>0.42888285933767062</v>
+        <v>0.40060736491122395</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="41"/>
-        <v>0.43682513451059041</v>
+        <v>0.40550401015383614</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="41"/>
-        <v>0.4449144888533792</v>
+        <v>0.41046050735308259</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="41"/>
-        <v>0.45315364605436764</v>
+        <v>0.41547758808262952</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" si="41"/>
-        <v>0.46154538024055969</v>
+        <v>0.42055599285820744</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="41"/>
-        <v>0.47009251691168119</v>
+        <v>0.4256964712469099</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="41"/>
-        <v>0.47879793389152719</v>
+        <v>0.43089978197782952</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" si="41"/>
-        <v>0.48766456229692584</v>
+        <v>0.43616669305404487</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" si="41"/>
-        <v>0.49669538752464665</v>
+        <v>0.4414979818659775</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="41"/>
-        <v>0.50589345025658461</v>
+        <v>0.44689443530613332</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" si="41"/>
-        <v>0.56210383361842731</v>
+        <v>0.49348019987481562</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" si="41"/>
-        <v>0.62455981513158576</v>
+        <v>0.54492221972213439</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="41"/>
-        <v>0.69395535014620646</v>
+        <v>0.60172672707481456</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="41"/>
-        <v>0.77106150016245156</v>
+        <v>0.6644527254931849</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="41"/>
-        <v>0.85673500018050164</v>
+        <v>0.73371749093077776</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="41"/>
-        <v>0.95192777797833517</v>
+        <v>0.81020264624270477</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="41"/>
-        <v>1.0576975310870391</v>
+        <v>0.89466086892102137</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="41"/>
-        <v>1.175219478985599</v>
+        <v>0.9879232980667696</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="41"/>
-        <v>1.3057994210951098</v>
+        <v>1.0909077134894583</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="41"/>
-        <v>1.4508882456612329</v>
+        <v>1.2046275674231191</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="41"/>
-        <v>1.7464395549625951</v>
+        <v>1.4410521208834086</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="41"/>
-        <v>2.1021957606031236</v>
+        <v>1.723878210378996</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" si="41"/>
-        <v>2.5304208229482046</v>
+        <v>2.0622127688190162</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="41"/>
-        <v>3.0458769165117277</v>
+        <v>2.4669500886290741</v>
       </c>
       <c r="AM6" s="3">
         <f t="shared" si="41"/>
-        <v>3.6663333254307831</v>
+        <v>2.951122615379898</v>
       </c>
       <c r="AN6" s="3">
         <f t="shared" si="41"/>
-        <v>4.41317900283335</v>
+        <v>3.5303205894394467</v>
       </c>
       <c r="AO6" s="3">
         <f t="shared" si="41"/>
-        <v>5.3121599108179209</v>
+        <v>4.223194048009999</v>
       </c>
       <c r="AP6" s="3">
         <f t="shared" si="41"/>
-        <v>6.3942665593178676</v>
+        <v>5.0520533518965829</v>
       </c>
       <c r="AQ6" s="3">
         <f t="shared" si="41"/>
-        <v>7.696802339919655</v>
+        <v>6.0435875738260814</v>
       </c>
       <c r="AR6" s="3">
         <f t="shared" si="41"/>
-        <v>9.2646694832366219</v>
+        <v>7.2297238802502442</v>
       </c>
       <c r="AS6" s="3">
         <f t="shared" si="41"/>
-        <v>10.294077203596245</v>
+        <v>7.9833743801746859</v>
       </c>
       <c r="AT6" s="3">
         <f t="shared" si="41"/>
-        <v>11.437863559551383</v>
+        <v>8.8155879186666102</v>
       </c>
       <c r="AU6" s="3">
         <f t="shared" si="41"/>
-        <v>12.708737288390425</v>
+        <v>9.7345541685645234</v>
       </c>
       <c r="AV6" s="3">
         <f t="shared" si="41"/>
-        <v>14.120819209322692</v>
+        <v>10.749316521483903</v>
       </c>
       <c r="AW6" s="3">
         <f t="shared" si="41"/>
-        <v>15.689799121469658</v>
+        <v>11.869861082306329</v>
       </c>
       <c r="AX6" s="3">
         <f t="shared" si="41"/>
-        <v>17.433110134966284</v>
+        <v>13.107214940750533</v>
       </c>
       <c r="AY6" s="3">
         <f t="shared" si="41"/>
-        <v>19.370122372184756</v>
+        <v>14.473554687099439</v>
       </c>
       <c r="AZ6" s="3">
         <f t="shared" si="41"/>
-        <v>21.5223581913164</v>
+        <v>15.982326239968019</v>
       </c>
       <c r="BA6" s="3">
         <f t="shared" si="41"/>
-        <v>23.913731323684885</v>
+        <v>17.648377165316841</v>
       </c>
       <c r="BB6" s="3">
         <f t="shared" si="41"/>
-        <v>26.57081258187209</v>
+        <v>19.488102788840337</v>
       </c>
       <c r="BC6" s="3">
         <f t="shared" si="41"/>
-        <v>27.06286466672157</v>
+        <v>19.726306911297403</v>
       </c>
       <c r="BD6" s="3">
         <f t="shared" si="41"/>
-        <v>27.564028827216418</v>
+        <v>19.967422615480519</v>
       </c>
       <c r="BE6" s="3">
         <f t="shared" si="41"/>
-        <v>28.074473805498208</v>
+        <v>20.211485489808823</v>
       </c>
       <c r="BF6" s="3">
         <f t="shared" si="41"/>
-        <v>28.594371468562986</v>
+        <v>20.458531557700585</v>
       </c>
       <c r="BG6" s="3">
         <f t="shared" si="41"/>
-        <v>29.12389686612897</v>
+        <v>20.708597282890249</v>
       </c>
       <c r="BH6" s="3">
         <f t="shared" si="41"/>
-        <v>29.663228289575805</v>
+        <v>20.961719574810441</v>
       </c>
       <c r="BI6" s="3">
         <f t="shared" si="41"/>
-        <v>30.212547331975358</v>
+        <v>21.217935794039747</v>
       </c>
       <c r="BJ6" s="3">
         <f t="shared" si="41"/>
-        <v>30.772038949234165</v>
+        <v>21.477283757817101</v>
       </c>
       <c r="BK6" s="3">
         <f t="shared" si="41"/>
-        <v>31.341891522368137</v>
+        <v>21.739801745623573</v>
       </c>
       <c r="BL6" s="3">
         <f>-PV($D$4,BL4,0,BL5)</f>
-        <v>31.92229692093051</v>
+        <v>22.00552850483238</v>
       </c>
       <c r="BM6" s="3">
         <f>-PV($D$4,BM4,0,BM5)</f>
-        <v>369.47102917743649</v>
+        <v>233.51301838087699</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
@@ -1761,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0.09</v>
+        <v>9.3284000000000006E-2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2013,8 +2201,8 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(E14:AY14)</f>
-        <v>105.0100465564105</v>
+        <f>SUM(E14:AZ14)</f>
+        <v>104.48504165956224</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -2247,253 +2435,253 @@
       </c>
       <c r="BM13" s="5">
         <f>BL13/D12</f>
-        <v>35915.08946362749</v>
+        <v>34650.723079268406</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="E14" s="3">
         <f>-PV($D$12,E12,0,E13)</f>
-        <v>-0.9174311926605504</v>
+        <v>-0.9146754182810688</v>
       </c>
       <c r="F14" s="3">
         <f>-PV($D$12,F12,0,F13)</f>
-        <v>-0.84167999326655996</v>
+        <v>-0.83663112080764823</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ref="G14:BM14" si="103">-PV($D$12,G12,0,G13)</f>
-        <v>-0.77218348006106419</v>
+        <v>-0.76524592037169514</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.7084252110651964</v>
+        <v>-0.69995163230386181</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.64993138629834524</v>
+        <v>-0.6402285520540516</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.5962673268792158</v>
+        <v>-0.58560131864552278</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.54703424484331731</v>
+        <v>-0.53563513107803906</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.50186627967276809</v>
+        <v>-0.48993228756484047</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.46042777951630098</v>
+        <v>-0.44812902005777133</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="103"/>
-        <v>-0.42241080689568894</v>
+        <v>-0.40989259886522755</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="103"/>
-        <v>0.38753285036301738</v>
+        <v>0.37491868431736641</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="103"/>
-        <v>0.39108819761405428</v>
+        <v>0.37722179483931262</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="103"/>
-        <v>0.39467616272977951</v>
+        <v>0.37953905327732224</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="103"/>
-        <v>0.39829704495665824</v>
+        <v>0.38187054654147923</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="103"/>
-        <v>0.40195114628653589</v>
+        <v>0.38421636207575272</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="103"/>
-        <v>0.4056387714818252</v>
+        <v>0.38657658786127669</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="103"/>
-        <v>0.40936022810092459</v>
+        <v>0.38895131241964981</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="103"/>
-        <v>0.41311582652386886</v>
+        <v>0.39134062481625531</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="103"/>
-        <v>0.41690587997821621</v>
+        <v>0.39374461466360156</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="103"/>
-        <v>0.42073070456517242</v>
+        <v>0.39616337212468283</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="103"/>
-        <v>0.4631897664937677</v>
+        <v>0.43483307772693958</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" si="103"/>
-        <v>0.50993368788304694</v>
+        <v>0.47727735270279958</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" si="103"/>
-        <v>0.56139488574280394</v>
+        <v>0.52386463466341726</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" si="103"/>
-        <v>0.61804941549666481</v>
+        <v>0.57499932460010461</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" si="103"/>
-        <v>0.68042137485871346</v>
+        <v>0.63112529728791922</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" si="103"/>
-        <v>0.74908775213803314</v>
+        <v>0.69272975434150996</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" si="103"/>
-        <v>0.82468376382168795</v>
+        <v>0.76034745336967513</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="103"/>
-        <v>0.90790873081286738</v>
+        <v>0.83456534993982356</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" si="103"/>
-        <v>0.99953254768389066</v>
+        <v>0.91602769264691386</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="103"/>
-        <v>1.1004028047896042</v>
+        <v>1.00544161551463</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="103"/>
-        <v>1.312407014886684</v>
+        <v>1.195548549296449</v>
       </c>
       <c r="AJ14" s="3">
         <f t="shared" si="103"/>
-        <v>1.5652560728006324</v>
+        <v>1.4216005302239709</v>
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="103"/>
-        <v>1.8668191693952494</v>
+        <v>1.6903939774945598</v>
       </c>
       <c r="AL14" s="3">
         <f t="shared" si="103"/>
-        <v>2.2264815781778204</v>
+        <v>2.010010363952027</v>
       </c>
       <c r="AM14" s="3">
         <f t="shared" si="103"/>
-        <v>2.655436744615749</v>
+        <v>2.3900591915162352</v>
       </c>
       <c r="AN14" s="3">
         <f t="shared" si="103"/>
-        <v>3.1670346495417188</v>
+        <v>2.8419669079316137</v>
       </c>
       <c r="AO14" s="3">
         <f t="shared" si="103"/>
-        <v>3.7771972884442522</v>
+        <v>3.3793204513292956</v>
       </c>
       <c r="AP14" s="3">
         <f t="shared" si="103"/>
-        <v>4.5049141972270892</v>
+        <v>4.0182757515230128</v>
       </c>
       <c r="AQ14" s="3">
         <f t="shared" si="103"/>
-        <v>5.3728334462341438</v>
+        <v>4.7780434699308838</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="103"/>
-        <v>6.4079664955086111</v>
+        <v>5.6814665822514092</v>
       </c>
       <c r="AS14" s="3">
         <f t="shared" si="103"/>
-        <v>7.0546420134039751</v>
+        <v>6.2360373870848669</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="103"/>
-        <v>7.7665783633805212</v>
+        <v>6.8447401265378813</v>
       </c>
       <c r="AU14" s="3">
         <f t="shared" si="103"/>
-        <v>8.5503615009693803</v>
+        <v>7.5128586459195024</v>
       </c>
       <c r="AV14" s="3">
         <f t="shared" si="103"/>
-        <v>9.4132420194158311</v>
+        <v>8.2461925493315569</v>
       </c>
       <c r="AW14" s="3">
         <f t="shared" si="103"/>
-        <v>10.363202223210088</v>
+        <v>9.0511075431432904</v>
       </c>
       <c r="AX14" s="3">
         <f t="shared" si="103"/>
-        <v>11.409029970506518</v>
+        <v>9.9345906935178334</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" si="103"/>
-        <v>12.560399967530111</v>
+        <v>10.904311077653565</v>
       </c>
       <c r="AZ14" s="3">
         <f t="shared" si="103"/>
-        <v>13.827963267005627</v>
+        <v>11.9686863552236</v>
       </c>
       <c r="BA14" s="3">
         <f t="shared" si="103"/>
-        <v>15.223445798538302</v>
+        <v>13.136955837886878</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" si="103"/>
-        <v>16.759756842427485</v>
+        <v>14.419260691150933</v>
       </c>
       <c r="BC14" s="3">
         <f t="shared" si="103"/>
-        <v>16.913516079513975</v>
+        <v>14.507837634380483</v>
       </c>
       <c r="BD14" s="3">
         <f t="shared" si="103"/>
-        <v>17.068685951803097</v>
+        <v>14.596958702238881</v>
       </c>
       <c r="BE14" s="3">
         <f t="shared" si="103"/>
-        <v>17.22527940090221</v>
+        <v>14.686627237262019</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" si="103"/>
-        <v>17.383309487149017</v>
+        <v>14.776846602518855</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" si="103"/>
-        <v>17.542789390700847</v>
+        <v>14.867620181737541</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" si="103"/>
-        <v>17.703732412633883</v>
+        <v>14.958951379432333</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="103"/>
-        <v>17.866151976052542</v>
+        <v>15.050843621031284</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" si="103"/>
-        <v>18.03006162720899</v>
+        <v>15.143300353004726</v>
       </c>
       <c r="BK14" s="3">
         <f t="shared" si="103"/>
-        <v>18.195475036632928</v>
+        <v>15.236325042994503</v>
       </c>
       <c r="BL14" s="3">
         <f t="shared" si="103"/>
-        <v>18.362406000271761</v>
+        <v>15.329921179944051</v>
       </c>
       <c r="BM14" s="3">
         <f t="shared" si="103"/>
-        <v>187.18048929940633</v>
+        <v>150.31411675615482</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
@@ -2508,7 +2696,7 @@
       </c>
       <c r="D17" s="2">
         <f>+(D5-D13)/D13</f>
-        <v>0.4725372433577556</v>
+        <v>0.29385812677535678</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.2">
@@ -2517,7 +2705,7 @@
       </c>
       <c r="D18" s="6">
         <f>+D12-D4</f>
-        <v>9.999999999999995E-3</v>
+        <v>6.5670000000000034E-3</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.2">
@@ -2526,7 +2714,7 @@
       </c>
       <c r="D19" s="4">
         <f>+D17/D18</f>
-        <v>47.253724335775587</v>
+        <v>44.747697087765587</v>
       </c>
     </row>
     <row r="21" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -6760,8 +6948,8 @@
         <v>1</v>
       </c>
       <c r="D71" s="3">
-        <f>SUM(E72:AM72)</f>
-        <v>16.403552502378172</v>
+        <f>SUM(E72:AL72)</f>
+        <v>13.45081363135257</v>
       </c>
       <c r="E71">
         <v>-1</v>
@@ -8181,7 +8369,7 @@
       </c>
       <c r="D83" s="2">
         <f>+(D71-D79)/D79</f>
-        <v>0.52884027176085813</v>
+        <v>0.25363975666736505</v>
       </c>
     </row>
     <row r="84" spans="1:65" x14ac:dyDescent="0.2">
@@ -8199,7 +8387,7 @@
       </c>
       <c r="D85" s="4">
         <f>+D83/D84</f>
-        <v>81.360041809362713</v>
+        <v>39.021501025748435</v>
       </c>
     </row>
     <row r="87" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8651,8 +8839,8 @@
         <v>1</v>
       </c>
       <c r="D93" s="3">
-        <f>SUM(E94:BK94)</f>
-        <v>359.07427683118476</v>
+        <f>SUM(E94:BG94)</f>
+        <v>273.60066626632698</v>
       </c>
       <c r="E93">
         <v>-1</v>
@@ -10072,7 +10260,7 @@
       </c>
       <c r="D105" s="2">
         <f>+(D93-D101)/D101</f>
-        <v>0.74116666309821022</v>
+        <v>0.32670143711896971</v>
       </c>
     </row>
     <row r="106" spans="1:65" x14ac:dyDescent="0.2">
@@ -10090,7 +10278,7 @@
       </c>
       <c r="D107" s="4">
         <f>+D105/D106</f>
-        <v>114.02564047664762</v>
+        <v>50.261759556764524</v>
       </c>
     </row>
     <row r="109" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -10542,8 +10730,8 @@
         <v>1</v>
       </c>
       <c r="D115" s="3">
-        <f>SUM(E116:BC116)</f>
-        <v>192.1865004523589</v>
+        <f>SUM(E116:BA116)</f>
+        <v>152.94109725233105</v>
       </c>
       <c r="E115">
         <v>-1</v>
@@ -10909,7 +11097,7 @@
         <v>1.7247413898900619</v>
       </c>
       <c r="AK116" s="3">
-        <f t="shared" ref="AK116:BP116" si="1062">-PV($D$92,AK114,0,AK115)</f>
+        <f t="shared" ref="AK116:BM116" si="1062">-PV($D$92,AK114,0,AK115)</f>
         <v>2.0632776358305698</v>
       </c>
       <c r="AL116" s="3">
@@ -11835,7 +12023,7 @@
         <v>1.4251001797330467</v>
       </c>
       <c r="AK124" s="3">
-        <f t="shared" ref="AK124:BP124" si="1170">-PV($D$100,AK122,0,AK123)</f>
+        <f t="shared" ref="AK124:BM124" si="1170">-PV($D$100,AK122,0,AK123)</f>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL124" s="3">
@@ -11963,7 +12151,7 @@
       </c>
       <c r="D127" s="2">
         <f>+(D115-D123)/D123</f>
-        <v>0.62848016953089403</v>
+        <v>0.29593672498062301</v>
       </c>
     </row>
     <row r="128" spans="2:65" x14ac:dyDescent="0.2">
@@ -11981,7 +12169,7 @@
       </c>
       <c r="D129" s="4">
         <f>+D127/D128</f>
-        <v>96.689256850906688</v>
+        <v>45.528726920095806</v>
       </c>
     </row>
     <row r="131" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -14324,8 +14512,8 @@
         <v>1</v>
       </c>
       <c r="D159" s="3">
-        <f>SUM(E160:AO160)</f>
-        <v>24.161501008407111</v>
+        <f>SUM(E160:AN160)</f>
+        <v>19.935861817123069</v>
       </c>
       <c r="E159">
         <v>-1</v>
@@ -15617,7 +15805,7 @@
         <v>1.4251001797330467</v>
       </c>
       <c r="AK168" s="3">
-        <f t="shared" ref="AK168:BP168" si="1597">-PV($D$166,AK166,0,AK167)</f>
+        <f t="shared" ref="AK168:BM168" si="1597">-PV($D$166,AK166,0,AK167)</f>
         <v>1.6946855412120023</v>
       </c>
       <c r="AL168" s="3">
@@ -15745,7 +15933,7 @@
       </c>
       <c r="D171" s="2">
         <f>+(D159-D167)/D167</f>
-        <v>0.51238666943163613</v>
+        <v>0.24788321906643923</v>
       </c>
     </row>
     <row r="172" spans="2:65" x14ac:dyDescent="0.2">
@@ -15763,7 +15951,7 @@
       </c>
       <c r="D173" s="4">
         <f>+D171/D172</f>
-        <v>78.828718374097789</v>
+        <v>38.135879856375233</v>
       </c>
     </row>
     <row r="175" spans="2:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -16215,8 +16403,8 @@
         <v>1</v>
       </c>
       <c r="D181" s="3">
-        <f>SUM(E182:AR182)</f>
-        <v>42.498083605087338</v>
+        <f>SUM(E182:AQ182)</f>
+        <v>35.263834361594149</v>
       </c>
       <c r="E181">
         <v>-1</v>
@@ -17630,16 +17818,16 @@
     <row r="192" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
         <v>3</v>
       </c>
       <c r="D193" s="2">
         <f>+(D181-D189)/D189</f>
-        <v>0.50771434126315562</v>
-      </c>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
+        <v>0.25106320767224838</v>
+      </c>
+    </row>
+    <row r="194" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
         <v>4</v>
       </c>
@@ -17648,16 +17836,1907 @@
         <v>6.5000000000000058E-3</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:65" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="4">
         <f>+D193/D194</f>
-        <v>78.109898655870026</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>38.625108872653563</v>
+      </c>
+    </row>
+    <row r="197" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1">
+        <v>0</v>
+      </c>
+      <c r="L200" s="1">
+        <v>0</v>
+      </c>
+      <c r="M200" s="1">
+        <v>0</v>
+      </c>
+      <c r="N200" s="1">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="X200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Z200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AA200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AC200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AF200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AG200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AH200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AM200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AO200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AP200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AQ200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AR200" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AS200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AU200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AV200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AW200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AX200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AY200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AZ200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB200" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BD200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BE200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BF200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BG200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BH200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BI200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BJ200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BK200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BL200" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <f>+E202+1</f>
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <f t="shared" ref="G202" si="1811">+F202+1</f>
+        <v>3</v>
+      </c>
+      <c r="H202">
+        <f t="shared" ref="H202" si="1812">+G202+1</f>
+        <v>4</v>
+      </c>
+      <c r="I202">
+        <f t="shared" ref="I202" si="1813">+H202+1</f>
+        <v>5</v>
+      </c>
+      <c r="J202">
+        <f t="shared" ref="J202" si="1814">+I202+1</f>
+        <v>6</v>
+      </c>
+      <c r="K202">
+        <f t="shared" ref="K202" si="1815">+J202+1</f>
+        <v>7</v>
+      </c>
+      <c r="L202">
+        <f t="shared" ref="L202" si="1816">+K202+1</f>
+        <v>8</v>
+      </c>
+      <c r="M202">
+        <f t="shared" ref="M202" si="1817">+L202+1</f>
+        <v>9</v>
+      </c>
+      <c r="N202">
+        <f t="shared" ref="N202" si="1818">+M202+1</f>
+        <v>10</v>
+      </c>
+      <c r="O202">
+        <f t="shared" ref="O202" si="1819">+N202+1</f>
+        <v>11</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ref="P202" si="1820">+O202+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" ref="Q202" si="1821">+P202+1</f>
+        <v>13</v>
+      </c>
+      <c r="R202">
+        <f t="shared" ref="R202" si="1822">+Q202+1</f>
+        <v>14</v>
+      </c>
+      <c r="S202">
+        <f t="shared" ref="S202" si="1823">+R202+1</f>
+        <v>15</v>
+      </c>
+      <c r="T202">
+        <f t="shared" ref="T202" si="1824">+S202+1</f>
+        <v>16</v>
+      </c>
+      <c r="U202">
+        <f t="shared" ref="U202" si="1825">+T202+1</f>
+        <v>17</v>
+      </c>
+      <c r="V202">
+        <f t="shared" ref="V202" si="1826">+U202+1</f>
+        <v>18</v>
+      </c>
+      <c r="W202">
+        <f t="shared" ref="W202" si="1827">+V202+1</f>
+        <v>19</v>
+      </c>
+      <c r="X202">
+        <f t="shared" ref="X202" si="1828">+W202+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" ref="Y202" si="1829">+X202+1</f>
+        <v>21</v>
+      </c>
+      <c r="Z202">
+        <f t="shared" ref="Z202" si="1830">+Y202+1</f>
+        <v>22</v>
+      </c>
+      <c r="AA202">
+        <f t="shared" ref="AA202" si="1831">+Z202+1</f>
+        <v>23</v>
+      </c>
+      <c r="AB202">
+        <f t="shared" ref="AB202" si="1832">+AA202+1</f>
+        <v>24</v>
+      </c>
+      <c r="AC202">
+        <f t="shared" ref="AC202" si="1833">+AB202+1</f>
+        <v>25</v>
+      </c>
+      <c r="AD202">
+        <f t="shared" ref="AD202" si="1834">+AC202+1</f>
+        <v>26</v>
+      </c>
+      <c r="AE202">
+        <f t="shared" ref="AE202" si="1835">+AD202+1</f>
+        <v>27</v>
+      </c>
+      <c r="AF202">
+        <f t="shared" ref="AF202" si="1836">+AE202+1</f>
+        <v>28</v>
+      </c>
+      <c r="AG202">
+        <f t="shared" ref="AG202" si="1837">+AF202+1</f>
+        <v>29</v>
+      </c>
+      <c r="AH202">
+        <f t="shared" ref="AH202" si="1838">+AG202+1</f>
+        <v>30</v>
+      </c>
+      <c r="AI202">
+        <f t="shared" ref="AI202" si="1839">+AH202+1</f>
+        <v>31</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" ref="AJ202" si="1840">+AI202+1</f>
+        <v>32</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" ref="AK202" si="1841">+AJ202+1</f>
+        <v>33</v>
+      </c>
+      <c r="AL202">
+        <f t="shared" ref="AL202" si="1842">+AK202+1</f>
+        <v>34</v>
+      </c>
+      <c r="AM202">
+        <f t="shared" ref="AM202" si="1843">+AL202+1</f>
+        <v>35</v>
+      </c>
+      <c r="AN202">
+        <f t="shared" ref="AN202" si="1844">+AM202+1</f>
+        <v>36</v>
+      </c>
+      <c r="AO202">
+        <f t="shared" ref="AO202" si="1845">+AN202+1</f>
+        <v>37</v>
+      </c>
+      <c r="AP202">
+        <f t="shared" ref="AP202" si="1846">+AO202+1</f>
+        <v>38</v>
+      </c>
+      <c r="AQ202">
+        <f t="shared" ref="AQ202" si="1847">+AP202+1</f>
+        <v>39</v>
+      </c>
+      <c r="AR202">
+        <f t="shared" ref="AR202" si="1848">+AQ202+1</f>
+        <v>40</v>
+      </c>
+      <c r="AS202">
+        <f t="shared" ref="AS202" si="1849">+AR202+1</f>
+        <v>41</v>
+      </c>
+      <c r="AT202">
+        <f t="shared" ref="AT202" si="1850">+AS202+1</f>
+        <v>42</v>
+      </c>
+      <c r="AU202">
+        <f t="shared" ref="AU202" si="1851">+AT202+1</f>
+        <v>43</v>
+      </c>
+      <c r="AV202">
+        <f t="shared" ref="AV202" si="1852">+AU202+1</f>
+        <v>44</v>
+      </c>
+      <c r="AW202">
+        <f t="shared" ref="AW202" si="1853">+AV202+1</f>
+        <v>45</v>
+      </c>
+      <c r="AX202">
+        <f t="shared" ref="AX202" si="1854">+AW202+1</f>
+        <v>46</v>
+      </c>
+      <c r="AY202">
+        <f t="shared" ref="AY202" si="1855">+AX202+1</f>
+        <v>47</v>
+      </c>
+      <c r="AZ202">
+        <f t="shared" ref="AZ202" si="1856">+AY202+1</f>
+        <v>48</v>
+      </c>
+      <c r="BA202">
+        <f t="shared" ref="BA202" si="1857">+AZ202+1</f>
+        <v>49</v>
+      </c>
+      <c r="BB202">
+        <f t="shared" ref="BB202" si="1858">+BA202+1</f>
+        <v>50</v>
+      </c>
+      <c r="BC202">
+        <f t="shared" ref="BC202" si="1859">+BB202+1</f>
+        <v>51</v>
+      </c>
+      <c r="BD202">
+        <f t="shared" ref="BD202" si="1860">+BC202+1</f>
+        <v>52</v>
+      </c>
+      <c r="BE202">
+        <f t="shared" ref="BE202" si="1861">+BD202+1</f>
+        <v>53</v>
+      </c>
+      <c r="BF202">
+        <f t="shared" ref="BF202" si="1862">+BE202+1</f>
+        <v>54</v>
+      </c>
+      <c r="BG202">
+        <f t="shared" ref="BG202" si="1863">+BF202+1</f>
+        <v>55</v>
+      </c>
+      <c r="BH202">
+        <f t="shared" ref="BH202" si="1864">+BG202+1</f>
+        <v>56</v>
+      </c>
+      <c r="BI202">
+        <f t="shared" ref="BI202" si="1865">+BH202+1</f>
+        <v>57</v>
+      </c>
+      <c r="BJ202">
+        <f t="shared" ref="BJ202" si="1866">+BI202+1</f>
+        <v>58</v>
+      </c>
+      <c r="BK202">
+        <f t="shared" ref="BK202" si="1867">+BJ202+1</f>
+        <v>59</v>
+      </c>
+      <c r="BL202">
+        <f t="shared" ref="BL202" si="1868">+BK202+1</f>
+        <v>60</v>
+      </c>
+      <c r="BM202">
+        <f t="shared" ref="BM202" si="1869">+BL202+1</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3">
+        <f>SUM(E204:AP204)</f>
+        <v>29.216558474744879</v>
+      </c>
+      <c r="E203">
+        <v>-1</v>
+      </c>
+      <c r="F203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N203" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O203" s="4">
+        <v>1</v>
+      </c>
+      <c r="P203" s="4">
+        <f>+O203*(1+P200)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q203" s="4">
+        <f t="shared" ref="Q203" si="1870">+P203*(1+Q200)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R203" s="4">
+        <f t="shared" ref="R203" si="1871">+Q203*(1+R200)</f>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="S203" s="4">
+        <f t="shared" ref="S203" si="1872">+R203*(1+S200)</f>
+        <v>1.4641000000000006</v>
+      </c>
+      <c r="T203" s="4">
+        <f t="shared" ref="T203" si="1873">+S203*(1+T200)</f>
+        <v>1.6105100000000008</v>
+      </c>
+      <c r="U203" s="4">
+        <f t="shared" ref="U203" si="1874">+T203*(1+U200)</f>
+        <v>1.7715610000000011</v>
+      </c>
+      <c r="V203" s="4">
+        <f t="shared" ref="V203" si="1875">+U203*(1+V200)</f>
+        <v>1.9487171000000014</v>
+      </c>
+      <c r="W203" s="4">
+        <f t="shared" ref="W203" si="1876">+V203*(1+W200)</f>
+        <v>2.1435888100000016</v>
+      </c>
+      <c r="X203" s="4">
+        <f>+W203*(1+X200)</f>
+        <v>2.3579476910000019</v>
+      </c>
+      <c r="Y203" s="4">
+        <f t="shared" ref="Y203" si="1877">+X203*(1+Y200)</f>
+        <v>2.8295372292000023</v>
+      </c>
+      <c r="Z203" s="4">
+        <f t="shared" ref="Z203" si="1878">+Y203*(1+Z200)</f>
+        <v>3.3954446750400025</v>
+      </c>
+      <c r="AA203" s="4">
+        <f t="shared" ref="AA203" si="1879">+Z203*(1+AA200)</f>
+        <v>4.074533610048003</v>
+      </c>
+      <c r="AB203" s="4">
+        <f t="shared" ref="AB203" si="1880">+AA203*(1+AB200)</f>
+        <v>4.8894403320576032</v>
+      </c>
+      <c r="AC203" s="4">
+        <f t="shared" ref="AC203" si="1881">+AB203*(1+AC200)</f>
+        <v>5.867328398469124</v>
+      </c>
+      <c r="AD203" s="4">
+        <f t="shared" ref="AD203" si="1882">+AC203*(1+AD200)</f>
+        <v>7.040794078162949</v>
+      </c>
+      <c r="AE203" s="4">
+        <f t="shared" ref="AE203" si="1883">+AD203*(1+AE200)</f>
+        <v>8.4489528937955392</v>
+      </c>
+      <c r="AF203" s="4">
+        <f t="shared" ref="AF203" si="1884">+AE203*(1+AF200)</f>
+        <v>10.138743472554646</v>
+      </c>
+      <c r="AG203" s="4">
+        <f t="shared" ref="AG203" si="1885">+AF203*(1+AG200)</f>
+        <v>12.166492167065575</v>
+      </c>
+      <c r="AH203" s="4">
+        <f t="shared" ref="AH203" si="1886">+AG203*(1+AH200)</f>
+        <v>14.599790600478689</v>
+      </c>
+      <c r="AI203" s="4">
+        <f t="shared" ref="AI203" si="1887">+AH203*(1+AI200)</f>
+        <v>18.979727780622298</v>
+      </c>
+      <c r="AJ203" s="4">
+        <f t="shared" ref="AJ203" si="1888">+AI203*(1+AJ200)</f>
+        <v>24.673646114808989</v>
+      </c>
+      <c r="AK203" s="4">
+        <f t="shared" ref="AK203" si="1889">+AJ203*(1+AK200)</f>
+        <v>32.075739949251684</v>
+      </c>
+      <c r="AL203" s="4">
+        <f t="shared" ref="AL203" si="1890">+AK203*(1+AL200)</f>
+        <v>41.698461934027193</v>
+      </c>
+      <c r="AM203" s="4">
+        <f t="shared" ref="AM203" si="1891">+AL203*(1+AM200)</f>
+        <v>54.208000514235351</v>
+      </c>
+      <c r="AN203" s="4">
+        <f t="shared" ref="AN203" si="1892">+AM203*(1+AN200)</f>
+        <v>70.47040066850596</v>
+      </c>
+      <c r="AO203" s="4">
+        <f t="shared" ref="AO203" si="1893">+AN203*(1+AO200)</f>
+        <v>91.611520869057756</v>
+      </c>
+      <c r="AP203" s="4">
+        <f t="shared" ref="AP203" si="1894">+AO203*(1+AP200)</f>
+        <v>119.09497712977509</v>
+      </c>
+      <c r="AQ203" s="4">
+        <f t="shared" ref="AQ203" si="1895">+AP203*(1+AQ200)</f>
+        <v>154.82347026870761</v>
+      </c>
+      <c r="AR203" s="4">
+        <f t="shared" ref="AR203" si="1896">+AQ203*(1+AR200)</f>
+        <v>201.27051134931989</v>
+      </c>
+      <c r="AS203" s="4">
+        <f t="shared" ref="AS203" si="1897">+AR203*(1+AS200)</f>
+        <v>241.52461361918387</v>
+      </c>
+      <c r="AT203" s="4">
+        <f t="shared" ref="AT203" si="1898">+AS203*(1+AT200)</f>
+        <v>289.82953634302061</v>
+      </c>
+      <c r="AU203" s="4">
+        <f t="shared" ref="AU203" si="1899">+AT203*(1+AU200)</f>
+        <v>347.79544361162471</v>
+      </c>
+      <c r="AV203" s="4">
+        <f t="shared" ref="AV203" si="1900">+AU203*(1+AV200)</f>
+        <v>417.35453233394963</v>
+      </c>
+      <c r="AW203" s="4">
+        <f t="shared" ref="AW203" si="1901">+AV203*(1+AW200)</f>
+        <v>500.82543880073956</v>
+      </c>
+      <c r="AX203" s="4">
+        <f t="shared" ref="AX203" si="1902">+AW203*(1+AX200)</f>
+        <v>600.99052656088747</v>
+      </c>
+      <c r="AY203" s="4">
+        <f t="shared" ref="AY203" si="1903">+AX203*(1+AY200)</f>
+        <v>721.18863187306499</v>
+      </c>
+      <c r="AZ203" s="4">
+        <f t="shared" ref="AZ203" si="1904">+AY203*(1+AZ200)</f>
+        <v>865.42635824767797</v>
+      </c>
+      <c r="BA203" s="4">
+        <f t="shared" ref="BA203" si="1905">+AZ203*(1+BA200)</f>
+        <v>1038.5116298972134</v>
+      </c>
+      <c r="BB203" s="4">
+        <f t="shared" ref="BB203" si="1906">+BA203*(1+BB200)</f>
+        <v>1246.213955876656</v>
+      </c>
+      <c r="BC203" s="4">
+        <f t="shared" ref="BC203" si="1907">+BB203*(1+BC200)</f>
+        <v>1370.8353514643218</v>
+      </c>
+      <c r="BD203" s="4">
+        <f t="shared" ref="BD203" si="1908">+BC203*(1+BD200)</f>
+        <v>1507.918886610754</v>
+      </c>
+      <c r="BE203" s="4">
+        <f t="shared" ref="BE203" si="1909">+BD203*(1+BE200)</f>
+        <v>1658.7107752718296</v>
+      </c>
+      <c r="BF203" s="4">
+        <f t="shared" ref="BF203" si="1910">+BE203*(1+BF200)</f>
+        <v>1824.5818527990127</v>
+      </c>
+      <c r="BG203" s="4">
+        <f t="shared" ref="BG203" si="1911">+BF203*(1+BG200)</f>
+        <v>2007.0400380789142</v>
+      </c>
+      <c r="BH203" s="4">
+        <f t="shared" ref="BH203" si="1912">+BG203*(1+BH200)</f>
+        <v>2207.7440418868059</v>
+      </c>
+      <c r="BI203" s="4">
+        <f t="shared" ref="BI203" si="1913">+BH203*(1+BI200)</f>
+        <v>2428.5184460754867</v>
+      </c>
+      <c r="BJ203" s="4">
+        <f t="shared" ref="BJ203" si="1914">+BI203*(1+BJ200)</f>
+        <v>2671.3702906830358</v>
+      </c>
+      <c r="BK203" s="4">
+        <f t="shared" ref="BK203" si="1915">+BJ203*(1+BK200)</f>
+        <v>2938.5073197513398</v>
+      </c>
+      <c r="BL203" s="4">
+        <f>+BK203*(1+BL200)</f>
+        <v>3232.3580517264741</v>
+      </c>
+      <c r="BM203" s="5">
+        <f>BL203/D202</f>
+        <v>37282.099789232685</v>
+      </c>
+    </row>
+    <row r="204" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="E204" s="3">
+        <f>-PV($D$202,E202,0,E203)</f>
+        <v>-0.92021717125241553</v>
+      </c>
+      <c r="F204" s="3">
+        <f t="shared" ref="F204:BM204" si="1916">-PV($D$180,F202,0,F203)</f>
+        <v>-0.84679964226779758</v>
+      </c>
+      <c r="G204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.77923957142523004</v>
+      </c>
+      <c r="H204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.71706963414486979</v>
+      </c>
+      <c r="I204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.65985979032379671</v>
+      </c>
+      <c r="J204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.60721430967497625</v>
+      </c>
+      <c r="K204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.55876903439309489</v>
+      </c>
+      <c r="L204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.51418886021265742</v>
+      </c>
+      <c r="M204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.47316541843439541</v>
+      </c>
+      <c r="N204" s="3">
+        <f t="shared" si="1916"/>
+        <v>-0.43541494288616489</v>
+      </c>
+      <c r="O204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.40067630706373875</v>
+      </c>
+      <c r="P204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.40558013966146372</v>
+      </c>
+      <c r="Q204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.41054398971897504</v>
+      </c>
+      <c r="R204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.41556859178326366</v>
+      </c>
+      <c r="S204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.42065468939135914</v>
+      </c>
+      <c r="T204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.42580303518035806</v>
+      </c>
+      <c r="U204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.43101439099879812</v>
+      </c>
+      <c r="V204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.43628952801939636</v>
+      </c>
+      <c r="W204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.44162922685316647</v>
+      </c>
+      <c r="X204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.44703427766493337</v>
+      </c>
+      <c r="Y204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.49364234213483033</v>
+      </c>
+      <c r="Z204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.54510979162767681</v>
+      </c>
+      <c r="AA204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.60194326856833724</v>
+      </c>
+      <c r="AB204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.66470223822766594</v>
+      </c>
+      <c r="AC204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.73400449606441442</v>
+      </c>
+      <c r="AD204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.81053224926594047</v>
+      </c>
+      <c r="AE204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.8950388323540337</v>
+      </c>
+      <c r="AF204" s="3">
+        <f t="shared" si="1916"/>
+        <v>0.98835612296387254</v>
+      </c>
+      <c r="AG204" s="3">
+        <f t="shared" si="1916"/>
+        <v>1.0914027307965832</v>
+      </c>
+      <c r="AH204" s="3">
+        <f t="shared" si="1916"/>
+        <v>1.2051930403569522</v>
+      </c>
+      <c r="AI204" s="3">
+        <f t="shared" si="1916"/>
+        <v>1.4417511295334844</v>
+      </c>
+      <c r="AJ204" s="3">
+        <f t="shared" si="1916"/>
+        <v>1.7247413898900619</v>
+      </c>
+      <c r="AK204" s="3">
+        <f t="shared" si="1916"/>
+        <v>2.0632776358305698</v>
+      </c>
+      <c r="AL204" s="3">
+        <f t="shared" si="1916"/>
+        <v>2.4682625624180923</v>
+      </c>
+      <c r="AM204" s="3">
+        <f t="shared" si="1916"/>
+        <v>2.9527388710256006</v>
+      </c>
+      <c r="AN204" s="3">
+        <f t="shared" si="1916"/>
+        <v>3.5323093147448983</v>
+      </c>
+      <c r="AO204" s="3">
+        <f t="shared" si="1916"/>
+        <v>4.2256391912840421</v>
+      </c>
+      <c r="AP204" s="3">
+        <f t="shared" si="1916"/>
+        <v>5.0550574663377699</v>
+      </c>
+      <c r="AQ204" s="3">
+        <f t="shared" si="1916"/>
+        <v>6.0472758868492686</v>
+      </c>
+      <c r="AR204" s="3">
+        <f t="shared" si="1916"/>
+        <v>7.2342492434931893</v>
+      </c>
+      <c r="AS204" s="3">
+        <f t="shared" si="1916"/>
+        <v>7.988496449978677</v>
+      </c>
+      <c r="AT204" s="3">
+        <f t="shared" si="1916"/>
+        <v>8.8213819269112079</v>
+      </c>
+      <c r="AU204" s="3">
+        <f t="shared" si="1916"/>
+        <v>9.7411045479832978</v>
+      </c>
+      <c r="AV204" s="3">
+        <f t="shared" si="1916"/>
+        <v>10.756718006423075</v>
+      </c>
+      <c r="AW204" s="3">
+        <f t="shared" si="1916"/>
+        <v>11.878219938996681</v>
+      </c>
+      <c r="AX204" s="3">
+        <f t="shared" si="1916"/>
+        <v>13.116650342133077</v>
+      </c>
+      <c r="AY204" s="3">
+        <f t="shared" si="1916"/>
+        <v>14.484200248973673</v>
+      </c>
+      <c r="AZ204" s="3">
+        <f t="shared" si="1916"/>
+        <v>15.994331737156905</v>
+      </c>
+      <c r="BA204" s="3">
+        <f t="shared" si="1916"/>
+        <v>17.661910448687109</v>
+      </c>
+      <c r="BB204" s="3">
+        <f t="shared" si="1916"/>
+        <v>19.503351926405202</v>
+      </c>
+      <c r="BC204" s="3">
+        <f t="shared" si="1916"/>
+        <v>19.742051273622639</v>
+      </c>
+      <c r="BD204" s="3">
+        <f t="shared" si="1916"/>
+        <v>19.983672035506491</v>
+      </c>
+      <c r="BE204" s="3">
+        <f t="shared" si="1916"/>
+        <v>20.228249966924768</v>
+      </c>
+      <c r="BF204" s="3">
+        <f t="shared" si="1916"/>
+        <v>20.47582126034531</v>
+      </c>
+      <c r="BG204" s="3">
+        <f t="shared" si="1916"/>
+        <v>20.726422551191533</v>
+      </c>
+      <c r="BH204" s="3">
+        <f t="shared" si="1916"/>
+        <v>20.980090923263724</v>
+      </c>
+      <c r="BI204" s="3">
+        <f t="shared" si="1916"/>
+        <v>21.23686391422665</v>
+      </c>
+      <c r="BJ204" s="3">
+        <f t="shared" si="1916"/>
+        <v>21.49677952116437</v>
+      </c>
+      <c r="BK204" s="3">
+        <f t="shared" si="1916"/>
+        <v>21.759876206203003</v>
+      </c>
+      <c r="BL204" s="3">
+        <f t="shared" si="1916"/>
+        <v>22.026192902202361</v>
+      </c>
+      <c r="BM204" s="3">
+        <f t="shared" si="1916"/>
+        <v>233.78178691954662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>0</v>
+      </c>
+      <c r="K208" s="1">
+        <v>0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>0</v>
+      </c>
+      <c r="M208" s="1">
+        <v>0</v>
+      </c>
+      <c r="N208" s="1">
+        <v>0</v>
+      </c>
+      <c r="O208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="W208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="X208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Z208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AA208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AC208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AF208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AG208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AH208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AM208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AO208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AP208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AQ208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AR208" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AS208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AU208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AV208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AW208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AX208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AY208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AZ208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BD208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BE208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BF208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BG208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BH208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BI208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BJ208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BK208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BL208" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <f>+E210+1</f>
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <f t="shared" ref="G210" si="1917">+F210+1</f>
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <f t="shared" ref="H210" si="1918">+G210+1</f>
+        <v>4</v>
+      </c>
+      <c r="I210">
+        <f t="shared" ref="I210" si="1919">+H210+1</f>
+        <v>5</v>
+      </c>
+      <c r="J210">
+        <f t="shared" ref="J210" si="1920">+I210+1</f>
+        <v>6</v>
+      </c>
+      <c r="K210">
+        <f t="shared" ref="K210" si="1921">+J210+1</f>
+        <v>7</v>
+      </c>
+      <c r="L210">
+        <f t="shared" ref="L210" si="1922">+K210+1</f>
+        <v>8</v>
+      </c>
+      <c r="M210">
+        <f t="shared" ref="M210" si="1923">+L210+1</f>
+        <v>9</v>
+      </c>
+      <c r="N210">
+        <f t="shared" ref="N210" si="1924">+M210+1</f>
+        <v>10</v>
+      </c>
+      <c r="O210">
+        <f t="shared" ref="O210" si="1925">+N210+1</f>
+        <v>11</v>
+      </c>
+      <c r="P210">
+        <f t="shared" ref="P210" si="1926">+O210+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" ref="Q210" si="1927">+P210+1</f>
+        <v>13</v>
+      </c>
+      <c r="R210">
+        <f t="shared" ref="R210" si="1928">+Q210+1</f>
+        <v>14</v>
+      </c>
+      <c r="S210">
+        <f t="shared" ref="S210" si="1929">+R210+1</f>
+        <v>15</v>
+      </c>
+      <c r="T210">
+        <f t="shared" ref="T210" si="1930">+S210+1</f>
+        <v>16</v>
+      </c>
+      <c r="U210">
+        <f t="shared" ref="U210" si="1931">+T210+1</f>
+        <v>17</v>
+      </c>
+      <c r="V210">
+        <f t="shared" ref="V210" si="1932">+U210+1</f>
+        <v>18</v>
+      </c>
+      <c r="W210">
+        <f t="shared" ref="W210" si="1933">+V210+1</f>
+        <v>19</v>
+      </c>
+      <c r="X210">
+        <f t="shared" ref="X210" si="1934">+W210+1</f>
+        <v>20</v>
+      </c>
+      <c r="Y210">
+        <f t="shared" ref="Y210" si="1935">+X210+1</f>
+        <v>21</v>
+      </c>
+      <c r="Z210">
+        <f t="shared" ref="Z210" si="1936">+Y210+1</f>
+        <v>22</v>
+      </c>
+      <c r="AA210">
+        <f t="shared" ref="AA210" si="1937">+Z210+1</f>
+        <v>23</v>
+      </c>
+      <c r="AB210">
+        <f t="shared" ref="AB210" si="1938">+AA210+1</f>
+        <v>24</v>
+      </c>
+      <c r="AC210">
+        <f t="shared" ref="AC210" si="1939">+AB210+1</f>
+        <v>25</v>
+      </c>
+      <c r="AD210">
+        <f t="shared" ref="AD210" si="1940">+AC210+1</f>
+        <v>26</v>
+      </c>
+      <c r="AE210">
+        <f t="shared" ref="AE210" si="1941">+AD210+1</f>
+        <v>27</v>
+      </c>
+      <c r="AF210">
+        <f t="shared" ref="AF210" si="1942">+AE210+1</f>
+        <v>28</v>
+      </c>
+      <c r="AG210">
+        <f t="shared" ref="AG210" si="1943">+AF210+1</f>
+        <v>29</v>
+      </c>
+      <c r="AH210">
+        <f t="shared" ref="AH210" si="1944">+AG210+1</f>
+        <v>30</v>
+      </c>
+      <c r="AI210">
+        <f t="shared" ref="AI210" si="1945">+AH210+1</f>
+        <v>31</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" ref="AJ210" si="1946">+AI210+1</f>
+        <v>32</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" ref="AK210" si="1947">+AJ210+1</f>
+        <v>33</v>
+      </c>
+      <c r="AL210">
+        <f t="shared" ref="AL210" si="1948">+AK210+1</f>
+        <v>34</v>
+      </c>
+      <c r="AM210">
+        <f t="shared" ref="AM210" si="1949">+AL210+1</f>
+        <v>35</v>
+      </c>
+      <c r="AN210">
+        <f t="shared" ref="AN210" si="1950">+AM210+1</f>
+        <v>36</v>
+      </c>
+      <c r="AO210">
+        <f t="shared" ref="AO210" si="1951">+AN210+1</f>
+        <v>37</v>
+      </c>
+      <c r="AP210">
+        <f t="shared" ref="AP210" si="1952">+AO210+1</f>
+        <v>38</v>
+      </c>
+      <c r="AQ210">
+        <f t="shared" ref="AQ210" si="1953">+AP210+1</f>
+        <v>39</v>
+      </c>
+      <c r="AR210">
+        <f t="shared" ref="AR210" si="1954">+AQ210+1</f>
+        <v>40</v>
+      </c>
+      <c r="AS210">
+        <f t="shared" ref="AS210" si="1955">+AR210+1</f>
+        <v>41</v>
+      </c>
+      <c r="AT210">
+        <f t="shared" ref="AT210" si="1956">+AS210+1</f>
+        <v>42</v>
+      </c>
+      <c r="AU210">
+        <f t="shared" ref="AU210" si="1957">+AT210+1</f>
+        <v>43</v>
+      </c>
+      <c r="AV210">
+        <f t="shared" ref="AV210" si="1958">+AU210+1</f>
+        <v>44</v>
+      </c>
+      <c r="AW210">
+        <f t="shared" ref="AW210" si="1959">+AV210+1</f>
+        <v>45</v>
+      </c>
+      <c r="AX210">
+        <f t="shared" ref="AX210" si="1960">+AW210+1</f>
+        <v>46</v>
+      </c>
+      <c r="AY210">
+        <f t="shared" ref="AY210" si="1961">+AX210+1</f>
+        <v>47</v>
+      </c>
+      <c r="AZ210">
+        <f t="shared" ref="AZ210" si="1962">+AY210+1</f>
+        <v>48</v>
+      </c>
+      <c r="BA210">
+        <f t="shared" ref="BA210" si="1963">+AZ210+1</f>
+        <v>49</v>
+      </c>
+      <c r="BB210">
+        <f t="shared" ref="BB210" si="1964">+BA210+1</f>
+        <v>50</v>
+      </c>
+      <c r="BC210">
+        <f t="shared" ref="BC210" si="1965">+BB210+1</f>
+        <v>51</v>
+      </c>
+      <c r="BD210">
+        <f t="shared" ref="BD210" si="1966">+BC210+1</f>
+        <v>52</v>
+      </c>
+      <c r="BE210">
+        <f t="shared" ref="BE210" si="1967">+BD210+1</f>
+        <v>53</v>
+      </c>
+      <c r="BF210">
+        <f t="shared" ref="BF210" si="1968">+BE210+1</f>
+        <v>54</v>
+      </c>
+      <c r="BG210">
+        <f t="shared" ref="BG210" si="1969">+BF210+1</f>
+        <v>55</v>
+      </c>
+      <c r="BH210">
+        <f t="shared" ref="BH210" si="1970">+BG210+1</f>
+        <v>56</v>
+      </c>
+      <c r="BI210">
+        <f t="shared" ref="BI210" si="1971">+BH210+1</f>
+        <v>57</v>
+      </c>
+      <c r="BJ210">
+        <f t="shared" ref="BJ210" si="1972">+BI210+1</f>
+        <v>58</v>
+      </c>
+      <c r="BK210">
+        <f t="shared" ref="BK210" si="1973">+BJ210+1</f>
+        <v>59</v>
+      </c>
+      <c r="BL210">
+        <f t="shared" ref="BL210" si="1974">+BK210+1</f>
+        <v>60</v>
+      </c>
+      <c r="BM210">
+        <f t="shared" ref="BM210" si="1975">+BL210+1</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" s="3">
+        <f>SUM(E212:AP212)</f>
+        <v>23.394709713290862</v>
+      </c>
+      <c r="E211">
+        <v>-1</v>
+      </c>
+      <c r="F211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N211" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O211" s="4">
+        <v>1</v>
+      </c>
+      <c r="P211" s="4">
+        <f>+O211*(1+P208)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q211" s="4">
+        <f t="shared" ref="Q211" si="1976">+P211*(1+Q208)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R211" s="4">
+        <f t="shared" ref="R211" si="1977">+Q211*(1+R208)</f>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="S211" s="4">
+        <f t="shared" ref="S211" si="1978">+R211*(1+S208)</f>
+        <v>1.4641000000000006</v>
+      </c>
+      <c r="T211" s="4">
+        <f t="shared" ref="T211" si="1979">+S211*(1+T208)</f>
+        <v>1.6105100000000008</v>
+      </c>
+      <c r="U211" s="4">
+        <f t="shared" ref="U211" si="1980">+T211*(1+U208)</f>
+        <v>1.7715610000000011</v>
+      </c>
+      <c r="V211" s="4">
+        <f t="shared" ref="V211" si="1981">+U211*(1+V208)</f>
+        <v>1.9487171000000014</v>
+      </c>
+      <c r="W211" s="4">
+        <f t="shared" ref="W211" si="1982">+V211*(1+W208)</f>
+        <v>2.1435888100000016</v>
+      </c>
+      <c r="X211" s="4">
+        <f>+W211*(1+X208)</f>
+        <v>2.3579476910000019</v>
+      </c>
+      <c r="Y211" s="4">
+        <f t="shared" ref="Y211" si="1983">+X211*(1+Y208)</f>
+        <v>2.8295372292000023</v>
+      </c>
+      <c r="Z211" s="4">
+        <f t="shared" ref="Z211" si="1984">+Y211*(1+Z208)</f>
+        <v>3.3954446750400025</v>
+      </c>
+      <c r="AA211" s="4">
+        <f t="shared" ref="AA211" si="1985">+Z211*(1+AA208)</f>
+        <v>4.074533610048003</v>
+      </c>
+      <c r="AB211" s="4">
+        <f t="shared" ref="AB211" si="1986">+AA211*(1+AB208)</f>
+        <v>4.8894403320576032</v>
+      </c>
+      <c r="AC211" s="4">
+        <f t="shared" ref="AC211" si="1987">+AB211*(1+AC208)</f>
+        <v>5.867328398469124</v>
+      </c>
+      <c r="AD211" s="4">
+        <f t="shared" ref="AD211" si="1988">+AC211*(1+AD208)</f>
+        <v>7.040794078162949</v>
+      </c>
+      <c r="AE211" s="4">
+        <f t="shared" ref="AE211" si="1989">+AD211*(1+AE208)</f>
+        <v>8.4489528937955392</v>
+      </c>
+      <c r="AF211" s="4">
+        <f t="shared" ref="AF211" si="1990">+AE211*(1+AF208)</f>
+        <v>10.138743472554646</v>
+      </c>
+      <c r="AG211" s="4">
+        <f t="shared" ref="AG211" si="1991">+AF211*(1+AG208)</f>
+        <v>12.166492167065575</v>
+      </c>
+      <c r="AH211" s="4">
+        <f t="shared" ref="AH211" si="1992">+AG211*(1+AH208)</f>
+        <v>14.599790600478689</v>
+      </c>
+      <c r="AI211" s="4">
+        <f t="shared" ref="AI211" si="1993">+AH211*(1+AI208)</f>
+        <v>18.979727780622298</v>
+      </c>
+      <c r="AJ211" s="4">
+        <f t="shared" ref="AJ211" si="1994">+AI211*(1+AJ208)</f>
+        <v>24.673646114808989</v>
+      </c>
+      <c r="AK211" s="4">
+        <f t="shared" ref="AK211" si="1995">+AJ211*(1+AK208)</f>
+        <v>32.075739949251684</v>
+      </c>
+      <c r="AL211" s="4">
+        <f t="shared" ref="AL211" si="1996">+AK211*(1+AL208)</f>
+        <v>41.698461934027193</v>
+      </c>
+      <c r="AM211" s="4">
+        <f t="shared" ref="AM211" si="1997">+AL211*(1+AM208)</f>
+        <v>54.208000514235351</v>
+      </c>
+      <c r="AN211" s="4">
+        <f t="shared" ref="AN211" si="1998">+AM211*(1+AN208)</f>
+        <v>70.47040066850596</v>
+      </c>
+      <c r="AO211" s="4">
+        <f t="shared" ref="AO211" si="1999">+AN211*(1+AO208)</f>
+        <v>91.611520869057756</v>
+      </c>
+      <c r="AP211" s="4">
+        <f t="shared" ref="AP211" si="2000">+AO211*(1+AP208)</f>
+        <v>119.09497712977509</v>
+      </c>
+      <c r="AQ211" s="4">
+        <f t="shared" ref="AQ211" si="2001">+AP211*(1+AQ208)</f>
+        <v>154.82347026870761</v>
+      </c>
+      <c r="AR211" s="4">
+        <f t="shared" ref="AR211" si="2002">+AQ211*(1+AR208)</f>
+        <v>201.27051134931989</v>
+      </c>
+      <c r="AS211" s="4">
+        <f t="shared" ref="AS211" si="2003">+AR211*(1+AS208)</f>
+        <v>241.52461361918387</v>
+      </c>
+      <c r="AT211" s="4">
+        <f t="shared" ref="AT211" si="2004">+AS211*(1+AT208)</f>
+        <v>289.82953634302061</v>
+      </c>
+      <c r="AU211" s="4">
+        <f t="shared" ref="AU211" si="2005">+AT211*(1+AU208)</f>
+        <v>347.79544361162471</v>
+      </c>
+      <c r="AV211" s="4">
+        <f t="shared" ref="AV211" si="2006">+AU211*(1+AV208)</f>
+        <v>417.35453233394963</v>
+      </c>
+      <c r="AW211" s="4">
+        <f t="shared" ref="AW211" si="2007">+AV211*(1+AW208)</f>
+        <v>500.82543880073956</v>
+      </c>
+      <c r="AX211" s="4">
+        <f t="shared" ref="AX211" si="2008">+AW211*(1+AX208)</f>
+        <v>600.99052656088747</v>
+      </c>
+      <c r="AY211" s="4">
+        <f t="shared" ref="AY211" si="2009">+AX211*(1+AY208)</f>
+        <v>721.18863187306499</v>
+      </c>
+      <c r="AZ211" s="4">
+        <f t="shared" ref="AZ211" si="2010">+AY211*(1+AZ208)</f>
+        <v>865.42635824767797</v>
+      </c>
+      <c r="BA211" s="4">
+        <f t="shared" ref="BA211" si="2011">+AZ211*(1+BA208)</f>
+        <v>1038.5116298972134</v>
+      </c>
+      <c r="BB211" s="4">
+        <f t="shared" ref="BB211" si="2012">+BA211*(1+BB208)</f>
+        <v>1246.213955876656</v>
+      </c>
+      <c r="BC211" s="4">
+        <f t="shared" ref="BC211" si="2013">+BB211*(1+BC208)</f>
+        <v>1370.8353514643218</v>
+      </c>
+      <c r="BD211" s="4">
+        <f t="shared" ref="BD211" si="2014">+BC211*(1+BD208)</f>
+        <v>1507.918886610754</v>
+      </c>
+      <c r="BE211" s="4">
+        <f t="shared" ref="BE211" si="2015">+BD211*(1+BE208)</f>
+        <v>1658.7107752718296</v>
+      </c>
+      <c r="BF211" s="4">
+        <f t="shared" ref="BF211" si="2016">+BE211*(1+BF208)</f>
+        <v>1824.5818527990127</v>
+      </c>
+      <c r="BG211" s="4">
+        <f t="shared" ref="BG211" si="2017">+BF211*(1+BG208)</f>
+        <v>2007.0400380789142</v>
+      </c>
+      <c r="BH211" s="4">
+        <f t="shared" ref="BH211" si="2018">+BG211*(1+BH208)</f>
+        <v>2207.7440418868059</v>
+      </c>
+      <c r="BI211" s="4">
+        <f t="shared" ref="BI211" si="2019">+BH211*(1+BI208)</f>
+        <v>2428.5184460754867</v>
+      </c>
+      <c r="BJ211" s="4">
+        <f t="shared" ref="BJ211" si="2020">+BI211*(1+BJ208)</f>
+        <v>2671.3702906830358</v>
+      </c>
+      <c r="BK211" s="4">
+        <f t="shared" ref="BK211" si="2021">+BJ211*(1+BK208)</f>
+        <v>2938.5073197513398</v>
+      </c>
+      <c r="BL211" s="4">
+        <f t="shared" ref="BL211" si="2022">+BK211*(1+BL208)</f>
+        <v>3232.3580517264741</v>
+      </c>
+      <c r="BM211" s="5">
+        <f>BL211/D210</f>
+        <v>34681.953344704656</v>
+      </c>
+    </row>
+    <row r="212" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="E212" s="3">
+        <f>-PV($D$210,E210,0,E211)</f>
+        <v>-0.91474570069520678</v>
+      </c>
+      <c r="F212" s="3">
+        <f t="shared" ref="F212:BM212" si="2023">-PV($D$188,F210,0,F211)</f>
+        <v>-0.83675969694036478</v>
+      </c>
+      <c r="G212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.76542233529122283</v>
+      </c>
+      <c r="H212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.70016679042373109</v>
+      </c>
+      <c r="I212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.64047456130966995</v>
+      </c>
+      <c r="J212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.5858713513626691</v>
+      </c>
+      <c r="K212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.53592329981949249</v>
+      </c>
+      <c r="L212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.49023353441226897</v>
+      </c>
+      <c r="M212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.44843901794023877</v>
+      </c>
+      <c r="N212" s="3">
+        <f t="shared" si="2023"/>
+        <v>-0.41020766368481409</v>
+      </c>
+      <c r="O212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.37523569674790902</v>
+      </c>
+      <c r="P212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.37756976438227219</v>
+      </c>
+      <c r="Q212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.37991835054930423</v>
+      </c>
+      <c r="R212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.38228154555820959</v>
+      </c>
+      <c r="S212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.3846594402799402</v>
+      </c>
+      <c r="T212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.38705212615068996</v>
+      </c>
+      <c r="U212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.38945969517541074</v>
+      </c>
+      <c r="V212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.39188223993135007</v>
+      </c>
+      <c r="W212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.39431985357161098</v>
+      </c>
+      <c r="X212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.39677262982873401</v>
+      </c>
+      <c r="Y212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.4355352687472383</v>
+      </c>
+      <c r="Z212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.47808481750520115</v>
+      </c>
+      <c r="AA212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.52479123765664237</v>
+      </c>
+      <c r="AB212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.57606063409071595</v>
+      </c>
+      <c r="AC212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.63233878604908467</v>
+      </c>
+      <c r="AD212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.69411502310547157</v>
+      </c>
+      <c r="AE212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.7619264798084211</v>
+      </c>
+      <c r="AF212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.83636276598070369</v>
+      </c>
+      <c r="AG212" s="3">
+        <f t="shared" si="2023"/>
+        <v>0.91807109328288006</v>
+      </c>
+      <c r="AH212" s="3">
+        <f t="shared" si="2023"/>
+        <v>1.007761902615675</v>
+      </c>
+      <c r="AI212" s="3">
+        <f t="shared" si="2023"/>
+        <v>1.1983996280647435</v>
+      </c>
+      <c r="AJ212" s="3">
+        <f t="shared" si="2023"/>
+        <v>1.4251001797330467</v>
+      </c>
+      <c r="AK212" s="3">
+        <f t="shared" si="2023"/>
+        <v>1.6946855412120023</v>
+      </c>
+      <c r="AL212" s="3">
+        <f t="shared" si="2023"/>
+        <v>2.0152682067102115</v>
+      </c>
+      <c r="AM212" s="3">
+        <f t="shared" si="2023"/>
+        <v>2.3964953061866767</v>
+      </c>
+      <c r="AN212" s="3">
+        <f t="shared" si="2023"/>
+        <v>2.8498389114916574</v>
+      </c>
+      <c r="AO212" s="3">
+        <f t="shared" si="2023"/>
+        <v>3.3889412595491724</v>
+      </c>
+      <c r="AP212" s="3">
+        <f t="shared" si="2023"/>
+        <v>4.0300252812055648</v>
+      </c>
+      <c r="AQ212" s="3">
+        <f t="shared" si="2023"/>
+        <v>4.7923827895785172</v>
+      </c>
+      <c r="AR212" s="3">
+        <f t="shared" si="2023"/>
+        <v>5.6989550187084443</v>
+      </c>
+      <c r="AS212" s="3">
+        <f t="shared" si="2023"/>
+        <v>6.2557135221827069</v>
+      </c>
+      <c r="AT212" s="3">
+        <f t="shared" si="2023"/>
+        <v>6.8668644590369983</v>
+      </c>
+      <c r="AU212" s="3">
+        <f t="shared" si="2023"/>
+        <v>7.5377216893929733</v>
+      </c>
+      <c r="AV212" s="3">
+        <f t="shared" si="2023"/>
+        <v>8.2741182100910784</v>
+      </c>
+      <c r="AW212" s="3">
+        <f t="shared" si="2023"/>
+        <v>9.0824568716696792</v>
+      </c>
+      <c r="AX212" s="3">
+        <f t="shared" si="2023"/>
+        <v>9.9697660501313727</v>
+      </c>
+      <c r="AY212" s="3">
+        <f t="shared" si="2023"/>
+        <v>10.943760757553648</v>
+      </c>
+      <c r="AZ212" s="3">
+        <f t="shared" si="2023"/>
+        <v>12.012909722890942</v>
+      </c>
+      <c r="BA212" s="3">
+        <f t="shared" si="2023"/>
+        <v>13.186509026224963</v>
+      </c>
+      <c r="BB212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.474762926701384</v>
+      </c>
+      <c r="BC212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.564799871360709</v>
+      </c>
+      <c r="BD212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.655396870194636</v>
+      </c>
+      <c r="BE212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.746557406891789</v>
+      </c>
+      <c r="BF212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.838284986810255</v>
+      </c>
+      <c r="BG212" s="3">
+        <f t="shared" si="2023"/>
+        <v>14.930583137112407</v>
+      </c>
+      <c r="BH212" s="3">
+        <f t="shared" si="2023"/>
+        <v>15.023455406900519</v>
+      </c>
+      <c r="BI212" s="3">
+        <f t="shared" si="2023"/>
+        <v>15.116905367353253</v>
+      </c>
+      <c r="BJ212" s="3">
+        <f t="shared" si="2023"/>
+        <v>15.210936611862952</v>
+      </c>
+      <c r="BK212" s="3">
+        <f t="shared" si="2023"/>
+        <v>15.305552756173846</v>
+      </c>
+      <c r="BL212" s="3">
+        <f t="shared" si="2023"/>
+        <v>15.400757438521071</v>
+      </c>
+      <c r="BM212" s="3">
+        <f t="shared" si="2023"/>
+        <v>151.15640187056732</v>
+      </c>
+    </row>
+    <row r="213" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="C213" s="7"/>
+    </row>
+    <row r="214" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="2">
+        <f>+(D203-D211)/D211</f>
+        <v>0.24885321650930953</v>
+      </c>
+    </row>
+    <row r="216" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="6">
+        <f>+D210-D202</f>
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="2:65" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="4">
+        <f>+D215/D216</f>
+        <v>38.285110232201433</v>
+      </c>
+    </row>
+    <row r="219" spans="2:65" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17666,15 +19745,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AB215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -17682,7 +19761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17703,11 +19782,11 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2" si="0">+F2+1</f>
+        <f>+F2+1</f>
         <v>3</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2" si="1">+G2+1</f>
+        <f>+G2+1</f>
         <v>4</v>
       </c>
       <c r="I2">
@@ -17715,87 +19794,71 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2" si="2">+I2+1</f>
+        <f>+I2+1</f>
         <v>6</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2" si="3">+J2+1</f>
+        <f>+J2+1</f>
         <v>7</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2" si="4">+K2+1</f>
+        <f>+K2+1</f>
         <v>8</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="5">+L2+1</f>
+        <f>+L2+1</f>
         <v>9</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="6">+M2+1</f>
+        <f>+M2+1</f>
         <v>10</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2" si="7">+N2+1</f>
+        <f>+N2+1</f>
         <v>11</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2" si="8">+O2+1</f>
+        <f>+O2+1</f>
         <v>12</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2" si="9">+P2+1</f>
+        <f>+P2+1</f>
         <v>13</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2" si="10">+Q2+1</f>
+        <f>+Q2+1</f>
         <v>14</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2" si="11">+R2+1</f>
+        <f>+R2+1</f>
         <v>15</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="12">+S2+1</f>
+        <f>+S2+1</f>
         <v>16</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2" si="13">+T2+1</f>
+        <f>+T2+1</f>
         <v>17</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2" si="14">+U2+1</f>
+        <f>+U2+1</f>
         <v>18</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:Y2" si="15">+V2+1</f>
+        <f>+V2+1</f>
         <v>19</v>
       </c>
       <c r="X2">
-        <f t="shared" si="15"/>
+        <f>+W2+1</f>
         <v>20</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2" si="16">+X2+1</f>
+        <f>+X2+1</f>
         <v>21</v>
       </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2" si="17">+Y2+1</f>
-        <v>22</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2" si="18">+Z2+1</f>
-        <v>23</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AC2" si="19">+AA2+1</f>
-        <v>24</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -17806,8 +19869,8 @@
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(E4:AC4)</f>
-        <v>5.5312038874699034</v>
+        <f>SUM(E4:AB4)</f>
+        <v>5.3659022372295233</v>
       </c>
       <c r="E3">
         <f>+B4*B3</f>
@@ -17890,27 +19953,14 @@
         <v>0.38022771602975558</v>
       </c>
       <c r="Y3" s="4">
-        <f>+X3*(1+B2)</f>
-        <v>0.38783227035035067</v>
-      </c>
-      <c r="Z3" s="4">
-        <f>+Y3*(1+B2)</f>
-        <v>0.39558891575735772</v>
-      </c>
-      <c r="AA3" s="4">
-        <f>+Z3*(1+B2)</f>
-        <v>0.40350069407250488</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>+AA3*(1+B2)</f>
-        <v>0.41157070795395501</v>
-      </c>
-      <c r="AC3" s="4">
-        <f>AB3/D2</f>
-        <v>6.8595117992325836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <f>X3/D2</f>
+        <v>6.3371286004959266</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17923,75 +19973,75 @@
         <v>0.24622641509433962</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:X4" si="20">-PV($D$2,F2,0,F3)</f>
+        <f>-PV($D$2,F2,0,F3)</f>
         <v>0.23693485226059094</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,G2,0,G3)</f>
         <v>0.22799391443943653</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,H2,0,H3)</f>
         <v>0.21939037049832574</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,I2,0,I3)</f>
         <v>0.21111148859272852</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,J2,0,J3)</f>
         <v>0.20314501732507839</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,K2,0,K3)</f>
         <v>0.19547916761469805</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,L2,0,L3)</f>
         <v>0.18810259525187928</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,M2,0,M3)</f>
         <v>0.18100438411029895</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,N2,0,N3)</f>
         <v>0.17417402999292916</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,O2,0,O3)</f>
         <v>0.16760142508753559</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,P2,0,P3)</f>
         <v>0.16127684300876066</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,Q2,0,Q3)</f>
         <v>0.15519092440465648</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,R2,0,R3)</f>
         <v>0.14933466310636756</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,S2,0,S3)</f>
         <v>0.14369939280046684</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,T2,0,T3)</f>
         <v>0.13827677420422285</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,U2,0,U3)</f>
         <v>0.13305878272481819</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,V2,0,V3)</f>
         <v>0.12803769658425904</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="20"/>
+        <f>-PV($D$2,W2,0,W3)</f>
         <v>0.12320608539240019</v>
       </c>
       <c r="X4" s="3">
@@ -17999,34 +20049,27 @@
         <v>0.11855679915117755</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" ref="Y4" si="21">-PV($D$2,Y2,0,Y3)</f>
-        <v>0.11408295767377459</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4" si="22">-PV($D$2,Z2,0,Z3)</f>
-        <v>0.10977794040306613</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4" si="23">-PV($D$2,AA2,0,AA3)</f>
-        <v>0.10563537661427116</v>
-      </c>
-      <c r="AB4" s="3">
-        <f>-PV($D$2,AB2,0,AB3)</f>
-        <v>0.10164913598731755</v>
-      </c>
-      <c r="AC4" s="3">
-        <f>-PV($D$2,AC2,0,AC3)</f>
-        <v>1.5982568551465024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <f>-PV($D$2,Y2,0,Y3)</f>
+        <v>1.8641006155845523</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="7">
-        <v>5.44</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>5.36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B4*B3/B5</f>
+        <v>4.8694029850746265E-2</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -18048,13 +20091,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6">
         <f>+D3/B5-1</f>
-        <v>1.6765420490790994E-2</v>
+        <v>1.1011636622244581E-3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -18078,8 +20121,17 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="8" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6">
+        <f>D2+B6</f>
+        <v>6.1101163662224456E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -18087,7 +20139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -18098,7 +20150,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>8.7999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -18108,11 +20160,11 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11" si="24">+F11+1</f>
+        <f>+F11+1</f>
         <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="25">+G11+1</f>
+        <f>+G11+1</f>
         <v>4</v>
       </c>
       <c r="I11">
@@ -18120,35 +20172,35 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="26">+I11+1</f>
+        <f>+I11+1</f>
         <v>6</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="27">+J11+1</f>
+        <f>+J11+1</f>
         <v>7</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11" si="28">+K11+1</f>
+        <f>+K11+1</f>
         <v>8</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="29">+L11+1</f>
+        <f>+L11+1</f>
         <v>9</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11" si="30">+M11+1</f>
+        <f>+M11+1</f>
         <v>10</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:P11" si="31">+N11+1</f>
+        <f>+N11+1</f>
         <v>11</v>
       </c>
       <c r="P11">
-        <f t="shared" si="31"/>
+        <f>+O11+1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -18160,7 +20212,7 @@
       </c>
       <c r="D12" s="3">
         <f>SUM(E13:P13)</f>
-        <v>15.194865013388823</v>
+        <v>14.492124855552433</v>
       </c>
       <c r="E12">
         <f>+B13*B12</f>
@@ -18220,7 +20272,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -18229,51 +20281,51 @@
       </c>
       <c r="E13" s="3">
         <f>-PV($D$11,E11,0,E12)</f>
-        <v>0.33318014705882348</v>
+        <v>0.33165599268069534</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:O13" si="32">-PV($D$11,F11,0,F12)</f>
-        <v>0.34604188067690306</v>
+        <f>-PV($D$11,F11,0,F12)</f>
+        <v>0.34288313973393025</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.35940011504126873</v>
+        <f>-PV($D$11,G11,0,G12)</f>
+        <v>0.35449034574505134</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.37327401654102355</v>
+        <f>-PV($D$11,H11,0,H12)</f>
+        <v>0.36649047638783905</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.38768349144426156</v>
+        <f>-PV($D$11,I11,0,I12)</f>
+        <v>0.37889683286208425</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.40264921445957308</v>
+        <f>-PV($D$11,J11,0,J12)</f>
+        <v>0.39172316663692153</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.418192658400108</v>
+        <f>-PV($D$11,K11,0,K12)</f>
+        <v>0.40498369469324907</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.43433612499275909</v>
+        <f>-PV($D$11,L11,0,L12)</f>
+        <v>0.41869311528213315</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.45110277687667072</v>
+        <f>-PV($D$11,M11,0,M12)</f>
+        <v>0.43286662421666094</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.46851667083698323</v>
+        <f>-PV($D$11,N11,0,N12)</f>
+        <v>0.44751993171530363</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="32"/>
-        <v>0.48660279232149906</v>
+        <f>-PV($D$11,O11,0,O12)</f>
+        <v>0.46266927981545564</v>
       </c>
       <c r="P13" s="3">
         <f>-PV($D$11,P11,0,P12)</f>
-        <v>10.733885124738949</v>
+        <v>10.159252255783109</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -18285,282 +20337,41 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="7">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>14.5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6">
+        <f>B13*B12/B14</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6">
         <f>+D12/B14-1</f>
-        <v>-2.9616132946966855E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>-5.4311341017698744E-4</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6">
+        <f>D11+B15</f>
+        <v>9.2456886589823012E-2</v>
+      </c>
+    </row>
     <row r="17" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>+E20+1</f>
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20" si="33">+F20+1</f>
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20" si="34">+G20+1</f>
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <f>+H20+1</f>
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20" si="35">+I20+1</f>
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ref="K20" si="36">+J20+1</f>
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20" si="37">+K20+1</f>
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="38">+L20+1</f>
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ref="N20" si="39">+M20+1</f>
-        <v>10</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ref="O20" si="40">+N20+1</f>
-        <v>11</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ref="P20" si="41">+O20+1</f>
-        <v>12</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3">
-        <f>SUM(E22:P22)</f>
-        <v>1059.2772106274765</v>
-      </c>
-      <c r="E21">
-        <f>+B22*B21</f>
-        <v>16.29</v>
-      </c>
-      <c r="F21" s="4">
-        <f>+E21*(1+B20)</f>
-        <v>18.733499999999996</v>
-      </c>
-      <c r="G21" s="4">
-        <f>+F21*(1+B20)</f>
-        <v>21.543524999999992</v>
-      </c>
-      <c r="H21" s="4">
-        <f>+G21*(1+B20)</f>
-        <v>24.775053749999987</v>
-      </c>
-      <c r="I21" s="4">
-        <f>+H21*(1+B20)</f>
-        <v>28.491311812499983</v>
-      </c>
-      <c r="J21" s="4">
-        <f>+I21*(1+B20)</f>
-        <v>32.765008584374975</v>
-      </c>
-      <c r="K21" s="4">
-        <f>+J21*(1+B20)</f>
-        <v>37.679759872031219</v>
-      </c>
-      <c r="L21" s="4">
-        <f>+K21*(1+B20)</f>
-        <v>43.3317238528359</v>
-      </c>
-      <c r="M21" s="4">
-        <f>+L21*(1+B20)</f>
-        <v>49.831482430761284</v>
-      </c>
-      <c r="N21" s="4">
-        <f>+M21*(1+B20)</f>
-        <v>57.306204795375471</v>
-      </c>
-      <c r="O21" s="4">
-        <f>+N21*(1+B20)</f>
-        <v>65.902135514681788</v>
-      </c>
-      <c r="P21" s="4">
-        <f>O21*24</f>
-        <v>1581.6512523523629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>32.58</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="E22" s="3">
-        <f>-PV($D$20,E20,0,E21)</f>
-        <v>15.38243626062323</v>
-      </c>
-      <c r="F22" s="3">
-        <f>-PV($D$20,F20,0,F21)</f>
-        <v>16.704250896805203</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" ref="F22:P22" si="42">-PV($D$20,G20,0,G21)</f>
-        <v>18.139649226936715</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="42"/>
-        <v>19.698391511782077</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="42"/>
-        <v>21.391076712511225</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="42"/>
-        <v>23.229214560328526</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="42"/>
-        <v>25.225303819053636</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="42"/>
-        <v>27.392917272815563</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="42"/>
-        <v>29.746794016749671</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="42"/>
-        <v>32.302939678245622</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="42"/>
-        <v>35.078735250219516</v>
-      </c>
-      <c r="P22" s="3">
-        <f>-PV($D$20,P20,0,P21)</f>
-        <v>794.98550142140539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1087.18</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6">
-        <f>+D21/B23-1</f>
-        <v>-2.5665289439212979E-2</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>13</v>
@@ -18580,7 +20391,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -18590,11 +20401,11 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="43">+F29+1</f>
+        <f t="shared" ref="G29" si="0">+F29+1</f>
         <v>3</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="44">+G29+1</f>
+        <f t="shared" ref="H29" si="1">+G29+1</f>
         <v>4</v>
       </c>
       <c r="I29">
@@ -18602,31 +20413,31 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29" si="45">+I29+1</f>
+        <f t="shared" ref="J29" si="2">+I29+1</f>
         <v>6</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29" si="46">+J29+1</f>
+        <f t="shared" ref="K29" si="3">+J29+1</f>
         <v>7</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29" si="47">+K29+1</f>
+        <f t="shared" ref="L29" si="4">+K29+1</f>
         <v>8</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29" si="48">+L29+1</f>
+        <f t="shared" ref="M29" si="5">+L29+1</f>
         <v>9</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29" si="49">+M29+1</f>
+        <f t="shared" ref="N29" si="6">+M29+1</f>
         <v>10</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29" si="50">+N29+1</f>
+        <f t="shared" ref="O29" si="7">+N29+1</f>
         <v>11</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29" si="51">+O29+1</f>
+        <f t="shared" ref="P29" si="8">+O29+1</f>
         <v>12</v>
       </c>
       <c r="Q29" s="1"/>
@@ -18649,7 +20460,7 @@
       </c>
       <c r="D30" s="3">
         <f>SUM(E31:P31)</f>
-        <v>17.201266063297002</v>
+        <v>17.726206474243373</v>
       </c>
       <c r="E30">
         <f>+B31*B30</f>
@@ -18696,8 +20507,8 @@
         <v>0.95709096777690084</v>
       </c>
       <c r="P30" s="4">
-        <f>O30*24</f>
-        <v>22.97018322664562</v>
+        <f>O30*20</f>
+        <v>19.141819355538018</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -18710,51 +20521,51 @@
       <c r="C31" s="2"/>
       <c r="E31" s="3">
         <f>-PV($D$29,E29,0,E30)</f>
-        <v>0.35042735042735046</v>
+        <v>0.35583413693346194</v>
       </c>
       <c r="F31" s="3">
         <f>-PV($D$29,F29,0,F30)</f>
-        <v>0.36606845723654846</v>
+        <v>0.37745183281273692</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ref="F31:P31" si="52">-PV($D$29,G29,0,G30)</f>
-        <v>0.3824076951189016</v>
+        <f t="shared" ref="G31:P31" si="9">-PV($D$29,G29,0,G30)</f>
+        <v>0.40038285062103246</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.39947622472059996</v>
+        <f t="shared" si="9"/>
+        <v>0.42470697751507791</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.41730659752389365</v>
+        <f t="shared" si="9"/>
+        <v>0.45050884789448964</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.43593281792619476</v>
+        <f t="shared" si="9"/>
+        <v>0.47787823788229383</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.45539040809004211</v>
+        <f t="shared" si="9"/>
+        <v>0.5069103776957794</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.47571647568760339</v>
+        <f t="shared" si="9"/>
+        <v>0.5377062829945588</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.49694978466891149</v>
+        <f t="shared" si="9"/>
+        <v>0.57037310635874139</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.51913082918879649</v>
+        <f t="shared" si="9"/>
+        <v>0.60502451012016945</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="52"/>
-        <v>0.54230191083350066</v>
+        <f t="shared" si="9"/>
+        <v>0.64178106184395989</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="52"/>
-        <v>12.360157511874659</v>
+        <f t="shared" si="9"/>
+        <v>12.37764825157107</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -18762,9 +20573,15 @@
         <v>24</v>
       </c>
       <c r="B32" s="7">
-        <v>17.28</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="6">
+        <f>B31*B30/B32</f>
+        <v>2.0847457627118645E-2</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -18786,13 +20603,13 @@
       <c r="W32" s="4"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="6">
         <f>+D30/B32-1</f>
-        <v>-4.5563620777199221E-3</v>
+        <v>1.4805917651623535E-3</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -18816,10 +20633,5589 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6">
+        <f>D29+B33</f>
+        <v>3.8480591765162352E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f>+E38+1</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="10">+F38+1</f>
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="11">+G38+1</f>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f>+H38+1</f>
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38" si="12">+I38+1</f>
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38" si="13">+J38+1</f>
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38" si="14">+K38+1</f>
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38" si="15">+L38+1</f>
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38" si="16">+M38+1</f>
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38" si="17">+N38+1</f>
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38" si="18">+O38+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <f>SUM(E40:P40)</f>
+        <v>55.904325259515581</v>
+      </c>
+      <c r="E39">
+        <f>+B40*B39</f>
+        <v>1.863</v>
+      </c>
+      <c r="F39" s="4">
+        <f>+E39*(1+B38)</f>
+        <v>1.9002600000000001</v>
+      </c>
+      <c r="G39" s="4">
+        <f>+F39*(1+B38)</f>
+        <v>1.9382652</v>
+      </c>
+      <c r="H39" s="4">
+        <f>+G39*(1+B38)</f>
+        <v>1.977030504</v>
+      </c>
+      <c r="I39" s="4">
+        <f>+H39*(1+B38)</f>
+        <v>2.01657111408</v>
+      </c>
+      <c r="J39" s="4">
+        <f>+I39*(1+B38)</f>
+        <v>2.0569025363616</v>
+      </c>
+      <c r="K39" s="4">
+        <f>+J39*(1+B38)</f>
+        <v>2.0980405870888319</v>
+      </c>
+      <c r="L39" s="4">
+        <f>+K39*(1+B38)</f>
+        <v>2.1400013988306084</v>
+      </c>
+      <c r="M39" s="4">
+        <f>+L39*(1+B38)</f>
+        <v>2.1828014268072207</v>
+      </c>
+      <c r="N39" s="4">
+        <f>+M39*(1+B38)</f>
+        <v>2.2264574553433651</v>
+      </c>
+      <c r="O39" s="4">
+        <f>+N39*(1+B38)</f>
+        <v>2.2709866044502327</v>
+      </c>
+      <c r="P39" s="4">
+        <f>O39*20</f>
+        <v>45.419732089004654</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="5"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>6.21</v>
+      </c>
+      <c r="E40" s="3">
+        <f>-PV($D$38,E38,0,E39)</f>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="F40" s="3">
+        <f>-PV($D$38,F38,0,F39)</f>
+        <v>1.8264705882352943</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:P40" si="19">-PV($D$38,G38,0,G39)</f>
+        <v>1.8264705882352943</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352943</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352941</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.8264705882352947</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="19"/>
+        <v>35.813148788927343</v>
+      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="7">
+        <v>55.67</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="6">
+        <f>B40*B39/B41</f>
+        <v>3.3465061972336986E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="6">
+        <f>+D39/B41-1</f>
+        <v>4.2091837527498122E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <f>D38+B42</f>
+        <v>2.4209183752749813E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>+E47+1</f>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47" si="20">+F47+1</f>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47" si="21">+G47+1</f>
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <f>+H47+1</f>
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47" si="22">+I47+1</f>
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47" si="23">+J47+1</f>
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47" si="24">+K47+1</f>
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="25">+L47+1</f>
+        <v>9</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47" si="26">+M47+1</f>
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47" si="27">+N47+1</f>
+        <v>11</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ref="P47" si="28">+O47+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <f>SUM(E49:P49)</f>
+        <v>35.113335802690727</v>
+      </c>
+      <c r="E48">
+        <f>+B49*B48</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F48" s="4">
+        <f>+E48*(1+B47)</f>
+        <v>1.01135</v>
+      </c>
+      <c r="G48" s="4">
+        <f>+F48*(1+B47)</f>
+        <v>1.1428254999999998</v>
+      </c>
+      <c r="H48" s="4">
+        <f>+G48*(1+B47)</f>
+        <v>1.2913928149999996</v>
+      </c>
+      <c r="I48" s="4">
+        <f>+H48*(1+B47)</f>
+        <v>1.4592738809499994</v>
+      </c>
+      <c r="J48" s="4">
+        <f>+I48*(1+B47)</f>
+        <v>1.6489794854734992</v>
+      </c>
+      <c r="K48" s="4">
+        <f>+J48*(1+B47)</f>
+        <v>1.8633468185850539</v>
+      </c>
+      <c r="L48" s="4">
+        <f>+K48*(1+B47)</f>
+        <v>2.1055819050011109</v>
+      </c>
+      <c r="M48" s="4">
+        <f>+L48*(1+B47)</f>
+        <v>2.3793075526512553</v>
+      </c>
+      <c r="N48" s="4">
+        <f>+M48*(1+B47)</f>
+        <v>2.688617534495918</v>
+      </c>
+      <c r="O48" s="4">
+        <f>+N48*(1+B47)</f>
+        <v>3.038137813980387</v>
+      </c>
+      <c r="P48" s="4">
+        <f>O48*24</f>
+        <v>72.91530753552928</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>3.58</v>
+      </c>
+      <c r="E49" s="3">
+        <f>-PV($D$47,E47,0,E48)</f>
+        <v>0.81735159817351599</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" ref="F49:P49" si="29">-PV($D$47,F47,0,F48)</f>
+        <v>0.84347699172244117</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.87043744351265606</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.89825964490347132</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.92697114040266904</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.95660035493608753</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="29"/>
+        <v>0.98717662198883915</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="29"/>
+        <v>1.0187302126460165</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="29"/>
+        <v>1.0512923655616428</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="29"/>
+        <v>1.0848953178855305</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="29"/>
+        <v>1.1195723371786752</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="29"/>
+        <v>24.538571773779179</v>
+      </c>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="7">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="6">
+        <f>B49*B48/B50</f>
+        <v>2.5926998841251447E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="6">
+        <f>+D48/B50-1</f>
+        <v>1.7188175048978183E-2</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="6">
+        <f>D47+B51</f>
+        <v>0.11218817504897818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f>+E56+1</f>
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56" si="30">+F56+1</f>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56" si="31">+G56+1</f>
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <f>+H56+1</f>
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56" si="32">+I56+1</f>
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56" si="33">+J56+1</f>
+        <v>7</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ref="L56" si="34">+K56+1</f>
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56" si="35">+L56+1</f>
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56" si="36">+M56+1</f>
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56" si="37">+N56+1</f>
+        <v>11</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56" si="38">+O56+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="3">
+        <f>SUM(E58:P58)</f>
+        <v>15.25118682987295</v>
+      </c>
+      <c r="E57">
+        <f>+B58*B57</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F57" s="4">
+        <f>+E57*(1+B56)</f>
+        <v>0.52216000000000007</v>
+      </c>
+      <c r="G57" s="4">
+        <f>+F57*(1+B56)</f>
+        <v>0.55871120000000007</v>
+      </c>
+      <c r="H57" s="4">
+        <f>+G57*(1+B56)</f>
+        <v>0.59782098400000017</v>
+      </c>
+      <c r="I57" s="4">
+        <f>+H57*(1+B56)</f>
+        <v>0.63966845288000018</v>
+      </c>
+      <c r="J57" s="4">
+        <f>+I57*(1+B56)</f>
+        <v>0.68444524458160028</v>
+      </c>
+      <c r="K57" s="4">
+        <f>+J57*(1+B56)</f>
+        <v>0.73235641170231236</v>
+      </c>
+      <c r="L57" s="4">
+        <f>+K57*(1+B56)</f>
+        <v>0.78362136052147424</v>
+      </c>
+      <c r="M57" s="4">
+        <f>+L57*(1+B56)</f>
+        <v>0.83847485575797753</v>
+      </c>
+      <c r="N57" s="4">
+        <f>+M57*(1+B56)</f>
+        <v>0.89716809566103606</v>
+      </c>
+      <c r="O57" s="4">
+        <f>+N57*(1+B56)</f>
+        <v>0.95996986235730863</v>
+      </c>
+      <c r="P57" s="4">
+        <f>O57*15</f>
+        <v>14.39954793535963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>1.22</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="E58" s="3">
+        <f>-PV($D$56,E56,0,E57)</f>
+        <v>0.47013487475915217</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:P58" si="39">-PV($D$56,F56,0,F57)</f>
+        <v>0.48462843544536888</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.49956881110457102</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.51496977637947117</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.53084553056458006</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.5472107106975922</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.56408040505435808</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.58147016705988741</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.5993960296282077</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.61787451994429898</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="39"/>
+        <v>0.63692267470173392</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="39"/>
+        <v>9.204084894533727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="7">
+        <v>14.53</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="6">
+        <f>B58*B57/B59</f>
+        <v>3.3585684790089471E-2</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="5"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="6">
+        <f>+D57/B59-1</f>
+        <v>4.9634331030485201E-2</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="6">
+        <f>D56+B60</f>
+        <v>8.7634331030485207E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>+E65+1</f>
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="40">+F65+1</f>
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="41">+G65+1</f>
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <f>+H65+1</f>
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="42">+I65+1</f>
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65" si="43">+J65+1</f>
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65" si="44">+K65+1</f>
+        <v>8</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65" si="45">+L65+1</f>
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65" si="46">+M65+1</f>
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ref="O65" si="47">+N65+1</f>
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ref="P65" si="48">+O65+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="3">
+        <f>SUM(E67:P67)</f>
+        <v>60.621153292624719</v>
+      </c>
+      <c r="E66">
+        <f>+B67*B66</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F66" s="4">
+        <f>+E66*(1+B65)</f>
+        <v>2.4859999999999998</v>
+      </c>
+      <c r="G66" s="4">
+        <f>+F66*(1+B65)</f>
+        <v>2.7345999999999999</v>
+      </c>
+      <c r="H66" s="4">
+        <f>+G66*(1+B65)</f>
+        <v>3.00806</v>
+      </c>
+      <c r="I66" s="4">
+        <f>+H66*(1+B65)</f>
+        <v>3.3088660000000001</v>
+      </c>
+      <c r="J66" s="4">
+        <f>+I66*(1+B65)</f>
+        <v>3.6397526000000004</v>
+      </c>
+      <c r="K66" s="4">
+        <f>+J66*(1+B65)</f>
+        <v>4.0037278600000006</v>
+      </c>
+      <c r="L66" s="4">
+        <f>+K66*(1+B65)</f>
+        <v>4.4041006460000007</v>
+      </c>
+      <c r="M66" s="4">
+        <f>+L66*(1+B65)</f>
+        <v>4.8445107106000016</v>
+      </c>
+      <c r="N66" s="4">
+        <f>+M66*(1+B65)</f>
+        <v>5.3289617816600021</v>
+      </c>
+      <c r="O66" s="4">
+        <f>+N66*(1+B65)</f>
+        <v>5.8618579598260032</v>
+      </c>
+      <c r="P66" s="4">
+        <f>O66*12</f>
+        <v>70.342295517912035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="E67" s="3">
+        <f>-PV($D$65,E65,0,E66)</f>
+        <v>2.1220657276995305</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:P67" si="49">-PV($D$65,F65,0,F66)</f>
+        <v>2.1918049769666514</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.2638361264444291</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.338234496797063</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.4150778840157461</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.4944466407674377</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.5764237604170721</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.6610949638110606</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.7485487889128333</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.8388766833841474</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="49"/>
+        <v>2.9321731002089795</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="49"/>
+        <v>33.03857014319977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="7">
+        <v>59.16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="6">
+        <f>B67*B66/B68</f>
+        <v>3.8201487491548343E-2</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="5"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="6">
+        <f>+D66/B68-1</f>
+        <v>2.4698331518335337E-2</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="6">
+        <f>D65+B69</f>
+        <v>8.9698331518335339E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f>+E74+1</f>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74" si="50">+F74+1</f>
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74" si="51">+G74+1</f>
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <f>+H74+1</f>
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74" si="52">+I74+1</f>
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74" si="53">+J74+1</f>
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74" si="54">+K74+1</f>
+        <v>8</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74" si="55">+L74+1</f>
+        <v>9</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74" si="56">+M74+1</f>
+        <v>10</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74" si="57">+N74+1</f>
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <f t="shared" ref="P74" si="58">+O74+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="3">
+        <f>SUM(E76:P76)</f>
+        <v>55.484610721686096</v>
+      </c>
+      <c r="E75">
+        <f>+B76*B75</f>
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="F75" s="4">
+        <f>+E75*(1+B74)</f>
+        <v>1.52776</v>
+      </c>
+      <c r="G75" s="4">
+        <f>+F75*(1+B74)</f>
+        <v>1.7263687999999999</v>
+      </c>
+      <c r="H75" s="4">
+        <f>+G75*(1+B74)</f>
+        <v>1.9507967439999998</v>
+      </c>
+      <c r="I75" s="4">
+        <f>+H75*(1+B74)</f>
+        <v>2.2044003207199996</v>
+      </c>
+      <c r="J75" s="4">
+        <f>+I75*(1+B74)</f>
+        <v>2.4909723624135993</v>
+      </c>
+      <c r="K75" s="4">
+        <f>+J75*(1+B74)</f>
+        <v>2.8147987695273669</v>
+      </c>
+      <c r="L75" s="4">
+        <f>+K75*(1+B74)</f>
+        <v>3.1807226095659242</v>
+      </c>
+      <c r="M75" s="4">
+        <f>+L75*(1+B74)</f>
+        <v>3.5942165488094941</v>
+      </c>
+      <c r="N75" s="4">
+        <f>+M75*(1+B74)</f>
+        <v>4.0614647001547279</v>
+      </c>
+      <c r="O75" s="4">
+        <f>+N75*(1+B74)</f>
+        <v>4.5894551111748418</v>
+      </c>
+      <c r="P75" s="4">
+        <f>O75*15</f>
+        <v>68.841826667622627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76">
+        <v>3.38</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="E76" s="3">
+        <f>-PV($D$74,E74,0,E75)</f>
+        <v>1.2790917691579944</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" ref="F76:P76" si="59">-PV($D$74,F74,0,F75)</f>
+        <v>1.3674301789484709</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="59"/>
+        <v>1.4618695385163407</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="59"/>
+        <v>1.5628312001168068</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="59"/>
+        <v>1.6707656160189135</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="59"/>
+        <v>1.7861543482510616</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="59"/>
+        <v>1.9095122171463572</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="59"/>
+        <v>2.0413895982737778</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="59"/>
+        <v>2.1823748780031873</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="59"/>
+        <v>2.3330970786599821</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="59"/>
+        <v>2.4942286649818159</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="59"/>
+        <v>35.395865633611386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="7">
+        <v>53.71</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="6">
+        <f>B76*B75/B77</f>
+        <v>2.5172221187860735E-2</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="5"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="6">
+        <f>+D75/B77-1</f>
+        <v>3.304060178153212E-2</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="6">
+        <f>D74+B78</f>
+        <v>9.0040601781532115E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f>+E83+1</f>
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83" si="60">+F83+1</f>
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83" si="61">+G83+1</f>
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <f>+H83+1</f>
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83" si="62">+I83+1</f>
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83" si="63">+J83+1</f>
+        <v>7</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ref="L83" si="64">+K83+1</f>
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ref="M83" si="65">+L83+1</f>
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ref="N83" si="66">+M83+1</f>
+        <v>10</v>
+      </c>
+      <c r="O83">
+        <f t="shared" ref="O83" si="67">+N83+1</f>
+        <v>11</v>
+      </c>
+      <c r="P83">
+        <f t="shared" ref="P83" si="68">+O83+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="3">
+        <f>SUM(E85:P85)</f>
+        <v>20.476101431467626</v>
+      </c>
+      <c r="E84">
+        <f>+B85*B84</f>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="F84" s="4">
+        <f>+E84*(1+B83)</f>
+        <v>0.40592</v>
+      </c>
+      <c r="G84" s="4">
+        <f>+F84*(1+B83)</f>
+        <v>0.47898559999999996</v>
+      </c>
+      <c r="H84" s="4">
+        <f>+G84*(1+B83)</f>
+        <v>0.5652030079999999</v>
+      </c>
+      <c r="I84" s="4">
+        <f>+H84*(1+B83)</f>
+        <v>0.66693954943999989</v>
+      </c>
+      <c r="J84" s="4">
+        <f>+I84*(1+B83)</f>
+        <v>0.78698866833919978</v>
+      </c>
+      <c r="K84" s="4">
+        <f>+J84*(1+B83)</f>
+        <v>0.92864662864025571</v>
+      </c>
+      <c r="L84" s="4">
+        <f>+K84*(1+B83)</f>
+        <v>1.0958030217955017</v>
+      </c>
+      <c r="M84" s="4">
+        <f>+L84*(1+B83)</f>
+        <v>1.2930475657186919</v>
+      </c>
+      <c r="N84" s="4">
+        <f>+M84*(1+B83)</f>
+        <v>1.5257961275480565</v>
+      </c>
+      <c r="O84" s="4">
+        <f>+N84*(1+B83)</f>
+        <v>1.8004394305067066</v>
+      </c>
+      <c r="P84" s="4">
+        <f>O84*15</f>
+        <v>27.006591457600599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85">
+        <v>0.86</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="E85" s="3">
+        <f>-PV($D$74,E83,0,E84)</f>
+        <v>0.32544938505203408</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" ref="F85" si="69">-PV($D$74,F83,0,F84)</f>
+        <v>0.36332097858221402</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" ref="G85" si="70">-PV($D$74,G83,0,G84)</f>
+        <v>0.40559957873889546</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" ref="H85" si="71">-PV($D$74,H83,0,H84)</f>
+        <v>0.45279801599990216</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" ref="I85" si="72">-PV($D$74,I83,0,I84)</f>
+        <v>0.50548879742657005</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" ref="J85" si="73">-PV($D$74,J83,0,J84)</f>
+        <v>0.56431105105331369</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" ref="K85" si="74">-PV($D$74,K83,0,K84)</f>
+        <v>0.62997827837550646</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" ref="L85" si="75">-PV($D$74,L83,0,L84)</f>
+        <v>0.70328700897170993</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" ref="M85" si="76">-PV($D$74,M83,0,M84)</f>
+        <v>0.78512646223899507</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" ref="N85" si="77">-PV($D$74,N83,0,N84)</f>
+        <v>0.87648933343615343</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" ref="O85" si="78">-PV($D$74,O83,0,O84)</f>
+        <v>0.97848383486722901</v>
+      </c>
+      <c r="P85" s="3">
+        <f>-PV($D$74,P83,0,P84)</f>
+        <v>13.885768706725104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="7">
+        <v>20.23</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="6">
+        <f>B85*B84/B86</f>
+        <v>1.7004448838358874E-2</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="6">
+        <f>+D84/B86-1</f>
+        <v>1.2165172094296794E-2</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="6">
+        <f>D83+B87</f>
+        <v>6.7165172094296788E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <f>+E92+1</f>
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92" si="79">+F92+1</f>
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92" si="80">+G92+1</f>
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <f>+H92+1</f>
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92" si="81">+I92+1</f>
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ref="K92" si="82">+J92+1</f>
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ref="L92" si="83">+K92+1</f>
+        <v>8</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ref="M92" si="84">+L92+1</f>
+        <v>9</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ref="N92" si="85">+M92+1</f>
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ref="O92" si="86">+N92+1</f>
+        <v>11</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ref="P92" si="87">+O92+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="3">
+        <f>SUM(E94:P94)</f>
+        <v>44.86636427514172</v>
+      </c>
+      <c r="E93">
+        <f>+B94*B93</f>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F93" s="4">
+        <f>+E93*(1+B92)</f>
+        <v>0.87359999999999993</v>
+      </c>
+      <c r="G93" s="4">
+        <f>+F93*(1+B92)</f>
+        <v>1.0483199999999999</v>
+      </c>
+      <c r="H93" s="4">
+        <f>+G93*(1+B92)</f>
+        <v>1.2579839999999998</v>
+      </c>
+      <c r="I93" s="4">
+        <f>+H93*(1+B92)</f>
+        <v>1.5095807999999997</v>
+      </c>
+      <c r="J93" s="4">
+        <f>+I93*(1+B92)</f>
+        <v>1.8114969599999995</v>
+      </c>
+      <c r="K93" s="4">
+        <f>+J93*(1+B92)</f>
+        <v>2.1737963519999992</v>
+      </c>
+      <c r="L93" s="4">
+        <f>+K93*(1+B92)</f>
+        <v>2.6085556223999991</v>
+      </c>
+      <c r="M93" s="4">
+        <f>+L93*(1+B92)</f>
+        <v>3.130266746879999</v>
+      </c>
+      <c r="N93" s="4">
+        <f>+M93*(1+B92)</f>
+        <v>3.7563200962559984</v>
+      </c>
+      <c r="O93" s="4">
+        <f>+N93*(1+B92)</f>
+        <v>4.5075841155071981</v>
+      </c>
+      <c r="P93" s="4">
+        <f>O93*8</f>
+        <v>36.060672924057585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94">
+        <v>1.04</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="E94" s="3">
+        <f>-PV($D$92,E92,0,E93)</f>
+        <v>0.70817120622568086</v>
+      </c>
+      <c r="F94" s="3">
+        <f>-PV($D$92,F92,0,F93)</f>
+        <v>0.8266589955941801</v>
+      </c>
+      <c r="G94" s="3">
+        <f>-PV($D$92,G92,0,G93)</f>
+        <v>0.9649715901877588</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" ref="F94:P94" si="88">-PV($D$92,H92,0,H93)</f>
+        <v>1.1264259807639205</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="88"/>
+        <v>1.3148941409695571</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="88"/>
+        <v>1.5348958844002611</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="88"/>
+        <v>1.7917072580547793</v>
+      </c>
+      <c r="L94" s="3">
+        <f t="shared" si="88"/>
+        <v>2.0914870716592753</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="88"/>
+        <v>2.4414245972676367</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="88"/>
+        <v>2.8499119812462688</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="88"/>
+        <v>3.3267455034003133</v>
+      </c>
+      <c r="P94" s="3">
+        <f>-PV($D$92,P92,0,P93)</f>
+        <v>25.889070065372085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="7">
+        <v>44.69</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="6">
+        <f>B94*B93/B95</f>
+        <v>1.6289997762362944E-2</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="5"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="6">
+        <f>+D93/B95-1</f>
+        <v>3.9463923728288997E-3</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="6">
+        <f>D92+B96</f>
+        <v>3.1946392372828897E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f>+E101+1</f>
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101" si="89">+F101+1</f>
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ref="H101" si="90">+G101+1</f>
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <f>+H101+1</f>
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101" si="91">+I101+1</f>
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ref="K101" si="92">+J101+1</f>
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ref="L101" si="93">+K101+1</f>
+        <v>8</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ref="M101" si="94">+L101+1</f>
+        <v>9</v>
+      </c>
+      <c r="N101">
+        <f t="shared" ref="N101" si="95">+M101+1</f>
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <f t="shared" ref="O101" si="96">+N101+1</f>
+        <v>11</v>
+      </c>
+      <c r="P101">
+        <f t="shared" ref="P101" si="97">+O101+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="3">
+        <f>SUM(E103:P103)</f>
+        <v>113.33623054880044</v>
+      </c>
+      <c r="E102">
+        <f>+B103*B102</f>
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="F102" s="4">
+        <f>+E102*(1+B101)</f>
+        <v>1.4761799999999998</v>
+      </c>
+      <c r="G102" s="4">
+        <f>+F102*(1+B101)</f>
+        <v>1.7418923999999998</v>
+      </c>
+      <c r="H102" s="4">
+        <f>+G102*(1+B101)</f>
+        <v>2.0554330319999998</v>
+      </c>
+      <c r="I102" s="4">
+        <f>+H102*(1+B101)</f>
+        <v>2.4254109777599995</v>
+      </c>
+      <c r="J102" s="4">
+        <f>+I102*(1+B101)</f>
+        <v>2.8619849537567994</v>
+      </c>
+      <c r="K102" s="4">
+        <f>+J102*(1+B101)</f>
+        <v>3.3771422454330233</v>
+      </c>
+      <c r="L102" s="4">
+        <f>+K102*(1+B101)</f>
+        <v>3.9850278496109675</v>
+      </c>
+      <c r="M102" s="4">
+        <f>+L102*(1+B101)</f>
+        <v>4.7023328625409411</v>
+      </c>
+      <c r="N102" s="4">
+        <f>+M102*(1+B101)</f>
+        <v>5.5487527777983106</v>
+      </c>
+      <c r="O102" s="4">
+        <f>+N102*(1+B101)</f>
+        <v>6.5475282778020061</v>
+      </c>
+      <c r="P102" s="4">
+        <f>O102*20</f>
+        <v>130.95056555604012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>4.17</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="E103" s="3">
+        <f>-PV($D$101,E101,0,E102)</f>
+        <v>1.2075289575289574</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" ref="F103:P103" si="98">-PV($D$101,F101,0,F102)</f>
+        <v>1.3753708203515151</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="98"/>
+        <v>1.5665420540683279</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="98"/>
+        <v>1.7842853511589063</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="98"/>
+        <v>2.0322941258373639</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="98"/>
+        <v>2.3147751626332913</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="98"/>
+        <v>2.6365199728834785</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="98"/>
+        <v>3.0029860695004866</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="98"/>
+        <v>3.420389538620245</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="98"/>
+        <v>3.8958104783512448</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="98"/>
+        <v>4.4373130931027687</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="98"/>
+        <v>85.662414924763866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="7">
+        <v>113.99</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="6">
+        <f>B103*B102/B104</f>
+        <v>1.0974646898850776E-2</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="5"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="6">
+        <f>+D102/B104-1</f>
+        <v>-5.7353228458597583E-3</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="6">
+        <f>D101+B105</f>
+        <v>3.0264677154140239E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <f>+E110+1</f>
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ref="G110" si="99">+F110+1</f>
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ref="H110" si="100">+G110+1</f>
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <f>+H110+1</f>
+        <v>5</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110" si="101">+I110+1</f>
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ref="K110" si="102">+J110+1</f>
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110" si="103">+K110+1</f>
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <f t="shared" ref="M110" si="104">+L110+1</f>
+        <v>9</v>
+      </c>
+      <c r="N110">
+        <f t="shared" ref="N110" si="105">+M110+1</f>
+        <v>10</v>
+      </c>
+      <c r="O110">
+        <f t="shared" ref="O110" si="106">+N110+1</f>
+        <v>11</v>
+      </c>
+      <c r="P110">
+        <f t="shared" ref="P110" si="107">+O110+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="3">
+        <f>SUM(E112:P112)</f>
+        <v>5.3725574844710211</v>
+      </c>
+      <c r="E111">
+        <f>+B112*B111</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F111" s="4">
+        <f>+E111*(1+B110)</f>
+        <v>0.21340000000000003</v>
+      </c>
+      <c r="G111" s="4">
+        <f>+F111*(1+B110)</f>
+        <v>0.23474000000000006</v>
+      </c>
+      <c r="H111" s="4">
+        <f>+G111*(1+B110)</f>
+        <v>0.25821400000000011</v>
+      </c>
+      <c r="I111" s="4">
+        <f>+H111*(1+B110)</f>
+        <v>0.28403540000000016</v>
+      </c>
+      <c r="J111" s="4">
+        <f>+I111*(1+B110)</f>
+        <v>0.31243894000000022</v>
+      </c>
+      <c r="K111" s="4">
+        <f>+J111*(1+B110)</f>
+        <v>0.34368283400000027</v>
+      </c>
+      <c r="L111" s="4">
+        <f>+K111*(1+B110)</f>
+        <v>0.3780511174000003</v>
+      </c>
+      <c r="M111" s="4">
+        <f>+L111*(1+B110)</f>
+        <v>0.41585622914000037</v>
+      </c>
+      <c r="N111" s="4">
+        <f>+M111*(1+B110)</f>
+        <v>0.45744185205400045</v>
+      </c>
+      <c r="O111" s="4">
+        <f>+N111*(1+B110)</f>
+        <v>0.50318603725940059</v>
+      </c>
+      <c r="P111" s="4">
+        <f>O111*30</f>
+        <v>15.095581117782018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>0.97</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="E112" s="3">
+        <f>-PV($D$110,E110,0,E111)</f>
+        <v>0.17244444444444446</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" ref="F112:P112" si="108">-PV($D$110,F110,0,F111)</f>
+        <v>0.16861234567901237</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.16486540466392322</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.16120172900472496</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.15761946836017554</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.15411681350772721</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.15069199542977774</v>
+      </c>
+      <c r="L112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.14734328442022712</v>
+      </c>
+      <c r="M112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.14406898921088876</v>
+      </c>
+      <c r="N112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.14086745611731347</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="108"/>
+        <v>0.13773706820359541</v>
+      </c>
+      <c r="P112" s="3">
+        <f t="shared" si="108"/>
+        <v>3.6729884854292107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="7">
+        <v>5.39</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="6">
+        <f>B112*B111/B113</f>
+        <v>3.5992578849721707E-2</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="5"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="6">
+        <f>+D111/B113-1</f>
+        <v>-3.2360882243003264E-3</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="6">
+        <f>D110+B114</f>
+        <v>0.12176391177569967</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f>+E119+1</f>
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" ref="G119" si="109">+F119+1</f>
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ref="H119" si="110">+G119+1</f>
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <f>+H119+1</f>
+        <v>5</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ref="J119" si="111">+I119+1</f>
+        <v>6</v>
+      </c>
+      <c r="K119">
+        <f t="shared" ref="K119" si="112">+J119+1</f>
+        <v>7</v>
+      </c>
+      <c r="L119">
+        <f t="shared" ref="L119" si="113">+K119+1</f>
+        <v>8</v>
+      </c>
+      <c r="M119">
+        <f t="shared" ref="M119" si="114">+L119+1</f>
+        <v>9</v>
+      </c>
+      <c r="N119">
+        <f t="shared" ref="N119" si="115">+M119+1</f>
+        <v>10</v>
+      </c>
+      <c r="O119">
+        <f t="shared" ref="O119" si="116">+N119+1</f>
+        <v>11</v>
+      </c>
+      <c r="P119">
+        <f t="shared" ref="P119" si="117">+O119+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="3">
+        <f>SUM(E121:P121)</f>
+        <v>8.3031762686660588</v>
+      </c>
+      <c r="E120">
+        <f>+B121*B120</f>
+        <v>0.25</v>
+      </c>
+      <c r="F120" s="4">
+        <f>+E120*(1+B119)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G120" s="4">
+        <f>+F120*(1+B119)</f>
+        <v>0.30250000000000005</v>
+      </c>
+      <c r="H120" s="4">
+        <f>+G120*(1+B119)</f>
+        <v>0.3327500000000001</v>
+      </c>
+      <c r="I120" s="4">
+        <f>+H120*(1+B119)</f>
+        <v>0.36602500000000016</v>
+      </c>
+      <c r="J120" s="4">
+        <f>+I120*(1+B119)</f>
+        <v>0.40262750000000019</v>
+      </c>
+      <c r="K120" s="4">
+        <f>+J120*(1+B119)</f>
+        <v>0.44289025000000026</v>
+      </c>
+      <c r="L120" s="4">
+        <f>+K120*(1+B119)</f>
+        <v>0.48717927500000036</v>
+      </c>
+      <c r="M120" s="4">
+        <f>+L120*(1+B119)</f>
+        <v>0.53589720250000039</v>
+      </c>
+      <c r="N120" s="4">
+        <f>+M120*(1+B119)</f>
+        <v>0.58948692275000047</v>
+      </c>
+      <c r="O120" s="4">
+        <f>+N120*(1+B119)</f>
+        <v>0.64843561502500058</v>
+      </c>
+      <c r="P120" s="4">
+        <f>O120*30</f>
+        <v>19.453068450750017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121">
+        <v>1.25</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="E121" s="3">
+        <f>-PV($D$119,E119,0,E120)</f>
+        <v>0.22624434389140272</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" ref="F121:P121" si="118">-PV($D$119,F119,0,F120)</f>
+        <v>0.22522061382854569</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.22420151602841656</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.22318702953055042</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.22217713346932624</v>
+      </c>
+      <c r="J121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.22117180707353745</v>
+      </c>
+      <c r="K121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.22017102966596488</v>
+      </c>
+      <c r="L121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.21917478066295151</v>
+      </c>
+      <c r="M121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.21818303957397892</v>
+      </c>
+      <c r="N121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.21719578600124595</v>
+      </c>
+      <c r="O121" s="3">
+        <f t="shared" si="118"/>
+        <v>0.21621299963924942</v>
+      </c>
+      <c r="P121" s="3">
+        <f t="shared" si="118"/>
+        <v>5.8700361893008886</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="7">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="6">
+        <f>B121*B120/B122</f>
+        <v>2.9832935560859187E-2</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="5"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="6">
+        <f>+D120/B122-1</f>
+        <v>-9.1675097057209998E-3</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" s="6">
+        <f>D119+B123</f>
+        <v>9.5832490294278996E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <f>+E128+1</f>
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ref="G128" si="119">+F128+1</f>
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ref="H128" si="120">+G128+1</f>
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <f>+H128+1</f>
+        <v>5</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ref="J128" si="121">+I128+1</f>
+        <v>6</v>
+      </c>
+      <c r="K128">
+        <f t="shared" ref="K128" si="122">+J128+1</f>
+        <v>7</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ref="L128" si="123">+K128+1</f>
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <f t="shared" ref="M128" si="124">+L128+1</f>
+        <v>9</v>
+      </c>
+      <c r="N128">
+        <f t="shared" ref="N128" si="125">+M128+1</f>
+        <v>10</v>
+      </c>
+      <c r="O128">
+        <f t="shared" ref="O128" si="126">+N128+1</f>
+        <v>11</v>
+      </c>
+      <c r="P128">
+        <f t="shared" ref="P128" si="127">+O128+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="3">
+        <f>SUM(E130:P130)</f>
+        <v>49.798519923549193</v>
+      </c>
+      <c r="E129">
+        <f>+B130*B129</f>
+        <v>1.8119999999999998</v>
+      </c>
+      <c r="F129" s="4">
+        <f>+E129*(1+B128)</f>
+        <v>2.1381599999999996</v>
+      </c>
+      <c r="G129" s="4">
+        <f>+F129*(1+B128)</f>
+        <v>2.5230287999999996</v>
+      </c>
+      <c r="H129" s="4">
+        <f>+G129*(1+B128)</f>
+        <v>2.9771739839999993</v>
+      </c>
+      <c r="I129" s="4">
+        <f>+H129*(1+B128)</f>
+        <v>3.5130653011199988</v>
+      </c>
+      <c r="J129" s="4">
+        <f>+I129*(1+B128)</f>
+        <v>4.1454170553215981</v>
+      </c>
+      <c r="K129" s="4">
+        <f>+J129*(1+B128)</f>
+        <v>4.8915921252794856</v>
+      </c>
+      <c r="L129" s="4">
+        <f>+K129*(1+B128)</f>
+        <v>5.7720787078297926</v>
+      </c>
+      <c r="M129" s="4">
+        <f>+L129*(1+B128)</f>
+        <v>6.811052875239155</v>
+      </c>
+      <c r="N129" s="4">
+        <f>+M129*(1+B128)</f>
+        <v>8.0370423927822028</v>
+      </c>
+      <c r="O129" s="4">
+        <f>+N129*(1+B128)</f>
+        <v>9.483710023482999</v>
+      </c>
+      <c r="P129" s="4">
+        <f>O129*10</f>
+        <v>94.83710023482999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130">
+        <v>3.02</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="E130" s="3">
+        <f>-PV($D$128,E128,0,E129)</f>
+        <v>1.6251121076233181</v>
+      </c>
+      <c r="F130" s="3">
+        <f>-PV($D$128,F128,0,F129)</f>
+        <v>1.7198495847493411</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" ref="F130:P130" si="128">-PV($D$128,G128,0,G129)</f>
+        <v>1.8201098744432489</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="128"/>
+        <v>1.9262149343883708</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.0385054911015938</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.15734213408061</v>
+      </c>
+      <c r="K130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.2831064737355335</v>
+      </c>
+      <c r="L130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.4162023668232551</v>
+      </c>
+      <c r="M130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.5570572133196778</v>
+      </c>
+      <c r="N130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.7061233288943676</v>
+      </c>
+      <c r="O130" s="3">
+        <f t="shared" si="128"/>
+        <v>2.8638793973949359</v>
+      </c>
+      <c r="P130" s="3">
+        <f>-PV($D$128,P128,0,P129)</f>
+        <v>25.685017016994937</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="7">
+        <v>47</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" s="6">
+        <f>B130*B129/B131</f>
+        <v>3.8553191489361698E-2</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="5"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="6">
+        <f>+D129/B131-1</f>
+        <v>5.9542977096791239E-2</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+    </row>
+    <row r="133" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="6">
+        <f>D128+B132</f>
+        <v>0.17454297709679123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f>+E137+1</f>
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ref="G137" si="129">+F137+1</f>
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <f t="shared" ref="H137" si="130">+G137+1</f>
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <f>+H137+1</f>
+        <v>5</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ref="J137" si="131">+I137+1</f>
+        <v>6</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ref="K137" si="132">+J137+1</f>
+        <v>7</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ref="L137" si="133">+K137+1</f>
+        <v>8</v>
+      </c>
+      <c r="M137">
+        <f t="shared" ref="M137" si="134">+L137+1</f>
+        <v>9</v>
+      </c>
+      <c r="N137">
+        <f t="shared" ref="N137" si="135">+M137+1</f>
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <f t="shared" ref="O137" si="136">+N137+1</f>
+        <v>11</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ref="P137" si="137">+O137+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="3">
+        <f>SUM(E139:P139)</f>
+        <v>29.660155981978789</v>
+      </c>
+      <c r="E138">
+        <f>+B139*B138</f>
+        <v>1.1795</v>
+      </c>
+      <c r="F138" s="4">
+        <f>+E138*(1+B137)</f>
+        <v>1.39181</v>
+      </c>
+      <c r="G138" s="4">
+        <f>+F138*(1+B137)</f>
+        <v>1.6423357999999999</v>
+      </c>
+      <c r="H138" s="4">
+        <f>+G138*(1+B137)</f>
+        <v>1.9379562439999998</v>
+      </c>
+      <c r="I138" s="4">
+        <f>+H138*(1+B137)</f>
+        <v>2.2867883679199994</v>
+      </c>
+      <c r="J138" s="4">
+        <f>+I138*(1+B137)</f>
+        <v>2.6984102741455991</v>
+      </c>
+      <c r="K138" s="4">
+        <f>+J138*(1+B137)</f>
+        <v>3.1841241234918067</v>
+      </c>
+      <c r="L138" s="4">
+        <f>+K138*(1+B137)</f>
+        <v>3.7572664657203316</v>
+      </c>
+      <c r="M138" s="4">
+        <f>+L138*(1+B137)</f>
+        <v>4.4335744295499913</v>
+      </c>
+      <c r="N138" s="4">
+        <f>+M138*(1+B137)</f>
+        <v>5.2316178268689892</v>
+      </c>
+      <c r="O138" s="4">
+        <f>+N138*(1+B137)</f>
+        <v>6.1733090357054072</v>
+      </c>
+      <c r="P138" s="4">
+        <f>O138*18</f>
+        <v>111.11956264269733</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139">
+        <v>3.37</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="E139" s="3">
+        <f>-PV($D$137,E137,0,E138)</f>
+        <v>1.0124463519313305</v>
+      </c>
+      <c r="F139" s="3">
+        <f>-PV($D$137,F137,0,F138)</f>
+        <v>1.0254821418703604</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" ref="F139:P139" si="138">-PV($D$137,G137,0,G138)</f>
+        <v>1.0386857745983049</v>
+      </c>
+      <c r="H139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.0520594111811155</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.0656052405096275</v>
+      </c>
+      <c r="J139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.07932547965782</v>
+      </c>
+      <c r="K139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.0932223742456888</v>
+      </c>
+      <c r="L139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.107298198806792</v>
+      </c>
+      <c r="M139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.1215552571605274</v>
+      </c>
+      <c r="N139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.1359958827892036</v>
+      </c>
+      <c r="O139" s="3">
+        <f t="shared" si="138"/>
+        <v>1.1506224392199658</v>
+      </c>
+      <c r="P139" s="3">
+        <f t="shared" si="138"/>
+        <v>17.777857430008055</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="7">
+        <v>29.67</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="6">
+        <f>B139*B138/B140</f>
+        <v>3.9753960229187729E-2</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="5"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="6">
+        <f>+D138/B140-1</f>
+        <v>-3.3178355312479813E-4</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+    </row>
+    <row r="142" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" s="6">
+        <f>D137+B141</f>
+        <v>0.16466821644687521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f>+E146+1</f>
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <f t="shared" ref="G146" si="139">+F146+1</f>
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146" si="140">+G146+1</f>
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <f>+H146+1</f>
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146" si="141">+I146+1</f>
+        <v>6</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ref="K146" si="142">+J146+1</f>
+        <v>7</v>
+      </c>
+      <c r="L146">
+        <f t="shared" ref="L146" si="143">+K146+1</f>
+        <v>8</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ref="M146" si="144">+L146+1</f>
+        <v>9</v>
+      </c>
+      <c r="N146">
+        <f t="shared" ref="N146" si="145">+M146+1</f>
+        <v>10</v>
+      </c>
+      <c r="O146">
+        <f t="shared" ref="O146" si="146">+N146+1</f>
+        <v>11</v>
+      </c>
+      <c r="P146">
+        <f t="shared" ref="P146" si="147">+O146+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="3">
+        <f>SUM(E148:P148)</f>
+        <v>15.87956986161938</v>
+      </c>
+      <c r="E147">
+        <f>+B148*B147</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F147" s="4">
+        <f>+E147*(1+B146)</f>
+        <v>0.65844000000000003</v>
+      </c>
+      <c r="G147" s="4">
+        <f>+F147*(1+B146)</f>
+        <v>0.77695919999999996</v>
+      </c>
+      <c r="H147" s="4">
+        <f>+G147*(1+B146)</f>
+        <v>0.91681185599999993</v>
+      </c>
+      <c r="I147" s="4">
+        <f>+H147*(1+B146)</f>
+        <v>1.0818379900799999</v>
+      </c>
+      <c r="J147" s="4">
+        <f>+I147*(1+B146)</f>
+        <v>1.2765688282943999</v>
+      </c>
+      <c r="K147" s="4">
+        <f>+J147*(1+B146)</f>
+        <v>1.5063512173873919</v>
+      </c>
+      <c r="L147" s="4">
+        <f>+K147*(1+B146)</f>
+        <v>1.7774944365171224</v>
+      </c>
+      <c r="M147" s="4">
+        <f>+L147*(1+B146)</f>
+        <v>2.0974434350902045</v>
+      </c>
+      <c r="N147" s="4">
+        <f>+M147*(1+B146)</f>
+        <v>2.4749832534064411</v>
+      </c>
+      <c r="O147" s="4">
+        <f>+N147*(1+B146)</f>
+        <v>2.9204802390196005</v>
+      </c>
+      <c r="P147" s="4">
+        <f>O147*20</f>
+        <v>58.409604780392009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>1.86</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="E148" s="3">
+        <f>-PV($D$146,E146,0,E147)</f>
+        <v>0.48186528497409337</v>
+      </c>
+      <c r="F148" s="3">
+        <f t="shared" ref="F148:P148" si="148">-PV($D$146,F146,0,F147)</f>
+        <v>0.49101989315149408</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.50034842307319771</v>
+      </c>
+      <c r="H148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.50985417895196317</v>
+      </c>
+      <c r="I148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.5195405277748848</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.52941090049599659</v>
+      </c>
+      <c r="K148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.53946879325153374</v>
+      </c>
+      <c r="L148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.54971776859828136</v>
+      </c>
+      <c r="M148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.56016145677545082</v>
+      </c>
+      <c r="N148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.57080355699052854</v>
+      </c>
+      <c r="O148" s="3">
+        <f t="shared" si="148"/>
+        <v>0.58164783872955406</v>
+      </c>
+      <c r="P148" s="3">
+        <f t="shared" si="148"/>
+        <v>10.045731238852403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="7">
+        <v>15.83</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="6">
+        <f>B148*B147/B149</f>
+        <v>3.5249526216045483E-2</v>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="5"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="6">
+        <f>+D147/B149-1</f>
+        <v>3.131387341716918E-3</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+    </row>
+    <row r="151" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" s="6">
+        <f>D146+B150</f>
+        <v>0.16113138734171692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <f>+E155+1</f>
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ref="G155" si="149">+F155+1</f>
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ref="H155" si="150">+G155+1</f>
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <f>+H155+1</f>
+        <v>5</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155" si="151">+I155+1</f>
+        <v>6</v>
+      </c>
+      <c r="K155">
+        <f t="shared" ref="K155" si="152">+J155+1</f>
+        <v>7</v>
+      </c>
+      <c r="L155">
+        <f t="shared" ref="L155" si="153">+K155+1</f>
+        <v>8</v>
+      </c>
+      <c r="M155">
+        <f t="shared" ref="M155" si="154">+L155+1</f>
+        <v>9</v>
+      </c>
+      <c r="N155">
+        <f t="shared" ref="N155" si="155">+M155+1</f>
+        <v>10</v>
+      </c>
+      <c r="O155">
+        <f t="shared" ref="O155" si="156">+N155+1</f>
+        <v>11</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ref="P155" si="157">+O155+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="3">
+        <f>SUM(E157:P157)</f>
+        <v>4.4244077201787322</v>
+      </c>
+      <c r="E156">
+        <f>+B157*B156</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F156" s="4">
+        <f>+E156*(1+B155)</f>
+        <v>0.1152</v>
+      </c>
+      <c r="G156" s="4">
+        <f>+F156*(1+B155)</f>
+        <v>0.13824</v>
+      </c>
+      <c r="H156" s="4">
+        <f>+G156*(1+B155)</f>
+        <v>0.16588800000000001</v>
+      </c>
+      <c r="I156" s="4">
+        <f>+H156*(1+B155)</f>
+        <v>0.19906560000000001</v>
+      </c>
+      <c r="J156" s="4">
+        <f>+I156*(1+B155)</f>
+        <v>0.23887871999999999</v>
+      </c>
+      <c r="K156" s="4">
+        <f>+J156*(1+B155)</f>
+        <v>0.286654464</v>
+      </c>
+      <c r="L156" s="4">
+        <f>+K156*(1+B155)</f>
+        <v>0.34398535679999998</v>
+      </c>
+      <c r="M156" s="4">
+        <f>+L156*(1+B155)</f>
+        <v>0.41278242815999994</v>
+      </c>
+      <c r="N156" s="4">
+        <f>+M156*(1+B155)</f>
+        <v>0.4953389137919999</v>
+      </c>
+      <c r="O156" s="4">
+        <f>+N156*(1+B155)</f>
+        <v>0.5944066965503999</v>
+      </c>
+      <c r="P156" s="4">
+        <f>O156*10</f>
+        <v>5.9440669655039988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157">
+        <v>0.16</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="E157" s="3">
+        <f>-PV($D$155,E155,0,E156)</f>
+        <v>8.9552238805970144E-2</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" ref="F157:P157" si="158">-PV($D$155,F155,0,F156)</f>
+        <v>0.1002450434395188</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.11221460086513299</v>
+      </c>
+      <c r="H157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.12561335917738764</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.14061196922841901</v>
+      </c>
+      <c r="J157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.15740145809151379</v>
+      </c>
+      <c r="K157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.17619566204273931</v>
+      </c>
+      <c r="L157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.19723395004784244</v>
+      </c>
+      <c r="M157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.22078427244161464</v>
+      </c>
+      <c r="N157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.24714657362867304</v>
+      </c>
+      <c r="O157" s="3">
+        <f t="shared" si="158"/>
+        <v>0.27665661227090266</v>
+      </c>
+      <c r="P157" s="3">
+        <f t="shared" si="158"/>
+        <v>2.5807519801390173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="7">
+        <v>4.41</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" s="6">
+        <f>B157*B156/B158</f>
+        <v>2.1768707482993196E-2</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="5"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159" s="6">
+        <f>+D156/B158-1</f>
+        <v>3.2670567298711539E-3</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+    </row>
+    <row r="160" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="6">
+        <f>D155+B159</f>
+        <v>7.5267056729871148E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <f>+E164+1</f>
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ref="G164" si="159">+F164+1</f>
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <f t="shared" ref="H164" si="160">+G164+1</f>
+        <v>4</v>
+      </c>
+      <c r="I164">
+        <f>+H164+1</f>
+        <v>5</v>
+      </c>
+      <c r="J164">
+        <f t="shared" ref="J164" si="161">+I164+1</f>
+        <v>6</v>
+      </c>
+      <c r="K164">
+        <f t="shared" ref="K164" si="162">+J164+1</f>
+        <v>7</v>
+      </c>
+      <c r="L164">
+        <f t="shared" ref="L164" si="163">+K164+1</f>
+        <v>8</v>
+      </c>
+      <c r="M164">
+        <f t="shared" ref="M164" si="164">+L164+1</f>
+        <v>9</v>
+      </c>
+      <c r="N164">
+        <f t="shared" ref="N164" si="165">+M164+1</f>
+        <v>10</v>
+      </c>
+      <c r="O164">
+        <f t="shared" ref="O164" si="166">+N164+1</f>
+        <v>11</v>
+      </c>
+      <c r="P164">
+        <f t="shared" ref="P164" si="167">+O164+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="3">
+        <f>SUM(E166:P166)</f>
+        <v>35.633601369074356</v>
+      </c>
+      <c r="E165">
+        <f>+B166*B165</f>
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="F165" s="4">
+        <f>+E165*(1+B164)</f>
+        <v>0.30731999999999998</v>
+      </c>
+      <c r="G165" s="4">
+        <f>+F165*(1+B164)</f>
+        <v>0.36878399999999995</v>
+      </c>
+      <c r="H165" s="4">
+        <f>+G165*(1+B164)</f>
+        <v>0.4425407999999999</v>
+      </c>
+      <c r="I165" s="4">
+        <f>+H165*(1+B164)</f>
+        <v>0.5310489599999999</v>
+      </c>
+      <c r="J165" s="4">
+        <f>+I165*(1+B164)</f>
+        <v>0.63725875199999982</v>
+      </c>
+      <c r="K165" s="4">
+        <f>+J165*(1+B164)</f>
+        <v>0.76471050239999971</v>
+      </c>
+      <c r="L165" s="4">
+        <f>+K165*(1+B164)</f>
+        <v>0.91765260287999961</v>
+      </c>
+      <c r="M165" s="4">
+        <f>+L165*(1+B164)</f>
+        <v>1.1011831234559994</v>
+      </c>
+      <c r="N165" s="4">
+        <f>+M165*(1+B164)</f>
+        <v>1.3214197481471992</v>
+      </c>
+      <c r="O165" s="4">
+        <f>+N165*(1+B164)</f>
+        <v>1.585703697776639</v>
+      </c>
+      <c r="P165" s="4">
+        <f>O165*48</f>
+        <v>76.113777493278675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166">
+        <v>1.97</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="E166" s="3">
+        <f>-PV($D$164,E164,0,E165)</f>
+        <v>0.23756957328385897</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" ref="F166:P166" si="168">-PV($D$164,F164,0,F165)</f>
+        <v>0.26445592573342369</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.29438507502792988</v>
+      </c>
+      <c r="H166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.32770138222033007</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.36478818057921714</v>
+      </c>
+      <c r="J166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.40607218617352547</v>
+      </c>
+      <c r="K166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.45202840761431401</v>
+      </c>
+      <c r="L166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.50318561144450535</v>
+      </c>
+      <c r="M166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.56013240606067372</v>
+      </c>
+      <c r="N166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.62352401416772574</v>
+      </c>
+      <c r="O166" s="3">
+        <f t="shared" si="168"/>
+        <v>0.69408981168949058</v>
+      </c>
+      <c r="P166" s="3">
+        <f t="shared" si="168"/>
+        <v>30.905668795079361</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="7">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D167" s="6">
+        <f>B166*B165/B167</f>
+        <v>7.1877631209654779E-3</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="5"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168" s="6">
+        <f>+D165/B167-1</f>
+        <v>1.0107687550808819E-4</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+    </row>
+    <row r="169" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="6">
+        <f>D164+B168</f>
+        <v>7.8101076875508088E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <f>+E173+1</f>
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ref="G173" si="169">+F173+1</f>
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <f t="shared" ref="H173" si="170">+G173+1</f>
+        <v>4</v>
+      </c>
+      <c r="I173">
+        <f>+H173+1</f>
+        <v>5</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ref="J173" si="171">+I173+1</f>
+        <v>6</v>
+      </c>
+      <c r="K173">
+        <f t="shared" ref="K173" si="172">+J173+1</f>
+        <v>7</v>
+      </c>
+      <c r="L173">
+        <f t="shared" ref="L173" si="173">+K173+1</f>
+        <v>8</v>
+      </c>
+      <c r="M173">
+        <f t="shared" ref="M173" si="174">+L173+1</f>
+        <v>9</v>
+      </c>
+      <c r="N173">
+        <f t="shared" ref="N173" si="175">+M173+1</f>
+        <v>10</v>
+      </c>
+      <c r="O173">
+        <f t="shared" ref="O173" si="176">+N173+1</f>
+        <v>11</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ref="P173" si="177">+O173+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="3">
+        <f>SUM(E175:P175)</f>
+        <v>16.610841427225779</v>
+      </c>
+      <c r="E174">
+        <f>+B175*B174</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F174" s="4">
+        <f>+E174*(1+B173)</f>
+        <v>0.67957499999999993</v>
+      </c>
+      <c r="G174" s="4">
+        <f>+F174*(1+B173)</f>
+        <v>0.6965643749999999</v>
+      </c>
+      <c r="H174" s="4">
+        <f>+G174*(1+B173)</f>
+        <v>0.71397848437499989</v>
+      </c>
+      <c r="I174" s="4">
+        <f>+H174*(1+B173)</f>
+        <v>0.73182794648437477</v>
+      </c>
+      <c r="J174" s="4">
+        <f>+I174*(1+B173)</f>
+        <v>0.75012364514648411</v>
+      </c>
+      <c r="K174" s="4">
+        <f>+J174*(1+B173)</f>
+        <v>0.76887673627514619</v>
+      </c>
+      <c r="L174" s="4">
+        <f>+K174*(1+B173)</f>
+        <v>0.78809865468202478</v>
+      </c>
+      <c r="M174" s="4">
+        <f>+L174*(1+B173)</f>
+        <v>0.80780112104907531</v>
+      </c>
+      <c r="N174" s="4">
+        <f>+M174*(1+B173)</f>
+        <v>0.82799614907530217</v>
+      </c>
+      <c r="O174" s="4">
+        <f>+N174*(1+B173)</f>
+        <v>0.84869605280218463</v>
+      </c>
+      <c r="P174" s="4">
+        <f>O174*10</f>
+        <v>8.4869605280218465</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>1.02</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="E175" s="3">
+        <f>-PV($D$173,E173,0,E174)</f>
+        <v>0.66233766233766245</v>
+      </c>
+      <c r="F175" s="3">
+        <f t="shared" ref="F175:P175" si="178">-PV($D$173,F173,0,F174)</f>
+        <v>0.67821788601009392</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.69447885430604039</v>
+      </c>
+      <c r="H175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.71112969596772369</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.72817975860830841</v>
+      </c>
+      <c r="J175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.74563861395955677</v>
+      </c>
+      <c r="K175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.76351606324530041</v>
+      </c>
+      <c r="L175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.78182214268374917</v>
+      </c>
+      <c r="M175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.80056712912172101</v>
+      </c>
+      <c r="N175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.81976154580396021</v>
+      </c>
+      <c r="O175" s="3">
+        <f t="shared" si="178"/>
+        <v>0.83941616828077859</v>
+      </c>
+      <c r="P175" s="3">
+        <f t="shared" si="178"/>
+        <v>8.3857759069008857</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="7">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D176" s="6">
+        <f>B175*B174/B176</f>
+        <v>3.9184397163120568E-2</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="5"/>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="6">
+        <f>+D174/B176-1</f>
+        <v>-1.8271783260887853E-2</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+    </row>
+    <row r="178" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" s="6">
+        <f>D173+B177</f>
+        <v>-1.7271783260887852E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <f>+E182+1</f>
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <f t="shared" ref="G182" si="179">+F182+1</f>
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <f t="shared" ref="H182" si="180">+G182+1</f>
+        <v>4</v>
+      </c>
+      <c r="I182">
+        <f>+H182+1</f>
+        <v>5</v>
+      </c>
+      <c r="J182">
+        <f t="shared" ref="J182" si="181">+I182+1</f>
+        <v>6</v>
+      </c>
+      <c r="K182">
+        <f t="shared" ref="K182" si="182">+J182+1</f>
+        <v>7</v>
+      </c>
+      <c r="L182">
+        <f t="shared" ref="L182" si="183">+K182+1</f>
+        <v>8</v>
+      </c>
+      <c r="M182">
+        <f t="shared" ref="M182" si="184">+L182+1</f>
+        <v>9</v>
+      </c>
+      <c r="N182">
+        <f t="shared" ref="N182" si="185">+M182+1</f>
+        <v>10</v>
+      </c>
+      <c r="O182">
+        <f t="shared" ref="O182" si="186">+N182+1</f>
+        <v>11</v>
+      </c>
+      <c r="P182">
+        <f t="shared" ref="P182" si="187">+O182+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="3">
+        <f>SUM(E184:P184)</f>
+        <v>55.170411042069517</v>
+      </c>
+      <c r="E183">
+        <f>+B184*B183</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F183" s="4">
+        <f>+E183*(1+B182)</f>
+        <v>0.87120000000000009</v>
+      </c>
+      <c r="G183" s="4">
+        <f>+F183*(1+B182)</f>
+        <v>0.95832000000000017</v>
+      </c>
+      <c r="H183" s="4">
+        <f>+G183*(1+B182)</f>
+        <v>1.0541520000000002</v>
+      </c>
+      <c r="I183" s="4">
+        <f>+H183*(1+B182)</f>
+        <v>1.1595672000000004</v>
+      </c>
+      <c r="J183" s="4">
+        <f>+I183*(1+B182)</f>
+        <v>1.2755239200000006</v>
+      </c>
+      <c r="K183" s="4">
+        <f>+J183*(1+B182)</f>
+        <v>1.4030763120000007</v>
+      </c>
+      <c r="L183" s="4">
+        <f>+K183*(1+B182)</f>
+        <v>1.5433839432000009</v>
+      </c>
+      <c r="M183" s="4">
+        <f>+L183*(1+B182)</f>
+        <v>1.6977223375200012</v>
+      </c>
+      <c r="N183" s="4">
+        <f>+M183*(1+B182)</f>
+        <v>1.8674945712720015</v>
+      </c>
+      <c r="O183" s="4">
+        <f>+N183*(1+B182)</f>
+        <v>2.0542440283992018</v>
+      </c>
+      <c r="P183" s="4">
+        <f>O183*20</f>
+        <v>41.084880567984037</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184">
+        <v>2.64</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="E184" s="3">
+        <f>-PV($D$182,E182,0,E183)</f>
+        <v>0.79120879120879128</v>
+      </c>
+      <c r="F184" s="3">
+        <f t="shared" ref="F184:P184" si="188">-PV($D$182,F182,0,F183)</f>
+        <v>0.8694602101195511</v>
+      </c>
+      <c r="G184" s="3">
+        <f t="shared" si="188"/>
+        <v>0.95545078035115538</v>
+      </c>
+      <c r="H184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.0499459124737971</v>
+      </c>
+      <c r="I184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.1537867170041729</v>
+      </c>
+      <c r="J184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.2678974912133774</v>
+      </c>
+      <c r="K184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.3932939463883272</v>
+      </c>
+      <c r="L184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.5310922487783816</v>
+      </c>
+      <c r="M184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.6825189547015185</v>
+      </c>
+      <c r="N184" s="3">
+        <f t="shared" si="188"/>
+        <v>1.8489219282434273</v>
+      </c>
+      <c r="O184" s="3">
+        <f t="shared" si="188"/>
+        <v>2.0317823387290419</v>
+      </c>
+      <c r="P184" s="3">
+        <f t="shared" si="188"/>
+        <v>40.595051722857981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="7">
+        <v>66.34</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="6">
+        <f>B184*B183/B185</f>
+        <v>1.1938498643352427E-2</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="5"/>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186" s="6">
+        <f>+D183/B185-1</f>
+        <v>-0.16836884169325428</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+    </row>
+    <row r="187" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" s="6">
+        <f>D182+B186</f>
+        <v>-0.16736884169325428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <f>+E191+1</f>
+        <v>2</v>
+      </c>
+      <c r="G191">
+        <f t="shared" ref="G191" si="189">+F191+1</f>
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <f t="shared" ref="H191" si="190">+G191+1</f>
+        <v>4</v>
+      </c>
+      <c r="I191">
+        <f>+H191+1</f>
+        <v>5</v>
+      </c>
+      <c r="J191">
+        <f t="shared" ref="J191" si="191">+I191+1</f>
+        <v>6</v>
+      </c>
+      <c r="K191">
+        <f t="shared" ref="K191" si="192">+J191+1</f>
+        <v>7</v>
+      </c>
+      <c r="L191">
+        <f t="shared" ref="L191" si="193">+K191+1</f>
+        <v>8</v>
+      </c>
+      <c r="M191">
+        <f t="shared" ref="M191" si="194">+L191+1</f>
+        <v>9</v>
+      </c>
+      <c r="N191">
+        <f t="shared" ref="N191" si="195">+M191+1</f>
+        <v>10</v>
+      </c>
+      <c r="O191">
+        <f t="shared" ref="O191" si="196">+N191+1</f>
+        <v>11</v>
+      </c>
+      <c r="P191">
+        <f t="shared" ref="P191" si="197">+O191+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="3">
+        <f>SUM(E193:P193)</f>
+        <v>3.8533032952000683</v>
+      </c>
+      <c r="E192">
+        <f>+B193*B192</f>
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="F192" s="4">
+        <f>+E192*(1+B191)</f>
+        <v>0.20057499999999998</v>
+      </c>
+      <c r="G192" s="4">
+        <f>+F192*(1+B191)</f>
+        <v>0.22664974999999996</v>
+      </c>
+      <c r="H192" s="4">
+        <f>+G192*(1+B191)</f>
+        <v>0.25611421749999991</v>
+      </c>
+      <c r="I192" s="4">
+        <f>+H192*(1+B191)</f>
+        <v>0.28940906577499986</v>
+      </c>
+      <c r="J192" s="4">
+        <f>+I192*(1+B191)</f>
+        <v>0.32703224432574979</v>
+      </c>
+      <c r="K192" s="4">
+        <f>+J192*(1+B191)</f>
+        <v>0.36954643608809723</v>
+      </c>
+      <c r="L192" s="4">
+        <f>+K192*(1+B191)</f>
+        <v>0.41758747277954983</v>
+      </c>
+      <c r="M192" s="4">
+        <f>+L192*(1+B191)</f>
+        <v>0.47187384424089124</v>
+      </c>
+      <c r="N192" s="4">
+        <f>+M192*(1+B191)</f>
+        <v>0.53321744399220705</v>
+      </c>
+      <c r="O192" s="4">
+        <f>+N192*(1+B191)</f>
+        <v>0.60253571171119391</v>
+      </c>
+      <c r="P192" s="4">
+        <f>O192*24</f>
+        <v>14.460857081068653</v>
+      </c>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="5"/>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193">
+        <v>0.71</v>
+      </c>
+      <c r="E193" s="3">
+        <f>-PV($D$191,E191,0,E192)</f>
+        <v>0.15275387263339071</v>
+      </c>
+      <c r="F193" s="3">
+        <f>-PV($D$191,F191,0,F192)</f>
+        <v>0.14854722553849528</v>
+      </c>
+      <c r="G193" s="3">
+        <f t="shared" ref="F193:P193" si="198">-PV($D$191,G191,0,G192)</f>
+        <v>0.14445642414672946</v>
+      </c>
+      <c r="H193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.14047827821497788</v>
+      </c>
+      <c r="I193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.13660968535535717</v>
+      </c>
+      <c r="J193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.1328476286157948</v>
+      </c>
+      <c r="K193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.12918917412723591</v>
+      </c>
+      <c r="L193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.12563146881564249</v>
+      </c>
+      <c r="M193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.12217173817700173</v>
+      </c>
+      <c r="N193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.11880728411360754</v>
+      </c>
+      <c r="O193" s="3">
+        <f t="shared" si="198"/>
+        <v>0.11553548282992815</v>
+      </c>
+      <c r="P193" s="3">
+        <f>-PV($D$191,P191,0,P192)</f>
+        <v>2.3862750326319069</v>
+      </c>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+      <c r="Y193" s="3"/>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D194" s="6">
+        <f>B193*B192/B194</f>
+        <v>4.6587926509186348E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195" s="6">
+        <f>+D192/B194-1</f>
+        <v>1.1365694278233196E-2</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" s="6">
+        <f>D191+B195</f>
+        <v>0.1733656942782332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <f>+E200+1</f>
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" ref="G200" si="199">+F200+1</f>
+        <v>3</v>
+      </c>
+      <c r="H200">
+        <f t="shared" ref="H200" si="200">+G200+1</f>
+        <v>4</v>
+      </c>
+      <c r="I200">
+        <f>+H200+1</f>
+        <v>5</v>
+      </c>
+      <c r="J200">
+        <f t="shared" ref="J200" si="201">+I200+1</f>
+        <v>6</v>
+      </c>
+      <c r="K200">
+        <f t="shared" ref="K200" si="202">+J200+1</f>
+        <v>7</v>
+      </c>
+      <c r="L200">
+        <f t="shared" ref="L200" si="203">+K200+1</f>
+        <v>8</v>
+      </c>
+      <c r="M200">
+        <f t="shared" ref="M200" si="204">+L200+1</f>
+        <v>9</v>
+      </c>
+      <c r="N200">
+        <f t="shared" ref="N200" si="205">+M200+1</f>
+        <v>10</v>
+      </c>
+      <c r="O200">
+        <f t="shared" ref="O200" si="206">+N200+1</f>
+        <v>11</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ref="P200" si="207">+O200+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" s="3">
+        <f>SUM(E202:P202)</f>
+        <v>23.606748243051523</v>
+      </c>
+      <c r="E201">
+        <f>+B202*B201</f>
+        <v>1.2419999999999998</v>
+      </c>
+      <c r="F201" s="4">
+        <f>+E201*(1+B200)</f>
+        <v>1.3661999999999999</v>
+      </c>
+      <c r="G201" s="4">
+        <f>+F201*(1+B200)</f>
+        <v>1.50282</v>
+      </c>
+      <c r="H201" s="4">
+        <f>+G201*(1+B200)</f>
+        <v>1.6531020000000003</v>
+      </c>
+      <c r="I201" s="4">
+        <f>+H201*(1+B200)</f>
+        <v>1.8184122000000005</v>
+      </c>
+      <c r="J201" s="4">
+        <f>+I201*(1+B200)</f>
+        <v>2.0002534200000008</v>
+      </c>
+      <c r="K201" s="4">
+        <f>+J201*(1+B200)</f>
+        <v>2.2002787620000013</v>
+      </c>
+      <c r="L201" s="4">
+        <f>+K201*(1+B200)</f>
+        <v>2.4203066382000018</v>
+      </c>
+      <c r="M201" s="4">
+        <f>+L201*(1+B200)</f>
+        <v>2.6623373020200023</v>
+      </c>
+      <c r="N201" s="4">
+        <f>+M201*(1+B200)</f>
+        <v>2.9285710322220027</v>
+      </c>
+      <c r="O201" s="4">
+        <f>+N201*(1+B200)</f>
+        <v>3.2214281354442034</v>
+      </c>
+      <c r="P201" s="4">
+        <f>O201*10</f>
+        <v>32.214281354442036</v>
+      </c>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="5"/>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E202" s="3">
+        <f>-PV($D$200,E200,0,E201)</f>
+        <v>1.1342465753424655</v>
+      </c>
+      <c r="F202" s="3">
+        <f t="shared" ref="F202:P202" si="208">-PV($D$200,F200,0,F201)</f>
+        <v>1.1394257834490522</v>
+      </c>
+      <c r="G202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.144628640907724</v>
+      </c>
+      <c r="H202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1498552557063895</v>
+      </c>
+      <c r="I202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1551057363260535</v>
+      </c>
+      <c r="J202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1603801917430676</v>
+      </c>
+      <c r="K202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1656787314313923</v>
+      </c>
+      <c r="L202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.171001465364869</v>
+      </c>
+      <c r="M202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1763485040195034</v>
+      </c>
+      <c r="N202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1817199583757567</v>
+      </c>
+      <c r="O202" s="3">
+        <f t="shared" si="208"/>
+        <v>1.1871159399208517</v>
+      </c>
+      <c r="P202" s="3">
+        <f t="shared" si="208"/>
+        <v>10.841241460464399</v>
+      </c>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
+      <c r="Y202" s="3"/>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D203" s="6">
+        <f>B202*B201/B203</f>
+        <v>5.3534482758620681E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" s="6">
+        <f>+D201/B203-1</f>
+        <v>1.753225185566909E-2</v>
+      </c>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>41</v>
+      </c>
+      <c r="B205" s="6">
+        <f>D200+B204</f>
+        <v>0.11253225185566909</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <f>+E209+1</f>
+        <v>2</v>
+      </c>
+      <c r="G209">
+        <f t="shared" ref="G209" si="209">+F209+1</f>
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <f t="shared" ref="H209" si="210">+G209+1</f>
+        <v>4</v>
+      </c>
+      <c r="I209">
+        <f>+H209+1</f>
+        <v>5</v>
+      </c>
+      <c r="J209">
+        <f t="shared" ref="J209" si="211">+I209+1</f>
+        <v>6</v>
+      </c>
+      <c r="K209">
+        <f t="shared" ref="K209" si="212">+J209+1</f>
+        <v>7</v>
+      </c>
+      <c r="L209">
+        <f t="shared" ref="L209" si="213">+K209+1</f>
+        <v>8</v>
+      </c>
+      <c r="M209">
+        <f t="shared" ref="M209" si="214">+L209+1</f>
+        <v>9</v>
+      </c>
+      <c r="N209">
+        <f t="shared" ref="N209" si="215">+M209+1</f>
+        <v>10</v>
+      </c>
+      <c r="O209">
+        <f t="shared" ref="O209" si="216">+N209+1</f>
+        <v>11</v>
+      </c>
+      <c r="P209">
+        <f t="shared" ref="P209" si="217">+O209+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" s="3">
+        <f>SUM(E211:P211)</f>
+        <v>90.525256852778867</v>
+      </c>
+      <c r="E210">
+        <f>+B211*B210</f>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F210" s="4">
+        <f>+E210*(1+B209)</f>
+        <v>1.3310399999999998</v>
+      </c>
+      <c r="G210" s="4">
+        <f>+F210*(1+B209)</f>
+        <v>1.5706271999999997</v>
+      </c>
+      <c r="H210" s="4">
+        <f>+G210*(1+B209)</f>
+        <v>1.8533400959999995</v>
+      </c>
+      <c r="I210" s="4">
+        <f>+H210*(1+B209)</f>
+        <v>2.1869413132799993</v>
+      </c>
+      <c r="J210" s="4">
+        <f>+I210*(1+B209)</f>
+        <v>2.580590749670399</v>
+      </c>
+      <c r="K210" s="4">
+        <f>+J210*(1+B209)</f>
+        <v>3.0450970846110708</v>
+      </c>
+      <c r="L210" s="4">
+        <f>+K210*(1+B209)</f>
+        <v>3.5932145598410634</v>
+      </c>
+      <c r="M210" s="4">
+        <f>+L210*(1+B209)</f>
+        <v>4.2399931806124549</v>
+      </c>
+      <c r="N210" s="4">
+        <f>+M210*(1+B209)</f>
+        <v>5.0031919531226965</v>
+      </c>
+      <c r="O210" s="4">
+        <f>+N210*(1+B209)</f>
+        <v>5.9037665046847811</v>
+      </c>
+      <c r="P210" s="4">
+        <f>O210*10</f>
+        <v>59.037665046847813</v>
+      </c>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="4"/>
+      <c r="Y210" s="5"/>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211">
+        <v>1.88</v>
+      </c>
+      <c r="E211" s="3">
+        <f>-PV($D$209,E209,0,E210)</f>
+        <v>1.1268731268731269</v>
+      </c>
+      <c r="F211" s="3">
+        <f>-PV($D$209,F209,0,F210)</f>
+        <v>1.3283819078024874</v>
+      </c>
+      <c r="G211" s="3">
+        <f>-PV($D$209,G209,0,G210)</f>
+        <v>1.565924726480455</v>
+      </c>
+      <c r="H211" s="3">
+        <f>-PV($D$209,H209,0,H210)</f>
+        <v>1.8459452320149219</v>
+      </c>
+      <c r="I211" s="3">
+        <f>-PV($D$209,I209,0,I210)</f>
+        <v>2.1760393344431646</v>
+      </c>
+      <c r="J211" s="3">
+        <f>-PV($D$209,J209,0,J210)</f>
+        <v>2.5651612533895456</v>
+      </c>
+      <c r="K211" s="3">
+        <f>-PV($D$209,K209,0,K210)</f>
+        <v>3.0238664125870769</v>
+      </c>
+      <c r="L211" s="3">
+        <f>-PV($D$209,L209,0,L210)</f>
+        <v>3.564597769083667</v>
+      </c>
+      <c r="M211" s="3">
+        <f>-PV($D$209,M209,0,M210)</f>
+        <v>4.2020233441745525</v>
+      </c>
+      <c r="N211" s="3">
+        <f>-PV($D$209,N209,0,N210)</f>
+        <v>4.9534341120139587</v>
+      </c>
+      <c r="O211" s="3">
+        <f>-PV($D$209,O209,0,O210)</f>
+        <v>5.8392130391373351</v>
+      </c>
+      <c r="P211" s="3">
+        <f>-PV($D$209,P209,0,P210)</f>
+        <v>58.333796594778576</v>
+      </c>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="3"/>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="7">
+        <v>99.58</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D212" s="6">
+        <f>B211*B210/B212</f>
+        <v>1.1327575818437437E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>25</v>
+      </c>
+      <c r="B213" s="6">
+        <f>+D210/B212-1</f>
+        <v>-9.0929334677858353E-2</v>
+      </c>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="6">
+        <f>D209+B213</f>
+        <v>-8.9929334677858352E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>+E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>+F3+1</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>+G3+1</f>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f>+H3+1</f>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f>+I3+1</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>+J3+1</f>
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f>+K3+1</f>
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f>+L3+1</f>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <f>+M3+1</f>
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <f>+N3+1</f>
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <f>+O3+1</f>
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(E5:P5)</f>
+        <v>1068.9605388506204</v>
+      </c>
+      <c r="E4">
+        <f>+B5*B4</f>
+        <v>16.29</v>
+      </c>
+      <c r="F4" s="4">
+        <f>+E4*(1+B3)</f>
+        <v>18.733499999999996</v>
+      </c>
+      <c r="G4" s="4">
+        <f>+F4*(1+B3)</f>
+        <v>21.543524999999992</v>
+      </c>
+      <c r="H4" s="4">
+        <f>+G4*(1+B3)</f>
+        <v>24.775053749999987</v>
+      </c>
+      <c r="I4" s="4">
+        <f>+H4*(1+B3)</f>
+        <v>28.491311812499983</v>
+      </c>
+      <c r="J4" s="4">
+        <f>+I4*(1+B3)</f>
+        <v>32.765008584374975</v>
+      </c>
+      <c r="K4" s="4">
+        <f>+J4*(1+B3)</f>
+        <v>37.679759872031219</v>
+      </c>
+      <c r="L4" s="4">
+        <f>+K4*(1+B3)</f>
+        <v>43.3317238528359</v>
+      </c>
+      <c r="M4" s="4">
+        <f>+L4*(1+B3)</f>
+        <v>49.831482430761284</v>
+      </c>
+      <c r="N4" s="4">
+        <f>+M4*(1+B3)</f>
+        <v>57.306204795375471</v>
+      </c>
+      <c r="O4" s="4">
+        <f>+N4*(1+B3)</f>
+        <v>65.902135514681788</v>
+      </c>
+      <c r="P4" s="4">
+        <f>O4*30</f>
+        <v>1977.0640654404538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>32.58</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="3">
+        <f>-PV($D$3,E3,0,E4)</f>
+        <v>15.153488372093022</v>
+      </c>
+      <c r="F5" s="3">
+        <f>-PV($D$3,F3,0,F4)</f>
+        <v>16.210708491076254</v>
+      </c>
+      <c r="G5" s="3">
+        <f>-PV($D$3,G3,0,G4)</f>
+        <v>17.341688153244363</v>
+      </c>
+      <c r="H5" s="3">
+        <f>-PV($D$3,H3,0,H4)</f>
+        <v>18.551573373238153</v>
+      </c>
+      <c r="I5" s="3">
+        <f>-PV($D$3,I3,0,I4)</f>
+        <v>19.845869189975698</v>
+      </c>
+      <c r="J5" s="3">
+        <f>-PV($D$3,J3,0,J4)</f>
+        <v>21.230464714857721</v>
+      </c>
+      <c r="K5" s="3">
+        <f>-PV($D$3,K3,0,K4)</f>
+        <v>22.711659927522213</v>
+      </c>
+      <c r="L5" s="3">
+        <f>-PV($D$3,L3,0,L4)</f>
+        <v>24.296194341070272</v>
+      </c>
+      <c r="M5" s="3">
+        <f>-PV($D$3,M3,0,M4)</f>
+        <v>25.991277667191454</v>
+      </c>
+      <c r="N5" s="3">
+        <f>-PV($D$3,N3,0,N4)</f>
+        <v>27.804622620716444</v>
+      </c>
+      <c r="O5" s="3">
+        <f>-PV($D$3,O3,0,O4)</f>
+        <v>29.744480012859444</v>
+      </c>
+      <c r="P5" s="3">
+        <f>-PV($D$3,P3,0,P4)</f>
+        <v>830.07851198677531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1065</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B5*B4/B6</f>
+        <v>1.5295774647887323E-2</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <f>+D4/B6-1</f>
+        <v>3.7188158221788115E-3</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6">
+        <f>D3+B7</f>
+        <v>7.8718815822178809E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/投资心得/DCF估值.xlsx
+++ b/投资心得/DCF估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15160" windowHeight="16580" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15160" windowHeight="16580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="成长股" sheetId="1" r:id="rId1"/>
@@ -19781,8 +19781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19812,83 +19812,83 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:Y2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2">
-        <f>+P2+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="R2">
-        <f>+Q2+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="S2">
-        <f>+R2+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="T2">
-        <f>+S2+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="U2">
-        <f>+T2+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="V2">
-        <f>+U2+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W2">
-        <f>+V2+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="X2">
-        <f>+W2+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y2">
-        <f>+X2+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -20003,7 +20003,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:X4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>0.24622641509433962</v>
       </c>
       <c r="F4" s="3">
@@ -20011,75 +20011,75 @@
         <v>0.23693485226059094</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>0.22799391443943653</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>0.21939037049832574</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>0.21111148859272852</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>0.20314501732507839</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>0.19547916761469805</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>0.18810259525187928</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>0.18100438411029895</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>0.17417402999292916</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>0.16760142508753559</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>0.16127684300876066</v>
       </c>
       <c r="Q4" s="3">
-        <f>-PV($D$2,Q2,0,Q3)</f>
+        <f t="shared" si="1"/>
         <v>0.15519092440465648</v>
       </c>
       <c r="R4" s="3">
-        <f>-PV($D$2,R2,0,R3)</f>
+        <f t="shared" si="1"/>
         <v>0.14933466310636756</v>
       </c>
       <c r="S4" s="3">
-        <f>-PV($D$2,S2,0,S3)</f>
+        <f t="shared" si="1"/>
         <v>0.14369939280046684</v>
       </c>
       <c r="T4" s="3">
-        <f>-PV($D$2,T2,0,T3)</f>
+        <f t="shared" si="1"/>
         <v>0.13827677420422285</v>
       </c>
       <c r="U4" s="3">
-        <f>-PV($D$2,U2,0,U3)</f>
+        <f t="shared" si="1"/>
         <v>0.13305878272481819</v>
       </c>
       <c r="V4" s="3">
-        <f>-PV($D$2,V2,0,V3)</f>
+        <f t="shared" si="1"/>
         <v>0.12803769658425904</v>
       </c>
       <c r="W4" s="3">
-        <f>-PV($D$2,W2,0,W3)</f>
+        <f t="shared" si="1"/>
         <v>0.12320608539240019</v>
       </c>
       <c r="X4" s="3">
-        <f>-PV($D$2,X2,0,X3)</f>
+        <f t="shared" si="1"/>
         <v>0.11855679915117755</v>
       </c>
       <c r="Y4" s="3">
@@ -20190,47 +20190,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -20314,51 +20314,51 @@
         <v>1.45</v>
       </c>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>0.32716606498194944</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>0.33366214208447903</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>0.34028720266738383</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>0.34704380777449784</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>0.35393456930070627</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>0.36096215100162271</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>0.36812926952331554</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>0.37543869545247865</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>0.38289325438745558</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>0.39049582803052768</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>0.39824935530189193</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>8.6263398260337585</v>
       </c>
       <c r="Q13" s="3"/>
@@ -20431,47 +20431,47 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>+E20+1</f>
+        <f t="shared" ref="F20:P20" si="4">+E20+1</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>+F20+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20">
-        <f>+G20+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>+H20+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f>+I20+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K20">
-        <f>+J20+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L20">
-        <f>+K20+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M20">
-        <f>+L20+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N20">
-        <f>+M20+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f>+N20+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P20">
-        <f>+O20+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -20555,51 +20555,51 @@
         <v>3.58</v>
       </c>
       <c r="E22" s="3">
-        <f>-PV($D$20,E20,0,E21)</f>
+        <f t="shared" ref="E22:P22" si="5">-PV($D$20,E20,0,E21)</f>
         <v>0.80630630630630629</v>
       </c>
       <c r="F22" s="3">
-        <f>-PV($D$20,F20,0,F21)</f>
+        <f t="shared" si="5"/>
         <v>0.82083434786137477</v>
       </c>
       <c r="G22" s="3">
-        <f>-PV($D$20,G20,0,G21)</f>
+        <f t="shared" si="5"/>
         <v>0.83562415593094896</v>
       </c>
       <c r="H22" s="3">
-        <f>-PV($D$20,H20,0,H21)</f>
+        <f t="shared" si="5"/>
         <v>0.85068044702880363</v>
       </c>
       <c r="I22" s="3">
-        <f>-PV($D$20,I20,0,I21)</f>
+        <f t="shared" si="5"/>
         <v>0.86600802265094412</v>
       </c>
       <c r="J22" s="3">
-        <f>-PV($D$20,J20,0,J21)</f>
+        <f t="shared" si="5"/>
         <v>0.88161177080681685</v>
       </c>
       <c r="K22" s="3">
-        <f>-PV($D$20,K20,0,K21)</f>
+        <f t="shared" si="5"/>
         <v>0.89749666757811075</v>
       </c>
       <c r="L22" s="3">
-        <f>-PV($D$20,L20,0,L21)</f>
+        <f t="shared" si="5"/>
         <v>0.91366777870564408</v>
       </c>
       <c r="M22" s="3">
-        <f>-PV($D$20,M20,0,M21)</f>
+        <f t="shared" si="5"/>
         <v>0.93013026120484477</v>
       </c>
       <c r="N22" s="3">
-        <f>-PV($D$20,N20,0,N21)</f>
+        <f t="shared" si="5"/>
         <v>0.94688936501033716</v>
       </c>
       <c r="O22" s="3">
-        <f>-PV($D$20,O20,0,O21)</f>
+        <f t="shared" si="5"/>
         <v>0.96395043465016295</v>
       </c>
       <c r="P22" s="3">
-        <f>-PV($D$20,P20,0,P21)</f>
+        <f t="shared" si="5"/>
         <v>20.842171560003521</v>
       </c>
       <c r="Q22" s="3"/>
@@ -20672,47 +20672,47 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>+E29+1</f>
+        <f t="shared" ref="F29:P29" si="6">+E29+1</f>
         <v>2</v>
       </c>
       <c r="G29">
-        <f>+F29+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H29">
-        <f>+G29+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I29">
-        <f>+H29+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J29">
-        <f>+I29+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K29">
-        <f>+J29+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L29">
-        <f>+K29+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M29">
-        <f>+L29+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N29">
-        <f>+M29+1</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="O29">
-        <f>+N29+1</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P29">
-        <f>+O29+1</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -20796,51 +20796,51 @@
         <v>0.71</v>
       </c>
       <c r="E31" s="3">
-        <f>-PV($D$29,E29,0,E30)</f>
+        <f t="shared" ref="E31:P31" si="7">-PV($D$29,E29,0,E30)</f>
         <v>0.15157984628522628</v>
       </c>
       <c r="F31" s="3">
-        <f>-PV($D$29,F29,0,F30)</f>
+        <f t="shared" si="7"/>
         <v>0.14627260999342928</v>
       </c>
       <c r="G31" s="3">
-        <f>-PV($D$29,G29,0,G30)</f>
+        <f t="shared" si="7"/>
         <v>0.14115119495523062</v>
       </c>
       <c r="H31" s="3">
-        <f>-PV($D$29,H29,0,H30)</f>
+        <f t="shared" si="7"/>
         <v>0.13620909504646503</v>
       </c>
       <c r="I31" s="3">
-        <f>-PV($D$29,I29,0,I30)</f>
+        <f t="shared" si="7"/>
         <v>0.13144003194065371</v>
       </c>
       <c r="J31" s="3">
-        <f>-PV($D$29,J29,0,J30)</f>
+        <f t="shared" si="7"/>
         <v>0.12683794713316707</v>
       </c>
       <c r="K31" s="3">
-        <f>-PV($D$29,K29,0,K30)</f>
+        <f t="shared" si="7"/>
         <v>0.12239699424464455</v>
       </c>
       <c r="L31" s="3">
-        <f>-PV($D$29,L29,0,L30)</f>
+        <f t="shared" si="7"/>
         <v>0.11811153159389266</v>
       </c>
       <c r="M31" s="3">
-        <f>-PV($D$29,M29,0,M30)</f>
+        <f t="shared" si="7"/>
         <v>0.11397611503082723</v>
       </c>
       <c r="N31" s="3">
-        <f>-PV($D$29,N29,0,N30)</f>
+        <f t="shared" si="7"/>
         <v>0.1099854910203542</v>
       </c>
       <c r="O31" s="3">
-        <f>-PV($D$29,O29,0,O30)</f>
+        <f t="shared" si="7"/>
         <v>0.10613458996840326</v>
       </c>
       <c r="P31" s="3">
-        <f>-PV($D$29,P29,0,P30)</f>
+        <f t="shared" si="7"/>
         <v>2.1752605971320902</v>
       </c>
       <c r="Q31" s="3"/>
@@ -20929,47 +20929,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -21052,51 +21052,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>0.66233766233766245</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>0.67821788601009392</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>0.69447885430604039</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>0.71112969596772369</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>0.72817975860830841</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>0.74563861395955677</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>0.76351606324530041</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>0.78182214268374917</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>0.80056712912172101</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>0.81976154580396021</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>0.83941616828077859</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>8.3857759069008857</v>
       </c>
     </row>
@@ -21200,47 +21200,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q11" s="1"/>
@@ -21323,51 +21323,51 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>0.79120879120879128</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>0.8694602101195511</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>0.95545078035115538</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>1.0499459124737971</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>1.1537867170041729</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>1.2678974912133774</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>1.3932939463883272</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>1.5310922487783816</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>1.6825189547015185</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>1.8489219282434273</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>2.0317823387290419</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>40.595051722857981</v>
       </c>
     </row>
@@ -21471,47 +21471,47 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>+E20+1</f>
+        <f t="shared" ref="F20:P20" si="4">+E20+1</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>+F20+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20">
-        <f>+G20+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>+H20+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f>+I20+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K20">
-        <f>+J20+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L20">
-        <f>+K20+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M20">
-        <f>+L20+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N20">
-        <f>+M20+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f>+N20+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P20">
-        <f>+O20+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Q20" s="1"/>
@@ -21594,51 +21594,51 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="3">
-        <f>-PV($D$20,E20,0,E21)</f>
+        <f t="shared" ref="E22:P22" si="5">-PV($D$20,E20,0,E21)</f>
         <v>0.23756957328385897</v>
       </c>
       <c r="F22" s="3">
-        <f>-PV($D$20,F20,0,F21)</f>
+        <f t="shared" si="5"/>
         <v>0.26445592573342369</v>
       </c>
       <c r="G22" s="3">
-        <f>-PV($D$20,G20,0,G21)</f>
+        <f t="shared" si="5"/>
         <v>0.29438507502792988</v>
       </c>
       <c r="H22" s="3">
-        <f>-PV($D$20,H20,0,H21)</f>
+        <f t="shared" si="5"/>
         <v>0.32770138222033007</v>
       </c>
       <c r="I22" s="3">
-        <f>-PV($D$20,I20,0,I21)</f>
+        <f t="shared" si="5"/>
         <v>0.36478818057921714</v>
       </c>
       <c r="J22" s="3">
-        <f>-PV($D$20,J20,0,J21)</f>
+        <f t="shared" si="5"/>
         <v>0.40607218617352547</v>
       </c>
       <c r="K22" s="3">
-        <f>-PV($D$20,K20,0,K21)</f>
+        <f t="shared" si="5"/>
         <v>0.45202840761431401</v>
       </c>
       <c r="L22" s="3">
-        <f>-PV($D$20,L20,0,L21)</f>
+        <f t="shared" si="5"/>
         <v>0.50318561144450535</v>
       </c>
       <c r="M22" s="3">
-        <f>-PV($D$20,M20,0,M21)</f>
+        <f t="shared" si="5"/>
         <v>0.56013240606067372</v>
       </c>
       <c r="N22" s="3">
-        <f>-PV($D$20,N20,0,N21)</f>
+        <f t="shared" si="5"/>
         <v>0.62352401416772574</v>
       </c>
       <c r="O22" s="3">
-        <f>-PV($D$20,O20,0,O21)</f>
+        <f t="shared" si="5"/>
         <v>0.69408981168949058</v>
       </c>
       <c r="P22" s="3">
-        <f>-PV($D$20,P20,0,P21)</f>
+        <f t="shared" si="5"/>
         <v>30.905668795079361</v>
       </c>
     </row>
@@ -21742,47 +21742,47 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>+E29+1</f>
+        <f t="shared" ref="F29:P29" si="6">+E29+1</f>
         <v>2</v>
       </c>
       <c r="G29">
-        <f>+F29+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H29">
-        <f>+G29+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I29">
-        <f>+H29+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J29">
-        <f>+I29+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K29">
-        <f>+J29+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L29">
-        <f>+K29+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M29">
-        <f>+L29+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N29">
-        <f>+M29+1</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="O29">
-        <f>+N29+1</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P29">
-        <f>+O29+1</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q29" s="1"/>
@@ -22029,47 +22029,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -22152,51 +22152,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>1.6251121076233181</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>1.7198495847493411</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>1.8201098744432489</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>1.9262149343883708</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>2.0385054911015938</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>2.15734213408061</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>2.2831064737355335</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>2.4162023668232551</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>2.5570572133196778</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>2.7061233288943676</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>2.8638793973949359</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>25.685017016994937</v>
       </c>
     </row>
@@ -22300,47 +22300,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q11" s="1"/>
@@ -22423,51 +22423,51 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>8.9552238805970144E-2</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>0.1002450434395188</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>0.11221460086513299</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>0.12561335917738764</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>0.14061196922841901</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>0.15740145809151379</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>0.17619566204273931</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>0.19723395004784244</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>0.22078427244161464</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>0.24714657362867304</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>0.27665661227090266</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>2.5807519801390173</v>
       </c>
     </row>
@@ -22587,47 +22587,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -22710,51 +22710,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>2.1220657276995305</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>2.1918049769666514</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>2.2638361264444291</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>2.338234496797063</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>2.4150778840157461</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>2.4944466407674377</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>2.5764237604170721</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>2.6610949638110606</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>2.7485487889128333</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>2.8388766833841474</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>2.9321731002089795</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>33.03857014319977</v>
       </c>
     </row>
@@ -22858,47 +22858,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q11" s="1"/>
@@ -22981,51 +22981,51 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>1.2790917691579944</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>1.3674301789484709</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>1.4618695385163407</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>1.5628312001168068</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>1.6707656160189135</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>1.7861543482510616</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>1.9095122171463572</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>2.0413895982737778</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>2.1823748780031873</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>2.3330970786599821</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>2.4942286649818159</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>35.395865633611386</v>
       </c>
     </row>
@@ -23129,47 +23129,47 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>+E20+1</f>
+        <f t="shared" ref="F20:P20" si="4">+E20+1</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>+F20+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20">
-        <f>+G20+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>+H20+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f>+I20+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K20">
-        <f>+J20+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L20">
-        <f>+K20+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M20">
-        <f>+L20+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N20">
-        <f>+M20+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f>+N20+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P20">
-        <f>+O20+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Q20" s="1"/>
@@ -23252,51 +23252,51 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="3">
-        <f>-PV($D$20,E20,0,E21)</f>
+        <f t="shared" ref="E22:P22" si="5">-PV($D$20,E20,0,E21)</f>
         <v>1.2075289575289574</v>
       </c>
       <c r="F22" s="3">
-        <f>-PV($D$20,F20,0,F21)</f>
+        <f t="shared" si="5"/>
         <v>1.3753708203515151</v>
       </c>
       <c r="G22" s="3">
-        <f>-PV($D$20,G20,0,G21)</f>
+        <f t="shared" si="5"/>
         <v>1.5665420540683279</v>
       </c>
       <c r="H22" s="3">
-        <f>-PV($D$20,H20,0,H21)</f>
+        <f t="shared" si="5"/>
         <v>1.7842853511589063</v>
       </c>
       <c r="I22" s="3">
-        <f>-PV($D$20,I20,0,I21)</f>
+        <f t="shared" si="5"/>
         <v>2.0322941258373639</v>
       </c>
       <c r="J22" s="3">
-        <f>-PV($D$20,J20,0,J21)</f>
+        <f t="shared" si="5"/>
         <v>2.3147751626332913</v>
       </c>
       <c r="K22" s="3">
-        <f>-PV($D$20,K20,0,K21)</f>
+        <f t="shared" si="5"/>
         <v>2.6365199728834785</v>
       </c>
       <c r="L22" s="3">
-        <f>-PV($D$20,L20,0,L21)</f>
+        <f t="shared" si="5"/>
         <v>3.0029860695004866</v>
       </c>
       <c r="M22" s="3">
-        <f>-PV($D$20,M20,0,M21)</f>
+        <f t="shared" si="5"/>
         <v>3.420389538620245</v>
       </c>
       <c r="N22" s="3">
-        <f>-PV($D$20,N20,0,N21)</f>
+        <f t="shared" si="5"/>
         <v>3.8958104783512448</v>
       </c>
       <c r="O22" s="3">
-        <f>-PV($D$20,O20,0,O21)</f>
+        <f t="shared" si="5"/>
         <v>4.4373130931027687</v>
       </c>
       <c r="P22" s="3">
-        <f>-PV($D$20,P20,0,P21)</f>
+        <f t="shared" si="5"/>
         <v>85.662414924763866</v>
       </c>
     </row>
@@ -23416,47 +23416,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -23539,51 +23539,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>1.0124463519313305</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>1.0254821418703604</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>1.0386857745983049</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>1.0520594111811155</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>1.0656052405096275</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>1.07932547965782</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>1.0932223742456888</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>1.107298198806792</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>1.1215552571605274</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>1.1359958827892036</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>1.1506224392199658</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>17.777857430008055</v>
       </c>
     </row>
@@ -23687,47 +23687,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q11" s="1"/>
@@ -23810,51 +23810,51 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>0.48186528497409337</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>0.49101989315149408</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>0.50034842307319771</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>0.50985417895196317</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>0.5195405277748848</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>0.52941090049599659</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>0.53946879325153374</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>0.54971776859828136</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>0.56016145677545082</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>0.57080355699052854</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>0.58164783872955406</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>10.045731238852403</v>
       </c>
     </row>
@@ -23974,47 +23974,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -24097,51 +24097,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>0.35583413693346194</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>0.37745183281273692</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>0.40038285062103246</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>0.42470697751507791</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>0.45050884789448964</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>0.47787823788229383</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>0.5069103776957794</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>0.5377062829945588</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>0.57037310635874139</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>0.60502451012016945</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>0.64178106184395989</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>12.37764825157107</v>
       </c>
     </row>
@@ -24245,47 +24245,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -24369,51 +24369,51 @@
         <v>6.21</v>
       </c>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>1.8264705882352941</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352943</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352943</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352943</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352941</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>1.8264705882352947</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>35.813148788927343</v>
       </c>
       <c r="Q13" s="3"/>
@@ -24485,47 +24485,47 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>+E20+1</f>
+        <f t="shared" ref="F20:P20" si="4">+E20+1</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>+F20+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20">
-        <f>+G20+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>+H20+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f>+I20+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K20">
-        <f>+J20+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L20">
-        <f>+K20+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M20">
-        <f>+L20+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N20">
-        <f>+M20+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f>+N20+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P20">
-        <f>+O20+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Q20" s="1"/>
@@ -24608,51 +24608,51 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="3">
-        <f>-PV($D$20,E20,0,E21)</f>
+        <f t="shared" ref="E22:P22" si="5">-PV($D$20,E20,0,E21)</f>
         <v>0.47013487475915217</v>
       </c>
       <c r="F22" s="3">
-        <f>-PV($D$20,F20,0,F21)</f>
+        <f t="shared" si="5"/>
         <v>0.48462843544536888</v>
       </c>
       <c r="G22" s="3">
-        <f>-PV($D$20,G20,0,G21)</f>
+        <f t="shared" si="5"/>
         <v>0.49956881110457102</v>
       </c>
       <c r="H22" s="3">
-        <f>-PV($D$20,H20,0,H21)</f>
+        <f t="shared" si="5"/>
         <v>0.51496977637947117</v>
       </c>
       <c r="I22" s="3">
-        <f>-PV($D$20,I20,0,I21)</f>
+        <f t="shared" si="5"/>
         <v>0.53084553056458006</v>
       </c>
       <c r="J22" s="3">
-        <f>-PV($D$20,J20,0,J21)</f>
+        <f t="shared" si="5"/>
         <v>0.5472107106975922</v>
       </c>
       <c r="K22" s="3">
-        <f>-PV($D$20,K20,0,K21)</f>
+        <f t="shared" si="5"/>
         <v>0.56408040505435808</v>
       </c>
       <c r="L22" s="3">
-        <f>-PV($D$20,L20,0,L21)</f>
+        <f t="shared" si="5"/>
         <v>0.58147016705988741</v>
       </c>
       <c r="M22" s="3">
-        <f>-PV($D$20,M20,0,M21)</f>
+        <f t="shared" si="5"/>
         <v>0.5993960296282077</v>
       </c>
       <c r="N22" s="3">
-        <f>-PV($D$20,N20,0,N21)</f>
+        <f t="shared" si="5"/>
         <v>0.61787451994429898</v>
       </c>
       <c r="O22" s="3">
-        <f>-PV($D$20,O20,0,O21)</f>
+        <f t="shared" si="5"/>
         <v>0.63692267470173392</v>
       </c>
       <c r="P22" s="3">
-        <f>-PV($D$20,P20,0,P21)</f>
+        <f t="shared" si="5"/>
         <v>9.204084894533727</v>
       </c>
     </row>
@@ -24756,47 +24756,47 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>+E29+1</f>
+        <f t="shared" ref="F29:P29" si="6">+E29+1</f>
         <v>2</v>
       </c>
       <c r="G29">
-        <f>+F29+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H29">
-        <f>+G29+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I29">
-        <f>+H29+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J29">
-        <f>+I29+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K29">
-        <f>+J29+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L29">
-        <f>+K29+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M29">
-        <f>+L29+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="N29">
-        <f>+M29+1</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="O29">
-        <f>+N29+1</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="P29">
-        <f>+O29+1</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q29" s="1"/>
@@ -24879,51 +24879,51 @@
       </c>
       <c r="C31" s="2"/>
       <c r="E31" s="3">
-        <f>-PV($D$29,E29,0,E30)</f>
+        <f t="shared" ref="E31:P31" si="7">-PV($D$29,E29,0,E30)</f>
         <v>0.17244444444444446</v>
       </c>
       <c r="F31" s="3">
-        <f>-PV($D$29,F29,0,F30)</f>
+        <f t="shared" si="7"/>
         <v>0.16861234567901237</v>
       </c>
       <c r="G31" s="3">
-        <f>-PV($D$29,G29,0,G30)</f>
+        <f t="shared" si="7"/>
         <v>0.16486540466392322</v>
       </c>
       <c r="H31" s="3">
-        <f>-PV($D$29,H29,0,H30)</f>
+        <f t="shared" si="7"/>
         <v>0.16120172900472496</v>
       </c>
       <c r="I31" s="3">
-        <f>-PV($D$29,I29,0,I30)</f>
+        <f t="shared" si="7"/>
         <v>0.15761946836017554</v>
       </c>
       <c r="J31" s="3">
-        <f>-PV($D$29,J29,0,J30)</f>
+        <f t="shared" si="7"/>
         <v>0.15411681350772721</v>
       </c>
       <c r="K31" s="3">
-        <f>-PV($D$29,K29,0,K30)</f>
+        <f t="shared" si="7"/>
         <v>0.15069199542977774</v>
       </c>
       <c r="L31" s="3">
-        <f>-PV($D$29,L29,0,L30)</f>
+        <f t="shared" si="7"/>
         <v>0.14734328442022712</v>
       </c>
       <c r="M31" s="3">
-        <f>-PV($D$29,M29,0,M30)</f>
+        <f t="shared" si="7"/>
         <v>0.14406898921088876</v>
       </c>
       <c r="N31" s="3">
-        <f>-PV($D$29,N29,0,N30)</f>
+        <f t="shared" si="7"/>
         <v>0.14086745611731347</v>
       </c>
       <c r="O31" s="3">
-        <f>-PV($D$29,O29,0,O30)</f>
+        <f t="shared" si="7"/>
         <v>0.13773706820359541</v>
       </c>
       <c r="P31" s="3">
-        <f>-PV($D$29,P29,0,P30)</f>
+        <f t="shared" si="7"/>
         <v>3.6729884854292107</v>
       </c>
     </row>
@@ -25027,47 +25027,47 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f>+E38+1</f>
+        <f t="shared" ref="F38:P38" si="8">+E38+1</f>
         <v>2</v>
       </c>
       <c r="G38">
-        <f>+F38+1</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H38">
-        <f>+G38+1</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I38">
-        <f>+H38+1</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J38">
-        <f>+I38+1</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K38">
-        <f>+J38+1</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="L38">
-        <f>+K38+1</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="M38">
-        <f>+L38+1</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N38">
-        <f>+M38+1</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="O38">
-        <f>+N38+1</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="P38">
-        <f>+O38+1</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="Q38" s="1"/>
@@ -25150,51 +25150,51 @@
       </c>
       <c r="C40" s="2"/>
       <c r="E40" s="3">
-        <f>-PV($D$38,E38,0,E39)</f>
+        <f t="shared" ref="E40:P40" si="9">-PV($D$38,E38,0,E39)</f>
         <v>0.22624434389140272</v>
       </c>
       <c r="F40" s="3">
-        <f>-PV($D$38,F38,0,F39)</f>
+        <f t="shared" si="9"/>
         <v>0.22522061382854569</v>
       </c>
       <c r="G40" s="3">
-        <f>-PV($D$38,G38,0,G39)</f>
+        <f t="shared" si="9"/>
         <v>0.22420151602841656</v>
       </c>
       <c r="H40" s="3">
-        <f>-PV($D$38,H38,0,H39)</f>
+        <f t="shared" si="9"/>
         <v>0.22318702953055042</v>
       </c>
       <c r="I40" s="3">
-        <f>-PV($D$38,I38,0,I39)</f>
+        <f t="shared" si="9"/>
         <v>0.22217713346932624</v>
       </c>
       <c r="J40" s="3">
-        <f>-PV($D$38,J38,0,J39)</f>
+        <f t="shared" si="9"/>
         <v>0.22117180707353745</v>
       </c>
       <c r="K40" s="3">
-        <f>-PV($D$38,K38,0,K39)</f>
+        <f t="shared" si="9"/>
         <v>0.22017102966596488</v>
       </c>
       <c r="L40" s="3">
-        <f>-PV($D$38,L38,0,L39)</f>
+        <f t="shared" si="9"/>
         <v>0.21917478066295151</v>
       </c>
       <c r="M40" s="3">
-        <f>-PV($D$38,M38,0,M39)</f>
+        <f t="shared" si="9"/>
         <v>0.21818303957397892</v>
       </c>
       <c r="N40" s="3">
-        <f>-PV($D$38,N38,0,N39)</f>
+        <f t="shared" si="9"/>
         <v>0.21719578600124595</v>
       </c>
       <c r="O40" s="3">
-        <f>-PV($D$38,O38,0,O39)</f>
+        <f t="shared" si="9"/>
         <v>0.21621299963924942</v>
       </c>
       <c r="P40" s="3">
-        <f>-PV($D$38,P38,0,P39)</f>
+        <f t="shared" si="9"/>
         <v>5.8700361893008886</v>
       </c>
     </row>
@@ -25283,7 +25283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD36"/>
     </sheetView>
   </sheetViews>
@@ -26143,47 +26143,47 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>+E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">+E2+1</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>+F2+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H2">
-        <f>+G2+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I2">
-        <f>+H2+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>+I2+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f>+J2+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L2">
-        <f>+K2+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M2">
-        <f>+L2+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N2">
-        <f>+M2+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O2">
-        <f>+N2+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P2">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="1"/>
@@ -26266,51 +26266,51 @@
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3">
-        <f>-PV($D$2,E2,0,E3)</f>
+        <f t="shared" ref="E4:P4" si="1">-PV($D$2,E2,0,E3)</f>
         <v>0.65116279069767447</v>
       </c>
       <c r="F4" s="3">
-        <f>-PV($D$2,F2,0,F3)</f>
+        <f t="shared" si="1"/>
         <v>0.69892249448766486</v>
       </c>
       <c r="G4" s="3">
-        <f>-PV($D$2,G2,0,G3)</f>
+        <f t="shared" si="1"/>
         <v>0.75018514614060638</v>
       </c>
       <c r="H4" s="3">
-        <f>-PV($D$2,H2,0,H3)</f>
+        <f t="shared" si="1"/>
         <v>0.80520767027614282</v>
       </c>
       <c r="I4" s="3">
-        <f>-PV($D$2,I2,0,I3)</f>
+        <f t="shared" si="1"/>
         <v>0.86426583571679017</v>
       </c>
       <c r="J4" s="3">
-        <f>-PV($D$2,J2,0,J3)</f>
+        <f t="shared" si="1"/>
         <v>0.92765563762088388</v>
       </c>
       <c r="K4" s="3">
-        <f>-PV($D$2,K2,0,K3)</f>
+        <f t="shared" si="1"/>
         <v>0.99569478098842634</v>
       </c>
       <c r="L4" s="3">
-        <f>-PV($D$2,L2,0,L3)</f>
+        <f t="shared" si="1"/>
         <v>1.0687242729750552</v>
       </c>
       <c r="M4" s="3">
-        <f>-PV($D$2,M2,0,M3)</f>
+        <f t="shared" si="1"/>
         <v>1.1471101319946926</v>
       </c>
       <c r="N4" s="3">
-        <f>-PV($D$2,N2,0,N3)</f>
+        <f t="shared" si="1"/>
         <v>1.231245222176772</v>
       </c>
       <c r="O4" s="3">
-        <f>-PV($D$2,O2,0,O3)</f>
+        <f t="shared" si="1"/>
         <v>1.3215512223722061</v>
       </c>
       <c r="P4" s="3">
-        <f>-PV($D$2,P2,0,P3)</f>
+        <f t="shared" si="1"/>
         <v>34.279951206434689</v>
       </c>
     </row>
@@ -26414,47 +26414,47 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>+E11+1</f>
+        <f t="shared" ref="F11:P11" si="2">+E11+1</f>
         <v>2</v>
       </c>
       <c r="G11">
-        <f>+F11+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>+G11+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I11">
-        <f>+H11+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>+I11+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K11">
-        <f>+J11+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L11">
-        <f>+K11+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M11">
-        <f>+L11+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>+M11+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O11">
-        <f>+N11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P11">
-        <f>+O11+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -26538,51 +26538,51 @@
         <v>1.88</v>
       </c>
       <c r="E13" s="3">
-        <f>-PV($D$11,E11,0,E12)</f>
+        <f t="shared" ref="E13:P13" si="3">-PV($D$11,E11,0,E12)</f>
         <v>1.0561797752808988</v>
       </c>
       <c r="F13" s="3">
-        <f>-PV($D$11,F11,0,F12)</f>
+        <f t="shared" si="3"/>
         <v>1.1669402011530527</v>
       </c>
       <c r="G13" s="3">
-        <f>-PV($D$11,G11,0,G12)</f>
+        <f t="shared" si="3"/>
         <v>1.2893159525848334</v>
       </c>
       <c r="H13" s="3">
-        <f>-PV($D$11,H11,0,H12)</f>
+        <f t="shared" si="3"/>
         <v>1.424525116151782</v>
       </c>
       <c r="I13" s="3">
-        <f>-PV($D$11,I11,0,I12)</f>
+        <f t="shared" si="3"/>
         <v>1.5739135178456019</v>
       </c>
       <c r="J13" s="3">
-        <f>-PV($D$11,J11,0,J12)</f>
+        <f t="shared" si="3"/>
         <v>1.7389681189679866</v>
       </c>
       <c r="K13" s="3">
-        <f>-PV($D$11,K11,0,K12)</f>
+        <f t="shared" si="3"/>
         <v>1.9213318168372886</v>
       </c>
       <c r="L13" s="3">
-        <f>-PV($D$11,L11,0,L12)</f>
+        <f t="shared" si="3"/>
         <v>2.1228197976292136</v>
       </c>
       <c r="M13" s="3">
-        <f>-PV($D$11,M11,0,M12)</f>
+        <f t="shared" si="3"/>
         <v>2.3454376041221647</v>
       </c>
       <c r="N13" s="3">
-        <f>-PV($D$11,N11,0,N12)</f>
+        <f t="shared" si="3"/>
         <v>2.5914010981874105</v>
       </c>
       <c r="O13" s="3">
-        <f>-PV($D$11,O11,0,O12)</f>
+        <f t="shared" si="3"/>
         <v>2.8631585167239177</v>
       </c>
       <c r="P13" s="3">
-        <f>-PV($D$11,P11,0,P12)</f>
+        <f t="shared" si="3"/>
         <v>77.744940997185026</v>
       </c>
       <c r="Q13" s="3"/>
@@ -26655,47 +26655,47 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f>+E20+1</f>
+        <f t="shared" ref="F20:P20" si="4">+E20+1</f>
         <v>2</v>
       </c>
       <c r="G20">
-        <f>+F20+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H20">
-        <f>+G20+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f>+H20+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f>+I20+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K20">
-        <f>+J20+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L20">
-        <f>+K20+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M20">
-        <f>+L20+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N20">
-        <f>+M20+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20">
-        <f>+N20+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P20">
-        <f>+O20+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -26783,15 +26783,15 @@
         <v>0.45080500894454389</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:P22" si="0">-PV($D$20,F20,0,F21)</f>
+        <f t="shared" ref="F22:P22" si="5">-PV($D$20,F20,0,F21)</f>
         <v>0.4838694192606911</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.51935894732811216</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.5574514640373297</v>
       </c>
       <c r="I22" s="3">
@@ -26799,31 +26799,31 @@
         <v>0.59833788626547013</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.64222313373753503</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.68932715606891071</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.73988603513657669</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.79415316830401794</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.85240053843007291</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.91492007702691203</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>40.917713641632915</v>
       </c>
       <c r="Q22" s="3"/>
